--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO DE IO - NUBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD4D346-9A2C-4C76-9A5F-AA826AC5B4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9AF8D-B085-4F08-84D2-EC35A7CEDD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:E876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" ref="B2">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A2)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -558,7 +560,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" ref="B3">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A3)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -577,7 +581,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="str" cm="1">
         <f t="array" ref="B4">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A4)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -596,7 +602,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" ref="B5">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A5)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -615,7 +623,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A6)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -634,7 +644,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A7)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -653,7 +665,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" ref="B8">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A8)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -672,7 +686,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
       <c r="B9" s="1" t="str" cm="1">
         <f t="array" ref="B9">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A9)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -691,7 +707,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" ref="B10">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A10)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -710,7 +728,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A11)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -729,7 +749,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A12)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -748,7 +770,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
       <c r="B13" s="1" t="str" cm="1">
         <f t="array" ref="B13">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A13)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -767,7 +791,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" ref="B14">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A14)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -786,7 +812,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
       <c r="B15" s="1" t="str" cm="1">
         <f t="array" ref="B15">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A15)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -805,7 +833,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A16)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -824,7 +854,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A17)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -843,7 +875,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A18)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -862,7 +896,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A19)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -881,7 +917,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
       <c r="B20" s="1" t="str" cm="1">
         <f t="array" ref="B20">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A20)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -900,7 +938,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" ref="B21">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A21)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -919,7 +959,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" ref="B22">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A22)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -938,7 +980,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" ref="B23">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A23)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -957,7 +1001,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A24)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -976,7 +1022,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" ref="B25">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A25)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -995,7 +1043,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
       <c r="B26" s="1" t="str" cm="1">
         <f t="array" ref="B26">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A26)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1014,7 +1064,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
       <c r="B27" s="1" t="str" cm="1">
         <f t="array" ref="B27">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A27)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1033,7 +1085,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
       <c r="B28" s="1" t="str" cm="1">
         <f t="array" ref="B28">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A28)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1052,7 +1106,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
       <c r="B29" s="1" t="str" cm="1">
         <f t="array" ref="B29">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A29)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1071,7 +1127,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" ref="B30">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A30)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1090,7 +1148,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1109,7 +1169,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
       <c r="B32" s="1" t="str" cm="1">
         <f t="array" ref="B32">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A32)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1128,7 +1190,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
       <c r="B33" s="1" t="str" cm="1">
         <f t="array" ref="B33">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A33)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1147,7 +1211,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
       <c r="B34" s="1" t="str" cm="1">
         <f t="array" ref="B34">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A34)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1166,7 +1232,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
       <c r="B35" s="1" t="str" cm="1">
         <f t="array" ref="B35">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A35)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1185,7 +1253,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
       <c r="B36" s="1" t="str" cm="1">
         <f t="array" ref="B36">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A36)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1204,7 +1274,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
       <c r="B37" s="1" t="str" cm="1">
         <f t="array" ref="B37">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A37)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1223,7 +1295,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" ref="B38">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A38)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1242,7 +1316,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
       <c r="B39" s="1" t="str" cm="1">
         <f t="array" ref="B39">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A39)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1261,7 +1337,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
       <c r="B40" s="1" t="str" cm="1">
         <f t="array" ref="B40">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A40)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1280,7 +1358,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
       <c r="B41" s="1" t="str" cm="1">
         <f t="array" ref="B41">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A41)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1299,7 +1379,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
       <c r="B42" s="1" t="str" cm="1">
         <f t="array" ref="B42">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A42)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1318,7 +1400,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
       <c r="B43" s="1" t="str" cm="1">
         <f t="array" ref="B43">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A43)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1337,7 +1421,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
       <c r="B44" s="1" t="str" cm="1">
         <f t="array" ref="B44">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A44)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1356,7 +1442,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A45)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1375,7 +1463,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A46)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1394,7 +1484,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
       <c r="B47" s="1" t="str" cm="1">
         <f t="array" ref="B47">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A47)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1413,7 +1505,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
       <c r="B48" s="1" t="str" cm="1">
         <f t="array" ref="B48">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A48)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1432,7 +1526,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
       <c r="B49" s="1" t="str" cm="1">
         <f t="array" ref="B49">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A49)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1451,7 +1547,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
       <c r="B50" s="1" t="str" cm="1">
         <f t="array" ref="B50">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A50)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1470,7 +1568,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1489,7 +1589,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
       <c r="B52" s="1" t="str" cm="1">
         <f t="array" ref="B52">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A52)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1508,7 +1610,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" ref="B53">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A53)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1527,7 +1631,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
       <c r="B54" s="1" t="str" cm="1">
         <f t="array" ref="B54">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A54)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1546,7 +1652,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
       <c r="B55" s="1" t="str" cm="1">
         <f t="array" ref="B55">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A55)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1565,7 +1673,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
       <c r="B56" s="1" t="str" cm="1">
         <f t="array" ref="B56">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A56)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1584,7 +1694,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
       <c r="B57" s="1" t="str" cm="1">
         <f t="array" ref="B57">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A57)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1603,7 +1715,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
       <c r="B58" s="1" t="str" cm="1">
         <f t="array" ref="B58">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A58)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1622,7 +1736,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
       <c r="B59" s="1" t="str" cm="1">
         <f t="array" ref="B59">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A59)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1641,7 +1757,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" ref="B60">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A60)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1660,7 +1778,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
       <c r="B61" s="1" t="str" cm="1">
         <f t="array" ref="B61">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A61)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1679,7 +1799,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
       <c r="B62" s="1" t="str" cm="1">
         <f t="array" ref="B62">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A62)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1698,7 +1820,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
       <c r="B63" s="1" t="str" cm="1">
         <f t="array" ref="B63">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A63)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1717,7 +1841,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
       <c r="B64" s="1" t="str" cm="1">
         <f t="array" ref="B64">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A64)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1736,7 +1862,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
       <c r="B65" s="1" t="str" cm="1">
         <f t="array" ref="B65">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A65)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1755,7 +1883,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
       <c r="B66" s="1" t="str" cm="1">
         <f t="array" ref="B66">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A66)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1774,7 +1904,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
       <c r="B67" s="1" t="str" cm="1">
         <f t="array" ref="B67">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A67)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1793,7 +1925,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
       <c r="B68" s="1" t="str" cm="1">
         <f t="array" ref="B68">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A68)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1812,7 +1946,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
       <c r="B69" s="1" t="str" cm="1">
         <f t="array" ref="B69">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A69)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1831,7 +1967,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
       <c r="B70" s="1" t="str" cm="1">
         <f t="array" ref="B70">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A70)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1850,7 +1988,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
       <c r="B71" s="1" t="str" cm="1">
         <f t="array" ref="B71">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A71)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1869,7 +2009,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
       <c r="B72" s="1" t="str" cm="1">
         <f t="array" ref="B72">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A72)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1888,7 +2030,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
       <c r="B73" s="1" t="str" cm="1">
         <f t="array" ref="B73">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A73)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1907,7 +2051,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
       <c r="B74" s="1" t="str" cm="1">
         <f t="array" ref="B74">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A74)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1926,7 +2072,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
       <c r="B75" s="1" t="str" cm="1">
         <f t="array" ref="B75">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A75)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1945,7 +2093,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
       <c r="B76" s="1" t="str" cm="1">
         <f t="array" ref="B76">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A76)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1964,7 +2114,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
       <c r="B77" s="1" t="str" cm="1">
         <f t="array" ref="B77">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A77)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1983,7 +2135,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
       <c r="B78" s="1" t="str" cm="1">
         <f t="array" ref="B78">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A78)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2002,7 +2156,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2021,7 +2177,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
       <c r="B80" s="1" t="str" cm="1">
         <f t="array" ref="B80">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A80)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2040,7 +2198,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
       <c r="B81" s="1" t="str" cm="1">
         <f t="array" ref="B81">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A81)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2059,7 +2219,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
       <c r="B82" s="1" t="str" cm="1">
         <f t="array" ref="B82">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A82)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2078,7 +2240,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
       <c r="B83" s="1" t="str" cm="1">
         <f t="array" ref="B83">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A83)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2097,7 +2261,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A84)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2116,7 +2282,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
       <c r="B85" s="1" t="str" cm="1">
         <f t="array" ref="B85">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A85)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2135,7 +2303,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
       <c r="B86" s="1" t="str" cm="1">
         <f t="array" ref="B86">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A86)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2154,7 +2324,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
       <c r="B87" s="1" t="str" cm="1">
         <f t="array" ref="B87">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A87)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2173,7 +2345,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
       <c r="B88" s="1" t="str" cm="1">
         <f t="array" ref="B88">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A88)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2192,7 +2366,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
       <c r="B89" s="1" t="str" cm="1">
         <f t="array" ref="B89">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A89)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2211,7 +2387,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
       <c r="B90" s="1" t="str" cm="1">
         <f t="array" ref="B90">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A90)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2230,7 +2408,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
       <c r="B91" s="1" t="str" cm="1">
         <f t="array" ref="B91">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A91)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2249,7 +2429,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
       <c r="B92" s="1" t="str" cm="1">
         <f t="array" ref="B92">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A92)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2268,7 +2450,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
       <c r="B93" s="1" t="str" cm="1">
         <f t="array" ref="B93">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A93)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2287,7 +2471,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
       <c r="B94" s="1" t="str" cm="1">
         <f t="array" ref="B94">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A94)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2306,7 +2492,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
       <c r="B95" s="1" t="str" cm="1">
         <f t="array" ref="B95">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A95)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2325,7 +2513,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
       <c r="B96" s="1" t="str" cm="1">
         <f t="array" ref="B96">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A96)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2344,7 +2534,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
       <c r="B97" s="1" t="str" cm="1">
         <f t="array" ref="B97">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A97)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2363,7 +2555,9 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
       <c r="B98" s="1" t="str" cm="1">
         <f t="array" ref="B98">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A98)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2382,7 +2576,9 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
       <c r="B99" s="1" t="str" cm="1">
         <f t="array" ref="B99">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A99)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2401,7 +2597,9 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
       <c r="B100" s="1" t="str" cm="1">
         <f t="array" ref="B100">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A100)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2420,7 +2618,9 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
       <c r="B101" s="1" t="str" cm="1">
         <f t="array" ref="B101">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A101)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2439,7 +2639,9 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
       <c r="B102" s="1" t="str" cm="1">
         <f t="array" ref="B102">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A102)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2458,7 +2660,9 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
       <c r="B103" s="1" t="str" cm="1">
         <f t="array" ref="B103">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A103)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2477,7 +2681,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
       <c r="B104" s="1" t="str" cm="1">
         <f t="array" ref="B104">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A104)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2496,7 +2702,9 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
       <c r="B105" s="1" t="str" cm="1">
         <f t="array" ref="B105">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A105)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2515,7 +2723,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
       <c r="B106" s="1" t="str" cm="1">
         <f t="array" ref="B106">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A106)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2534,7 +2744,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
       <c r="B107" s="1" t="str" cm="1">
         <f t="array" ref="B107">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A107)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2553,7 +2765,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
       <c r="B108" s="1" t="str" cm="1">
         <f t="array" ref="B108">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A108)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2572,7 +2786,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>0</v>
+      </c>
       <c r="B109" s="1" t="str" cm="1">
         <f t="array" ref="B109">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A109)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2591,7 +2807,9 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
       <c r="B110" s="1" t="str" cm="1">
         <f t="array" ref="B110">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A110)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2610,7 +2828,9 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>0</v>
+      </c>
       <c r="B111" s="1" t="str" cm="1">
         <f t="array" ref="B111">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A111)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2629,7 +2849,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
       <c r="B112" s="1" t="str" cm="1">
         <f t="array" ref="B112">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A112)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2648,7 +2870,9 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
       <c r="B113" s="1" t="str" cm="1">
         <f t="array" ref="B113">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A113)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2667,7 +2891,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
       <c r="B114" s="1" t="str" cm="1">
         <f t="array" ref="B114">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A114)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2686,7 +2912,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>0</v>
+      </c>
       <c r="B115" s="1" t="str" cm="1">
         <f t="array" ref="B115">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A115)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2705,7 +2933,9 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>0</v>
+      </c>
       <c r="B116" s="1" t="str" cm="1">
         <f t="array" ref="B116">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A116)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2724,7 +2954,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>0</v>
+      </c>
       <c r="B117" s="1" t="str" cm="1">
         <f t="array" ref="B117">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A117)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2743,7 +2975,9 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>0</v>
+      </c>
       <c r="B118" s="1" t="str" cm="1">
         <f t="array" ref="B118">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A118)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2762,7 +2996,9 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>0</v>
+      </c>
       <c r="B119" s="1" t="str" cm="1">
         <f t="array" ref="B119">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A119)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2781,7 +3017,9 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
       <c r="B120" s="1" t="str" cm="1">
         <f t="array" ref="B120">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A120)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2800,7 +3038,9 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
       <c r="B121" s="1" t="str" cm="1">
         <f t="array" ref="B121">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A121)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2819,7 +3059,9 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
       <c r="B122" s="1" t="str" cm="1">
         <f t="array" ref="B122">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A122)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2838,7 +3080,9 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>0</v>
+      </c>
       <c r="B123" s="1" t="str" cm="1">
         <f t="array" ref="B123">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A123)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2857,7 +3101,9 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>0</v>
+      </c>
       <c r="B124" s="1" t="str" cm="1">
         <f t="array" ref="B124">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A124)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2876,7 +3122,9 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>0</v>
+      </c>
       <c r="B125" s="1" t="str" cm="1">
         <f t="array" ref="B125">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A125)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2895,7 +3143,9 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
       <c r="B126" s="1" t="str" cm="1">
         <f t="array" ref="B126">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A126)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2914,7 +3164,9 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>0</v>
+      </c>
       <c r="B127" s="1" t="str" cm="1">
         <f t="array" ref="B127">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A127)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2933,7 +3185,9 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
       <c r="B128" s="1" t="str" cm="1">
         <f t="array" ref="B128">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A128)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2952,7 +3206,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1">
+        <v>0</v>
+      </c>
       <c r="B129" s="1" t="str" cm="1">
         <f t="array" ref="B129">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A129)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2971,7 +3227,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
       <c r="B130" s="1" t="str" cm="1">
         <f t="array" ref="B130">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A130)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2990,7 +3248,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
       <c r="B131" s="1" t="str" cm="1">
         <f t="array" ref="B131">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A131)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3009,7 +3269,9 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
       <c r="B132" s="1" t="str" cm="1">
         <f t="array" ref="B132">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A132)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3028,7 +3290,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
       <c r="B133" s="1" t="str" cm="1">
         <f t="array" ref="B133">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A133)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3047,7 +3311,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>0</v>
+      </c>
       <c r="B134" s="1" t="str" cm="1">
         <f t="array" ref="B134">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A134)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3066,7 +3332,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
       <c r="B135" s="1" t="str" cm="1">
         <f t="array" ref="B135">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A135)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3085,7 +3353,9 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>0</v>
+      </c>
       <c r="B136" s="1" t="str" cm="1">
         <f t="array" ref="B136">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A136)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3104,7 +3374,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
       <c r="B137" s="1" t="str" cm="1">
         <f t="array" ref="B137">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A137)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3123,7 +3395,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
       <c r="B138" s="1" t="str" cm="1">
         <f t="array" ref="B138">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A138)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3142,7 +3416,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>0</v>
+      </c>
       <c r="B139" s="1" t="str" cm="1">
         <f t="array" ref="B139">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A139)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3161,7 +3437,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>0</v>
+      </c>
       <c r="B140" s="1" t="str" cm="1">
         <f t="array" ref="B140">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A140)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3180,7 +3458,9 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
       <c r="B141" s="1" t="str" cm="1">
         <f t="array" ref="B141">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A141)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3199,7 +3479,9 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
       <c r="B142" s="1" t="str" cm="1">
         <f t="array" ref="B142">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A142)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3218,7 +3500,9 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>0</v>
+      </c>
       <c r="B143" s="1" t="str" cm="1">
         <f t="array" ref="B143">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A143)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3237,7 +3521,9 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>0</v>
+      </c>
       <c r="B144" s="1" t="str" cm="1">
         <f t="array" ref="B144">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A144)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3256,7 +3542,9 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>0</v>
+      </c>
       <c r="B145" s="1" t="str" cm="1">
         <f t="array" ref="B145">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A145)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3275,7 +3563,9 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
       <c r="B146" s="1" t="str" cm="1">
         <f t="array" ref="B146">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A146)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3294,7 +3584,9 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
       <c r="B147" s="1" t="str" cm="1">
         <f t="array" ref="B147">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A147)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3313,7 +3605,9 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
       <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A148)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3332,7 +3626,9 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>0</v>
+      </c>
       <c r="B149" s="1" t="str" cm="1">
         <f t="array" ref="B149">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A149)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3351,7 +3647,9 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>0</v>
+      </c>
       <c r="B150" s="1" t="str" cm="1">
         <f t="array" ref="B150">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A150)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3370,7 +3668,9 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>1</v>
+      </c>
       <c r="B151" s="1" t="str" cm="1">
         <f t="array" ref="B151">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A151)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3389,7 +3689,9 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>0</v>
+      </c>
       <c r="B152" s="1" t="str" cm="1">
         <f t="array" ref="B152">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A152)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3408,7 +3710,9 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
       <c r="B153" s="1" t="str" cm="1">
         <f t="array" ref="B153">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A153)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3427,7 +3731,9 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1">
+        <v>0</v>
+      </c>
       <c r="B154" s="1" t="str" cm="1">
         <f t="array" ref="B154">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A154)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3446,7 +3752,9 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>0</v>
+      </c>
       <c r="B155" s="1" t="str" cm="1">
         <f t="array" ref="B155">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A155)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3465,7 +3773,9 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>0</v>
+      </c>
       <c r="B156" s="1" t="str" cm="1">
         <f t="array" ref="B156">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A156)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3484,7 +3794,9 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>0</v>
+      </c>
       <c r="B157" s="1" t="str" cm="1">
         <f t="array" ref="B157">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A157)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3503,7 +3815,9 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1">
+        <v>0</v>
+      </c>
       <c r="B158" s="1" t="str" cm="1">
         <f t="array" ref="B158">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A158)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3522,7 +3836,9 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>0</v>
+      </c>
       <c r="B159" s="1" t="str" cm="1">
         <f t="array" ref="B159">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A159)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3541,7 +3857,9 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1">
+        <v>0</v>
+      </c>
       <c r="B160" s="1" t="str" cm="1">
         <f t="array" ref="B160">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A160)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3560,7 +3878,9 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1">
+        <v>0</v>
+      </c>
       <c r="B161" s="1" t="str" cm="1">
         <f t="array" ref="B161">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A161)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3579,7 +3899,9 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
       <c r="B162" s="1" t="str" cm="1">
         <f t="array" ref="B162">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A162)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3598,7 +3920,9 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1">
+        <v>0</v>
+      </c>
       <c r="B163" s="1" t="str" cm="1">
         <f t="array" ref="B163">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A163)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3617,7 +3941,9 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>0</v>
+      </c>
       <c r="B164" s="1" t="str" cm="1">
         <f t="array" ref="B164">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A164)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3636,7 +3962,9 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>0</v>
+      </c>
       <c r="B165" s="1" t="str" cm="1">
         <f t="array" ref="B165">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A165)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3655,7 +3983,9 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>0</v>
+      </c>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3674,7 +4004,9 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
       <c r="B167" s="1" t="str" cm="1">
         <f t="array" ref="B167">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A167)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3693,7 +4025,9 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>0</v>
+      </c>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3712,7 +4046,9 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>0</v>
+      </c>
       <c r="B169" s="1" t="str" cm="1">
         <f t="array" ref="B169">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A169)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3731,7 +4067,9 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>0</v>
+      </c>
       <c r="B170" s="1" t="str" cm="1">
         <f t="array" ref="B170">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A170)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3750,7 +4088,9 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>0</v>
+      </c>
       <c r="B171" s="1" t="str" cm="1">
         <f t="array" ref="B171">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A171)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3769,7 +4109,9 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1">
+        <v>0</v>
+      </c>
       <c r="B172" s="1" t="str" cm="1">
         <f t="array" ref="B172">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A172)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3788,7 +4130,9 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1">
+        <v>0</v>
+      </c>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3807,7 +4151,9 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
       <c r="B174" s="1" t="str" cm="1">
         <f t="array" ref="B174">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A174)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3826,7 +4172,9 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>0</v>
+      </c>
       <c r="B175" s="1" t="str" cm="1">
         <f t="array" ref="B175">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A175)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3845,7 +4193,9 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1">
+        <v>0</v>
+      </c>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3864,7 +4214,9 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1">
+        <v>0</v>
+      </c>
       <c r="B177" s="1" t="str" cm="1">
         <f t="array" ref="B177">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A177)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3883,7 +4235,9 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1">
+        <v>0</v>
+      </c>
       <c r="B178" s="1" t="str" cm="1">
         <f t="array" ref="B178">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A178)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3902,7 +4256,9 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>0</v>
+      </c>
       <c r="B179" s="1" t="str" cm="1">
         <f t="array" ref="B179">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A179)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3921,7 +4277,9 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>0</v>
+      </c>
       <c r="B180" s="1" t="str" cm="1">
         <f t="array" ref="B180">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A180)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3940,7 +4298,9 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>0</v>
+      </c>
       <c r="B181" s="1" t="str" cm="1">
         <f t="array" ref="B181">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A181)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3959,7 +4319,9 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>0</v>
+      </c>
       <c r="B182" s="1" t="str" cm="1">
         <f t="array" ref="B182">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A182)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3978,7 +4340,9 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>0</v>
+      </c>
       <c r="B183" s="1" t="str" cm="1">
         <f t="array" ref="B183">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A183)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3997,7 +4361,9 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>0</v>
+      </c>
       <c r="B184" s="1" t="str" cm="1">
         <f t="array" ref="B184">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A184)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4016,7 +4382,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>0</v>
+      </c>
       <c r="B185" s="1" t="str" cm="1">
         <f t="array" ref="B185">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A185)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4035,7 +4403,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1">
+        <v>0</v>
+      </c>
       <c r="B186" s="1" t="str" cm="1">
         <f t="array" ref="B186">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A186)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4054,7 +4424,9 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
       <c r="B187" s="1" t="str" cm="1">
         <f t="array" ref="B187">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A187)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4073,7 +4445,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1">
+        <v>0</v>
+      </c>
       <c r="B188" s="1" t="str" cm="1">
         <f t="array" ref="B188">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A188)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4092,7 +4466,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1">
+        <v>0</v>
+      </c>
       <c r="B189" s="1" t="str" cm="1">
         <f t="array" ref="B189">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A189)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4111,7 +4487,9 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
       <c r="B190" s="1" t="str" cm="1">
         <f t="array" ref="B190">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A190)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4130,7 +4508,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>0</v>
+      </c>
       <c r="B191" s="1" t="str" cm="1">
         <f t="array" ref="B191">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A191)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4149,7 +4529,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1">
+        <v>0</v>
+      </c>
       <c r="B192" s="1" t="str" cm="1">
         <f t="array" ref="B192">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A192)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4168,7 +4550,9 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
       <c r="B193" s="1" t="str" cm="1">
         <f t="array" ref="B193">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A193)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4187,7 +4571,9 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1">
+        <v>0</v>
+      </c>
       <c r="B194" s="1" t="str" cm="1">
         <f t="array" ref="B194">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A194)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4206,7 +4592,9 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1">
+        <v>0</v>
+      </c>
       <c r="B195" s="1" t="str" cm="1">
         <f t="array" ref="B195">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A195)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4225,7 +4613,9 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1">
+        <v>0</v>
+      </c>
       <c r="B196" s="1" t="str" cm="1">
         <f t="array" ref="B196">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A196)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4244,7 +4634,9 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1">
+        <v>0</v>
+      </c>
       <c r="B197" s="1" t="str" cm="1">
         <f t="array" ref="B197">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A197)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4263,7 +4655,9 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1">
+        <v>0</v>
+      </c>
       <c r="B198" s="1" t="str" cm="1">
         <f t="array" ref="B198">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A198)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4282,7 +4676,9 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
       <c r="B199" s="1" t="str" cm="1">
         <f t="array" ref="B199">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A199)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4301,7 +4697,9 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>0</v>
+      </c>
       <c r="B200" s="1" t="str" cm="1">
         <f t="array" ref="B200">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A200)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4320,7 +4718,9 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>0</v>
+      </c>
       <c r="B201" s="1" t="str" cm="1">
         <f t="array" ref="B201">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A201)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4339,7 +4739,9 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>0</v>
+      </c>
       <c r="B202" s="1" t="str" cm="1">
         <f t="array" ref="B202">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A202)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4358,7 +4760,9 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
       <c r="B203" s="1" t="str" cm="1">
         <f t="array" ref="B203">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A203)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4377,7 +4781,9 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>0</v>
+      </c>
       <c r="B204" s="1" t="str" cm="1">
         <f t="array" ref="B204">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A204)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4396,7 +4802,9 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>0</v>
+      </c>
       <c r="B205" s="1" t="str" cm="1">
         <f t="array" ref="B205">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A205)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4415,7 +4823,9 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>0</v>
+      </c>
       <c r="B206" s="1" t="str" cm="1">
         <f t="array" ref="B206">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A206)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4434,7 +4844,9 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>0</v>
+      </c>
       <c r="B207" s="1" t="str" cm="1">
         <f t="array" ref="B207">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A207)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4453,7 +4865,9 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>1</v>
+      </c>
       <c r="B208" s="1" t="str" cm="1">
         <f t="array" ref="B208">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A208)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4472,7 +4886,9 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1">
+        <v>0</v>
+      </c>
       <c r="B209" s="1" t="str" cm="1">
         <f t="array" ref="B209">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A209)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4491,7 +4907,9 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
       <c r="B210" s="1" t="str" cm="1">
         <f t="array" ref="B210">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A210)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4510,7 +4928,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1">
+        <v>0</v>
+      </c>
       <c r="B211" s="1" t="str" cm="1">
         <f t="array" ref="B211">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A211)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4529,7 +4949,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
       <c r="B212" s="1" t="str" cm="1">
         <f t="array" ref="B212">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A212)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4548,7 +4970,9 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1">
+        <v>0</v>
+      </c>
       <c r="B213" s="1" t="str" cm="1">
         <f t="array" ref="B213">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A213)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4567,7 +4991,9 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1">
+        <v>0</v>
+      </c>
       <c r="B214" s="1" t="str" cm="1">
         <f t="array" ref="B214">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A214)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4586,7 +5012,9 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1">
+        <v>0</v>
+      </c>
       <c r="B215" s="1" t="str" cm="1">
         <f t="array" ref="B215">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A215)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4605,7 +5033,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1">
+        <v>0</v>
+      </c>
       <c r="B216" s="1" t="str" cm="1">
         <f t="array" ref="B216">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A216)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4624,7 +5054,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1">
+        <v>1</v>
+      </c>
       <c r="B217" s="1" t="str" cm="1">
         <f t="array" ref="B217">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A217)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4643,7 +5075,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1">
+        <v>0</v>
+      </c>
       <c r="B218" s="1" t="str" cm="1">
         <f t="array" ref="B218">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A218)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4662,7 +5096,9 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1">
+        <v>0</v>
+      </c>
       <c r="B219" s="1" t="str" cm="1">
         <f t="array" ref="B219">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A219)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4681,7 +5117,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1">
+        <v>0</v>
+      </c>
       <c r="B220" s="1" t="str" cm="1">
         <f t="array" ref="B220">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A220)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4700,7 +5138,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>1</v>
+      </c>
       <c r="B221" s="1" t="str" cm="1">
         <f t="array" ref="B221">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A221)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4719,7 +5159,9 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>0</v>
+      </c>
       <c r="B222" s="1" t="str" cm="1">
         <f t="array" ref="B222">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A222)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4738,7 +5180,9 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>0</v>
+      </c>
       <c r="B223" s="1" t="str" cm="1">
         <f t="array" ref="B223">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A223)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4757,7 +5201,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>0</v>
+      </c>
       <c r="B224" s="1" t="str" cm="1">
         <f t="array" ref="B224">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A224)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4776,7 +5222,9 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
+      <c r="A225" s="1">
+        <v>0</v>
+      </c>
       <c r="B225" s="1" t="str" cm="1">
         <f t="array" ref="B225">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A225)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4795,7 +5243,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1">
+        <v>0</v>
+      </c>
       <c r="B226" s="1" t="str" cm="1">
         <f t="array" ref="B226">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A226)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4814,7 +5264,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1">
+        <v>0</v>
+      </c>
       <c r="B227" s="1" t="str" cm="1">
         <f t="array" ref="B227">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A227)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4833,7 +5285,9 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
+      <c r="A228" s="1">
+        <v>0</v>
+      </c>
       <c r="B228" s="1" t="str" cm="1">
         <f t="array" ref="B228">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A228)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4852,7 +5306,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1">
+        <v>0</v>
+      </c>
       <c r="B229" s="1" t="str" cm="1">
         <f t="array" ref="B229">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A229)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4871,7 +5327,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1">
+        <v>0</v>
+      </c>
       <c r="B230" s="1" t="str" cm="1">
         <f t="array" ref="B230">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A230)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4890,7 +5348,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
+      <c r="A231" s="1">
+        <v>0</v>
+      </c>
       <c r="B231" s="1" t="str" cm="1">
         <f t="array" ref="B231">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A231)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4909,7 +5369,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1">
+        <v>0</v>
+      </c>
       <c r="B232" s="1" t="str" cm="1">
         <f t="array" ref="B232">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A232)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4928,7 +5390,9 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1">
+        <v>1</v>
+      </c>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4947,7 +5411,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1">
+        <v>0</v>
+      </c>
       <c r="B234" s="1" t="str" cm="1">
         <f t="array" ref="B234">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A234)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4966,7 +5432,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1">
+        <v>0</v>
+      </c>
       <c r="B235" s="1" t="str" cm="1">
         <f t="array" ref="B235">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A235)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4985,7 +5453,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>0</v>
+      </c>
       <c r="B236" s="1" t="str" cm="1">
         <f t="array" ref="B236">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A236)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5004,7 +5474,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
+      <c r="A237" s="1">
+        <v>1</v>
+      </c>
       <c r="B237" s="1" t="str" cm="1">
         <f t="array" ref="B237">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A237)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5023,7 +5495,9 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1">
+        <v>0</v>
+      </c>
       <c r="B238" s="1" t="str" cm="1">
         <f t="array" ref="B238">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A238)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5042,7 +5516,9 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
+      <c r="A239" s="1">
+        <v>0</v>
+      </c>
       <c r="B239" s="1" t="str" cm="1">
         <f t="array" ref="B239">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A239)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5061,7 +5537,9 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1">
+        <v>0</v>
+      </c>
       <c r="B240" s="1" t="str" cm="1">
         <f t="array" ref="B240">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A240)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5080,7 +5558,9 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
       <c r="B241" s="1" t="str" cm="1">
         <f t="array" ref="B241">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A241)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5099,7 +5579,9 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1">
+        <v>0</v>
+      </c>
       <c r="B242" s="1" t="str" cm="1">
         <f t="array" ref="B242">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A242)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5118,7 +5600,9 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>0</v>
+      </c>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5137,7 +5621,9 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1">
+        <v>1</v>
+      </c>
       <c r="B244" s="1" t="str" cm="1">
         <f t="array" ref="B244">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A244)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5156,7 +5642,9 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>0</v>
+      </c>
       <c r="B245" s="1" t="str" cm="1">
         <f t="array" ref="B245">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A245)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5175,7 +5663,9 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>0</v>
+      </c>
       <c r="B246" s="1" t="str" cm="1">
         <f t="array" ref="B246">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A246)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5194,7 +5684,9 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>0</v>
+      </c>
       <c r="B247" s="1" t="str" cm="1">
         <f t="array" ref="B247">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A247)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5213,7 +5705,9 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>0</v>
+      </c>
       <c r="B248" s="1" t="str" cm="1">
         <f t="array" ref="B248">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A248)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5232,7 +5726,9 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>1</v>
+      </c>
       <c r="B249" s="1" t="str" cm="1">
         <f t="array" ref="B249">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A249)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5251,7 +5747,9 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1">
+        <v>0</v>
+      </c>
       <c r="B250" s="1" t="str" cm="1">
         <f t="array" ref="B250">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A250)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5270,7 +5768,9 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>1</v>
+      </c>
       <c r="B251" s="1" t="str" cm="1">
         <f t="array" ref="B251">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A251)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5289,7 +5789,9 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>0</v>
+      </c>
       <c r="B252" s="1" t="str" cm="1">
         <f t="array" ref="B252">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A252)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5308,7 +5810,9 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1">
+        <v>0</v>
+      </c>
       <c r="B253" s="1" t="str" cm="1">
         <f t="array" ref="B253">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A253)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5327,7 +5831,9 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>1</v>
+      </c>
       <c r="B254" s="1" t="str" cm="1">
         <f t="array" ref="B254">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A254)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5346,7 +5852,9 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>0</v>
+      </c>
       <c r="B255" s="1" t="str" cm="1">
         <f t="array" ref="B255">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A255)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5365,7 +5873,9 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
+      <c r="A256" s="1">
+        <v>0</v>
+      </c>
       <c r="B256" s="1" t="str" cm="1">
         <f t="array" ref="B256">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A256)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5384,7 +5894,9 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1">
+        <v>0</v>
+      </c>
       <c r="B257" s="1" t="str" cm="1">
         <f t="array" ref="B257">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A257)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5403,7 +5915,9 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>0</v>
+      </c>
       <c r="B258" s="1" t="str" cm="1">
         <f t="array" ref="B258">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A258)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5422,7 +5936,9 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>1</v>
+      </c>
       <c r="B259" s="1" t="str" cm="1">
         <f t="array" ref="B259">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A259)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5441,7 +5957,9 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1">
+        <v>0</v>
+      </c>
       <c r="B260" s="1" t="str" cm="1">
         <f t="array" ref="B260">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A260)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5460,7 +5978,9 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>0</v>
+      </c>
       <c r="B261" s="1" t="str" cm="1">
         <f t="array" ref="B261">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A261)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5479,7 +5999,9 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>0</v>
+      </c>
       <c r="B262" s="1" t="str" cm="1">
         <f t="array" ref="B262">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A262)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5498,7 +6020,9 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1">
+        <v>0</v>
+      </c>
       <c r="B263" s="1" t="str" cm="1">
         <f t="array" ref="B263">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A263)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5517,7 +6041,9 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
+      <c r="A264" s="1">
+        <v>0</v>
+      </c>
       <c r="B264" s="1" t="str" cm="1">
         <f t="array" ref="B264">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A264)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5536,7 +6062,9 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1">
+        <v>1</v>
+      </c>
       <c r="B265" s="1" t="str" cm="1">
         <f t="array" ref="B265">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A265)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5555,7 +6083,9 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1">
+        <v>0</v>
+      </c>
       <c r="B266" s="1" t="str" cm="1">
         <f t="array" ref="B266">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A266)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5574,7 +6104,9 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1">
+        <v>0</v>
+      </c>
       <c r="B267" s="1" t="str" cm="1">
         <f t="array" ref="B267">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A267)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5593,7 +6125,9 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
+      <c r="A268" s="1">
+        <v>0</v>
+      </c>
       <c r="B268" s="1" t="str" cm="1">
         <f t="array" ref="B268">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A268)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5612,7 +6146,9 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1">
+        <v>0</v>
+      </c>
       <c r="B269" s="1" t="str" cm="1">
         <f t="array" ref="B269">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A269)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5631,7 +6167,9 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1">
+        <v>1</v>
+      </c>
       <c r="B270" s="1" t="str" cm="1">
         <f t="array" ref="B270">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A270)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5650,7 +6188,9 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1">
+        <v>0</v>
+      </c>
       <c r="B271" s="1" t="str" cm="1">
         <f t="array" ref="B271">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A271)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5669,7 +6209,9 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1">
+        <v>0</v>
+      </c>
       <c r="B272" s="1" t="str" cm="1">
         <f t="array" ref="B272">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A272)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5688,7 +6230,9 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1">
+        <v>0</v>
+      </c>
       <c r="B273" s="1" t="str" cm="1">
         <f t="array" ref="B273">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A273)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5707,7 +6251,9 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1">
+        <v>0</v>
+      </c>
       <c r="B274" s="1" t="str" cm="1">
         <f t="array" ref="B274">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A274)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5726,7 +6272,9 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1">
+        <v>0</v>
+      </c>
       <c r="B275" s="1" t="str" cm="1">
         <f t="array" ref="B275">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A275)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5745,7 +6293,9 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1">
+        <v>0</v>
+      </c>
       <c r="B276" s="1" t="str" cm="1">
         <f t="array" ref="B276">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A276)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5764,7 +6314,9 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1">
+        <v>0</v>
+      </c>
       <c r="B277" s="1" t="str" cm="1">
         <f t="array" ref="B277">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A277)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5783,7 +6335,9 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1">
+        <v>0</v>
+      </c>
       <c r="B278" s="1" t="str" cm="1">
         <f t="array" ref="B278">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A278)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5802,7 +6356,9 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>0</v>
+      </c>
       <c r="B279" s="1" t="str" cm="1">
         <f t="array" ref="B279">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A279)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5821,7 +6377,9 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>0</v>
+      </c>
       <c r="B280" s="1" t="str" cm="1">
         <f t="array" ref="B280">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A280)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5840,7 +6398,9 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>1</v>
+      </c>
       <c r="B281" s="1" t="str" cm="1">
         <f t="array" ref="B281">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A281)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5859,7 +6419,9 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>0</v>
+      </c>
       <c r="B282" s="1" t="str" cm="1">
         <f t="array" ref="B282">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A282)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5878,7 +6440,9 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>0</v>
+      </c>
       <c r="B283" s="1" t="str" cm="1">
         <f t="array" ref="B283">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A283)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5897,7 +6461,9 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>0</v>
+      </c>
       <c r="B284" s="1" t="str" cm="1">
         <f t="array" ref="B284">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A284)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5916,7 +6482,9 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>1</v>
+      </c>
       <c r="B285" s="1" t="str" cm="1">
         <f t="array" ref="B285">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A285)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5935,7 +6503,9 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>0</v>
+      </c>
       <c r="B286" s="1" t="str" cm="1">
         <f t="array" ref="B286">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A286)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5954,7 +6524,9 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>0</v>
+      </c>
       <c r="B287" s="1" t="str" cm="1">
         <f t="array" ref="B287">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A287)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5973,7 +6545,9 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
+      <c r="A288" s="1">
+        <v>1</v>
+      </c>
       <c r="B288" s="1" t="str" cm="1">
         <f t="array" ref="B288">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A288)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5992,7 +6566,9 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
+      <c r="A289" s="1">
+        <v>0</v>
+      </c>
       <c r="B289" s="1" t="str" cm="1">
         <f t="array" ref="B289">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A289)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6011,7 +6587,9 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
+      <c r="A290" s="1">
+        <v>0</v>
+      </c>
       <c r="B290" s="1" t="str" cm="1">
         <f t="array" ref="B290">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A290)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6030,7 +6608,9 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
+      <c r="A291" s="1">
+        <v>0</v>
+      </c>
       <c r="B291" s="1" t="str" cm="1">
         <f t="array" ref="B291">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A291)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6049,7 +6629,9 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
+      <c r="A292" s="1">
+        <v>0</v>
+      </c>
       <c r="B292" s="1" t="str" cm="1">
         <f t="array" ref="B292">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A292)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6068,7 +6650,9 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
+      <c r="A293" s="1">
+        <v>1</v>
+      </c>
       <c r="B293" s="1" t="str" cm="1">
         <f t="array" ref="B293">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A293)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6087,7 +6671,9 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1">
+        <v>0</v>
+      </c>
       <c r="B294" s="1" t="str" cm="1">
         <f t="array" ref="B294">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A294)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6106,7 +6692,9 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
+      <c r="A295" s="1">
+        <v>0</v>
+      </c>
       <c r="B295" s="1" t="str" cm="1">
         <f t="array" ref="B295">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A295)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6125,7 +6713,9 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
+      <c r="A296" s="1">
+        <v>1</v>
+      </c>
       <c r="B296" s="1" t="str" cm="1">
         <f t="array" ref="B296">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A296)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6144,7 +6734,9 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
+      <c r="A297" s="1">
+        <v>1</v>
+      </c>
       <c r="B297" s="1" t="str" cm="1">
         <f t="array" ref="B297">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A297)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6163,7 +6755,9 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
+      <c r="A298" s="1">
+        <v>0</v>
+      </c>
       <c r="B298" s="1" t="str" cm="1">
         <f t="array" ref="B298">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A298)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6182,7 +6776,9 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1">
+        <v>1</v>
+      </c>
       <c r="B299" s="1" t="str" cm="1">
         <f t="array" ref="B299">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A299)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6201,7 +6797,9 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
+      <c r="A300" s="1">
+        <v>0</v>
+      </c>
       <c r="B300" s="1" t="str" cm="1">
         <f t="array" ref="B300">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A300)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6220,7 +6818,9 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
+      <c r="A301" s="1">
+        <v>0</v>
+      </c>
       <c r="B301" s="1" t="str" cm="1">
         <f t="array" ref="B301">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A301)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6239,7 +6839,9 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
+      <c r="A302" s="1">
+        <v>0</v>
+      </c>
       <c r="B302" s="1" t="str" cm="1">
         <f t="array" ref="B302">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A302)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6258,7 +6860,9 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
+      <c r="A303" s="1">
+        <v>0</v>
+      </c>
       <c r="B303" s="1" t="str" cm="1">
         <f t="array" ref="B303">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A303)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6277,7 +6881,9 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
+      <c r="A304" s="1">
+        <v>0</v>
+      </c>
       <c r="B304" s="1" t="str" cm="1">
         <f t="array" ref="B304">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A304)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6296,7 +6902,9 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
+      <c r="A305" s="1">
+        <v>0</v>
+      </c>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6315,7 +6923,9 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
+      <c r="A306" s="1">
+        <v>0</v>
+      </c>
       <c r="B306" s="1" t="str" cm="1">
         <f t="array" ref="B306">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A306)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6334,7 +6944,9 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
+      <c r="A307" s="1">
+        <v>0</v>
+      </c>
       <c r="B307" s="1" t="str" cm="1">
         <f t="array" ref="B307">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A307)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6353,7 +6965,9 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
+      <c r="A308" s="1">
+        <v>0</v>
+      </c>
       <c r="B308" s="1" t="str" cm="1">
         <f t="array" ref="B308">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A308)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6372,7 +6986,9 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
+      <c r="A309" s="1">
+        <v>0</v>
+      </c>
       <c r="B309" s="1" t="str" cm="1">
         <f t="array" ref="B309">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A309)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6391,7 +7007,9 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
+      <c r="A310" s="1">
+        <v>1</v>
+      </c>
       <c r="B310" s="1" t="str" cm="1">
         <f t="array" ref="B310">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A310)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6410,7 +7028,9 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
+      <c r="A311" s="1">
+        <v>0</v>
+      </c>
       <c r="B311" s="1" t="str" cm="1">
         <f t="array" ref="B311">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A311)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6429,7 +7049,9 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
+      <c r="A312" s="1">
+        <v>0</v>
+      </c>
       <c r="B312" s="1" t="str" cm="1">
         <f t="array" ref="B312">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A312)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6448,7 +7070,9 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
+      <c r="A313" s="1">
+        <v>0</v>
+      </c>
       <c r="B313" s="1" t="str" cm="1">
         <f t="array" ref="B313">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A313)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6467,7 +7091,9 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1">
+        <v>0</v>
+      </c>
       <c r="B314" s="1" t="str" cm="1">
         <f t="array" ref="B314">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A314)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6486,7 +7112,9 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
+      <c r="A315" s="1">
+        <v>0</v>
+      </c>
       <c r="B315" s="1" t="str" cm="1">
         <f t="array" ref="B315">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A315)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6505,7 +7133,9 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
+      <c r="A316" s="1">
+        <v>0</v>
+      </c>
       <c r="B316" s="1" t="str" cm="1">
         <f t="array" ref="B316">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A316)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6524,7 +7154,9 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
+      <c r="A317" s="1">
+        <v>0</v>
+      </c>
       <c r="B317" s="1" t="str" cm="1">
         <f t="array" ref="B317">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A317)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6543,7 +7175,9 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
+      <c r="A318" s="1">
+        <v>1</v>
+      </c>
       <c r="B318" s="1" t="str" cm="1">
         <f t="array" ref="B318">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A318)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6562,7 +7196,9 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
+      <c r="A319" s="1">
+        <v>0</v>
+      </c>
       <c r="B319" s="1" t="str" cm="1">
         <f t="array" ref="B319">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A319)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6581,7 +7217,9 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
+      <c r="A320" s="1">
+        <v>0</v>
+      </c>
       <c r="B320" s="1" t="str" cm="1">
         <f t="array" ref="B320">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A320)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6600,7 +7238,9 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
+      <c r="A321" s="1">
+        <v>0</v>
+      </c>
       <c r="B321" s="1" t="str" cm="1">
         <f t="array" ref="B321">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A321)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6619,7 +7259,9 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
+      <c r="A322" s="1">
+        <v>0</v>
+      </c>
       <c r="B322" s="1" t="str" cm="1">
         <f t="array" ref="B322">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A322)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6638,7 +7280,9 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
+      <c r="A323" s="1">
+        <v>0</v>
+      </c>
       <c r="B323" s="1" t="str" cm="1">
         <f t="array" ref="B323">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A323)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6657,7 +7301,9 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1">
+        <v>0</v>
+      </c>
       <c r="B324" s="1" t="str" cm="1">
         <f t="array" ref="B324">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A324)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6676,7 +7322,9 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
+      <c r="A325" s="1">
+        <v>1</v>
+      </c>
       <c r="B325" s="1" t="str" cm="1">
         <f t="array" ref="B325">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A325)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6695,7 +7343,9 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
+      <c r="A326" s="1">
+        <v>0</v>
+      </c>
       <c r="B326" s="1" t="str" cm="1">
         <f t="array" ref="B326">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A326)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6714,7 +7364,9 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
+      <c r="A327" s="1">
+        <v>0</v>
+      </c>
       <c r="B327" s="1" t="str" cm="1">
         <f t="array" ref="B327">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A327)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6733,7 +7385,9 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
+      <c r="A328" s="1">
+        <v>0</v>
+      </c>
       <c r="B328" s="1" t="str" cm="1">
         <f t="array" ref="B328">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A328)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6752,7 +7406,9 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1">
+        <v>0</v>
+      </c>
       <c r="B329" s="1" t="str" cm="1">
         <f t="array" ref="B329">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A329)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6771,7 +7427,9 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
+      <c r="A330" s="1">
+        <v>0</v>
+      </c>
       <c r="B330" s="1" t="str" cm="1">
         <f t="array" ref="B330">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A330)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6790,7 +7448,9 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="1"/>
+      <c r="A331" s="1">
+        <v>0</v>
+      </c>
       <c r="B331" s="1" t="str" cm="1">
         <f t="array" ref="B331">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A331)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6809,7 +7469,9 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
+      <c r="A332" s="1">
+        <v>0</v>
+      </c>
       <c r="B332" s="1" t="str" cm="1">
         <f t="array" ref="B332">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A332)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6828,7 +7490,9 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
+      <c r="A333" s="1">
+        <v>0</v>
+      </c>
       <c r="B333" s="1" t="str" cm="1">
         <f t="array" ref="B333">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A333)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6847,7 +7511,9 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1"/>
+      <c r="A334" s="1">
+        <v>0</v>
+      </c>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6866,7 +7532,9 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
+      <c r="A335" s="1">
+        <v>0</v>
+      </c>
       <c r="B335" s="1" t="str" cm="1">
         <f t="array" ref="B335">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A335)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6885,7 +7553,9 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="1"/>
+      <c r="A336" s="1">
+        <v>1</v>
+      </c>
       <c r="B336" s="1" t="str" cm="1">
         <f t="array" ref="B336">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A336)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6904,7 +7574,9 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
+      <c r="A337" s="1">
+        <v>1</v>
+      </c>
       <c r="B337" s="1" t="str" cm="1">
         <f t="array" ref="B337">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A337)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6923,7 +7595,9 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>0</v>
+      </c>
       <c r="B338" s="1" t="str" cm="1">
         <f t="array" ref="B338">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A338)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6942,7 +7616,9 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
+      <c r="A339" s="1">
+        <v>0</v>
+      </c>
       <c r="B339" s="1" t="str" cm="1">
         <f t="array" ref="B339">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A339)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6961,7 +7637,9 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
+      <c r="A340" s="1">
+        <v>0</v>
+      </c>
       <c r="B340" s="1" t="str" cm="1">
         <f t="array" ref="B340">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A340)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6980,7 +7658,9 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
+      <c r="A341" s="1">
+        <v>1</v>
+      </c>
       <c r="B341" s="1" t="str" cm="1">
         <f t="array" ref="B341">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A341)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6999,7 +7679,9 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
+      <c r="A342" s="1">
+        <v>0</v>
+      </c>
       <c r="B342" s="1" t="str" cm="1">
         <f t="array" ref="B342">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A342)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7018,7 +7700,9 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
+      <c r="A343" s="1">
+        <v>0</v>
+      </c>
       <c r="B343" s="1" t="str" cm="1">
         <f t="array" ref="B343">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A343)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7037,7 +7721,9 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
+      <c r="A344" s="1">
+        <v>1</v>
+      </c>
       <c r="B344" s="1" t="str" cm="1">
         <f t="array" ref="B344">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A344)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7056,7 +7742,9 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>0</v>
+      </c>
       <c r="B345" s="1" t="str" cm="1">
         <f t="array" ref="B345">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A345)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7075,7 +7763,9 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
+      <c r="A346" s="1">
+        <v>0</v>
+      </c>
       <c r="B346" s="1" t="str" cm="1">
         <f t="array" ref="B346">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A346)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7094,7 +7784,9 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
+      <c r="A347" s="1">
+        <v>1</v>
+      </c>
       <c r="B347" s="1" t="str" cm="1">
         <f t="array" ref="B347">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A347)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7113,7 +7805,9 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
+      <c r="A348" s="1">
+        <v>0</v>
+      </c>
       <c r="B348" s="1" t="str" cm="1">
         <f t="array" ref="B348">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A348)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7132,7 +7826,9 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
+      <c r="A349" s="1">
+        <v>0</v>
+      </c>
       <c r="B349" s="1" t="str" cm="1">
         <f t="array" ref="B349">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A349)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7151,7 +7847,9 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1">
+        <v>0</v>
+      </c>
       <c r="B350" s="1" t="str" cm="1">
         <f t="array" ref="B350">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A350)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7170,7 +7868,9 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
+      <c r="A351" s="1">
+        <v>0</v>
+      </c>
       <c r="B351" s="1" t="str" cm="1">
         <f t="array" ref="B351">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A351)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7189,7 +7889,9 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
+      <c r="A352" s="1">
+        <v>0</v>
+      </c>
       <c r="B352" s="1" t="str" cm="1">
         <f t="array" ref="B352">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A352)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7208,7 +7910,9 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
+      <c r="A353" s="1">
+        <v>0</v>
+      </c>
       <c r="B353" s="1" t="str" cm="1">
         <f t="array" ref="B353">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A353)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7227,7 +7931,9 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
+      <c r="A354" s="1">
+        <v>0</v>
+      </c>
       <c r="B354" s="1" t="str" cm="1">
         <f t="array" ref="B354">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A354)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7246,7 +7952,9 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
+      <c r="A355" s="1">
+        <v>0</v>
+      </c>
       <c r="B355" s="1" t="str" cm="1">
         <f t="array" ref="B355">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A355)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7265,7 +7973,9 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
+      <c r="A356" s="1">
+        <v>0</v>
+      </c>
       <c r="B356" s="1" t="str" cm="1">
         <f t="array" ref="B356">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A356)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7284,7 +7994,9 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
+      <c r="A357" s="1">
+        <v>1</v>
+      </c>
       <c r="B357" s="1" t="str" cm="1">
         <f t="array" ref="B357">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A357)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7303,7 +8015,9 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1"/>
+      <c r="A358" s="1">
+        <v>1</v>
+      </c>
       <c r="B358" s="1" t="str" cm="1">
         <f t="array" ref="B358">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A358)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7322,7 +8036,9 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
       <c r="B359" s="1" t="str" cm="1">
         <f t="array" ref="B359">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A359)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7341,7 +8057,9 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="1"/>
+      <c r="A360" s="1">
+        <v>0</v>
+      </c>
       <c r="B360" s="1" t="str" cm="1">
         <f t="array" ref="B360">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A360)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7360,7 +8078,9 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
+      <c r="A361" s="1">
+        <v>0</v>
+      </c>
       <c r="B361" s="1" t="str" cm="1">
         <f t="array" ref="B361">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A361)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7379,7 +8099,9 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
       <c r="B362" s="1" t="str" cm="1">
         <f t="array" ref="B362">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A362)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7398,7 +8120,9 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
+      <c r="A363" s="1">
+        <v>0</v>
+      </c>
       <c r="B363" s="1" t="str" cm="1">
         <f t="array" ref="B363">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A363)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7417,7 +8141,9 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1"/>
+      <c r="A364" s="1">
+        <v>0</v>
+      </c>
       <c r="B364" s="1" t="str" cm="1">
         <f t="array" ref="B364">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A364)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7436,7 +8162,9 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
+      <c r="A365" s="1">
+        <v>0</v>
+      </c>
       <c r="B365" s="1" t="str" cm="1">
         <f t="array" ref="B365">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A365)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7455,7 +8183,9 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1"/>
+      <c r="A366" s="1">
+        <v>0</v>
+      </c>
       <c r="B366" s="1" t="str" cm="1">
         <f t="array" ref="B366">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A366)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7474,7 +8204,9 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
+      <c r="A367" s="1">
+        <v>0</v>
+      </c>
       <c r="B367" s="1" t="str" cm="1">
         <f t="array" ref="B367">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A367)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7493,7 +8225,9 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
+      <c r="A368" s="1">
+        <v>0</v>
+      </c>
       <c r="B368" s="1" t="str" cm="1">
         <f t="array" ref="B368">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A368)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7512,7 +8246,9 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
+      <c r="A369" s="1">
+        <v>0</v>
+      </c>
       <c r="B369" s="1" t="str" cm="1">
         <f t="array" ref="B369">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A369)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7531,7 +8267,9 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
+      <c r="A370" s="1">
+        <v>0</v>
+      </c>
       <c r="B370" s="1" t="str" cm="1">
         <f t="array" ref="B370">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A370)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7550,7 +8288,9 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
+      <c r="A371" s="1">
+        <v>1</v>
+      </c>
       <c r="B371" s="1" t="str" cm="1">
         <f t="array" ref="B371">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A371)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7569,7 +8309,9 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
+      <c r="A372" s="1">
+        <v>0</v>
+      </c>
       <c r="B372" s="1" t="str" cm="1">
         <f t="array" ref="B372">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A372)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7588,7 +8330,9 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
+      <c r="A373" s="1">
+        <v>1</v>
+      </c>
       <c r="B373" s="1" t="str" cm="1">
         <f t="array" ref="B373">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A373)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7607,7 +8351,9 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
+      <c r="A374" s="1">
+        <v>0</v>
+      </c>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7626,7 +8372,9 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
+      <c r="A375" s="1">
+        <v>0</v>
+      </c>
       <c r="B375" s="1" t="str" cm="1">
         <f t="array" ref="B375">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A375)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7645,7 +8393,9 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
+      <c r="A376" s="1">
+        <v>0</v>
+      </c>
       <c r="B376" s="1" t="str" cm="1">
         <f t="array" ref="B376">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A376)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7664,7 +8414,9 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
+      <c r="A377" s="1">
+        <v>1</v>
+      </c>
       <c r="B377" s="1" t="str" cm="1">
         <f t="array" ref="B377">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A377)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7683,7 +8435,9 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1"/>
+      <c r="A378" s="1">
+        <v>0</v>
+      </c>
       <c r="B378" s="1" t="str" cm="1">
         <f t="array" ref="B378">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A378)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7702,7 +8456,9 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
+      <c r="A379" s="1">
+        <v>0</v>
+      </c>
       <c r="B379" s="1" t="str" cm="1">
         <f t="array" ref="B379">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A379)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7721,7 +8477,9 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1"/>
+      <c r="A380" s="1">
+        <v>0</v>
+      </c>
       <c r="B380" s="1" t="str" cm="1">
         <f t="array" ref="B380">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A380)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7740,7 +8498,9 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="1"/>
+      <c r="A381" s="1">
+        <v>1</v>
+      </c>
       <c r="B381" s="1" t="str" cm="1">
         <f t="array" ref="B381">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A381)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7759,7 +8519,9 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1"/>
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
       <c r="B382" s="1" t="str" cm="1">
         <f t="array" ref="B382">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A382)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7778,7 +8540,9 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
+      <c r="A383" s="1">
+        <v>0</v>
+      </c>
       <c r="B383" s="1" t="str" cm="1">
         <f t="array" ref="B383">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A383)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7797,7 +8561,9 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="1"/>
+      <c r="A384" s="1">
+        <v>0</v>
+      </c>
       <c r="B384" s="1" t="str" cm="1">
         <f t="array" ref="B384">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A384)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7816,7 +8582,9 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
+      <c r="A385" s="1">
+        <v>0</v>
+      </c>
       <c r="B385" s="1" t="str" cm="1">
         <f t="array" ref="B385">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A385)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7835,7 +8603,9 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
+      <c r="A386" s="1">
+        <v>0</v>
+      </c>
       <c r="B386" s="1" t="str" cm="1">
         <f t="array" ref="B386">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A386)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7854,7 +8624,9 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
+      <c r="A387" s="1">
+        <v>0</v>
+      </c>
       <c r="B387" s="1" t="str" cm="1">
         <f t="array" ref="B387">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A387)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7873,7 +8645,9 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="1"/>
+      <c r="A388" s="1">
+        <v>1</v>
+      </c>
       <c r="B388" s="1" t="str" cm="1">
         <f t="array" ref="B388">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A388)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7892,7 +8666,9 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="1"/>
+      <c r="A389" s="1">
+        <v>1</v>
+      </c>
       <c r="B389" s="1" t="str" cm="1">
         <f t="array" ref="B389">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A389)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7911,7 +8687,9 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>0</v>
+      </c>
       <c r="B390" s="1" t="str" cm="1">
         <f t="array" ref="B390">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A390)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7930,7 +8708,9 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1"/>
+      <c r="A391" s="1">
+        <v>1</v>
+      </c>
       <c r="B391" s="1" t="str" cm="1">
         <f t="array" ref="B391">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A391)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7949,7 +8729,9 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>0</v>
+      </c>
       <c r="B392" s="1" t="str" cm="1">
         <f t="array" ref="B392">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A392)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7968,7 +8750,9 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>0</v>
+      </c>
       <c r="B393" s="1" t="str" cm="1">
         <f t="array" ref="B393">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A393)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7987,7 +8771,9 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
+      <c r="A394" s="1">
+        <v>0</v>
+      </c>
       <c r="B394" s="1" t="str" cm="1">
         <f t="array" ref="B394">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A394)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8006,7 +8792,9 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
+      <c r="A395" s="1">
+        <v>1</v>
+      </c>
       <c r="B395" s="1" t="str" cm="1">
         <f t="array" ref="B395">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A395)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8025,7 +8813,9 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
+      <c r="A396" s="1">
+        <v>0</v>
+      </c>
       <c r="B396" s="1" t="str" cm="1">
         <f t="array" ref="B396">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A396)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8044,7 +8834,9 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
+      <c r="A397" s="1">
+        <v>0</v>
+      </c>
       <c r="B397" s="1" t="str" cm="1">
         <f t="array" ref="B397">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A397)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8063,7 +8855,9 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1">
+        <v>1</v>
+      </c>
       <c r="B398" s="1" t="str" cm="1">
         <f t="array" ref="B398">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A398)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8082,7 +8876,9 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
+      <c r="A399" s="1">
+        <v>0</v>
+      </c>
       <c r="B399" s="1" t="str" cm="1">
         <f t="array" ref="B399">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A399)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8101,7 +8897,9 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
+      <c r="A400" s="1">
+        <v>0</v>
+      </c>
       <c r="B400" s="1" t="str" cm="1">
         <f t="array" ref="B400">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A400)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8120,7 +8918,9 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
+      <c r="A401" s="1">
+        <v>0</v>
+      </c>
       <c r="B401" s="1" t="str" cm="1">
         <f t="array" ref="B401">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A401)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8139,7 +8939,9 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
+      <c r="A402" s="1">
+        <v>1</v>
+      </c>
       <c r="B402" s="1" t="str" cm="1">
         <f t="array" ref="B402">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A402)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8158,7 +8960,9 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
+      <c r="A403" s="1">
+        <v>0</v>
+      </c>
       <c r="B403" s="1" t="str" cm="1">
         <f t="array" ref="B403">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A403)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8177,7 +8981,9 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
+      <c r="A404" s="1">
+        <v>0</v>
+      </c>
       <c r="B404" s="1" t="str" cm="1">
         <f t="array" ref="B404">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A404)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8196,7 +9002,9 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
+      <c r="A405" s="1">
+        <v>0</v>
+      </c>
       <c r="B405" s="1" t="str" cm="1">
         <f t="array" ref="B405">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A405)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8215,7 +9023,9 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
+      <c r="A406" s="1">
+        <v>0</v>
+      </c>
       <c r="B406" s="1" t="str" cm="1">
         <f t="array" ref="B406">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A406)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8234,7 +9044,9 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
+      <c r="A407" s="1">
+        <v>0</v>
+      </c>
       <c r="B407" s="1" t="str" cm="1">
         <f t="array" ref="B407">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A407)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8253,7 +9065,9 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
+      <c r="A408" s="1">
+        <v>0</v>
+      </c>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8272,7 +9086,9 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
+      <c r="A409" s="1">
+        <v>0</v>
+      </c>
       <c r="B409" s="1" t="str" cm="1">
         <f t="array" ref="B409">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A409)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8291,7 +9107,9 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
+      <c r="A410" s="1">
+        <v>0</v>
+      </c>
       <c r="B410" s="1" t="str" cm="1">
         <f t="array" ref="B410">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A410)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8310,7 +9128,9 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
+      <c r="A411" s="1">
+        <v>0</v>
+      </c>
       <c r="B411" s="1" t="str" cm="1">
         <f t="array" ref="B411">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A411)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8329,7 +9149,9 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
+      <c r="A412" s="1">
+        <v>0</v>
+      </c>
       <c r="B412" s="1" t="str" cm="1">
         <f t="array" ref="B412">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A412)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8348,7 +9170,9 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
+      <c r="A413" s="1">
+        <v>0</v>
+      </c>
       <c r="B413" s="1" t="str" cm="1">
         <f t="array" ref="B413">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A413)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8367,7 +9191,9 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
+      <c r="A414" s="1">
+        <v>0</v>
+      </c>
       <c r="B414" s="1" t="str" cm="1">
         <f t="array" ref="B414">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A414)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8386,7 +9212,9 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
+      <c r="A415" s="1">
+        <v>0</v>
+      </c>
       <c r="B415" s="1" t="str" cm="1">
         <f t="array" ref="B415">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A415)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8405,7 +9233,9 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
+      <c r="A416" s="1">
+        <v>0</v>
+      </c>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8424,7 +9254,9 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="1"/>
+      <c r="A417" s="1">
+        <v>0</v>
+      </c>
       <c r="B417" s="1" t="str" cm="1">
         <f t="array" ref="B417">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A417)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8443,7 +9275,9 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
+      <c r="A418" s="1">
+        <v>1</v>
+      </c>
       <c r="B418" s="1" t="str" cm="1">
         <f t="array" ref="B418">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A418)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8462,7 +9296,9 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="1"/>
+      <c r="A419" s="1">
+        <v>0</v>
+      </c>
       <c r="B419" s="1" t="str" cm="1">
         <f t="array" ref="B419">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A419)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8481,7 +9317,9 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="1"/>
+      <c r="A420" s="1">
+        <v>0</v>
+      </c>
       <c r="B420" s="1" t="str" cm="1">
         <f t="array" ref="B420">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A420)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8500,7 +9338,9 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
+      <c r="A421" s="1">
+        <v>0</v>
+      </c>
       <c r="B421" s="1" t="str" cm="1">
         <f t="array" ref="B421">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A421)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8519,7 +9359,9 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1">
+        <v>1</v>
+      </c>
       <c r="B422" s="1" t="str" cm="1">
         <f t="array" ref="B422">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A422)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8538,7 +9380,9 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
+      <c r="A423" s="1">
+        <v>0</v>
+      </c>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8557,7 +9401,9 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="1"/>
+      <c r="A424" s="1">
+        <v>0</v>
+      </c>
       <c r="B424" s="1" t="str" cm="1">
         <f t="array" ref="B424">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A424)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8576,7 +9422,9 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
+      <c r="A425" s="1">
+        <v>1</v>
+      </c>
       <c r="B425" s="1" t="str" cm="1">
         <f t="array" ref="B425">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A425)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8595,7 +9443,9 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="1"/>
+      <c r="A426" s="1">
+        <v>0</v>
+      </c>
       <c r="B426" s="1" t="str" cm="1">
         <f t="array" ref="B426">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A426)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8614,7 +9464,9 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="1"/>
+      <c r="A427" s="1">
+        <v>0</v>
+      </c>
       <c r="B427" s="1" t="str" cm="1">
         <f t="array" ref="B427">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A427)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8633,7 +9485,9 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="1"/>
+      <c r="A428" s="1">
+        <v>0</v>
+      </c>
       <c r="B428" s="1" t="str" cm="1">
         <f t="array" ref="B428">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A428)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8652,7 +9506,9 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
+      <c r="A429" s="1">
+        <v>0</v>
+      </c>
       <c r="B429" s="1" t="str" cm="1">
         <f t="array" ref="B429">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A429)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8671,7 +9527,9 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
+      <c r="A430" s="1">
+        <v>0</v>
+      </c>
       <c r="B430" s="1" t="str" cm="1">
         <f t="array" ref="B430">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A430)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8690,7 +9548,9 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
+      <c r="A431" s="1">
+        <v>0</v>
+      </c>
       <c r="B431" s="1" t="str" cm="1">
         <f t="array" ref="B431">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A431)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8709,7 +9569,9 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
+      <c r="A432" s="1">
+        <v>0</v>
+      </c>
       <c r="B432" s="1" t="str" cm="1">
         <f t="array" ref="B432">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A432)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8728,7 +9590,9 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
+      <c r="A433" s="1">
+        <v>0</v>
+      </c>
       <c r="B433" s="1" t="str" cm="1">
         <f t="array" ref="B433">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A433)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8747,7 +9611,9 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="1"/>
+      <c r="A434" s="1">
+        <v>0</v>
+      </c>
       <c r="B434" s="1" t="str" cm="1">
         <f t="array" ref="B434">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A434)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8766,7 +9632,9 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="1"/>
+      <c r="A435" s="1">
+        <v>1</v>
+      </c>
       <c r="B435" s="1" t="str" cm="1">
         <f t="array" ref="B435">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A435)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8785,7 +9653,9 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="1"/>
+      <c r="A436" s="1">
+        <v>1</v>
+      </c>
       <c r="B436" s="1" t="str" cm="1">
         <f t="array" ref="B436">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A436)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8804,7 +9674,9 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="1"/>
+      <c r="A437" s="1">
+        <v>0</v>
+      </c>
       <c r="B437" s="1" t="str" cm="1">
         <f t="array" ref="B437">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A437)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8823,7 +9695,9 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
+      <c r="A438" s="1">
+        <v>0</v>
+      </c>
       <c r="B438" s="1" t="str" cm="1">
         <f t="array" ref="B438">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A438)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8842,7 +9716,9 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
+      <c r="A439" s="1">
+        <v>0</v>
+      </c>
       <c r="B439" s="1" t="str" cm="1">
         <f t="array" ref="B439">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A439)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8861,7 +9737,9 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="1"/>
+      <c r="A440" s="1">
+        <v>0</v>
+      </c>
       <c r="B440" s="1" t="str" cm="1">
         <f t="array" ref="B440">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A440)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8880,7 +9758,9 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
+      <c r="A441" s="1">
+        <v>0</v>
+      </c>
       <c r="B441" s="1" t="str" cm="1">
         <f t="array" ref="B441">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A441)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8899,7 +9779,9 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="1"/>
+      <c r="A442" s="1">
+        <v>0</v>
+      </c>
       <c r="B442" s="1" t="str" cm="1">
         <f t="array" ref="B442">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A442)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8918,7 +9800,9 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="1"/>
+      <c r="A443" s="1">
+        <v>0</v>
+      </c>
       <c r="B443" s="1" t="str" cm="1">
         <f t="array" ref="B443">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A443)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8937,7 +9821,9 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="1"/>
+      <c r="A444" s="1">
+        <v>0</v>
+      </c>
       <c r="B444" s="1" t="str" cm="1">
         <f t="array" ref="B444">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A444)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8956,7 +9842,9 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
+      <c r="A445" s="1">
+        <v>0</v>
+      </c>
       <c r="B445" s="1" t="str" cm="1">
         <f t="array" ref="B445">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A445)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8975,7 +9863,9 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="1"/>
+      <c r="A446" s="1">
+        <v>1</v>
+      </c>
       <c r="B446" s="1" t="str" cm="1">
         <f t="array" ref="B446">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A446)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8994,7 +9884,9 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="1"/>
+      <c r="A447" s="1">
+        <v>0</v>
+      </c>
       <c r="B447" s="1" t="str" cm="1">
         <f t="array" ref="B447">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A447)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9013,7 +9905,9 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="1"/>
+      <c r="A448" s="1">
+        <v>0</v>
+      </c>
       <c r="B448" s="1" t="str" cm="1">
         <f t="array" ref="B448">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A448)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9032,7 +9926,9 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="1"/>
+      <c r="A449" s="1">
+        <v>0</v>
+      </c>
       <c r="B449" s="1" t="str" cm="1">
         <f t="array" ref="B449">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A449)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9051,7 +9947,9 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="1"/>
+      <c r="A450" s="1">
+        <v>0</v>
+      </c>
       <c r="B450" s="1" t="str" cm="1">
         <f t="array" ref="B450">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A450)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9070,7 +9968,9 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1"/>
+      <c r="A451" s="1">
+        <v>0</v>
+      </c>
       <c r="B451" s="1" t="str" cm="1">
         <f t="array" ref="B451">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A451)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9089,7 +9989,9 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="1"/>
+      <c r="A452" s="1">
+        <v>0</v>
+      </c>
       <c r="B452" s="1" t="str" cm="1">
         <f t="array" ref="B452">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A452)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9108,7 +10010,9 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="1"/>
+      <c r="A453" s="1">
+        <v>0</v>
+      </c>
       <c r="B453" s="1" t="str" cm="1">
         <f t="array" ref="B453">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A453)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9127,7 +10031,9 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="1"/>
+      <c r="A454" s="1">
+        <v>1</v>
+      </c>
       <c r="B454" s="1" t="str" cm="1">
         <f t="array" ref="B454">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A454)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9146,7 +10052,9 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="1"/>
+      <c r="A455" s="1">
+        <v>1</v>
+      </c>
       <c r="B455" s="1" t="str" cm="1">
         <f t="array" ref="B455">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A455)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9165,7 +10073,9 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="1"/>
+      <c r="A456" s="1">
+        <v>0</v>
+      </c>
       <c r="B456" s="1" t="str" cm="1">
         <f t="array" ref="B456">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A456)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9184,7 +10094,9 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1"/>
+      <c r="A457" s="1">
+        <v>0</v>
+      </c>
       <c r="B457" s="1" t="str" cm="1">
         <f t="array" ref="B457">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A457)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9203,7 +10115,9 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="1"/>
+      <c r="A458" s="1">
+        <v>0</v>
+      </c>
       <c r="B458" s="1" t="str" cm="1">
         <f t="array" ref="B458">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A458)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9222,7 +10136,9 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="1"/>
+      <c r="A459" s="1">
+        <v>0</v>
+      </c>
       <c r="B459" s="1" t="str" cm="1">
         <f t="array" ref="B459">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A459)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9241,7 +10157,9 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="1"/>
+      <c r="A460" s="1">
+        <v>0</v>
+      </c>
       <c r="B460" s="1" t="str" cm="1">
         <f t="array" ref="B460">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A460)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9260,7 +10178,9 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="1"/>
+      <c r="A461" s="1">
+        <v>0</v>
+      </c>
       <c r="B461" s="1" t="str" cm="1">
         <f t="array" ref="B461">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A461)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9279,7 +10199,9 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="1"/>
+      <c r="A462" s="1">
+        <v>0</v>
+      </c>
       <c r="B462" s="1" t="str" cm="1">
         <f t="array" ref="B462">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A462)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9298,7 +10220,9 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="1"/>
+      <c r="A463" s="1">
+        <v>0</v>
+      </c>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9317,7 +10241,9 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="1"/>
+      <c r="A464" s="1">
+        <v>0</v>
+      </c>
       <c r="B464" s="1" t="str" cm="1">
         <f t="array" ref="B464">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A464)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9336,7 +10262,9 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="1"/>
+      <c r="A465" s="1">
+        <v>0</v>
+      </c>
       <c r="B465" s="1" t="str" cm="1">
         <f t="array" ref="B465">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A465)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9355,7 +10283,9 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="1"/>
+      <c r="A466" s="1">
+        <v>1</v>
+      </c>
       <c r="B466" s="1" t="str" cm="1">
         <f t="array" ref="B466">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A466)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9374,7 +10304,9 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="1"/>
+      <c r="A467" s="1">
+        <v>0</v>
+      </c>
       <c r="B467" s="1" t="str" cm="1">
         <f t="array" ref="B467">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A467)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9393,7 +10325,9 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="1"/>
+      <c r="A468" s="1">
+        <v>0</v>
+      </c>
       <c r="B468" s="1" t="str" cm="1">
         <f t="array" ref="B468">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A468)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9412,7 +10346,9 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="1"/>
+      <c r="A469" s="1">
+        <v>0</v>
+      </c>
       <c r="B469" s="1" t="str" cm="1">
         <f t="array" ref="B469">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A469)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9431,7 +10367,9 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="1"/>
+      <c r="A470" s="1">
+        <v>0</v>
+      </c>
       <c r="B470" s="1" t="str" cm="1">
         <f t="array" ref="B470">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A470)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9450,7 +10388,9 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1"/>
+      <c r="A471" s="1">
+        <v>0</v>
+      </c>
       <c r="B471" s="1" t="str" cm="1">
         <f t="array" ref="B471">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A471)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9469,7 +10409,9 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="1"/>
+      <c r="A472" s="1">
+        <v>0</v>
+      </c>
       <c r="B472" s="1" t="str" cm="1">
         <f t="array" ref="B472">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A472)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9488,7 +10430,9 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="1"/>
+      <c r="A473" s="1">
+        <v>1</v>
+      </c>
       <c r="B473" s="1" t="str" cm="1">
         <f t="array" ref="B473">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A473)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9507,7 +10451,9 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="1"/>
+      <c r="A474" s="1">
+        <v>0</v>
+      </c>
       <c r="B474" s="1" t="str" cm="1">
         <f t="array" ref="B474">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A474)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9526,7 +10472,9 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="1"/>
+      <c r="A475" s="1">
+        <v>1</v>
+      </c>
       <c r="B475" s="1" t="str" cm="1">
         <f t="array" ref="B475">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A475)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9545,7 +10493,9 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="1"/>
+      <c r="A476" s="1">
+        <v>0</v>
+      </c>
       <c r="B476" s="1" t="str" cm="1">
         <f t="array" ref="B476">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A476)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9564,7 +10514,9 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
+      <c r="A477" s="1">
+        <v>1</v>
+      </c>
       <c r="B477" s="1" t="str" cm="1">
         <f t="array" ref="B477">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A477)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9583,7 +10535,9 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="1"/>
+      <c r="A478" s="1">
+        <v>0</v>
+      </c>
       <c r="B478" s="1" t="str" cm="1">
         <f t="array" ref="B478">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A478)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9602,7 +10556,9 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="1"/>
+      <c r="A479" s="1">
+        <v>1</v>
+      </c>
       <c r="B479" s="1" t="str" cm="1">
         <f t="array" ref="B479">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A479)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9621,7 +10577,9 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="1"/>
+      <c r="A480" s="1">
+        <v>0</v>
+      </c>
       <c r="B480" s="1" t="str" cm="1">
         <f t="array" ref="B480">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A480)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9640,7 +10598,9 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="1"/>
+      <c r="A481" s="1">
+        <v>0</v>
+      </c>
       <c r="B481" s="1" t="str" cm="1">
         <f t="array" ref="B481">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A481)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9659,7 +10619,9 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="1"/>
+      <c r="A482" s="1">
+        <v>0</v>
+      </c>
       <c r="B482" s="1" t="str" cm="1">
         <f t="array" ref="B482">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A482)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9678,7 +10640,9 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="1"/>
+      <c r="A483" s="1">
+        <v>0</v>
+      </c>
       <c r="B483" s="1" t="str" cm="1">
         <f t="array" ref="B483">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A483)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9697,7 +10661,9 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="1"/>
+      <c r="A484" s="1">
+        <v>1</v>
+      </c>
       <c r="B484" s="1" t="str" cm="1">
         <f t="array" ref="B484">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A484)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9716,7 +10682,9 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="1"/>
+      <c r="A485" s="1">
+        <v>0</v>
+      </c>
       <c r="B485" s="1" t="str" cm="1">
         <f t="array" ref="B485">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A485)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9735,7 +10703,9 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
+      <c r="A486" s="1">
+        <v>0</v>
+      </c>
       <c r="B486" s="1" t="str" cm="1">
         <f t="array" ref="B486">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A486)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9754,7 +10724,9 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="1"/>
+      <c r="A487" s="1">
+        <v>1</v>
+      </c>
       <c r="B487" s="1" t="str" cm="1">
         <f t="array" ref="B487">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A487)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9773,7 +10745,9 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="1"/>
+      <c r="A488" s="1">
+        <v>0</v>
+      </c>
       <c r="B488" s="1" t="str" cm="1">
         <f t="array" ref="B488">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A488)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9792,7 +10766,9 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="1"/>
+      <c r="A489" s="1">
+        <v>0</v>
+      </c>
       <c r="B489" s="1" t="str" cm="1">
         <f t="array" ref="B489">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A489)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9811,7 +10787,9 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="1"/>
+      <c r="A490" s="1">
+        <v>0</v>
+      </c>
       <c r="B490" s="1" t="str" cm="1">
         <f t="array" ref="B490">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A490)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9830,7 +10808,9 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="1"/>
+      <c r="A491" s="1">
+        <v>0</v>
+      </c>
       <c r="B491" s="1" t="str" cm="1">
         <f t="array" ref="B491">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A491)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9849,7 +10829,9 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="1"/>
+      <c r="A492" s="1">
+        <v>0</v>
+      </c>
       <c r="B492" s="1" t="str" cm="1">
         <f t="array" ref="B492">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A492)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9868,7 +10850,9 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="1"/>
+      <c r="A493" s="1">
+        <v>0</v>
+      </c>
       <c r="B493" s="1" t="str" cm="1">
         <f t="array" ref="B493">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A493)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9887,7 +10871,9 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="1"/>
+      <c r="A494" s="1">
+        <v>0</v>
+      </c>
       <c r="B494" s="1" t="str" cm="1">
         <f t="array" ref="B494">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A494)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9906,7 +10892,9 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="1"/>
+      <c r="A495" s="1">
+        <v>0</v>
+      </c>
       <c r="B495" s="1" t="str" cm="1">
         <f t="array" ref="B495">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A495)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9925,7 +10913,9 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="1"/>
+      <c r="A496" s="1">
+        <v>0</v>
+      </c>
       <c r="B496" s="1" t="str" cm="1">
         <f t="array" ref="B496">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A496)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9944,7 +10934,9 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="1"/>
+      <c r="A497" s="1">
+        <v>0</v>
+      </c>
       <c r="B497" s="1" t="str" cm="1">
         <f t="array" ref="B497">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A497)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9963,7 +10955,9 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="1"/>
+      <c r="A498" s="1">
+        <v>0</v>
+      </c>
       <c r="B498" s="1" t="str" cm="1">
         <f t="array" ref="B498">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A498)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9982,7 +10976,9 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="1"/>
+      <c r="A499" s="1">
+        <v>0</v>
+      </c>
       <c r="B499" s="1" t="str" cm="1">
         <f t="array" ref="B499">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A499)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10001,7 +10997,9 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="1"/>
+      <c r="A500" s="1">
+        <v>0</v>
+      </c>
       <c r="B500" s="1" t="str" cm="1">
         <f t="array" ref="B500">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A500)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10020,7 +11018,9 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="1"/>
+      <c r="A501" s="1">
+        <v>0</v>
+      </c>
       <c r="B501" s="1" t="str" cm="1">
         <f t="array" ref="B501">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A501)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10039,7 +11039,9 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="1"/>
+      <c r="A502" s="1">
+        <v>1</v>
+      </c>
       <c r="B502" s="1" t="str" cm="1">
         <f t="array" ref="B502">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A502)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10058,7 +11060,9 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="1"/>
+      <c r="A503" s="1">
+        <v>0</v>
+      </c>
       <c r="B503" s="1" t="str" cm="1">
         <f t="array" ref="B503">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A503)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10077,7 +11081,9 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="1"/>
+      <c r="A504" s="1">
+        <v>1</v>
+      </c>
       <c r="B504" s="1" t="str" cm="1">
         <f t="array" ref="B504">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A504)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10096,7 +11102,9 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="1"/>
+      <c r="A505" s="1">
+        <v>0</v>
+      </c>
       <c r="B505" s="1" t="str" cm="1">
         <f t="array" ref="B505">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A505)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10115,7 +11123,9 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="1"/>
+      <c r="A506" s="1">
+        <v>0</v>
+      </c>
       <c r="B506" s="1" t="str" cm="1">
         <f t="array" ref="B506">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A506)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10134,7 +11144,9 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="1"/>
+      <c r="A507" s="1">
+        <v>0</v>
+      </c>
       <c r="B507" s="1" t="str" cm="1">
         <f t="array" ref="B507">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A507)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10153,7 +11165,9 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="1"/>
+      <c r="A508" s="1">
+        <v>0</v>
+      </c>
       <c r="B508" s="1" t="str" cm="1">
         <f t="array" ref="B508">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A508)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10172,7 +11186,9 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="1"/>
+      <c r="A509" s="1">
+        <v>1</v>
+      </c>
       <c r="B509" s="1" t="str" cm="1">
         <f t="array" ref="B509">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A509)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10191,7 +11207,9 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="1"/>
+      <c r="A510" s="1">
+        <v>0</v>
+      </c>
       <c r="B510" s="1" t="str" cm="1">
         <f t="array" ref="B510">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A510)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10210,7 +11228,9 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="1"/>
+      <c r="A511" s="1">
+        <v>0</v>
+      </c>
       <c r="B511" s="1" t="str" cm="1">
         <f t="array" ref="B511">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A511)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10229,7 +11249,9 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="1"/>
+      <c r="A512" s="1">
+        <v>0</v>
+      </c>
       <c r="B512" s="1" t="str" cm="1">
         <f t="array" ref="B512">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A512)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10248,7 +11270,9 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="1"/>
+      <c r="A513" s="1">
+        <v>0</v>
+      </c>
       <c r="B513" s="1" t="str" cm="1">
         <f t="array" ref="B513">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A513)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10267,7 +11291,9 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="1"/>
+      <c r="A514" s="1">
+        <v>0</v>
+      </c>
       <c r="B514" s="1" t="str" cm="1">
         <f t="array" ref="B514">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A514)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10286,7 +11312,9 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="1"/>
+      <c r="A515" s="1">
+        <v>1</v>
+      </c>
       <c r="B515" s="1" t="str" cm="1">
         <f t="array" ref="B515">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A515)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10305,7 +11333,9 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
+      <c r="A516" s="1">
+        <v>0</v>
+      </c>
       <c r="B516" s="1" t="str" cm="1">
         <f t="array" ref="B516">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A516)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10324,7 +11354,9 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="1"/>
+      <c r="A517" s="1">
+        <v>0</v>
+      </c>
       <c r="B517" s="1" t="str" cm="1">
         <f t="array" ref="B517">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A517)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10343,7 +11375,9 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="1"/>
+      <c r="A518" s="1">
+        <v>1</v>
+      </c>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10362,7 +11396,9 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
+      <c r="A519" s="1">
+        <v>0</v>
+      </c>
       <c r="B519" s="1" t="str" cm="1">
         <f t="array" ref="B519">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A519)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10381,7 +11417,9 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
+      <c r="A520" s="1">
+        <v>1</v>
+      </c>
       <c r="B520" s="1" t="str" cm="1">
         <f t="array" ref="B520">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A520)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10400,7 +11438,9 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="1"/>
+      <c r="A521" s="1">
+        <v>0</v>
+      </c>
       <c r="B521" s="1" t="str" cm="1">
         <f t="array" ref="B521">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A521)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10419,7 +11459,9 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="1"/>
+      <c r="A522" s="1">
+        <v>0</v>
+      </c>
       <c r="B522" s="1" t="str" cm="1">
         <f t="array" ref="B522">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A522)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10438,7 +11480,9 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
+      <c r="A523" s="1">
+        <v>0</v>
+      </c>
       <c r="B523" s="1" t="str" cm="1">
         <f t="array" ref="B523">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A523)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10457,7 +11501,9 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="1"/>
+      <c r="A524" s="1">
+        <v>0</v>
+      </c>
       <c r="B524" s="1" t="str" cm="1">
         <f t="array" ref="B524">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A524)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10476,7 +11522,9 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="1"/>
+      <c r="A525" s="1">
+        <v>0</v>
+      </c>
       <c r="B525" s="1" t="str" cm="1">
         <f t="array" ref="B525">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A525)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10495,7 +11543,9 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="1"/>
+      <c r="A526" s="1">
+        <v>1</v>
+      </c>
       <c r="B526" s="1" t="str" cm="1">
         <f t="array" ref="B526">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A526)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10514,7 +11564,9 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="1"/>
+      <c r="A527" s="1">
+        <v>0</v>
+      </c>
       <c r="B527" s="1" t="str" cm="1">
         <f t="array" ref="B527">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A527)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10533,7 +11585,9 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="1"/>
+      <c r="A528" s="1">
+        <v>0</v>
+      </c>
       <c r="B528" s="1" t="str" cm="1">
         <f t="array" ref="B528">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A528)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10552,7 +11606,9 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="1"/>
+      <c r="A529" s="1">
+        <v>0</v>
+      </c>
       <c r="B529" s="1" t="str" cm="1">
         <f t="array" ref="B529">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A529)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10571,7 +11627,9 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="1"/>
+      <c r="A530" s="1">
+        <v>0</v>
+      </c>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10590,7 +11648,9 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="1"/>
+      <c r="A531" s="1">
+        <v>0</v>
+      </c>
       <c r="B531" s="1" t="str" cm="1">
         <f t="array" ref="B531">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A531)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10609,7 +11669,9 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="1"/>
+      <c r="A532" s="1">
+        <v>0</v>
+      </c>
       <c r="B532" s="1" t="str" cm="1">
         <f t="array" ref="B532">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A532)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10628,7 +11690,9 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="1"/>
+      <c r="A533" s="1">
+        <v>0</v>
+      </c>
       <c r="B533" s="1" t="str" cm="1">
         <f t="array" ref="B533">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A533)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10647,7 +11711,9 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="1"/>
+      <c r="A534" s="1">
+        <v>0</v>
+      </c>
       <c r="B534" s="1" t="str" cm="1">
         <f t="array" ref="B534">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A534)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10666,7 +11732,9 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="1"/>
+      <c r="A535" s="1">
+        <v>0</v>
+      </c>
       <c r="B535" s="1" t="str" cm="1">
         <f t="array" ref="B535">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A535)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10685,7 +11753,9 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="1"/>
+      <c r="A536" s="1">
+        <v>0</v>
+      </c>
       <c r="B536" s="1" t="str" cm="1">
         <f t="array" ref="B536">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A536)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10704,7 +11774,9 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="1"/>
+      <c r="A537" s="1">
+        <v>1</v>
+      </c>
       <c r="B537" s="1" t="str" cm="1">
         <f t="array" ref="B537">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A537)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10723,7 +11795,9 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="1"/>
+      <c r="A538" s="1">
+        <v>0</v>
+      </c>
       <c r="B538" s="1" t="str" cm="1">
         <f t="array" ref="B538">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A538)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10742,7 +11816,9 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="1"/>
+      <c r="A539" s="1">
+        <v>0</v>
+      </c>
       <c r="B539" s="1" t="str" cm="1">
         <f t="array" ref="B539">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A539)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10761,7 +11837,9 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="1"/>
+      <c r="A540" s="1">
+        <v>1</v>
+      </c>
       <c r="B540" s="1" t="str" cm="1">
         <f t="array" ref="B540">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A540)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10780,7 +11858,9 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="1"/>
+      <c r="A541" s="1">
+        <v>1</v>
+      </c>
       <c r="B541" s="1" t="str" cm="1">
         <f t="array" ref="B541">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A541)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10799,7 +11879,9 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="1"/>
+      <c r="A542" s="1">
+        <v>1</v>
+      </c>
       <c r="B542" s="1" t="str" cm="1">
         <f t="array" ref="B542">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A542)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10818,7 +11900,9 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="1"/>
+      <c r="A543" s="1">
+        <v>0</v>
+      </c>
       <c r="B543" s="1" t="str" cm="1">
         <f t="array" ref="B543">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A543)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10837,7 +11921,9 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="1"/>
+      <c r="A544" s="1">
+        <v>1</v>
+      </c>
       <c r="B544" s="1" t="str" cm="1">
         <f t="array" ref="B544">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A544)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10856,7 +11942,9 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" s="1"/>
+      <c r="A545" s="1">
+        <v>0</v>
+      </c>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10875,7 +11963,9 @@
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="1"/>
+      <c r="A546" s="1">
+        <v>0</v>
+      </c>
       <c r="B546" s="1" t="str" cm="1">
         <f t="array" ref="B546">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A546)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10894,7 +11984,9 @@
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="1"/>
+      <c r="A547" s="1">
+        <v>0</v>
+      </c>
       <c r="B547" s="1" t="str" cm="1">
         <f t="array" ref="B547">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A547)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10913,7 +12005,9 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="1"/>
+      <c r="A548" s="1">
+        <v>0</v>
+      </c>
       <c r="B548" s="1" t="str" cm="1">
         <f t="array" ref="B548">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A548)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10932,7 +12026,9 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="1"/>
+      <c r="A549" s="1">
+        <v>0</v>
+      </c>
       <c r="B549" s="1" t="str" cm="1">
         <f t="array" ref="B549">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A549)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10951,7 +12047,9 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="1"/>
+      <c r="A550" s="1">
+        <v>0</v>
+      </c>
       <c r="B550" s="1" t="str" cm="1">
         <f t="array" ref="B550">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A550)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10970,7 +12068,9 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="1"/>
+      <c r="A551" s="1">
+        <v>0</v>
+      </c>
       <c r="B551" s="1" t="str" cm="1">
         <f t="array" ref="B551">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A551)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10989,7 +12089,9 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="1"/>
+      <c r="A552" s="1">
+        <v>0</v>
+      </c>
       <c r="B552" s="1" t="str" cm="1">
         <f t="array" ref="B552">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A552)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11008,7 +12110,9 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="1"/>
+      <c r="A553" s="1">
+        <v>0</v>
+      </c>
       <c r="B553" s="1" t="str" cm="1">
         <f t="array" ref="B553">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A553)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11027,7 +12131,9 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="1"/>
+      <c r="A554" s="1">
+        <v>0</v>
+      </c>
       <c r="B554" s="1" t="str" cm="1">
         <f t="array" ref="B554">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A554)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11046,7 +12152,9 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="1"/>
+      <c r="A555" s="1">
+        <v>0</v>
+      </c>
       <c r="B555" s="1" t="str" cm="1">
         <f t="array" ref="B555">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A555)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11065,7 +12173,9 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="1"/>
+      <c r="A556" s="1">
+        <v>0</v>
+      </c>
       <c r="B556" s="1" t="str" cm="1">
         <f t="array" ref="B556">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A556)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11084,7 +12194,9 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" s="1"/>
+      <c r="A557" s="1">
+        <v>0</v>
+      </c>
       <c r="B557" s="1" t="str" cm="1">
         <f t="array" ref="B557">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A557)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11103,7 +12215,9 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="1"/>
+      <c r="A558" s="1">
+        <v>0</v>
+      </c>
       <c r="B558" s="1" t="str" cm="1">
         <f t="array" ref="B558">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A558)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11122,7 +12236,9 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="1"/>
+      <c r="A559" s="1">
+        <v>1</v>
+      </c>
       <c r="B559" s="1" t="str" cm="1">
         <f t="array" ref="B559">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A559)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11141,7 +12257,9 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="1"/>
+      <c r="A560" s="1">
+        <v>0</v>
+      </c>
       <c r="B560" s="1" t="str" cm="1">
         <f t="array" ref="B560">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A560)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11160,7 +12278,9 @@
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
+      <c r="A561" s="1">
+        <v>1</v>
+      </c>
       <c r="B561" s="1" t="str" cm="1">
         <f t="array" ref="B561">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A561)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11179,7 +12299,9 @@
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="1"/>
+      <c r="A562" s="1">
+        <v>0</v>
+      </c>
       <c r="B562" s="1" t="str" cm="1">
         <f t="array" ref="B562">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A562)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11198,7 +12320,9 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="1"/>
+      <c r="A563" s="1">
+        <v>1</v>
+      </c>
       <c r="B563" s="1" t="str" cm="1">
         <f t="array" ref="B563">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A563)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11217,7 +12341,9 @@
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="1"/>
+      <c r="A564" s="1">
+        <v>1</v>
+      </c>
       <c r="B564" s="1" t="str" cm="1">
         <f t="array" ref="B564">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A564)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11236,7 +12362,9 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="1"/>
+      <c r="A565" s="1">
+        <v>1</v>
+      </c>
       <c r="B565" s="1" t="str" cm="1">
         <f t="array" ref="B565">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A565)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11255,7 +12383,9 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="1"/>
+      <c r="A566" s="1">
+        <v>1</v>
+      </c>
       <c r="B566" s="1" t="str" cm="1">
         <f t="array" ref="B566">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A566)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11274,7 +12404,9 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
+      <c r="A567" s="1">
+        <v>0</v>
+      </c>
       <c r="B567" s="1" t="str" cm="1">
         <f t="array" ref="B567">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A567)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11293,7 +12425,9 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="1"/>
+      <c r="A568" s="1">
+        <v>0</v>
+      </c>
       <c r="B568" s="1" t="str" cm="1">
         <f t="array" ref="B568">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A568)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11312,7 +12446,9 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="1"/>
+      <c r="A569" s="1">
+        <v>0</v>
+      </c>
       <c r="B569" s="1" t="str" cm="1">
         <f t="array" ref="B569">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A569)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11331,7 +12467,9 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="1"/>
+      <c r="A570" s="1">
+        <v>0</v>
+      </c>
       <c r="B570" s="1" t="str" cm="1">
         <f t="array" ref="B570">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A570)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11350,7 +12488,9 @@
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="1"/>
+      <c r="A571" s="1">
+        <v>0</v>
+      </c>
       <c r="B571" s="1" t="str" cm="1">
         <f t="array" ref="B571">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A571)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11369,7 +12509,9 @@
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="1"/>
+      <c r="A572" s="1">
+        <v>0</v>
+      </c>
       <c r="B572" s="1" t="str" cm="1">
         <f t="array" ref="B572">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A572)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11388,7 +12530,9 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="1"/>
+      <c r="A573" s="1">
+        <v>0</v>
+      </c>
       <c r="B573" s="1" t="str" cm="1">
         <f t="array" ref="B573">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A573)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11407,7 +12551,9 @@
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="1"/>
+      <c r="A574" s="1">
+        <v>0</v>
+      </c>
       <c r="B574" s="1" t="str" cm="1">
         <f t="array" ref="B574">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A574)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11426,7 +12572,9 @@
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="1"/>
+      <c r="A575" s="1">
+        <v>0</v>
+      </c>
       <c r="B575" s="1" t="str" cm="1">
         <f t="array" ref="B575">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A575)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11445,7 +12593,9 @@
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="1"/>
+      <c r="A576" s="1">
+        <v>0</v>
+      </c>
       <c r="B576" s="1" t="str" cm="1">
         <f t="array" ref="B576">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A576)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11464,7 +12614,9 @@
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="1"/>
+      <c r="A577" s="1">
+        <v>0</v>
+      </c>
       <c r="B577" s="1" t="str" cm="1">
         <f t="array" ref="B577">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A577)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11483,7 +12635,9 @@
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
+      <c r="A578" s="1">
+        <v>1</v>
+      </c>
       <c r="B578" s="1" t="str" cm="1">
         <f t="array" ref="B578">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A578)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11502,7 +12656,9 @@
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" s="1"/>
+      <c r="A579" s="1">
+        <v>0</v>
+      </c>
       <c r="B579" s="1" t="str" cm="1">
         <f t="array" ref="B579">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A579)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11521,7 +12677,9 @@
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="1"/>
+      <c r="A580" s="1">
+        <v>0</v>
+      </c>
       <c r="B580" s="1" t="str" cm="1">
         <f t="array" ref="B580">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A580)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11540,7 +12698,9 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="1"/>
+      <c r="A581" s="1">
+        <v>0</v>
+      </c>
       <c r="B581" s="1" t="str" cm="1">
         <f t="array" ref="B581">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A581)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11559,7 +12719,9 @@
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="1"/>
+      <c r="A582" s="1">
+        <v>0</v>
+      </c>
       <c r="B582" s="1" t="str" cm="1">
         <f t="array" ref="B582">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A582)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11578,7 +12740,9 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="1"/>
+      <c r="A583" s="1">
+        <v>0</v>
+      </c>
       <c r="B583" s="1" t="str" cm="1">
         <f t="array" ref="B583">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A583)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11597,7 +12761,9 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="1"/>
+      <c r="A584" s="1">
+        <v>0</v>
+      </c>
       <c r="B584" s="1" t="str" cm="1">
         <f t="array" ref="B584">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A584)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11616,7 +12782,9 @@
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="1"/>
+      <c r="A585" s="1">
+        <v>1</v>
+      </c>
       <c r="B585" s="1" t="str" cm="1">
         <f t="array" ref="B585">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A585)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11635,7 +12803,9 @@
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="1"/>
+      <c r="A586" s="1">
+        <v>0</v>
+      </c>
       <c r="B586" s="1" t="str" cm="1">
         <f t="array" ref="B586">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A586)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11654,7 +12824,9 @@
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="1"/>
+      <c r="A587" s="1">
+        <v>0</v>
+      </c>
       <c r="B587" s="1" t="str" cm="1">
         <f t="array" ref="B587">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A587)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11673,7 +12845,9 @@
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="1"/>
+      <c r="A588" s="1">
+        <v>0</v>
+      </c>
       <c r="B588" s="1" t="str" cm="1">
         <f t="array" ref="B588">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A588)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11692,7 +12866,9 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="1"/>
+      <c r="A589" s="1">
+        <v>0</v>
+      </c>
       <c r="B589" s="1" t="str" cm="1">
         <f t="array" ref="B589">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A589)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11711,7 +12887,9 @@
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="1"/>
+      <c r="A590" s="1">
+        <v>0</v>
+      </c>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11730,7 +12908,9 @@
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="1"/>
+      <c r="A591" s="1">
+        <v>1</v>
+      </c>
       <c r="B591" s="1" t="str" cm="1">
         <f t="array" ref="B591">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A591)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11749,7 +12929,9 @@
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="1"/>
+      <c r="A592" s="1">
+        <v>0</v>
+      </c>
       <c r="B592" s="1" t="str" cm="1">
         <f t="array" ref="B592">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A592)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11768,7 +12950,9 @@
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="1"/>
+      <c r="A593" s="1">
+        <v>0</v>
+      </c>
       <c r="B593" s="1" t="str" cm="1">
         <f t="array" ref="B593">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A593)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11787,7 +12971,9 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="1"/>
+      <c r="A594" s="1">
+        <v>0</v>
+      </c>
       <c r="B594" s="1" t="str" cm="1">
         <f t="array" ref="B594">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A594)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11806,7 +12992,9 @@
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="1"/>
+      <c r="A595" s="1">
+        <v>0</v>
+      </c>
       <c r="B595" s="1" t="str" cm="1">
         <f t="array" ref="B595">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A595)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11825,7 +13013,9 @@
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="1"/>
+      <c r="A596" s="1">
+        <v>0</v>
+      </c>
       <c r="B596" s="1" t="str" cm="1">
         <f t="array" ref="B596">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A596)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11844,7 +13034,9 @@
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="1"/>
+      <c r="A597" s="1">
+        <v>0</v>
+      </c>
       <c r="B597" s="1" t="str" cm="1">
         <f t="array" ref="B597">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A597)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11863,7 +13055,9 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
+      <c r="A598" s="1">
+        <v>0</v>
+      </c>
       <c r="B598" s="1" t="str" cm="1">
         <f t="array" ref="B598">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A598)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11882,7 +13076,9 @@
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
+      <c r="A599" s="1">
+        <v>0</v>
+      </c>
       <c r="B599" s="1" t="str" cm="1">
         <f t="array" ref="B599">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A599)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11901,7 +13097,9 @@
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="1"/>
+      <c r="A600" s="1">
+        <v>0</v>
+      </c>
       <c r="B600" s="1" t="str" cm="1">
         <f t="array" ref="B600">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A600)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11920,7 +13118,9 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="1"/>
+      <c r="A601" s="1">
+        <v>0</v>
+      </c>
       <c r="B601" s="1" t="str" cm="1">
         <f t="array" ref="B601">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A601)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11939,7 +13139,9 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="1"/>
+      <c r="A602" s="1">
+        <v>0</v>
+      </c>
       <c r="B602" s="1" t="str" cm="1">
         <f t="array" ref="B602">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A602)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11958,7 +13160,9 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="1"/>
+      <c r="A603" s="1">
+        <v>0</v>
+      </c>
       <c r="B603" s="1" t="str" cm="1">
         <f t="array" ref="B603">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A603)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11977,7 +13181,9 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="1"/>
+      <c r="A604" s="1">
+        <v>1</v>
+      </c>
       <c r="B604" s="1" t="str" cm="1">
         <f t="array" ref="B604">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A604)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11996,7 +13202,9 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="1"/>
+      <c r="A605" s="1">
+        <v>1</v>
+      </c>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12015,7 +13223,9 @@
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="1"/>
+      <c r="A606" s="1">
+        <v>0</v>
+      </c>
       <c r="B606" s="1" t="str" cm="1">
         <f t="array" ref="B606">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A606)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12034,7 +13244,9 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="1"/>
+      <c r="A607" s="1">
+        <v>0</v>
+      </c>
       <c r="B607" s="1" t="str" cm="1">
         <f t="array" ref="B607">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A607)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12053,7 +13265,9 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="1"/>
+      <c r="A608" s="1">
+        <v>0</v>
+      </c>
       <c r="B608" s="1" t="str" cm="1">
         <f t="array" ref="B608">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A608)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12072,7 +13286,9 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" s="1"/>
+      <c r="A609" s="1">
+        <v>0</v>
+      </c>
       <c r="B609" s="1" t="str" cm="1">
         <f t="array" ref="B609">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A609)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12091,7 +13307,9 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="1"/>
+      <c r="A610" s="1">
+        <v>0</v>
+      </c>
       <c r="B610" s="1" t="str" cm="1">
         <f t="array" ref="B610">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A610)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12110,7 +13328,9 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="1"/>
+      <c r="A611" s="1">
+        <v>0</v>
+      </c>
       <c r="B611" s="1" t="str" cm="1">
         <f t="array" ref="B611">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A611)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12129,7 +13349,9 @@
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="1"/>
+      <c r="A612" s="1">
+        <v>0</v>
+      </c>
       <c r="B612" s="1" t="str" cm="1">
         <f t="array" ref="B612">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A612)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12148,7 +13370,9 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="1"/>
+      <c r="A613" s="1">
+        <v>0</v>
+      </c>
       <c r="B613" s="1" t="str" cm="1">
         <f t="array" ref="B613">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A613)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12167,7 +13391,9 @@
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" s="1"/>
+      <c r="A614" s="1">
+        <v>0</v>
+      </c>
       <c r="B614" s="1" t="str" cm="1">
         <f t="array" ref="B614">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A614)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12186,7 +13412,9 @@
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" s="1"/>
+      <c r="A615" s="1">
+        <v>0</v>
+      </c>
       <c r="B615" s="1" t="str" cm="1">
         <f t="array" ref="B615">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A615)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12205,7 +13433,9 @@
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="1"/>
+      <c r="A616" s="1">
+        <v>0</v>
+      </c>
       <c r="B616" s="1" t="str" cm="1">
         <f t="array" ref="B616">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A616)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12224,7 +13454,9 @@
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" s="1"/>
+      <c r="A617" s="1">
+        <v>0</v>
+      </c>
       <c r="B617" s="1" t="str" cm="1">
         <f t="array" ref="B617">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A617)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12243,7 +13475,9 @@
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" s="1"/>
+      <c r="A618" s="1">
+        <v>1</v>
+      </c>
       <c r="B618" s="1" t="str" cm="1">
         <f t="array" ref="B618">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A618)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12262,7 +13496,9 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="1"/>
+      <c r="A619" s="1">
+        <v>0</v>
+      </c>
       <c r="B619" s="1" t="str" cm="1">
         <f t="array" ref="B619">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A619)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12281,7 +13517,9 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="1"/>
+      <c r="A620" s="1">
+        <v>0</v>
+      </c>
       <c r="B620" s="1" t="str" cm="1">
         <f t="array" ref="B620">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A620)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12300,7 +13538,9 @@
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="1"/>
+      <c r="A621" s="1">
+        <v>1</v>
+      </c>
       <c r="B621" s="1" t="str" cm="1">
         <f t="array" ref="B621">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A621)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12319,7 +13559,9 @@
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="1"/>
+      <c r="A622" s="1">
+        <v>0</v>
+      </c>
       <c r="B622" s="1" t="str" cm="1">
         <f t="array" ref="B622">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A622)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12338,7 +13580,9 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="1"/>
+      <c r="A623" s="1">
+        <v>0</v>
+      </c>
       <c r="B623" s="1" t="str" cm="1">
         <f t="array" ref="B623">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A623)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12357,7 +13601,9 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="1"/>
+      <c r="A624" s="1">
+        <v>1</v>
+      </c>
       <c r="B624" s="1" t="str" cm="1">
         <f t="array" ref="B624">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A624)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12376,7 +13622,9 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="1"/>
+      <c r="A625" s="1">
+        <v>1</v>
+      </c>
       <c r="B625" s="1" t="str" cm="1">
         <f t="array" ref="B625">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A625)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12395,7 +13643,9 @@
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="1"/>
+      <c r="A626" s="1">
+        <v>0</v>
+      </c>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12414,7 +13664,9 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="1"/>
+      <c r="A627" s="1">
+        <v>1</v>
+      </c>
       <c r="B627" s="1" t="str" cm="1">
         <f t="array" ref="B627">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A627)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12433,7 +13685,9 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="1"/>
+      <c r="A628" s="1">
+        <v>0</v>
+      </c>
       <c r="B628" s="1" t="str" cm="1">
         <f t="array" ref="B628">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A628)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12452,7 +13706,9 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="1"/>
+      <c r="A629" s="1">
+        <v>0</v>
+      </c>
       <c r="B629" s="1" t="str" cm="1">
         <f t="array" ref="B629">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A629)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12471,7 +13727,9 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="1"/>
+      <c r="A630" s="1">
+        <v>0</v>
+      </c>
       <c r="B630" s="1" t="str" cm="1">
         <f t="array" ref="B630">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A630)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12490,7 +13748,9 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="1"/>
+      <c r="A631" s="1">
+        <v>0</v>
+      </c>
       <c r="B631" s="1" t="str" cm="1">
         <f t="array" ref="B631">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A631)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12509,7 +13769,9 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="1"/>
+      <c r="A632" s="1">
+        <v>0</v>
+      </c>
       <c r="B632" s="1" t="str" cm="1">
         <f t="array" ref="B632">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A632)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12528,7 +13790,9 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="1"/>
+      <c r="A633" s="1">
+        <v>0</v>
+      </c>
       <c r="B633" s="1" t="str" cm="1">
         <f t="array" ref="B633">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A633)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12547,7 +13811,9 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="1"/>
+      <c r="A634" s="1">
+        <v>0</v>
+      </c>
       <c r="B634" s="1" t="str" cm="1">
         <f t="array" ref="B634">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A634)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12566,7 +13832,9 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="1"/>
+      <c r="A635" s="1">
+        <v>0</v>
+      </c>
       <c r="B635" s="1" t="str" cm="1">
         <f t="array" ref="B635">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A635)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12585,7 +13853,9 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="1"/>
+      <c r="A636" s="1">
+        <v>0</v>
+      </c>
       <c r="B636" s="1" t="str" cm="1">
         <f t="array" ref="B636">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A636)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12604,7 +13874,9 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="1"/>
+      <c r="A637" s="1">
+        <v>1</v>
+      </c>
       <c r="B637" s="1" t="str" cm="1">
         <f t="array" ref="B637">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A637)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12623,7 +13895,9 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="1"/>
+      <c r="A638" s="1">
+        <v>0</v>
+      </c>
       <c r="B638" s="1" t="str" cm="1">
         <f t="array" ref="B638">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A638)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12642,7 +13916,9 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="1"/>
+      <c r="A639" s="1">
+        <v>0</v>
+      </c>
       <c r="B639" s="1" t="str" cm="1">
         <f t="array" ref="B639">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A639)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12661,7 +13937,9 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="1"/>
+      <c r="A640" s="1">
+        <v>0</v>
+      </c>
       <c r="B640" s="1" t="str" cm="1">
         <f t="array" ref="B640">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A640)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12680,7 +13958,9 @@
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="1"/>
+      <c r="A641" s="1">
+        <v>1</v>
+      </c>
       <c r="B641" s="1" t="str" cm="1">
         <f t="array" ref="B641">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A641)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12699,7 +13979,9 @@
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="1"/>
+      <c r="A642" s="1">
+        <v>0</v>
+      </c>
       <c r="B642" s="1" t="str" cm="1">
         <f t="array" ref="B642">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A642)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12718,7 +14000,9 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="1"/>
+      <c r="A643" s="1">
+        <v>1</v>
+      </c>
       <c r="B643" s="1" t="str" cm="1">
         <f t="array" ref="B643">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A643)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12737,7 +14021,9 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="1"/>
+      <c r="A644" s="1">
+        <v>1</v>
+      </c>
       <c r="B644" s="1" t="str" cm="1">
         <f t="array" ref="B644">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A644)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12756,7 +14042,9 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="1"/>
+      <c r="A645" s="1">
+        <v>0</v>
+      </c>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A645)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12775,7 +14063,9 @@
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="1"/>
+      <c r="A646" s="1">
+        <v>0</v>
+      </c>
       <c r="B646" s="1" t="str" cm="1">
         <f t="array" ref="B646">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A646)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12794,7 +14084,9 @@
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="1"/>
+      <c r="A647" s="1">
+        <v>0</v>
+      </c>
       <c r="B647" s="1" t="str" cm="1">
         <f t="array" ref="B647">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A647)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12813,7 +14105,9 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="1"/>
+      <c r="A648" s="1">
+        <v>0</v>
+      </c>
       <c r="B648" s="1" t="str" cm="1">
         <f t="array" ref="B648">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A648)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12832,7 +14126,9 @@
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="1"/>
+      <c r="A649" s="1">
+        <v>0</v>
+      </c>
       <c r="B649" s="1" t="str" cm="1">
         <f t="array" ref="B649">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A649)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12851,7 +14147,9 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="1"/>
+      <c r="A650" s="1">
+        <v>0</v>
+      </c>
       <c r="B650" s="1" t="str" cm="1">
         <f t="array" ref="B650">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A650)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12870,7 +14168,9 @@
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="1"/>
+      <c r="A651" s="1">
+        <v>1</v>
+      </c>
       <c r="B651" s="1" t="str" cm="1">
         <f t="array" ref="B651">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A651)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12889,7 +14189,9 @@
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="1"/>
+      <c r="A652" s="1">
+        <v>0</v>
+      </c>
       <c r="B652" s="1" t="str" cm="1">
         <f t="array" ref="B652">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A652)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12908,7 +14210,9 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="1"/>
+      <c r="A653" s="1">
+        <v>0</v>
+      </c>
       <c r="B653" s="1" t="str" cm="1">
         <f t="array" ref="B653">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A653)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12927,7 +14231,9 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="1"/>
+      <c r="A654" s="1">
+        <v>0</v>
+      </c>
       <c r="B654" s="1" t="str" cm="1">
         <f t="array" ref="B654">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A654)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12946,7 +14252,9 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="1"/>
+      <c r="A655" s="1">
+        <v>0</v>
+      </c>
       <c r="B655" s="1" t="str" cm="1">
         <f t="array" ref="B655">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A655)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12965,7 +14273,9 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" s="1"/>
+      <c r="A656" s="1">
+        <v>0</v>
+      </c>
       <c r="B656" s="1" t="str" cm="1">
         <f t="array" ref="B656">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A656)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12984,7 +14294,9 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" s="1"/>
+      <c r="A657" s="1">
+        <v>0</v>
+      </c>
       <c r="B657" s="1" t="str" cm="1">
         <f t="array" ref="B657">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A657)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13003,7 +14315,9 @@
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="1"/>
+      <c r="A658" s="1">
+        <v>0</v>
+      </c>
       <c r="B658" s="1" t="str" cm="1">
         <f t="array" ref="B658">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A658)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13022,7 +14336,9 @@
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" s="1"/>
+      <c r="A659" s="1">
+        <v>0</v>
+      </c>
       <c r="B659" s="1" t="str" cm="1">
         <f t="array" ref="B659">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A659)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13041,7 +14357,9 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" s="1"/>
+      <c r="A660" s="1">
+        <v>0</v>
+      </c>
       <c r="B660" s="1" t="str" cm="1">
         <f t="array" ref="B660">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A660)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13060,7 +14378,9 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="1"/>
+      <c r="A661" s="1">
+        <v>0</v>
+      </c>
       <c r="B661" s="1" t="str" cm="1">
         <f t="array" ref="B661">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A661)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13079,7 +14399,9 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="1"/>
+      <c r="A662" s="1">
+        <v>0</v>
+      </c>
       <c r="B662" s="1" t="str" cm="1">
         <f t="array" ref="B662">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A662)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13098,7 +14420,9 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="1"/>
+      <c r="A663" s="1">
+        <v>1</v>
+      </c>
       <c r="B663" s="1" t="str" cm="1">
         <f t="array" ref="B663">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A663)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13117,7 +14441,9 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" s="1"/>
+      <c r="A664" s="1">
+        <v>0</v>
+      </c>
       <c r="B664" s="1" t="str" cm="1">
         <f t="array" ref="B664">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A664)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13136,7 +14462,9 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" s="1"/>
+      <c r="A665" s="1">
+        <v>1</v>
+      </c>
       <c r="B665" s="1" t="str" cm="1">
         <f t="array" ref="B665">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A665)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13155,7 +14483,9 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" s="1"/>
+      <c r="A666" s="1">
+        <v>0</v>
+      </c>
       <c r="B666" s="1" t="str" cm="1">
         <f t="array" ref="B666">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A666)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13174,7 +14504,9 @@
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="1"/>
+      <c r="A667" s="1">
+        <v>1</v>
+      </c>
       <c r="B667" s="1" t="str" cm="1">
         <f t="array" ref="B667">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A667)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13193,7 +14525,9 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="1"/>
+      <c r="A668" s="1">
+        <v>0</v>
+      </c>
       <c r="B668" s="1" t="str" cm="1">
         <f t="array" ref="B668">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A668)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13212,7 +14546,9 @@
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="1"/>
+      <c r="A669" s="1">
+        <v>0</v>
+      </c>
       <c r="B669" s="1" t="str" cm="1">
         <f t="array" ref="B669">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A669)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13231,7 +14567,9 @@
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" s="1"/>
+      <c r="A670" s="1">
+        <v>0</v>
+      </c>
       <c r="B670" s="1" t="str" cm="1">
         <f t="array" ref="B670">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A670)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13250,7 +14588,9 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" s="1"/>
+      <c r="A671" s="1">
+        <v>0</v>
+      </c>
       <c r="B671" s="1" t="str" cm="1">
         <f t="array" ref="B671">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A671)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13269,7 +14609,9 @@
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" s="1"/>
+      <c r="A672" s="1">
+        <v>0</v>
+      </c>
       <c r="B672" s="1" t="str" cm="1">
         <f t="array" ref="B672">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A672)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13288,7 +14630,9 @@
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="1"/>
+      <c r="A673" s="1">
+        <v>1</v>
+      </c>
       <c r="B673" s="1" t="str" cm="1">
         <f t="array" ref="B673">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A673)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13307,7 +14651,9 @@
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="1"/>
+      <c r="A674" s="1">
+        <v>0</v>
+      </c>
       <c r="B674" s="1" t="str" cm="1">
         <f t="array" ref="B674">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A674)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13326,7 +14672,9 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="1"/>
+      <c r="A675" s="1">
+        <v>0</v>
+      </c>
       <c r="B675" s="1" t="str" cm="1">
         <f t="array" ref="B675">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A675)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13345,7 +14693,9 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="1"/>
+      <c r="A676" s="1">
+        <v>0</v>
+      </c>
       <c r="B676" s="1" t="str" cm="1">
         <f t="array" ref="B676">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A676)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13364,7 +14714,9 @@
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" s="1"/>
+      <c r="A677" s="1">
+        <v>0</v>
+      </c>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13383,7 +14735,9 @@
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" s="1"/>
+      <c r="A678" s="1">
+        <v>0</v>
+      </c>
       <c r="B678" s="1" t="str" cm="1">
         <f t="array" ref="B678">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A678)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13402,7 +14756,9 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="1"/>
+      <c r="A679" s="1">
+        <v>0</v>
+      </c>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13421,7 +14777,9 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" s="1"/>
+      <c r="A680" s="1">
+        <v>0</v>
+      </c>
       <c r="B680" s="1" t="str" cm="1">
         <f t="array" ref="B680">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A680)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13440,7 +14798,9 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="1"/>
+      <c r="A681" s="1">
+        <v>0</v>
+      </c>
       <c r="B681" s="1" t="str" cm="1">
         <f t="array" ref="B681">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A681)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13459,7 +14819,9 @@
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" s="1"/>
+      <c r="A682" s="1">
+        <v>0</v>
+      </c>
       <c r="B682" s="1" t="str" cm="1">
         <f t="array" ref="B682">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A682)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13478,7 +14840,9 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="1"/>
+      <c r="A683" s="1">
+        <v>0</v>
+      </c>
       <c r="B683" s="1" t="str" cm="1">
         <f t="array" ref="B683">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A683)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13497,7 +14861,9 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" s="1"/>
+      <c r="A684" s="1">
+        <v>0</v>
+      </c>
       <c r="B684" s="1" t="str" cm="1">
         <f t="array" ref="B684">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A684)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13516,7 +14882,9 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="1"/>
+      <c r="A685" s="1">
+        <v>1</v>
+      </c>
       <c r="B685" s="1" t="str" cm="1">
         <f t="array" ref="B685">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A685)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13535,7 +14903,9 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" s="1"/>
+      <c r="A686" s="1">
+        <v>0</v>
+      </c>
       <c r="B686" s="1" t="str" cm="1">
         <f t="array" ref="B686">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A686)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13554,7 +14924,9 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" s="1"/>
+      <c r="A687" s="1">
+        <v>1</v>
+      </c>
       <c r="B687" s="1" t="str" cm="1">
         <f t="array" ref="B687">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A687)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13573,7 +14945,9 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" s="1"/>
+      <c r="A688" s="1">
+        <v>0</v>
+      </c>
       <c r="B688" s="1" t="str" cm="1">
         <f t="array" ref="B688">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A688)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13592,7 +14966,9 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" s="1"/>
+      <c r="A689" s="1">
+        <v>1</v>
+      </c>
       <c r="B689" s="1" t="str" cm="1">
         <f t="array" ref="B689">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A689)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13611,7 +14987,9 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" s="1"/>
+      <c r="A690" s="1">
+        <v>0</v>
+      </c>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A690)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13630,7 +15008,9 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" s="1"/>
+      <c r="A691" s="1">
+        <v>0</v>
+      </c>
       <c r="B691" s="1" t="str" cm="1">
         <f t="array" ref="B691">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A691)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13649,7 +15029,9 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" s="1"/>
+      <c r="A692" s="1">
+        <v>1</v>
+      </c>
       <c r="B692" s="1" t="str" cm="1">
         <f t="array" ref="B692">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A692)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13668,7 +15050,9 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" s="1"/>
+      <c r="A693" s="1">
+        <v>1</v>
+      </c>
       <c r="B693" s="1" t="str" cm="1">
         <f t="array" ref="B693">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A693)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13687,7 +15071,9 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" s="1"/>
+      <c r="A694" s="1">
+        <v>0</v>
+      </c>
       <c r="B694" s="1" t="str" cm="1">
         <f t="array" ref="B694">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A694)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13706,7 +15092,9 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" s="1"/>
+      <c r="A695" s="1">
+        <v>0</v>
+      </c>
       <c r="B695" s="1" t="str" cm="1">
         <f t="array" ref="B695">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A695)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13725,7 +15113,9 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="1"/>
+      <c r="A696" s="1">
+        <v>0</v>
+      </c>
       <c r="B696" s="1" t="str" cm="1">
         <f t="array" ref="B696">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A696)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13744,7 +15134,9 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" s="1"/>
+      <c r="A697" s="1">
+        <v>0</v>
+      </c>
       <c r="B697" s="1" t="str" cm="1">
         <f t="array" ref="B697">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A697)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13763,7 +15155,9 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" s="1"/>
+      <c r="A698" s="1">
+        <v>0</v>
+      </c>
       <c r="B698" s="1" t="str" cm="1">
         <f t="array" ref="B698">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A698)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13782,7 +15176,9 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" s="1"/>
+      <c r="A699" s="1">
+        <v>0</v>
+      </c>
       <c r="B699" s="1" t="str" cm="1">
         <f t="array" ref="B699">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A699)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13801,7 +15197,9 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="1"/>
+      <c r="A700" s="1">
+        <v>0</v>
+      </c>
       <c r="B700" s="1" t="str" cm="1">
         <f t="array" ref="B700">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A700)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13820,7 +15218,9 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="1"/>
+      <c r="A701" s="1">
+        <v>0</v>
+      </c>
       <c r="B701" s="1" t="str" cm="1">
         <f t="array" ref="B701">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A701)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13839,7 +15239,9 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" s="1"/>
+      <c r="A702" s="1">
+        <v>0</v>
+      </c>
       <c r="B702" s="1" t="str" cm="1">
         <f t="array" ref="B702">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A702)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13858,7 +15260,9 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" s="1"/>
+      <c r="A703" s="1">
+        <v>0</v>
+      </c>
       <c r="B703" s="1" t="str" cm="1">
         <f t="array" ref="B703">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A703)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13877,7 +15281,9 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" s="1"/>
+      <c r="A704" s="1">
+        <v>0</v>
+      </c>
       <c r="B704" s="1" t="str" cm="1">
         <f t="array" ref="B704">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A704)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13896,7 +15302,9 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" s="1"/>
+      <c r="A705" s="1">
+        <v>0</v>
+      </c>
       <c r="B705" s="1" t="str" cm="1">
         <f t="array" ref="B705">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A705)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13915,7 +15323,9 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" s="1"/>
+      <c r="A706" s="1">
+        <v>1</v>
+      </c>
       <c r="B706" s="1" t="str" cm="1">
         <f t="array" ref="B706">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A706)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13934,7 +15344,9 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" s="1"/>
+      <c r="A707" s="1">
+        <v>0</v>
+      </c>
       <c r="B707" s="1" t="str" cm="1">
         <f t="array" ref="B707">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A707)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13953,7 +15365,9 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" s="1"/>
+      <c r="A708" s="1">
+        <v>1</v>
+      </c>
       <c r="B708" s="1" t="str" cm="1">
         <f t="array" ref="B708">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A708)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13972,7 +15386,9 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="1"/>
+      <c r="A709" s="1">
+        <v>0</v>
+      </c>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13991,7 +15407,9 @@
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" s="1"/>
+      <c r="A710" s="1">
+        <v>0</v>
+      </c>
       <c r="B710" s="1" t="str" cm="1">
         <f t="array" ref="B710">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A710)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14010,7 +15428,9 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" s="1"/>
+      <c r="A711" s="1">
+        <v>1</v>
+      </c>
       <c r="B711" s="1" t="str" cm="1">
         <f t="array" ref="B711">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A711)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14029,7 +15449,9 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="1"/>
+      <c r="A712" s="1">
+        <v>0</v>
+      </c>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14048,7 +15470,9 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="1"/>
+      <c r="A713" s="1">
+        <v>0</v>
+      </c>
       <c r="B713" s="1" t="str" cm="1">
         <f t="array" ref="B713">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A713)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14067,7 +15491,9 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" s="1"/>
+      <c r="A714" s="1">
+        <v>1</v>
+      </c>
       <c r="B714" s="1" t="str" cm="1">
         <f t="array" ref="B714">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A714)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14086,7 +15512,9 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="1"/>
+      <c r="A715" s="1">
+        <v>0</v>
+      </c>
       <c r="B715" s="1" t="str" cm="1">
         <f t="array" ref="B715">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A715)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14105,7 +15533,9 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" s="1"/>
+      <c r="A716" s="1">
+        <v>0</v>
+      </c>
       <c r="B716" s="1" t="str" cm="1">
         <f t="array" ref="B716">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A716)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14124,7 +15554,9 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" s="1"/>
+      <c r="A717" s="1">
+        <v>0</v>
+      </c>
       <c r="B717" s="1" t="str" cm="1">
         <f t="array" ref="B717">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A717)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14143,7 +15575,9 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" s="1"/>
+      <c r="A718" s="1">
+        <v>0</v>
+      </c>
       <c r="B718" s="1" t="str" cm="1">
         <f t="array" ref="B718">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A718)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14162,7 +15596,9 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="1"/>
+      <c r="A719" s="1">
+        <v>0</v>
+      </c>
       <c r="B719" s="1" t="str" cm="1">
         <f t="array" ref="B719">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A719)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14181,7 +15617,9 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" s="1"/>
+      <c r="A720" s="1">
+        <v>0</v>
+      </c>
       <c r="B720" s="1" t="str" cm="1">
         <f t="array" ref="B720">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A720)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14200,7 +15638,9 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="1"/>
+      <c r="A721" s="1">
+        <v>0</v>
+      </c>
       <c r="B721" s="1" t="str" cm="1">
         <f t="array" ref="B721">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A721)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14219,7 +15659,9 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="1"/>
+      <c r="A722" s="1">
+        <v>1</v>
+      </c>
       <c r="B722" s="1" t="str" cm="1">
         <f t="array" ref="B722">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A722)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14238,7 +15680,9 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="1"/>
+      <c r="A723" s="1">
+        <v>0</v>
+      </c>
       <c r="B723" s="1" t="str" cm="1">
         <f t="array" ref="B723">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A723)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14257,7 +15701,9 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="1"/>
+      <c r="A724" s="1">
+        <v>0</v>
+      </c>
       <c r="B724" s="1" t="str" cm="1">
         <f t="array" ref="B724">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A724)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14276,7 +15722,9 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="1"/>
+      <c r="A725" s="1">
+        <v>0</v>
+      </c>
       <c r="B725" s="1" t="str" cm="1">
         <f t="array" ref="B725">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A725)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14295,7 +15743,9 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" s="1"/>
+      <c r="A726" s="1">
+        <v>1</v>
+      </c>
       <c r="B726" s="1" t="str" cm="1">
         <f t="array" ref="B726">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A726)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14314,7 +15764,9 @@
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="1"/>
+      <c r="A727" s="1">
+        <v>0</v>
+      </c>
       <c r="B727" s="1" t="str" cm="1">
         <f t="array" ref="B727">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A727)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14333,7 +15785,9 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="1"/>
+      <c r="A728" s="1">
+        <v>0</v>
+      </c>
       <c r="B728" s="1" t="str" cm="1">
         <f t="array" ref="B728">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A728)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14352,7 +15806,9 @@
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="1"/>
+      <c r="A729" s="1">
+        <v>0</v>
+      </c>
       <c r="B729" s="1" t="str" cm="1">
         <f t="array" ref="B729">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A729)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14371,7 +15827,9 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="1"/>
+      <c r="A730" s="1">
+        <v>0</v>
+      </c>
       <c r="B730" s="1" t="str" cm="1">
         <f t="array" ref="B730">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A730)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14390,7 +15848,9 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="1"/>
+      <c r="A731" s="1">
+        <v>1</v>
+      </c>
       <c r="B731" s="1" t="str" cm="1">
         <f t="array" ref="B731">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A731)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14409,7 +15869,9 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="1"/>
+      <c r="A732" s="1">
+        <v>0</v>
+      </c>
       <c r="B732" s="1" t="str" cm="1">
         <f t="array" ref="B732">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A732)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14428,7 +15890,9 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="1"/>
+      <c r="A733" s="1">
+        <v>0</v>
+      </c>
       <c r="B733" s="1" t="str" cm="1">
         <f t="array" ref="B733">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A733)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14447,7 +15911,9 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="1"/>
+      <c r="A734" s="1">
+        <v>0</v>
+      </c>
       <c r="B734" s="1" t="str" cm="1">
         <f t="array" ref="B734">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A734)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14466,7 +15932,9 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" s="1"/>
+      <c r="A735" s="1">
+        <v>0</v>
+      </c>
       <c r="B735" s="1" t="str" cm="1">
         <f t="array" ref="B735">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A735)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14485,7 +15953,9 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" s="1"/>
+      <c r="A736" s="1">
+        <v>0</v>
+      </c>
       <c r="B736" s="1" t="str" cm="1">
         <f t="array" ref="B736">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A736)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14504,7 +15974,9 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="1"/>
+      <c r="A737" s="1">
+        <v>0</v>
+      </c>
       <c r="B737" s="1" t="str" cm="1">
         <f t="array" ref="B737">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A737)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14523,7 +15995,9 @@
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="1"/>
+      <c r="A738" s="1">
+        <v>0</v>
+      </c>
       <c r="B738" s="1" t="str" cm="1">
         <f t="array" ref="B738">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A738)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14542,7 +16016,9 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="1"/>
+      <c r="A739" s="1">
+        <v>0</v>
+      </c>
       <c r="B739" s="1" t="str" cm="1">
         <f t="array" ref="B739">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A739)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14561,7 +16037,9 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="1"/>
+      <c r="A740" s="1">
+        <v>0</v>
+      </c>
       <c r="B740" s="1" t="str" cm="1">
         <f t="array" ref="B740">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A740)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14580,7 +16058,9 @@
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="1"/>
+      <c r="A741" s="1">
+        <v>0</v>
+      </c>
       <c r="B741" s="1" t="str" cm="1">
         <f t="array" ref="B741">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A741)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14599,7 +16079,9 @@
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="1"/>
+      <c r="A742" s="1">
+        <v>1</v>
+      </c>
       <c r="B742" s="1" t="str" cm="1">
         <f t="array" ref="B742">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A742)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14618,7 +16100,9 @@
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" s="1"/>
+      <c r="A743" s="1">
+        <v>0</v>
+      </c>
       <c r="B743" s="1" t="str" cm="1">
         <f t="array" ref="B743">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A743)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14637,7 +16121,9 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" s="1"/>
+      <c r="A744" s="1">
+        <v>0</v>
+      </c>
       <c r="B744" s="1" t="str" cm="1">
         <f t="array" ref="B744">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A744)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14656,7 +16142,9 @@
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="1"/>
+      <c r="A745" s="1">
+        <v>0</v>
+      </c>
       <c r="B745" s="1" t="str" cm="1">
         <f t="array" ref="B745">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A745)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14675,7 +16163,9 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" s="1"/>
+      <c r="A746" s="1">
+        <v>0</v>
+      </c>
       <c r="B746" s="1" t="str" cm="1">
         <f t="array" ref="B746">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A746)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14694,7 +16184,9 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" s="1"/>
+      <c r="A747" s="1">
+        <v>1</v>
+      </c>
       <c r="B747" s="1" t="str" cm="1">
         <f t="array" ref="B747">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A747)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14713,7 +16205,9 @@
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="1"/>
+      <c r="A748" s="1">
+        <v>1</v>
+      </c>
       <c r="B748" s="1" t="str" cm="1">
         <f t="array" ref="B748">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A748)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14732,7 +16226,9 @@
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" s="1"/>
+      <c r="A749" s="1">
+        <v>0</v>
+      </c>
       <c r="B749" s="1" t="str" cm="1">
         <f t="array" ref="B749">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A749)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14751,7 +16247,9 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" s="1"/>
+      <c r="A750" s="1">
+        <v>0</v>
+      </c>
       <c r="B750" s="1" t="str" cm="1">
         <f t="array" ref="B750">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A750)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14770,7 +16268,9 @@
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" s="1"/>
+      <c r="A751" s="1">
+        <v>0</v>
+      </c>
       <c r="B751" s="1" t="str" cm="1">
         <f t="array" ref="B751">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A751)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14789,7 +16289,9 @@
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" s="1"/>
+      <c r="A752" s="1">
+        <v>0</v>
+      </c>
       <c r="B752" s="1" t="str" cm="1">
         <f t="array" ref="B752">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A752)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14808,7 +16310,9 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" s="1"/>
+      <c r="A753" s="1">
+        <v>0</v>
+      </c>
       <c r="B753" s="1" t="str" cm="1">
         <f t="array" ref="B753">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A753)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14827,7 +16331,9 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="1"/>
+      <c r="A754" s="1">
+        <v>0</v>
+      </c>
       <c r="B754" s="1" t="str" cm="1">
         <f t="array" ref="B754">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A754)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14846,7 +16352,9 @@
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="1"/>
+      <c r="A755" s="1">
+        <v>0</v>
+      </c>
       <c r="B755" s="1" t="str" cm="1">
         <f t="array" ref="B755">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A755)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14865,7 +16373,9 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="1"/>
+      <c r="A756" s="1">
+        <v>0</v>
+      </c>
       <c r="B756" s="1" t="str" cm="1">
         <f t="array" ref="B756">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A756)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14884,7 +16394,9 @@
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" s="1"/>
+      <c r="A757" s="1">
+        <v>0</v>
+      </c>
       <c r="B757" s="1" t="str" cm="1">
         <f t="array" ref="B757">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A757)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14903,7 +16415,9 @@
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" s="1"/>
+      <c r="A758" s="1">
+        <v>0</v>
+      </c>
       <c r="B758" s="1" t="str" cm="1">
         <f t="array" ref="B758">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A758)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14922,7 +16436,9 @@
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" s="1"/>
+      <c r="A759" s="1">
+        <v>1</v>
+      </c>
       <c r="B759" s="1" t="str" cm="1">
         <f t="array" ref="B759">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A759)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14941,7 +16457,9 @@
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A760" s="1"/>
+      <c r="A760" s="1">
+        <v>0</v>
+      </c>
       <c r="B760" s="1" t="str" cm="1">
         <f t="array" ref="B760">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A760)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14960,7 +16478,9 @@
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A761" s="1"/>
+      <c r="A761" s="1">
+        <v>0</v>
+      </c>
       <c r="B761" s="1" t="str" cm="1">
         <f t="array" ref="B761">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A761)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14979,7 +16499,9 @@
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A762" s="1"/>
+      <c r="A762" s="1">
+        <v>1</v>
+      </c>
       <c r="B762" s="1" t="str" cm="1">
         <f t="array" ref="B762">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A762)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14998,7 +16520,9 @@
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A763" s="1"/>
+      <c r="A763" s="1">
+        <v>0</v>
+      </c>
       <c r="B763" s="1" t="str" cm="1">
         <f t="array" ref="B763">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A763)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15017,7 +16541,9 @@
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" s="1"/>
+      <c r="A764" s="1">
+        <v>1</v>
+      </c>
       <c r="B764" s="1" t="str" cm="1">
         <f t="array" ref="B764">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A764)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15036,7 +16562,9 @@
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" s="1"/>
+      <c r="A765" s="1">
+        <v>1</v>
+      </c>
       <c r="B765" s="1" t="str" cm="1">
         <f t="array" ref="B765">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A765)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15055,7 +16583,9 @@
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" s="1"/>
+      <c r="A766" s="1">
+        <v>0</v>
+      </c>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15074,7 +16604,9 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" s="1"/>
+      <c r="A767" s="1">
+        <v>0</v>
+      </c>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15093,7 +16625,9 @@
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" s="1"/>
+      <c r="A768" s="1">
+        <v>0</v>
+      </c>
       <c r="B768" s="1" t="str" cm="1">
         <f t="array" ref="B768">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A768)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15112,7 +16646,9 @@
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" s="1"/>
+      <c r="A769" s="1">
+        <v>0</v>
+      </c>
       <c r="B769" s="1" t="str" cm="1">
         <f t="array" ref="B769">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A769)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15131,7 +16667,9 @@
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" s="1"/>
+      <c r="A770" s="1">
+        <v>0</v>
+      </c>
       <c r="B770" s="1" t="str" cm="1">
         <f t="array" ref="B770">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A770)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15150,7 +16688,9 @@
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="1"/>
+      <c r="A771" s="1">
+        <v>0</v>
+      </c>
       <c r="B771" s="1" t="str" cm="1">
         <f t="array" ref="B771">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A771)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15169,7 +16709,9 @@
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" s="1"/>
+      <c r="A772" s="1">
+        <v>1</v>
+      </c>
       <c r="B772" s="1" t="str" cm="1">
         <f t="array" ref="B772">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A772)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15188,7 +16730,9 @@
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" s="1"/>
+      <c r="A773" s="1">
+        <v>0</v>
+      </c>
       <c r="B773" s="1" t="str" cm="1">
         <f t="array" ref="B773">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A773)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15207,7 +16751,9 @@
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" s="1"/>
+      <c r="A774" s="1">
+        <v>1</v>
+      </c>
       <c r="B774" s="1" t="str" cm="1">
         <f t="array" ref="B774">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A774)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15226,7 +16772,9 @@
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="1"/>
+      <c r="A775" s="1">
+        <v>1</v>
+      </c>
       <c r="B775" s="1" t="str" cm="1">
         <f t="array" ref="B775">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A775)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15245,7 +16793,9 @@
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="1"/>
+      <c r="A776" s="1">
+        <v>0</v>
+      </c>
       <c r="B776" s="1" t="str" cm="1">
         <f t="array" ref="B776">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A776)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15264,7 +16814,9 @@
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="1"/>
+      <c r="A777" s="1">
+        <v>0</v>
+      </c>
       <c r="B777" s="1" t="str" cm="1">
         <f t="array" ref="B777">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A777)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15283,7 +16835,9 @@
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="1"/>
+      <c r="A778" s="1">
+        <v>0</v>
+      </c>
       <c r="B778" s="1" t="str" cm="1">
         <f t="array" ref="B778">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A778)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15302,7 +16856,9 @@
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="1"/>
+      <c r="A779" s="1">
+        <v>0</v>
+      </c>
       <c r="B779" s="1" t="str" cm="1">
         <f t="array" ref="B779">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A779)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15321,7 +16877,9 @@
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="1"/>
+      <c r="A780" s="1">
+        <v>0</v>
+      </c>
       <c r="B780" s="1" t="str" cm="1">
         <f t="array" ref="B780">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A780)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15340,7 +16898,9 @@
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="1"/>
+      <c r="A781" s="1">
+        <v>0</v>
+      </c>
       <c r="B781" s="1" t="str" cm="1">
         <f t="array" ref="B781">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A781)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15359,7 +16919,9 @@
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="1"/>
+      <c r="A782" s="1">
+        <v>0</v>
+      </c>
       <c r="B782" s="1" t="str" cm="1">
         <f t="array" ref="B782">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A782)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15378,7 +16940,9 @@
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="1"/>
+      <c r="A783" s="1">
+        <v>0</v>
+      </c>
       <c r="B783" s="1" t="str" cm="1">
         <f t="array" ref="B783">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A783)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15397,7 +16961,9 @@
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="1"/>
+      <c r="A784" s="1">
+        <v>0</v>
+      </c>
       <c r="B784" s="1" t="str" cm="1">
         <f t="array" ref="B784">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A784)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15416,7 +16982,9 @@
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="1"/>
+      <c r="A785" s="1">
+        <v>1</v>
+      </c>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15435,7 +17003,9 @@
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="1"/>
+      <c r="A786" s="1">
+        <v>0</v>
+      </c>
       <c r="B786" s="1" t="str" cm="1">
         <f t="array" ref="B786">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A786)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15454,7 +17024,9 @@
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="1"/>
+      <c r="A787" s="1">
+        <v>1</v>
+      </c>
       <c r="B787" s="1" t="str" cm="1">
         <f t="array" ref="B787">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A787)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15473,7 +17045,9 @@
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="1"/>
+      <c r="A788" s="1">
+        <v>0</v>
+      </c>
       <c r="B788" s="1" t="str" cm="1">
         <f t="array" ref="B788">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A788)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15492,7 +17066,9 @@
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="1"/>
+      <c r="A789" s="1">
+        <v>0</v>
+      </c>
       <c r="B789" s="1" t="str" cm="1">
         <f t="array" ref="B789">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A789)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15511,7 +17087,9 @@
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="1"/>
+      <c r="A790" s="1">
+        <v>1</v>
+      </c>
       <c r="B790" s="1" t="str" cm="1">
         <f t="array" ref="B790">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A790)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15530,7 +17108,9 @@
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="1"/>
+      <c r="A791" s="1">
+        <v>0</v>
+      </c>
       <c r="B791" s="1" t="str" cm="1">
         <f t="array" ref="B791">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A791)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15549,7 +17129,9 @@
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="1"/>
+      <c r="A792" s="1">
+        <v>0</v>
+      </c>
       <c r="B792" s="1" t="str" cm="1">
         <f t="array" ref="B792">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A792)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15568,7 +17150,9 @@
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="1"/>
+      <c r="A793" s="1">
+        <v>0</v>
+      </c>
       <c r="B793" s="1" t="str" cm="1">
         <f t="array" ref="B793">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A793)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15587,7 +17171,9 @@
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="1"/>
+      <c r="A794" s="1">
+        <v>0</v>
+      </c>
       <c r="B794" s="1" t="str" cm="1">
         <f t="array" ref="B794">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A794)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15606,7 +17192,9 @@
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" s="1"/>
+      <c r="A795" s="1">
+        <v>0</v>
+      </c>
       <c r="B795" s="1" t="str" cm="1">
         <f t="array" ref="B795">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A795)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15625,7 +17213,9 @@
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" s="1"/>
+      <c r="A796" s="1">
+        <v>0</v>
+      </c>
       <c r="B796" s="1" t="str" cm="1">
         <f t="array" ref="B796">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A796)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15644,7 +17234,9 @@
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="1"/>
+      <c r="A797" s="1">
+        <v>0</v>
+      </c>
       <c r="B797" s="1" t="str" cm="1">
         <f t="array" ref="B797">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A797)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15663,7 +17255,9 @@
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" s="1"/>
+      <c r="A798" s="1">
+        <v>0</v>
+      </c>
       <c r="B798" s="1" t="str" cm="1">
         <f t="array" ref="B798">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A798)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15682,7 +17276,9 @@
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" s="1"/>
+      <c r="A799" s="1">
+        <v>0</v>
+      </c>
       <c r="B799" s="1" t="str" cm="1">
         <f t="array" ref="B799">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A799)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15701,7 +17297,9 @@
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" s="1"/>
+      <c r="A800" s="1">
+        <v>0</v>
+      </c>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15720,7 +17318,9 @@
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" s="1"/>
+      <c r="A801" s="1">
+        <v>0</v>
+      </c>
       <c r="B801" s="1" t="str" cm="1">
         <f t="array" ref="B801">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A801)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15739,7 +17339,9 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" s="1"/>
+      <c r="A802" s="1">
+        <v>0</v>
+      </c>
       <c r="B802" s="1" t="str" cm="1">
         <f t="array" ref="B802">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A802)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15758,7 +17360,9 @@
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" s="1"/>
+      <c r="A803" s="1">
+        <v>0</v>
+      </c>
       <c r="B803" s="1" t="str" cm="1">
         <f t="array" ref="B803">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A803)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15777,7 +17381,9 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="1"/>
+      <c r="A804" s="1">
+        <v>0</v>
+      </c>
       <c r="B804" s="1" t="str" cm="1">
         <f t="array" ref="B804">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A804)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15796,7 +17402,9 @@
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" s="1"/>
+      <c r="A805" s="1">
+        <v>1</v>
+      </c>
       <c r="B805" s="1" t="str" cm="1">
         <f t="array" ref="B805">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A805)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15815,7 +17423,9 @@
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="1"/>
+      <c r="A806" s="1">
+        <v>0</v>
+      </c>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15834,7 +17444,9 @@
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" s="1"/>
+      <c r="A807" s="1">
+        <v>0</v>
+      </c>
       <c r="B807" s="1" t="str" cm="1">
         <f t="array" ref="B807">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A807)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15853,7 +17465,9 @@
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" s="1"/>
+      <c r="A808" s="1">
+        <v>1</v>
+      </c>
       <c r="B808" s="1" t="str" cm="1">
         <f t="array" ref="B808">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A808)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15872,7 +17486,9 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" s="1"/>
+      <c r="A809" s="1">
+        <v>0</v>
+      </c>
       <c r="B809" s="1" t="str" cm="1">
         <f t="array" ref="B809">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A809)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15891,7 +17507,9 @@
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="1"/>
+      <c r="A810" s="1">
+        <v>0</v>
+      </c>
       <c r="B810" s="1" t="str" cm="1">
         <f t="array" ref="B810">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A810)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15910,7 +17528,9 @@
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="1"/>
+      <c r="A811" s="1">
+        <v>0</v>
+      </c>
       <c r="B811" s="1" t="str" cm="1">
         <f t="array" ref="B811">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A811)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15929,7 +17549,9 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" s="1"/>
+      <c r="A812" s="1">
+        <v>0</v>
+      </c>
       <c r="B812" s="1" t="str" cm="1">
         <f t="array" ref="B812">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A812)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15948,7 +17570,9 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="1"/>
+      <c r="A813" s="1">
+        <v>0</v>
+      </c>
       <c r="B813" s="1" t="str" cm="1">
         <f t="array" ref="B813">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A813)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15967,7 +17591,9 @@
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" s="1"/>
+      <c r="A814" s="1">
+        <v>0</v>
+      </c>
       <c r="B814" s="1" t="str" cm="1">
         <f t="array" ref="B814">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A814)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15986,7 +17612,9 @@
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" s="1"/>
+      <c r="A815" s="1">
+        <v>0</v>
+      </c>
       <c r="B815" s="1" t="str" cm="1">
         <f t="array" ref="B815">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A815)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16005,7 +17633,9 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" s="1"/>
+      <c r="A816" s="1">
+        <v>0</v>
+      </c>
       <c r="B816" s="1" t="str" cm="1">
         <f t="array" ref="B816">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A816)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16024,7 +17654,9 @@
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" s="1"/>
+      <c r="A817" s="1">
+        <v>0</v>
+      </c>
       <c r="B817" s="1" t="str" cm="1">
         <f t="array" ref="B817">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A817)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16043,7 +17675,9 @@
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A818" s="1"/>
+      <c r="A818" s="1">
+        <v>0</v>
+      </c>
       <c r="B818" s="1" t="str" cm="1">
         <f t="array" ref="B818">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A818)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16062,7 +17696,9 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819" s="1"/>
+      <c r="A819" s="1">
+        <v>0</v>
+      </c>
       <c r="B819" s="1" t="str" cm="1">
         <f t="array" ref="B819">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A819)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16081,7 +17717,9 @@
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A820" s="1"/>
+      <c r="A820" s="1">
+        <v>0</v>
+      </c>
       <c r="B820" s="1" t="str" cm="1">
         <f t="array" ref="B820">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A820)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16100,7 +17738,9 @@
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" s="1"/>
+      <c r="A821" s="1">
+        <v>1</v>
+      </c>
       <c r="B821" s="1" t="str" cm="1">
         <f t="array" ref="B821">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A821)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16119,7 +17759,9 @@
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" s="1"/>
+      <c r="A822" s="1">
+        <v>0</v>
+      </c>
       <c r="B822" s="1" t="str" cm="1">
         <f t="array" ref="B822">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A822)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16138,7 +17780,9 @@
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="1"/>
+      <c r="A823" s="1">
+        <v>1</v>
+      </c>
       <c r="B823" s="1" t="str" cm="1">
         <f t="array" ref="B823">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A823)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16157,7 +17801,9 @@
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" s="1"/>
+      <c r="A824" s="1">
+        <v>0</v>
+      </c>
       <c r="B824" s="1" t="str" cm="1">
         <f t="array" ref="B824">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A824)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16176,7 +17822,9 @@
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" s="1"/>
+      <c r="A825" s="1">
+        <v>0</v>
+      </c>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16195,7 +17843,9 @@
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" s="1"/>
+      <c r="A826" s="1">
+        <v>0</v>
+      </c>
       <c r="B826" s="1" t="str" cm="1">
         <f t="array" ref="B826">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A826)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16214,7 +17864,9 @@
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" s="1"/>
+      <c r="A827" s="1">
+        <v>0</v>
+      </c>
       <c r="B827" s="1" t="str" cm="1">
         <f t="array" ref="B827">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A827)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16233,7 +17885,9 @@
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" s="1"/>
+      <c r="A828" s="1">
+        <v>1</v>
+      </c>
       <c r="B828" s="1" t="str" cm="1">
         <f t="array" ref="B828">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A828)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16252,7 +17906,9 @@
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" s="1"/>
+      <c r="A829" s="1">
+        <v>0</v>
+      </c>
       <c r="B829" s="1" t="str" cm="1">
         <f t="array" ref="B829">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A829)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16271,7 +17927,9 @@
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="1"/>
+      <c r="A830" s="1">
+        <v>1</v>
+      </c>
       <c r="B830" s="1" t="str" cm="1">
         <f t="array" ref="B830">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A830)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16290,7 +17948,9 @@
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" s="1"/>
+      <c r="A831" s="1">
+        <v>0</v>
+      </c>
       <c r="B831" s="1" t="str" cm="1">
         <f t="array" ref="B831">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A831)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16309,7 +17969,9 @@
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" s="1"/>
+      <c r="A832" s="1">
+        <v>0</v>
+      </c>
       <c r="B832" s="1" t="str" cm="1">
         <f t="array" ref="B832">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A832)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16328,7 +17990,9 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="1"/>
+      <c r="A833" s="1">
+        <v>1</v>
+      </c>
       <c r="B833" s="1" t="str" cm="1">
         <f t="array" ref="B833">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A833)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16347,7 +18011,9 @@
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="1"/>
+      <c r="A834" s="1">
+        <v>0</v>
+      </c>
       <c r="B834" s="1" t="str" cm="1">
         <f t="array" ref="B834">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A834)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16366,7 +18032,9 @@
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="1"/>
+      <c r="A835" s="1">
+        <v>0</v>
+      </c>
       <c r="B835" s="1" t="str" cm="1">
         <f t="array" ref="B835">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A835)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16385,7 +18053,9 @@
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="1"/>
+      <c r="A836" s="1">
+        <v>0</v>
+      </c>
       <c r="B836" s="1" t="str" cm="1">
         <f t="array" ref="B836">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A836)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16404,7 +18074,9 @@
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="1"/>
+      <c r="A837" s="1">
+        <v>1</v>
+      </c>
       <c r="B837" s="1" t="str" cm="1">
         <f t="array" ref="B837">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A837)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16423,7 +18095,9 @@
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="1"/>
+      <c r="A838" s="1">
+        <v>0</v>
+      </c>
       <c r="B838" s="1" t="str" cm="1">
         <f t="array" ref="B838">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A838)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16442,7 +18116,9 @@
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" s="1"/>
+      <c r="A839" s="1">
+        <v>0</v>
+      </c>
       <c r="B839" s="1" t="str" cm="1">
         <f t="array" ref="B839">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A839)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16461,7 +18137,9 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" s="1"/>
+      <c r="A840" s="1">
+        <v>0</v>
+      </c>
       <c r="B840" s="1" t="str" cm="1">
         <f t="array" ref="B840">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A840)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16480,7 +18158,9 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="1"/>
+      <c r="A841" s="1">
+        <v>0</v>
+      </c>
       <c r="B841" s="1" t="str" cm="1">
         <f t="array" ref="B841">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A841)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16499,7 +18179,9 @@
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" s="1"/>
+      <c r="A842" s="1">
+        <v>0</v>
+      </c>
       <c r="B842" s="1" t="str" cm="1">
         <f t="array" ref="B842">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A842)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16518,7 +18200,9 @@
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="1"/>
+      <c r="A843" s="1">
+        <v>0</v>
+      </c>
       <c r="B843" s="1" t="str" cm="1">
         <f t="array" ref="B843">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A843)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16537,7 +18221,9 @@
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" s="1"/>
+      <c r="A844" s="1">
+        <v>0</v>
+      </c>
       <c r="B844" s="1" t="str" cm="1">
         <f t="array" ref="B844">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A844)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16556,7 +18242,9 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" s="1"/>
+      <c r="A845" s="1">
+        <v>0</v>
+      </c>
       <c r="B845" s="1" t="str" cm="1">
         <f t="array" ref="B845">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A845)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16575,7 +18263,9 @@
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" s="1"/>
+      <c r="A846" s="1">
+        <v>0</v>
+      </c>
       <c r="B846" s="1" t="str" cm="1">
         <f t="array" ref="B846">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A846)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16594,7 +18284,9 @@
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" s="1"/>
+      <c r="A847" s="1">
+        <v>0</v>
+      </c>
       <c r="B847" s="1" t="str" cm="1">
         <f t="array" ref="B847">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A847)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16613,7 +18305,9 @@
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="1"/>
+      <c r="A848" s="1">
+        <v>0</v>
+      </c>
       <c r="B848" s="1" t="str" cm="1">
         <f t="array" ref="B848">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A848)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16632,7 +18326,9 @@
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" s="1"/>
+      <c r="A849" s="1">
+        <v>1</v>
+      </c>
       <c r="B849" s="1" t="str" cm="1">
         <f t="array" ref="B849">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A849)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16651,7 +18347,9 @@
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" s="1"/>
+      <c r="A850" s="1">
+        <v>1</v>
+      </c>
       <c r="B850" s="1" t="str" cm="1">
         <f t="array" ref="B850">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A850)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16670,7 +18368,9 @@
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" s="1"/>
+      <c r="A851" s="1">
+        <v>0</v>
+      </c>
       <c r="B851" s="1" t="str" cm="1">
         <f t="array" ref="B851">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A851)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16689,7 +18389,9 @@
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" s="1"/>
+      <c r="A852" s="1">
+        <v>0</v>
+      </c>
       <c r="B852" s="1" t="str" cm="1">
         <f t="array" ref="B852">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A852)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16708,7 +18410,9 @@
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A853" s="1"/>
+      <c r="A853" s="1">
+        <v>0</v>
+      </c>
       <c r="B853" s="1" t="str" cm="1">
         <f t="array" ref="B853">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A853)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16727,7 +18431,9 @@
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A854" s="1"/>
+      <c r="A854" s="1">
+        <v>0</v>
+      </c>
       <c r="B854" s="1" t="str" cm="1">
         <f t="array" ref="B854">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A854)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16746,7 +18452,9 @@
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A855" s="1"/>
+      <c r="A855" s="1">
+        <v>0</v>
+      </c>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16765,7 +18473,9 @@
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A856" s="1"/>
+      <c r="A856" s="1">
+        <v>0</v>
+      </c>
       <c r="B856" s="1" t="str" cm="1">
         <f t="array" ref="B856">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A856)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16784,7 +18494,9 @@
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A857" s="1"/>
+      <c r="A857" s="1">
+        <v>0</v>
+      </c>
       <c r="B857" s="1" t="str" cm="1">
         <f t="array" ref="B857">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A857)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16803,7 +18515,9 @@
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A858" s="1"/>
+      <c r="A858" s="1">
+        <v>0</v>
+      </c>
       <c r="B858" s="1" t="str" cm="1">
         <f t="array" ref="B858">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A858)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16822,7 +18536,9 @@
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A859" s="1"/>
+      <c r="A859" s="1">
+        <v>1</v>
+      </c>
       <c r="B859" s="1" t="str" cm="1">
         <f t="array" ref="B859">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A859)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16841,7 +18557,9 @@
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A860" s="1"/>
+      <c r="A860" s="1">
+        <v>0</v>
+      </c>
       <c r="B860" s="1" t="str" cm="1">
         <f t="array" ref="B860">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A860)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16860,7 +18578,9 @@
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A861" s="1"/>
+      <c r="A861" s="1">
+        <v>1</v>
+      </c>
       <c r="B861" s="1" t="str" cm="1">
         <f t="array" ref="B861">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A861)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16879,7 +18599,9 @@
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862" s="1"/>
+      <c r="A862" s="1">
+        <v>0</v>
+      </c>
       <c r="B862" s="1" t="str" cm="1">
         <f t="array" ref="B862">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A862)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16898,7 +18620,9 @@
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A863" s="1"/>
+      <c r="A863" s="1">
+        <v>0</v>
+      </c>
       <c r="B863" s="1" t="str" cm="1">
         <f t="array" ref="B863">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A863)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16917,7 +18641,9 @@
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A864" s="1"/>
+      <c r="A864" s="1">
+        <v>0</v>
+      </c>
       <c r="B864" s="1" t="str" cm="1">
         <f t="array" ref="B864">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A864)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16936,7 +18662,9 @@
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" s="1"/>
+      <c r="A865" s="1">
+        <v>0</v>
+      </c>
       <c r="B865" s="1" t="str" cm="1">
         <f t="array" ref="B865">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A865)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16955,7 +18683,9 @@
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" s="1"/>
+      <c r="A866" s="1">
+        <v>0</v>
+      </c>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16974,7 +18704,9 @@
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A867" s="1"/>
+      <c r="A867" s="1">
+        <v>0</v>
+      </c>
       <c r="B867" s="1" t="str" cm="1">
         <f t="array" ref="B867">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A867)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16993,7 +18725,9 @@
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A868" s="1"/>
+      <c r="A868" s="1">
+        <v>0</v>
+      </c>
       <c r="B868" s="1" t="str" cm="1">
         <f t="array" ref="B868">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A868)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17012,7 +18746,9 @@
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A869" s="1"/>
+      <c r="A869" s="1">
+        <v>0</v>
+      </c>
       <c r="B869" s="1" t="str" cm="1">
         <f t="array" ref="B869">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A869)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17031,7 +18767,9 @@
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" s="1"/>
+      <c r="A870" s="1">
+        <v>0</v>
+      </c>
       <c r="B870" s="1" t="str" cm="1">
         <f t="array" ref="B870">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A870)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17050,7 +18788,9 @@
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A871" s="1"/>
+      <c r="A871" s="1">
+        <v>0</v>
+      </c>
       <c r="B871" s="1" t="str" cm="1">
         <f t="array" ref="B871">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A871)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17069,7 +18809,9 @@
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872" s="1"/>
+      <c r="A872" s="1">
+        <v>0</v>
+      </c>
       <c r="B872" s="1" t="str" cm="1">
         <f t="array" ref="B872">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A872)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17088,7 +18830,9 @@
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A873" s="1"/>
+      <c r="A873" s="1">
+        <v>1</v>
+      </c>
       <c r="B873" s="1" t="str" cm="1">
         <f t="array" ref="B873">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A873)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17107,7 +18851,9 @@
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A874" s="1"/>
+      <c r="A874" s="1">
+        <v>1</v>
+      </c>
       <c r="B874" s="1" t="str" cm="1">
         <f t="array" ref="B874">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A874)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17126,7 +18872,9 @@
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A875" s="1"/>
+      <c r="A875" s="1">
+        <v>0</v>
+      </c>
       <c r="B875" s="1" t="str" cm="1">
         <f t="array" ref="B875">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A875)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17145,7 +18893,9 @@
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A876" s="1"/>
+      <c r="A876" s="1">
+        <v>1</v>
+      </c>
       <c r="B876" s="1" t="str" cm="1">
         <f t="array" ref="B876">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A876)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17210,23 +18960,23 @@
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>MATE</v>
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>HIST</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>MATE</v>
       </c>
       <c r="E6" s="2" t="str" cm="1">
         <f t="array" ref="E6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>CTA</v>
       </c>
       <c r="F6" s="2" t="str" cm="1">
         <f t="array" ref="F6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>MATE</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -17235,23 +18985,23 @@
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>HIST</v>
       </c>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>MATE</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>MATE</v>
       </c>
       <c r="E7" s="2" t="str" cm="1">
         <f t="array" ref="E7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>CTA</v>
       </c>
       <c r="F7" s="2" t="str" cm="1">
         <f t="array" ref="F7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>CTA</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -17260,23 +19010,23 @@
       </c>
       <c r="B8" s="2" t="str" cm="1">
         <f t="array" ref="B8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>MATE</v>
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>INGLES</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>COMU</v>
       </c>
       <c r="E8" s="2" t="str" cm="1">
         <f t="array" ref="E8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>HIST</v>
       </c>
       <c r="F8" s="2" t="str" cm="1">
         <f t="array" ref="F8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>CTA</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -17285,23 +19035,23 @@
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" ref="B9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>COMU</v>
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" ref="C9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>COMU</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" ref="D9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>CTA</v>
       </c>
       <c r="E9" s="2" t="str" cm="1">
         <f t="array" ref="E9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>HIST</v>
       </c>
       <c r="F9" s="2" t="str" cm="1">
         <f t="array" ref="F9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>CTA</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -17310,23 +19060,23 @@
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" ref="B10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>INGLES</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>INGLES</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>COMU</v>
       </c>
       <c r="E10" s="2" t="str" cm="1">
         <f t="array" ref="E10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>INGLES</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
         <f t="array" ref="F10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>INGLES</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -17335,23 +19085,23 @@
       </c>
       <c r="B11" s="2" t="str" cm="1">
         <f t="array" ref="B11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>INGLES</v>
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" ref="C11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>MATE</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>HIST</v>
       </c>
       <c r="E11" s="2" t="str" cm="1">
         <f t="array" ref="E11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>CTA</v>
       </c>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" ref="F11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>COMU</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -17360,23 +19110,23 @@
       </c>
       <c r="B12" s="2" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>INGLES</v>
       </c>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>HIST</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>COMU</v>
       </c>
       <c r="E12" s="2" t="str" cm="1">
         <f t="array" ref="E12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>COMU</v>
       </c>
       <c r="F12" s="2" t="str" cm="1">
         <f t="array" ref="F12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>-</v>
+        <v>HIST</v>
       </c>
     </row>
   </sheetData>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO DE IO - NUBE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO DE IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9AF8D-B085-4F08-84D2-EC35A7CEDD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C4602E-8455-41C6-876F-73247CC5D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:E876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,9 +539,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" ref="B2">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A2)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -560,9 +558,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" ref="B3">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A3)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -581,9 +577,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="str" cm="1">
         <f t="array" ref="B4">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A4)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -602,9 +596,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" ref="B5">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A5)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -623,9 +615,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A6)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -644,9 +634,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A7)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -665,9 +653,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" ref="B8">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A8)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -686,9 +672,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="str" cm="1">
         <f t="array" ref="B9">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A9)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -707,9 +691,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" ref="B10">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A10)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -728,9 +710,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A11)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -749,9 +729,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A12)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -770,9 +748,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="str" cm="1">
         <f t="array" ref="B13">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A13)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -791,9 +767,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" ref="B14">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A14)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -812,9 +786,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="str" cm="1">
         <f t="array" ref="B15">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A15)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -833,9 +805,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A16)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -854,9 +824,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A17)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -875,9 +843,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A18)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -896,9 +862,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A19)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -917,9 +881,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="str" cm="1">
         <f t="array" ref="B20">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A20)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -938,9 +900,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" ref="B21">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A21)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -959,9 +919,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" ref="B22">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A22)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -980,9 +938,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" ref="B23">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A23)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1001,9 +957,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A24)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1022,9 +976,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" ref="B25">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A25)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1043,9 +995,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="str" cm="1">
         <f t="array" ref="B26">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A26)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1064,9 +1014,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="str" cm="1">
         <f t="array" ref="B27">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A27)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1085,9 +1033,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="str" cm="1">
         <f t="array" ref="B28">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A28)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1106,9 +1052,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="str" cm="1">
         <f t="array" ref="B29">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A29)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1127,9 +1071,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" ref="B30">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A30)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1148,9 +1090,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1169,9 +1109,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="str" cm="1">
         <f t="array" ref="B32">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A32)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1190,9 +1128,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>0</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="str" cm="1">
         <f t="array" ref="B33">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A33)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1211,9 +1147,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="str" cm="1">
         <f t="array" ref="B34">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A34)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1232,9 +1166,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="str" cm="1">
         <f t="array" ref="B35">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A35)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1253,9 +1185,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="str" cm="1">
         <f t="array" ref="B36">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A36)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1274,9 +1204,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="str" cm="1">
         <f t="array" ref="B37">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A37)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1295,9 +1223,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>0</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" ref="B38">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A38)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1316,9 +1242,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="str" cm="1">
         <f t="array" ref="B39">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A39)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1337,9 +1261,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="str" cm="1">
         <f t="array" ref="B40">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A40)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1358,9 +1280,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="str" cm="1">
         <f t="array" ref="B41">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A41)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1379,9 +1299,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="str" cm="1">
         <f t="array" ref="B42">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A42)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1400,9 +1318,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="str" cm="1">
         <f t="array" ref="B43">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A43)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1421,9 +1337,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>0</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="1" t="str" cm="1">
         <f t="array" ref="B44">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A44)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1442,9 +1356,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>0</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A45)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1463,9 +1375,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>0</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A46)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1484,9 +1394,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="str" cm="1">
         <f t="array" ref="B47">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A47)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1505,9 +1413,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>0</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="str" cm="1">
         <f t="array" ref="B48">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A48)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1526,9 +1432,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>0</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="str" cm="1">
         <f t="array" ref="B49">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A49)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1547,9 +1451,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>0</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="str" cm="1">
         <f t="array" ref="B50">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A50)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1568,9 +1470,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>0</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1589,9 +1489,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>0</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="str" cm="1">
         <f t="array" ref="B52">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A52)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1610,9 +1508,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" ref="B53">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A53)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1631,9 +1527,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>0</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="str" cm="1">
         <f t="array" ref="B54">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A54)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1652,9 +1546,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>1</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="str" cm="1">
         <f t="array" ref="B55">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A55)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1673,9 +1565,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>0</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="str" cm="1">
         <f t="array" ref="B56">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A56)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1694,9 +1584,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>1</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="str" cm="1">
         <f t="array" ref="B57">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A57)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1715,9 +1603,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="str" cm="1">
         <f t="array" ref="B58">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A58)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1736,9 +1622,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>0</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="str" cm="1">
         <f t="array" ref="B59">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A59)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1757,9 +1641,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>0</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" ref="B60">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A60)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1778,9 +1660,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>0</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="str" cm="1">
         <f t="array" ref="B61">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A61)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1799,9 +1679,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>0</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="str" cm="1">
         <f t="array" ref="B62">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A62)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1820,9 +1698,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="str" cm="1">
         <f t="array" ref="B63">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A63)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1841,9 +1717,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="str" cm="1">
         <f t="array" ref="B64">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A64)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1862,9 +1736,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>0</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="str" cm="1">
         <f t="array" ref="B65">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A65)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1883,9 +1755,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>0</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="str" cm="1">
         <f t="array" ref="B66">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A66)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1904,9 +1774,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>0</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="str" cm="1">
         <f t="array" ref="B67">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A67)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1925,9 +1793,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>0</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="str" cm="1">
         <f t="array" ref="B68">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A68)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1946,9 +1812,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>0</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="str" cm="1">
         <f t="array" ref="B69">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A69)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1967,9 +1831,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>1</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="str" cm="1">
         <f t="array" ref="B70">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A70)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1988,9 +1850,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>0</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1" t="str" cm="1">
         <f t="array" ref="B71">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A71)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2009,9 +1869,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>0</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="B72" s="1" t="str" cm="1">
         <f t="array" ref="B72">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A72)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2030,9 +1888,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>0</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="str" cm="1">
         <f t="array" ref="B73">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A73)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2051,9 +1907,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>0</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1" t="str" cm="1">
         <f t="array" ref="B74">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A74)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2072,9 +1926,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>0</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="str" cm="1">
         <f t="array" ref="B75">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A75)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2093,9 +1945,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>0</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="str" cm="1">
         <f t="array" ref="B76">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A76)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2114,9 +1964,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>0</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="str" cm="1">
         <f t="array" ref="B77">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A77)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2135,9 +1983,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>0</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="B78" s="1" t="str" cm="1">
         <f t="array" ref="B78">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A78)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2156,9 +2002,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>0</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2177,9 +2021,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>0</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80" s="1" t="str" cm="1">
         <f t="array" ref="B80">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A80)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2198,9 +2040,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>0</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="1" t="str" cm="1">
         <f t="array" ref="B81">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A81)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2219,9 +2059,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>0</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="str" cm="1">
         <f t="array" ref="B82">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A82)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2240,9 +2078,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>0</v>
-      </c>
+      <c r="A83" s="1"/>
       <c r="B83" s="1" t="str" cm="1">
         <f t="array" ref="B83">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A83)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2261,9 +2097,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>0</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A84)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2282,9 +2116,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>0</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="str" cm="1">
         <f t="array" ref="B85">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A85)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2303,9 +2135,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>0</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86" s="1" t="str" cm="1">
         <f t="array" ref="B86">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A86)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2324,9 +2154,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>0</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87" s="1" t="str" cm="1">
         <f t="array" ref="B87">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A87)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2345,9 +2173,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>0</v>
-      </c>
+      <c r="A88" s="1"/>
       <c r="B88" s="1" t="str" cm="1">
         <f t="array" ref="B88">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A88)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2366,9 +2192,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>1</v>
-      </c>
+      <c r="A89" s="1"/>
       <c r="B89" s="1" t="str" cm="1">
         <f t="array" ref="B89">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A89)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2387,9 +2211,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>0</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="B90" s="1" t="str" cm="1">
         <f t="array" ref="B90">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A90)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2408,9 +2230,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>0</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="1" t="str" cm="1">
         <f t="array" ref="B91">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A91)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2429,9 +2249,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>0</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92" s="1" t="str" cm="1">
         <f t="array" ref="B92">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A92)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2450,9 +2268,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>1</v>
-      </c>
+      <c r="A93" s="1"/>
       <c r="B93" s="1" t="str" cm="1">
         <f t="array" ref="B93">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A93)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2471,9 +2287,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>1</v>
-      </c>
+      <c r="A94" s="1"/>
       <c r="B94" s="1" t="str" cm="1">
         <f t="array" ref="B94">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A94)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2492,9 +2306,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>0</v>
-      </c>
+      <c r="A95" s="1"/>
       <c r="B95" s="1" t="str" cm="1">
         <f t="array" ref="B95">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A95)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2513,9 +2325,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>0</v>
-      </c>
+      <c r="A96" s="1"/>
       <c r="B96" s="1" t="str" cm="1">
         <f t="array" ref="B96">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A96)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2534,9 +2344,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>0</v>
-      </c>
+      <c r="A97" s="1"/>
       <c r="B97" s="1" t="str" cm="1">
         <f t="array" ref="B97">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A97)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2555,9 +2363,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>1</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98" s="1" t="str" cm="1">
         <f t="array" ref="B98">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A98)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2576,9 +2382,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>0</v>
-      </c>
+      <c r="A99" s="1"/>
       <c r="B99" s="1" t="str" cm="1">
         <f t="array" ref="B99">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A99)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2597,9 +2401,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>0</v>
-      </c>
+      <c r="A100" s="1"/>
       <c r="B100" s="1" t="str" cm="1">
         <f t="array" ref="B100">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A100)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2618,9 +2420,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>1</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="B101" s="1" t="str" cm="1">
         <f t="array" ref="B101">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A101)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2639,9 +2439,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>1</v>
-      </c>
+      <c r="A102" s="1"/>
       <c r="B102" s="1" t="str" cm="1">
         <f t="array" ref="B102">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A102)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2660,9 +2458,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>1</v>
-      </c>
+      <c r="A103" s="1"/>
       <c r="B103" s="1" t="str" cm="1">
         <f t="array" ref="B103">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A103)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2681,9 +2477,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>0</v>
-      </c>
+      <c r="A104" s="1"/>
       <c r="B104" s="1" t="str" cm="1">
         <f t="array" ref="B104">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A104)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2702,9 +2496,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>0</v>
-      </c>
+      <c r="A105" s="1"/>
       <c r="B105" s="1" t="str" cm="1">
         <f t="array" ref="B105">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A105)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2723,9 +2515,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>0</v>
-      </c>
+      <c r="A106" s="1"/>
       <c r="B106" s="1" t="str" cm="1">
         <f t="array" ref="B106">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A106)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2744,9 +2534,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>0</v>
-      </c>
+      <c r="A107" s="1"/>
       <c r="B107" s="1" t="str" cm="1">
         <f t="array" ref="B107">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A107)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2765,9 +2553,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>1</v>
-      </c>
+      <c r="A108" s="1"/>
       <c r="B108" s="1" t="str" cm="1">
         <f t="array" ref="B108">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A108)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2786,9 +2572,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>0</v>
-      </c>
+      <c r="A109" s="1"/>
       <c r="B109" s="1" t="str" cm="1">
         <f t="array" ref="B109">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A109)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2807,9 +2591,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>0</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110" s="1" t="str" cm="1">
         <f t="array" ref="B110">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A110)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2828,9 +2610,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>0</v>
-      </c>
+      <c r="A111" s="1"/>
       <c r="B111" s="1" t="str" cm="1">
         <f t="array" ref="B111">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A111)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2849,9 +2629,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>0</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="1" t="str" cm="1">
         <f t="array" ref="B112">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A112)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2870,9 +2648,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>0</v>
-      </c>
+      <c r="A113" s="1"/>
       <c r="B113" s="1" t="str" cm="1">
         <f t="array" ref="B113">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A113)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2891,9 +2667,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>1</v>
-      </c>
+      <c r="A114" s="1"/>
       <c r="B114" s="1" t="str" cm="1">
         <f t="array" ref="B114">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A114)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2912,9 +2686,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>0</v>
-      </c>
+      <c r="A115" s="1"/>
       <c r="B115" s="1" t="str" cm="1">
         <f t="array" ref="B115">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A115)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2933,9 +2705,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>0</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="B116" s="1" t="str" cm="1">
         <f t="array" ref="B116">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A116)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2954,9 +2724,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>0</v>
-      </c>
+      <c r="A117" s="1"/>
       <c r="B117" s="1" t="str" cm="1">
         <f t="array" ref="B117">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A117)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2975,9 +2743,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>0</v>
-      </c>
+      <c r="A118" s="1"/>
       <c r="B118" s="1" t="str" cm="1">
         <f t="array" ref="B118">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A118)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2996,9 +2762,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>0</v>
-      </c>
+      <c r="A119" s="1"/>
       <c r="B119" s="1" t="str" cm="1">
         <f t="array" ref="B119">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A119)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3017,9 +2781,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>1</v>
-      </c>
+      <c r="A120" s="1"/>
       <c r="B120" s="1" t="str" cm="1">
         <f t="array" ref="B120">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A120)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3038,9 +2800,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>0</v>
-      </c>
+      <c r="A121" s="1"/>
       <c r="B121" s="1" t="str" cm="1">
         <f t="array" ref="B121">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A121)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3059,9 +2819,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>0</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122" s="1" t="str" cm="1">
         <f t="array" ref="B122">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A122)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3080,9 +2838,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>0</v>
-      </c>
+      <c r="A123" s="1"/>
       <c r="B123" s="1" t="str" cm="1">
         <f t="array" ref="B123">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A123)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3101,9 +2857,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>0</v>
-      </c>
+      <c r="A124" s="1"/>
       <c r="B124" s="1" t="str" cm="1">
         <f t="array" ref="B124">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A124)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3122,9 +2876,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>0</v>
-      </c>
+      <c r="A125" s="1"/>
       <c r="B125" s="1" t="str" cm="1">
         <f t="array" ref="B125">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A125)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3143,9 +2895,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>1</v>
-      </c>
+      <c r="A126" s="1"/>
       <c r="B126" s="1" t="str" cm="1">
         <f t="array" ref="B126">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A126)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3164,9 +2914,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>0</v>
-      </c>
+      <c r="A127" s="1"/>
       <c r="B127" s="1" t="str" cm="1">
         <f t="array" ref="B127">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A127)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3185,9 +2933,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>0</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128" s="1" t="str" cm="1">
         <f t="array" ref="B128">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A128)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3206,9 +2952,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>0</v>
-      </c>
+      <c r="A129" s="1"/>
       <c r="B129" s="1" t="str" cm="1">
         <f t="array" ref="B129">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A129)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3227,9 +2971,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>1</v>
-      </c>
+      <c r="A130" s="1"/>
       <c r="B130" s="1" t="str" cm="1">
         <f t="array" ref="B130">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A130)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3248,9 +2990,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>1</v>
-      </c>
+      <c r="A131" s="1"/>
       <c r="B131" s="1" t="str" cm="1">
         <f t="array" ref="B131">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A131)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3269,9 +3009,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>0</v>
-      </c>
+      <c r="A132" s="1"/>
       <c r="B132" s="1" t="str" cm="1">
         <f t="array" ref="B132">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A132)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3290,9 +3028,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>0</v>
-      </c>
+      <c r="A133" s="1"/>
       <c r="B133" s="1" t="str" cm="1">
         <f t="array" ref="B133">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A133)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3311,9 +3047,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>0</v>
-      </c>
+      <c r="A134" s="1"/>
       <c r="B134" s="1" t="str" cm="1">
         <f t="array" ref="B134">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A134)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3332,9 +3066,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>0</v>
-      </c>
+      <c r="A135" s="1"/>
       <c r="B135" s="1" t="str" cm="1">
         <f t="array" ref="B135">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A135)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3353,9 +3085,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>0</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136" s="1" t="str" cm="1">
         <f t="array" ref="B136">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A136)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3374,9 +3104,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>0</v>
-      </c>
+      <c r="A137" s="1"/>
       <c r="B137" s="1" t="str" cm="1">
         <f t="array" ref="B137">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A137)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3395,9 +3123,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>0</v>
-      </c>
+      <c r="A138" s="1"/>
       <c r="B138" s="1" t="str" cm="1">
         <f t="array" ref="B138">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A138)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3416,9 +3142,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>0</v>
-      </c>
+      <c r="A139" s="1"/>
       <c r="B139" s="1" t="str" cm="1">
         <f t="array" ref="B139">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A139)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3437,9 +3161,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>0</v>
-      </c>
+      <c r="A140" s="1"/>
       <c r="B140" s="1" t="str" cm="1">
         <f t="array" ref="B140">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A140)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3458,9 +3180,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>1</v>
-      </c>
+      <c r="A141" s="1"/>
       <c r="B141" s="1" t="str" cm="1">
         <f t="array" ref="B141">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A141)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3479,9 +3199,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>0</v>
-      </c>
+      <c r="A142" s="1"/>
       <c r="B142" s="1" t="str" cm="1">
         <f t="array" ref="B142">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A142)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3500,9 +3218,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>0</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="B143" s="1" t="str" cm="1">
         <f t="array" ref="B143">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A143)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3521,9 +3237,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>0</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144" s="1" t="str" cm="1">
         <f t="array" ref="B144">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A144)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3542,9 +3256,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>0</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="B145" s="1" t="str" cm="1">
         <f t="array" ref="B145">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A145)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3563,9 +3275,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>1</v>
-      </c>
+      <c r="A146" s="1"/>
       <c r="B146" s="1" t="str" cm="1">
         <f t="array" ref="B146">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A146)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3584,9 +3294,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>1</v>
-      </c>
+      <c r="A147" s="1"/>
       <c r="B147" s="1" t="str" cm="1">
         <f t="array" ref="B147">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A147)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3605,9 +3313,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>1</v>
-      </c>
+      <c r="A148" s="1"/>
       <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A148)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3626,9 +3332,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>0</v>
-      </c>
+      <c r="A149" s="1"/>
       <c r="B149" s="1" t="str" cm="1">
         <f t="array" ref="B149">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A149)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3647,9 +3351,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>0</v>
-      </c>
+      <c r="A150" s="1"/>
       <c r="B150" s="1" t="str" cm="1">
         <f t="array" ref="B150">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A150)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3668,9 +3370,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>1</v>
-      </c>
+      <c r="A151" s="1"/>
       <c r="B151" s="1" t="str" cm="1">
         <f t="array" ref="B151">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A151)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3689,9 +3389,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>0</v>
-      </c>
+      <c r="A152" s="1"/>
       <c r="B152" s="1" t="str" cm="1">
         <f t="array" ref="B152">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A152)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3710,9 +3408,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>1</v>
-      </c>
+      <c r="A153" s="1"/>
       <c r="B153" s="1" t="str" cm="1">
         <f t="array" ref="B153">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A153)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3731,9 +3427,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>0</v>
-      </c>
+      <c r="A154" s="1"/>
       <c r="B154" s="1" t="str" cm="1">
         <f t="array" ref="B154">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A154)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3752,9 +3446,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>0</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="B155" s="1" t="str" cm="1">
         <f t="array" ref="B155">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A155)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3773,9 +3465,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>0</v>
-      </c>
+      <c r="A156" s="1"/>
       <c r="B156" s="1" t="str" cm="1">
         <f t="array" ref="B156">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A156)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3794,9 +3484,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>0</v>
-      </c>
+      <c r="A157" s="1"/>
       <c r="B157" s="1" t="str" cm="1">
         <f t="array" ref="B157">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A157)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3815,9 +3503,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>0</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158" s="1" t="str" cm="1">
         <f t="array" ref="B158">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A158)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3836,9 +3522,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>0</v>
-      </c>
+      <c r="A159" s="1"/>
       <c r="B159" s="1" t="str" cm="1">
         <f t="array" ref="B159">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A159)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3857,9 +3541,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>0</v>
-      </c>
+      <c r="A160" s="1"/>
       <c r="B160" s="1" t="str" cm="1">
         <f t="array" ref="B160">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A160)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3878,9 +3560,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>0</v>
-      </c>
+      <c r="A161" s="1"/>
       <c r="B161" s="1" t="str" cm="1">
         <f t="array" ref="B161">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A161)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3899,9 +3579,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>0</v>
-      </c>
+      <c r="A162" s="1"/>
       <c r="B162" s="1" t="str" cm="1">
         <f t="array" ref="B162">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A162)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3920,9 +3598,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>0</v>
-      </c>
+      <c r="A163" s="1"/>
       <c r="B163" s="1" t="str" cm="1">
         <f t="array" ref="B163">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A163)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3941,9 +3617,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>0</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164" s="1" t="str" cm="1">
         <f t="array" ref="B164">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A164)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3962,9 +3636,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>0</v>
-      </c>
+      <c r="A165" s="1"/>
       <c r="B165" s="1" t="str" cm="1">
         <f t="array" ref="B165">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A165)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3983,9 +3655,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>0</v>
-      </c>
+      <c r="A166" s="1"/>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4004,9 +3674,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>1</v>
-      </c>
+      <c r="A167" s="1"/>
       <c r="B167" s="1" t="str" cm="1">
         <f t="array" ref="B167">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A167)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4025,9 +3693,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>0</v>
-      </c>
+      <c r="A168" s="1"/>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4046,9 +3712,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>0</v>
-      </c>
+      <c r="A169" s="1"/>
       <c r="B169" s="1" t="str" cm="1">
         <f t="array" ref="B169">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A169)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4067,9 +3731,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>0</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170" s="1" t="str" cm="1">
         <f t="array" ref="B170">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A170)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4088,9 +3750,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>0</v>
-      </c>
+      <c r="A171" s="1"/>
       <c r="B171" s="1" t="str" cm="1">
         <f t="array" ref="B171">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A171)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4109,9 +3769,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>0</v>
-      </c>
+      <c r="A172" s="1"/>
       <c r="B172" s="1" t="str" cm="1">
         <f t="array" ref="B172">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A172)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4130,9 +3788,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>0</v>
-      </c>
+      <c r="A173" s="1"/>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4151,9 +3807,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>1</v>
-      </c>
+      <c r="A174" s="1"/>
       <c r="B174" s="1" t="str" cm="1">
         <f t="array" ref="B174">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A174)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4172,9 +3826,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>0</v>
-      </c>
+      <c r="A175" s="1"/>
       <c r="B175" s="1" t="str" cm="1">
         <f t="array" ref="B175">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A175)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4193,9 +3845,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>0</v>
-      </c>
+      <c r="A176" s="1"/>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4214,9 +3864,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>0</v>
-      </c>
+      <c r="A177" s="1"/>
       <c r="B177" s="1" t="str" cm="1">
         <f t="array" ref="B177">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A177)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4235,9 +3883,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>0</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178" s="1" t="str" cm="1">
         <f t="array" ref="B178">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A178)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4256,9 +3902,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>0</v>
-      </c>
+      <c r="A179" s="1"/>
       <c r="B179" s="1" t="str" cm="1">
         <f t="array" ref="B179">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A179)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4277,9 +3921,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>0</v>
-      </c>
+      <c r="A180" s="1"/>
       <c r="B180" s="1" t="str" cm="1">
         <f t="array" ref="B180">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A180)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4298,9 +3940,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>0</v>
-      </c>
+      <c r="A181" s="1"/>
       <c r="B181" s="1" t="str" cm="1">
         <f t="array" ref="B181">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A181)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4319,9 +3959,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>0</v>
-      </c>
+      <c r="A182" s="1"/>
       <c r="B182" s="1" t="str" cm="1">
         <f t="array" ref="B182">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A182)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4340,9 +3978,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>0</v>
-      </c>
+      <c r="A183" s="1"/>
       <c r="B183" s="1" t="str" cm="1">
         <f t="array" ref="B183">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A183)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4361,9 +3997,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>0</v>
-      </c>
+      <c r="A184" s="1"/>
       <c r="B184" s="1" t="str" cm="1">
         <f t="array" ref="B184">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A184)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4382,9 +4016,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>0</v>
-      </c>
+      <c r="A185" s="1"/>
       <c r="B185" s="1" t="str" cm="1">
         <f t="array" ref="B185">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A185)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4403,9 +4035,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>0</v>
-      </c>
+      <c r="A186" s="1"/>
       <c r="B186" s="1" t="str" cm="1">
         <f t="array" ref="B186">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A186)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4424,9 +4054,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>1</v>
-      </c>
+      <c r="A187" s="1"/>
       <c r="B187" s="1" t="str" cm="1">
         <f t="array" ref="B187">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A187)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4445,9 +4073,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>0</v>
-      </c>
+      <c r="A188" s="1"/>
       <c r="B188" s="1" t="str" cm="1">
         <f t="array" ref="B188">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A188)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4466,9 +4092,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>0</v>
-      </c>
+      <c r="A189" s="1"/>
       <c r="B189" s="1" t="str" cm="1">
         <f t="array" ref="B189">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A189)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4487,9 +4111,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>1</v>
-      </c>
+      <c r="A190" s="1"/>
       <c r="B190" s="1" t="str" cm="1">
         <f t="array" ref="B190">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A190)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4508,9 +4130,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>0</v>
-      </c>
+      <c r="A191" s="1"/>
       <c r="B191" s="1" t="str" cm="1">
         <f t="array" ref="B191">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A191)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4529,9 +4149,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>0</v>
-      </c>
+      <c r="A192" s="1"/>
       <c r="B192" s="1" t="str" cm="1">
         <f t="array" ref="B192">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A192)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4550,9 +4168,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>1</v>
-      </c>
+      <c r="A193" s="1"/>
       <c r="B193" s="1" t="str" cm="1">
         <f t="array" ref="B193">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A193)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4571,9 +4187,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>0</v>
-      </c>
+      <c r="A194" s="1"/>
       <c r="B194" s="1" t="str" cm="1">
         <f t="array" ref="B194">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A194)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4592,9 +4206,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>0</v>
-      </c>
+      <c r="A195" s="1"/>
       <c r="B195" s="1" t="str" cm="1">
         <f t="array" ref="B195">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A195)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4613,9 +4225,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>0</v>
-      </c>
+      <c r="A196" s="1"/>
       <c r="B196" s="1" t="str" cm="1">
         <f t="array" ref="B196">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A196)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4634,9 +4244,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>0</v>
-      </c>
+      <c r="A197" s="1"/>
       <c r="B197" s="1" t="str" cm="1">
         <f t="array" ref="B197">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A197)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4655,9 +4263,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>0</v>
-      </c>
+      <c r="A198" s="1"/>
       <c r="B198" s="1" t="str" cm="1">
         <f t="array" ref="B198">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A198)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4676,9 +4282,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>1</v>
-      </c>
+      <c r="A199" s="1"/>
       <c r="B199" s="1" t="str" cm="1">
         <f t="array" ref="B199">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A199)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4697,9 +4301,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>0</v>
-      </c>
+      <c r="A200" s="1"/>
       <c r="B200" s="1" t="str" cm="1">
         <f t="array" ref="B200">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A200)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4718,9 +4320,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>0</v>
-      </c>
+      <c r="A201" s="1"/>
       <c r="B201" s="1" t="str" cm="1">
         <f t="array" ref="B201">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A201)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4739,9 +4339,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>0</v>
-      </c>
+      <c r="A202" s="1"/>
       <c r="B202" s="1" t="str" cm="1">
         <f t="array" ref="B202">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A202)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4760,9 +4358,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>1</v>
-      </c>
+      <c r="A203" s="1"/>
       <c r="B203" s="1" t="str" cm="1">
         <f t="array" ref="B203">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A203)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4781,9 +4377,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>0</v>
-      </c>
+      <c r="A204" s="1"/>
       <c r="B204" s="1" t="str" cm="1">
         <f t="array" ref="B204">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A204)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4802,9 +4396,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>0</v>
-      </c>
+      <c r="A205" s="1"/>
       <c r="B205" s="1" t="str" cm="1">
         <f t="array" ref="B205">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A205)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4823,9 +4415,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>0</v>
-      </c>
+      <c r="A206" s="1"/>
       <c r="B206" s="1" t="str" cm="1">
         <f t="array" ref="B206">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A206)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4844,9 +4434,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>0</v>
-      </c>
+      <c r="A207" s="1"/>
       <c r="B207" s="1" t="str" cm="1">
         <f t="array" ref="B207">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A207)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4865,9 +4453,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>1</v>
-      </c>
+      <c r="A208" s="1"/>
       <c r="B208" s="1" t="str" cm="1">
         <f t="array" ref="B208">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A208)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4886,9 +4472,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>0</v>
-      </c>
+      <c r="A209" s="1"/>
       <c r="B209" s="1" t="str" cm="1">
         <f t="array" ref="B209">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A209)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4907,9 +4491,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>1</v>
-      </c>
+      <c r="A210" s="1"/>
       <c r="B210" s="1" t="str" cm="1">
         <f t="array" ref="B210">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A210)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4928,9 +4510,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>0</v>
-      </c>
+      <c r="A211" s="1"/>
       <c r="B211" s="1" t="str" cm="1">
         <f t="array" ref="B211">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A211)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4949,9 +4529,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>1</v>
-      </c>
+      <c r="A212" s="1"/>
       <c r="B212" s="1" t="str" cm="1">
         <f t="array" ref="B212">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A212)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4970,9 +4548,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>0</v>
-      </c>
+      <c r="A213" s="1"/>
       <c r="B213" s="1" t="str" cm="1">
         <f t="array" ref="B213">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A213)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4991,9 +4567,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>0</v>
-      </c>
+      <c r="A214" s="1"/>
       <c r="B214" s="1" t="str" cm="1">
         <f t="array" ref="B214">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A214)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5012,9 +4586,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>0</v>
-      </c>
+      <c r="A215" s="1"/>
       <c r="B215" s="1" t="str" cm="1">
         <f t="array" ref="B215">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A215)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5033,9 +4605,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>0</v>
-      </c>
+      <c r="A216" s="1"/>
       <c r="B216" s="1" t="str" cm="1">
         <f t="array" ref="B216">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A216)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5054,9 +4624,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>1</v>
-      </c>
+      <c r="A217" s="1"/>
       <c r="B217" s="1" t="str" cm="1">
         <f t="array" ref="B217">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A217)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5075,9 +4643,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>0</v>
-      </c>
+      <c r="A218" s="1"/>
       <c r="B218" s="1" t="str" cm="1">
         <f t="array" ref="B218">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A218)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5096,9 +4662,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>0</v>
-      </c>
+      <c r="A219" s="1"/>
       <c r="B219" s="1" t="str" cm="1">
         <f t="array" ref="B219">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A219)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5117,9 +4681,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>0</v>
-      </c>
+      <c r="A220" s="1"/>
       <c r="B220" s="1" t="str" cm="1">
         <f t="array" ref="B220">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A220)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5138,9 +4700,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>1</v>
-      </c>
+      <c r="A221" s="1"/>
       <c r="B221" s="1" t="str" cm="1">
         <f t="array" ref="B221">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A221)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5159,9 +4719,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>0</v>
-      </c>
+      <c r="A222" s="1"/>
       <c r="B222" s="1" t="str" cm="1">
         <f t="array" ref="B222">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A222)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5180,9 +4738,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>0</v>
-      </c>
+      <c r="A223" s="1"/>
       <c r="B223" s="1" t="str" cm="1">
         <f t="array" ref="B223">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A223)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5201,9 +4757,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>0</v>
-      </c>
+      <c r="A224" s="1"/>
       <c r="B224" s="1" t="str" cm="1">
         <f t="array" ref="B224">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A224)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5222,9 +4776,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>0</v>
-      </c>
+      <c r="A225" s="1"/>
       <c r="B225" s="1" t="str" cm="1">
         <f t="array" ref="B225">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A225)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5243,9 +4795,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>0</v>
-      </c>
+      <c r="A226" s="1"/>
       <c r="B226" s="1" t="str" cm="1">
         <f t="array" ref="B226">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A226)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5264,9 +4814,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>0</v>
-      </c>
+      <c r="A227" s="1"/>
       <c r="B227" s="1" t="str" cm="1">
         <f t="array" ref="B227">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A227)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5285,9 +4833,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>0</v>
-      </c>
+      <c r="A228" s="1"/>
       <c r="B228" s="1" t="str" cm="1">
         <f t="array" ref="B228">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A228)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5306,9 +4852,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>0</v>
-      </c>
+      <c r="A229" s="1"/>
       <c r="B229" s="1" t="str" cm="1">
         <f t="array" ref="B229">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A229)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5327,9 +4871,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>0</v>
-      </c>
+      <c r="A230" s="1"/>
       <c r="B230" s="1" t="str" cm="1">
         <f t="array" ref="B230">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A230)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5348,9 +4890,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>0</v>
-      </c>
+      <c r="A231" s="1"/>
       <c r="B231" s="1" t="str" cm="1">
         <f t="array" ref="B231">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A231)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5369,9 +4909,7 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>0</v>
-      </c>
+      <c r="A232" s="1"/>
       <c r="B232" s="1" t="str" cm="1">
         <f t="array" ref="B232">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A232)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5390,9 +4928,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>1</v>
-      </c>
+      <c r="A233" s="1"/>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5411,9 +4947,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>0</v>
-      </c>
+      <c r="A234" s="1"/>
       <c r="B234" s="1" t="str" cm="1">
         <f t="array" ref="B234">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A234)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5432,9 +4966,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>0</v>
-      </c>
+      <c r="A235" s="1"/>
       <c r="B235" s="1" t="str" cm="1">
         <f t="array" ref="B235">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A235)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5453,9 +4985,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>0</v>
-      </c>
+      <c r="A236" s="1"/>
       <c r="B236" s="1" t="str" cm="1">
         <f t="array" ref="B236">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A236)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5474,9 +5004,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>1</v>
-      </c>
+      <c r="A237" s="1"/>
       <c r="B237" s="1" t="str" cm="1">
         <f t="array" ref="B237">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A237)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5495,9 +5023,7 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>0</v>
-      </c>
+      <c r="A238" s="1"/>
       <c r="B238" s="1" t="str" cm="1">
         <f t="array" ref="B238">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A238)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5516,9 +5042,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>0</v>
-      </c>
+      <c r="A239" s="1"/>
       <c r="B239" s="1" t="str" cm="1">
         <f t="array" ref="B239">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A239)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5537,9 +5061,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>0</v>
-      </c>
+      <c r="A240" s="1"/>
       <c r="B240" s="1" t="str" cm="1">
         <f t="array" ref="B240">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A240)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5558,9 +5080,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>1</v>
-      </c>
+      <c r="A241" s="1"/>
       <c r="B241" s="1" t="str" cm="1">
         <f t="array" ref="B241">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A241)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5579,9 +5099,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>0</v>
-      </c>
+      <c r="A242" s="1"/>
       <c r="B242" s="1" t="str" cm="1">
         <f t="array" ref="B242">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A242)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5600,9 +5118,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>0</v>
-      </c>
+      <c r="A243" s="1"/>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5621,9 +5137,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>1</v>
-      </c>
+      <c r="A244" s="1"/>
       <c r="B244" s="1" t="str" cm="1">
         <f t="array" ref="B244">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A244)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5642,9 +5156,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>0</v>
-      </c>
+      <c r="A245" s="1"/>
       <c r="B245" s="1" t="str" cm="1">
         <f t="array" ref="B245">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A245)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5663,9 +5175,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>0</v>
-      </c>
+      <c r="A246" s="1"/>
       <c r="B246" s="1" t="str" cm="1">
         <f t="array" ref="B246">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A246)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5684,9 +5194,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>0</v>
-      </c>
+      <c r="A247" s="1"/>
       <c r="B247" s="1" t="str" cm="1">
         <f t="array" ref="B247">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A247)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5705,9 +5213,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>0</v>
-      </c>
+      <c r="A248" s="1"/>
       <c r="B248" s="1" t="str" cm="1">
         <f t="array" ref="B248">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A248)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5726,9 +5232,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>1</v>
-      </c>
+      <c r="A249" s="1"/>
       <c r="B249" s="1" t="str" cm="1">
         <f t="array" ref="B249">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A249)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5747,9 +5251,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>0</v>
-      </c>
+      <c r="A250" s="1"/>
       <c r="B250" s="1" t="str" cm="1">
         <f t="array" ref="B250">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A250)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5768,9 +5270,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>1</v>
-      </c>
+      <c r="A251" s="1"/>
       <c r="B251" s="1" t="str" cm="1">
         <f t="array" ref="B251">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A251)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5789,9 +5289,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>0</v>
-      </c>
+      <c r="A252" s="1"/>
       <c r="B252" s="1" t="str" cm="1">
         <f t="array" ref="B252">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A252)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5810,9 +5308,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>0</v>
-      </c>
+      <c r="A253" s="1"/>
       <c r="B253" s="1" t="str" cm="1">
         <f t="array" ref="B253">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A253)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5831,9 +5327,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>1</v>
-      </c>
+      <c r="A254" s="1"/>
       <c r="B254" s="1" t="str" cm="1">
         <f t="array" ref="B254">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A254)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5852,9 +5346,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>0</v>
-      </c>
+      <c r="A255" s="1"/>
       <c r="B255" s="1" t="str" cm="1">
         <f t="array" ref="B255">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A255)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5873,9 +5365,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>0</v>
-      </c>
+      <c r="A256" s="1"/>
       <c r="B256" s="1" t="str" cm="1">
         <f t="array" ref="B256">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A256)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5894,9 +5384,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>0</v>
-      </c>
+      <c r="A257" s="1"/>
       <c r="B257" s="1" t="str" cm="1">
         <f t="array" ref="B257">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A257)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5915,9 +5403,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>0</v>
-      </c>
+      <c r="A258" s="1"/>
       <c r="B258" s="1" t="str" cm="1">
         <f t="array" ref="B258">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A258)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5936,9 +5422,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>1</v>
-      </c>
+      <c r="A259" s="1"/>
       <c r="B259" s="1" t="str" cm="1">
         <f t="array" ref="B259">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A259)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5957,9 +5441,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>0</v>
-      </c>
+      <c r="A260" s="1"/>
       <c r="B260" s="1" t="str" cm="1">
         <f t="array" ref="B260">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A260)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5978,9 +5460,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>0</v>
-      </c>
+      <c r="A261" s="1"/>
       <c r="B261" s="1" t="str" cm="1">
         <f t="array" ref="B261">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A261)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5999,9 +5479,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>0</v>
-      </c>
+      <c r="A262" s="1"/>
       <c r="B262" s="1" t="str" cm="1">
         <f t="array" ref="B262">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A262)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6020,9 +5498,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>0</v>
-      </c>
+      <c r="A263" s="1"/>
       <c r="B263" s="1" t="str" cm="1">
         <f t="array" ref="B263">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A263)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6041,9 +5517,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>0</v>
-      </c>
+      <c r="A264" s="1"/>
       <c r="B264" s="1" t="str" cm="1">
         <f t="array" ref="B264">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A264)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6062,9 +5536,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>1</v>
-      </c>
+      <c r="A265" s="1"/>
       <c r="B265" s="1" t="str" cm="1">
         <f t="array" ref="B265">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A265)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6083,9 +5555,7 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>0</v>
-      </c>
+      <c r="A266" s="1"/>
       <c r="B266" s="1" t="str" cm="1">
         <f t="array" ref="B266">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A266)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6104,9 +5574,7 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>0</v>
-      </c>
+      <c r="A267" s="1"/>
       <c r="B267" s="1" t="str" cm="1">
         <f t="array" ref="B267">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A267)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6125,9 +5593,7 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>0</v>
-      </c>
+      <c r="A268" s="1"/>
       <c r="B268" s="1" t="str" cm="1">
         <f t="array" ref="B268">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A268)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6146,9 +5612,7 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>0</v>
-      </c>
+      <c r="A269" s="1"/>
       <c r="B269" s="1" t="str" cm="1">
         <f t="array" ref="B269">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A269)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6167,9 +5631,7 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>1</v>
-      </c>
+      <c r="A270" s="1"/>
       <c r="B270" s="1" t="str" cm="1">
         <f t="array" ref="B270">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A270)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6188,9 +5650,7 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>0</v>
-      </c>
+      <c r="A271" s="1"/>
       <c r="B271" s="1" t="str" cm="1">
         <f t="array" ref="B271">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A271)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6209,9 +5669,7 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>0</v>
-      </c>
+      <c r="A272" s="1"/>
       <c r="B272" s="1" t="str" cm="1">
         <f t="array" ref="B272">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A272)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6230,9 +5688,7 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>0</v>
-      </c>
+      <c r="A273" s="1"/>
       <c r="B273" s="1" t="str" cm="1">
         <f t="array" ref="B273">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A273)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6251,9 +5707,7 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>0</v>
-      </c>
+      <c r="A274" s="1"/>
       <c r="B274" s="1" t="str" cm="1">
         <f t="array" ref="B274">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A274)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6272,9 +5726,7 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>0</v>
-      </c>
+      <c r="A275" s="1"/>
       <c r="B275" s="1" t="str" cm="1">
         <f t="array" ref="B275">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A275)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6293,9 +5745,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>0</v>
-      </c>
+      <c r="A276" s="1"/>
       <c r="B276" s="1" t="str" cm="1">
         <f t="array" ref="B276">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A276)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6314,9 +5764,7 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>0</v>
-      </c>
+      <c r="A277" s="1"/>
       <c r="B277" s="1" t="str" cm="1">
         <f t="array" ref="B277">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A277)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6335,9 +5783,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>0</v>
-      </c>
+      <c r="A278" s="1"/>
       <c r="B278" s="1" t="str" cm="1">
         <f t="array" ref="B278">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A278)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6356,9 +5802,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>0</v>
-      </c>
+      <c r="A279" s="1"/>
       <c r="B279" s="1" t="str" cm="1">
         <f t="array" ref="B279">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A279)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6377,9 +5821,7 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>0</v>
-      </c>
+      <c r="A280" s="1"/>
       <c r="B280" s="1" t="str" cm="1">
         <f t="array" ref="B280">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A280)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6398,9 +5840,7 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>1</v>
-      </c>
+      <c r="A281" s="1"/>
       <c r="B281" s="1" t="str" cm="1">
         <f t="array" ref="B281">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A281)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6419,9 +5859,7 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>0</v>
-      </c>
+      <c r="A282" s="1"/>
       <c r="B282" s="1" t="str" cm="1">
         <f t="array" ref="B282">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A282)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6440,9 +5878,7 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>0</v>
-      </c>
+      <c r="A283" s="1"/>
       <c r="B283" s="1" t="str" cm="1">
         <f t="array" ref="B283">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A283)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6461,9 +5897,7 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>0</v>
-      </c>
+      <c r="A284" s="1"/>
       <c r="B284" s="1" t="str" cm="1">
         <f t="array" ref="B284">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A284)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6482,9 +5916,7 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>1</v>
-      </c>
+      <c r="A285" s="1"/>
       <c r="B285" s="1" t="str" cm="1">
         <f t="array" ref="B285">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A285)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6503,9 +5935,7 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>0</v>
-      </c>
+      <c r="A286" s="1"/>
       <c r="B286" s="1" t="str" cm="1">
         <f t="array" ref="B286">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A286)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6524,9 +5954,7 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>0</v>
-      </c>
+      <c r="A287" s="1"/>
       <c r="B287" s="1" t="str" cm="1">
         <f t="array" ref="B287">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A287)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6545,9 +5973,7 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>1</v>
-      </c>
+      <c r="A288" s="1"/>
       <c r="B288" s="1" t="str" cm="1">
         <f t="array" ref="B288">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A288)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6566,9 +5992,7 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>0</v>
-      </c>
+      <c r="A289" s="1"/>
       <c r="B289" s="1" t="str" cm="1">
         <f t="array" ref="B289">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A289)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6587,9 +6011,7 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>0</v>
-      </c>
+      <c r="A290" s="1"/>
       <c r="B290" s="1" t="str" cm="1">
         <f t="array" ref="B290">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A290)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6608,9 +6030,7 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>0</v>
-      </c>
+      <c r="A291" s="1"/>
       <c r="B291" s="1" t="str" cm="1">
         <f t="array" ref="B291">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A291)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6629,9 +6049,7 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
-        <v>0</v>
-      </c>
+      <c r="A292" s="1"/>
       <c r="B292" s="1" t="str" cm="1">
         <f t="array" ref="B292">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A292)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6650,9 +6068,7 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
-        <v>1</v>
-      </c>
+      <c r="A293" s="1"/>
       <c r="B293" s="1" t="str" cm="1">
         <f t="array" ref="B293">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A293)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6671,9 +6087,7 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
-        <v>0</v>
-      </c>
+      <c r="A294" s="1"/>
       <c r="B294" s="1" t="str" cm="1">
         <f t="array" ref="B294">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A294)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6692,9 +6106,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
-        <v>0</v>
-      </c>
+      <c r="A295" s="1"/>
       <c r="B295" s="1" t="str" cm="1">
         <f t="array" ref="B295">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A295)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6713,9 +6125,7 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>1</v>
-      </c>
+      <c r="A296" s="1"/>
       <c r="B296" s="1" t="str" cm="1">
         <f t="array" ref="B296">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A296)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6734,9 +6144,7 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>1</v>
-      </c>
+      <c r="A297" s="1"/>
       <c r="B297" s="1" t="str" cm="1">
         <f t="array" ref="B297">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A297)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6755,9 +6163,7 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>0</v>
-      </c>
+      <c r="A298" s="1"/>
       <c r="B298" s="1" t="str" cm="1">
         <f t="array" ref="B298">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A298)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6776,9 +6182,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>1</v>
-      </c>
+      <c r="A299" s="1"/>
       <c r="B299" s="1" t="str" cm="1">
         <f t="array" ref="B299">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A299)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6797,9 +6201,7 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>0</v>
-      </c>
+      <c r="A300" s="1"/>
       <c r="B300" s="1" t="str" cm="1">
         <f t="array" ref="B300">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A300)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6818,9 +6220,7 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>0</v>
-      </c>
+      <c r="A301" s="1"/>
       <c r="B301" s="1" t="str" cm="1">
         <f t="array" ref="B301">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A301)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6839,9 +6239,7 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
-        <v>0</v>
-      </c>
+      <c r="A302" s="1"/>
       <c r="B302" s="1" t="str" cm="1">
         <f t="array" ref="B302">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A302)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6860,9 +6258,7 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
-        <v>0</v>
-      </c>
+      <c r="A303" s="1"/>
       <c r="B303" s="1" t="str" cm="1">
         <f t="array" ref="B303">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A303)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6881,9 +6277,7 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
-        <v>0</v>
-      </c>
+      <c r="A304" s="1"/>
       <c r="B304" s="1" t="str" cm="1">
         <f t="array" ref="B304">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A304)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6902,9 +6296,7 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>0</v>
-      </c>
+      <c r="A305" s="1"/>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6923,9 +6315,7 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
-        <v>0</v>
-      </c>
+      <c r="A306" s="1"/>
       <c r="B306" s="1" t="str" cm="1">
         <f t="array" ref="B306">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A306)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6944,9 +6334,7 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
-        <v>0</v>
-      </c>
+      <c r="A307" s="1"/>
       <c r="B307" s="1" t="str" cm="1">
         <f t="array" ref="B307">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A307)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6965,9 +6353,7 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
-        <v>0</v>
-      </c>
+      <c r="A308" s="1"/>
       <c r="B308" s="1" t="str" cm="1">
         <f t="array" ref="B308">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A308)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6986,9 +6372,7 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
-        <v>0</v>
-      </c>
+      <c r="A309" s="1"/>
       <c r="B309" s="1" t="str" cm="1">
         <f t="array" ref="B309">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A309)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7007,9 +6391,7 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
-        <v>1</v>
-      </c>
+      <c r="A310" s="1"/>
       <c r="B310" s="1" t="str" cm="1">
         <f t="array" ref="B310">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A310)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7028,9 +6410,7 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
-        <v>0</v>
-      </c>
+      <c r="A311" s="1"/>
       <c r="B311" s="1" t="str" cm="1">
         <f t="array" ref="B311">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A311)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7049,9 +6429,7 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
-        <v>0</v>
-      </c>
+      <c r="A312" s="1"/>
       <c r="B312" s="1" t="str" cm="1">
         <f t="array" ref="B312">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A312)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7070,9 +6448,7 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
-        <v>0</v>
-      </c>
+      <c r="A313" s="1"/>
       <c r="B313" s="1" t="str" cm="1">
         <f t="array" ref="B313">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A313)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7091,9 +6467,7 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
-        <v>0</v>
-      </c>
+      <c r="A314" s="1"/>
       <c r="B314" s="1" t="str" cm="1">
         <f t="array" ref="B314">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A314)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7112,9 +6486,7 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
-        <v>0</v>
-      </c>
+      <c r="A315" s="1"/>
       <c r="B315" s="1" t="str" cm="1">
         <f t="array" ref="B315">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A315)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7133,9 +6505,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
-        <v>0</v>
-      </c>
+      <c r="A316" s="1"/>
       <c r="B316" s="1" t="str" cm="1">
         <f t="array" ref="B316">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A316)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7154,9 +6524,7 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
-        <v>0</v>
-      </c>
+      <c r="A317" s="1"/>
       <c r="B317" s="1" t="str" cm="1">
         <f t="array" ref="B317">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A317)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7175,9 +6543,7 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
-        <v>1</v>
-      </c>
+      <c r="A318" s="1"/>
       <c r="B318" s="1" t="str" cm="1">
         <f t="array" ref="B318">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A318)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7196,9 +6562,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
-        <v>0</v>
-      </c>
+      <c r="A319" s="1"/>
       <c r="B319" s="1" t="str" cm="1">
         <f t="array" ref="B319">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A319)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7217,9 +6581,7 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
-        <v>0</v>
-      </c>
+      <c r="A320" s="1"/>
       <c r="B320" s="1" t="str" cm="1">
         <f t="array" ref="B320">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A320)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7238,9 +6600,7 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
-        <v>0</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="1" t="str" cm="1">
         <f t="array" ref="B321">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A321)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7259,9 +6619,7 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
-        <v>0</v>
-      </c>
+      <c r="A322" s="1"/>
       <c r="B322" s="1" t="str" cm="1">
         <f t="array" ref="B322">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A322)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7280,9 +6638,7 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
-        <v>0</v>
-      </c>
+      <c r="A323" s="1"/>
       <c r="B323" s="1" t="str" cm="1">
         <f t="array" ref="B323">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A323)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7301,9 +6657,7 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
-        <v>0</v>
-      </c>
+      <c r="A324" s="1"/>
       <c r="B324" s="1" t="str" cm="1">
         <f t="array" ref="B324">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A324)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7322,9 +6676,7 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
-        <v>1</v>
-      </c>
+      <c r="A325" s="1"/>
       <c r="B325" s="1" t="str" cm="1">
         <f t="array" ref="B325">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A325)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7343,9 +6695,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
-        <v>0</v>
-      </c>
+      <c r="A326" s="1"/>
       <c r="B326" s="1" t="str" cm="1">
         <f t="array" ref="B326">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A326)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7364,9 +6714,7 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
-        <v>0</v>
-      </c>
+      <c r="A327" s="1"/>
       <c r="B327" s="1" t="str" cm="1">
         <f t="array" ref="B327">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A327)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7385,9 +6733,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
-        <v>0</v>
-      </c>
+      <c r="A328" s="1"/>
       <c r="B328" s="1" t="str" cm="1">
         <f t="array" ref="B328">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A328)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7406,9 +6752,7 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>0</v>
-      </c>
+      <c r="A329" s="1"/>
       <c r="B329" s="1" t="str" cm="1">
         <f t="array" ref="B329">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A329)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7427,9 +6771,7 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
-        <v>0</v>
-      </c>
+      <c r="A330" s="1"/>
       <c r="B330" s="1" t="str" cm="1">
         <f t="array" ref="B330">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A330)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7448,9 +6790,7 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
-        <v>0</v>
-      </c>
+      <c r="A331" s="1"/>
       <c r="B331" s="1" t="str" cm="1">
         <f t="array" ref="B331">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A331)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7469,9 +6809,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
-        <v>0</v>
-      </c>
+      <c r="A332" s="1"/>
       <c r="B332" s="1" t="str" cm="1">
         <f t="array" ref="B332">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A332)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7490,9 +6828,7 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
-        <v>0</v>
-      </c>
+      <c r="A333" s="1"/>
       <c r="B333" s="1" t="str" cm="1">
         <f t="array" ref="B333">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A333)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7511,9 +6847,7 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
-        <v>0</v>
-      </c>
+      <c r="A334" s="1"/>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7532,9 +6866,7 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
-        <v>0</v>
-      </c>
+      <c r="A335" s="1"/>
       <c r="B335" s="1" t="str" cm="1">
         <f t="array" ref="B335">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A335)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7553,9 +6885,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
-        <v>1</v>
-      </c>
+      <c r="A336" s="1"/>
       <c r="B336" s="1" t="str" cm="1">
         <f t="array" ref="B336">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A336)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7574,9 +6904,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>1</v>
-      </c>
+      <c r="A337" s="1"/>
       <c r="B337" s="1" t="str" cm="1">
         <f t="array" ref="B337">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A337)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7595,9 +6923,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
-        <v>0</v>
-      </c>
+      <c r="A338" s="1"/>
       <c r="B338" s="1" t="str" cm="1">
         <f t="array" ref="B338">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A338)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7616,9 +6942,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
-        <v>0</v>
-      </c>
+      <c r="A339" s="1"/>
       <c r="B339" s="1" t="str" cm="1">
         <f t="array" ref="B339">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A339)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7637,9 +6961,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
-        <v>0</v>
-      </c>
+      <c r="A340" s="1"/>
       <c r="B340" s="1" t="str" cm="1">
         <f t="array" ref="B340">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A340)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7658,9 +6980,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
-        <v>1</v>
-      </c>
+      <c r="A341" s="1"/>
       <c r="B341" s="1" t="str" cm="1">
         <f t="array" ref="B341">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A341)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7679,9 +6999,7 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
-        <v>0</v>
-      </c>
+      <c r="A342" s="1"/>
       <c r="B342" s="1" t="str" cm="1">
         <f t="array" ref="B342">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A342)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7700,9 +7018,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>0</v>
-      </c>
+      <c r="A343" s="1"/>
       <c r="B343" s="1" t="str" cm="1">
         <f t="array" ref="B343">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A343)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7721,9 +7037,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>1</v>
-      </c>
+      <c r="A344" s="1"/>
       <c r="B344" s="1" t="str" cm="1">
         <f t="array" ref="B344">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A344)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7742,9 +7056,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>0</v>
-      </c>
+      <c r="A345" s="1"/>
       <c r="B345" s="1" t="str" cm="1">
         <f t="array" ref="B345">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A345)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7763,9 +7075,7 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>0</v>
-      </c>
+      <c r="A346" s="1"/>
       <c r="B346" s="1" t="str" cm="1">
         <f t="array" ref="B346">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A346)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7784,9 +7094,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>1</v>
-      </c>
+      <c r="A347" s="1"/>
       <c r="B347" s="1" t="str" cm="1">
         <f t="array" ref="B347">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A347)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7805,9 +7113,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>0</v>
-      </c>
+      <c r="A348" s="1"/>
       <c r="B348" s="1" t="str" cm="1">
         <f t="array" ref="B348">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A348)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7826,9 +7132,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>0</v>
-      </c>
+      <c r="A349" s="1"/>
       <c r="B349" s="1" t="str" cm="1">
         <f t="array" ref="B349">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A349)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7847,9 +7151,7 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
-        <v>0</v>
-      </c>
+      <c r="A350" s="1"/>
       <c r="B350" s="1" t="str" cm="1">
         <f t="array" ref="B350">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A350)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7868,9 +7170,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
-        <v>0</v>
-      </c>
+      <c r="A351" s="1"/>
       <c r="B351" s="1" t="str" cm="1">
         <f t="array" ref="B351">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A351)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7889,9 +7189,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
-        <v>0</v>
-      </c>
+      <c r="A352" s="1"/>
       <c r="B352" s="1" t="str" cm="1">
         <f t="array" ref="B352">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A352)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7910,9 +7208,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
-        <v>0</v>
-      </c>
+      <c r="A353" s="1"/>
       <c r="B353" s="1" t="str" cm="1">
         <f t="array" ref="B353">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A353)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7931,9 +7227,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>0</v>
-      </c>
+      <c r="A354" s="1"/>
       <c r="B354" s="1" t="str" cm="1">
         <f t="array" ref="B354">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A354)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7952,9 +7246,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
-        <v>0</v>
-      </c>
+      <c r="A355" s="1"/>
       <c r="B355" s="1" t="str" cm="1">
         <f t="array" ref="B355">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A355)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7973,9 +7265,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
-        <v>0</v>
-      </c>
+      <c r="A356" s="1"/>
       <c r="B356" s="1" t="str" cm="1">
         <f t="array" ref="B356">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A356)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7994,9 +7284,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>1</v>
-      </c>
+      <c r="A357" s="1"/>
       <c r="B357" s="1" t="str" cm="1">
         <f t="array" ref="B357">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A357)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8015,9 +7303,7 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
-        <v>1</v>
-      </c>
+      <c r="A358" s="1"/>
       <c r="B358" s="1" t="str" cm="1">
         <f t="array" ref="B358">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A358)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8036,9 +7322,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
-        <v>1</v>
-      </c>
+      <c r="A359" s="1"/>
       <c r="B359" s="1" t="str" cm="1">
         <f t="array" ref="B359">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A359)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8057,9 +7341,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
-        <v>0</v>
-      </c>
+      <c r="A360" s="1"/>
       <c r="B360" s="1" t="str" cm="1">
         <f t="array" ref="B360">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A360)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8078,9 +7360,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
-        <v>0</v>
-      </c>
+      <c r="A361" s="1"/>
       <c r="B361" s="1" t="str" cm="1">
         <f t="array" ref="B361">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A361)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8099,9 +7379,7 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
-        <v>0</v>
-      </c>
+      <c r="A362" s="1"/>
       <c r="B362" s="1" t="str" cm="1">
         <f t="array" ref="B362">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A362)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8120,9 +7398,7 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
-        <v>0</v>
-      </c>
+      <c r="A363" s="1"/>
       <c r="B363" s="1" t="str" cm="1">
         <f t="array" ref="B363">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A363)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8141,9 +7417,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
-        <v>0</v>
-      </c>
+      <c r="A364" s="1"/>
       <c r="B364" s="1" t="str" cm="1">
         <f t="array" ref="B364">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A364)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8162,9 +7436,7 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
-        <v>0</v>
-      </c>
+      <c r="A365" s="1"/>
       <c r="B365" s="1" t="str" cm="1">
         <f t="array" ref="B365">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A365)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8183,9 +7455,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
-        <v>0</v>
-      </c>
+      <c r="A366" s="1"/>
       <c r="B366" s="1" t="str" cm="1">
         <f t="array" ref="B366">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A366)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8204,9 +7474,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
-        <v>0</v>
-      </c>
+      <c r="A367" s="1"/>
       <c r="B367" s="1" t="str" cm="1">
         <f t="array" ref="B367">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A367)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8225,9 +7493,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
-        <v>0</v>
-      </c>
+      <c r="A368" s="1"/>
       <c r="B368" s="1" t="str" cm="1">
         <f t="array" ref="B368">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A368)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8246,9 +7512,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
-        <v>0</v>
-      </c>
+      <c r="A369" s="1"/>
       <c r="B369" s="1" t="str" cm="1">
         <f t="array" ref="B369">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A369)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8267,9 +7531,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
-        <v>0</v>
-      </c>
+      <c r="A370" s="1"/>
       <c r="B370" s="1" t="str" cm="1">
         <f t="array" ref="B370">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A370)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8288,9 +7550,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
-        <v>1</v>
-      </c>
+      <c r="A371" s="1"/>
       <c r="B371" s="1" t="str" cm="1">
         <f t="array" ref="B371">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A371)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8309,9 +7569,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
-        <v>0</v>
-      </c>
+      <c r="A372" s="1"/>
       <c r="B372" s="1" t="str" cm="1">
         <f t="array" ref="B372">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A372)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8330,9 +7588,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
-        <v>1</v>
-      </c>
+      <c r="A373" s="1"/>
       <c r="B373" s="1" t="str" cm="1">
         <f t="array" ref="B373">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A373)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8351,9 +7607,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
-        <v>0</v>
-      </c>
+      <c r="A374" s="1"/>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8372,9 +7626,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
-        <v>0</v>
-      </c>
+      <c r="A375" s="1"/>
       <c r="B375" s="1" t="str" cm="1">
         <f t="array" ref="B375">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A375)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8393,9 +7645,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>0</v>
-      </c>
+      <c r="A376" s="1"/>
       <c r="B376" s="1" t="str" cm="1">
         <f t="array" ref="B376">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A376)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8414,9 +7664,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
-        <v>1</v>
-      </c>
+      <c r="A377" s="1"/>
       <c r="B377" s="1" t="str" cm="1">
         <f t="array" ref="B377">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A377)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8435,9 +7683,7 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
-        <v>0</v>
-      </c>
+      <c r="A378" s="1"/>
       <c r="B378" s="1" t="str" cm="1">
         <f t="array" ref="B378">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A378)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8456,9 +7702,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
-        <v>0</v>
-      </c>
+      <c r="A379" s="1"/>
       <c r="B379" s="1" t="str" cm="1">
         <f t="array" ref="B379">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A379)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8477,9 +7721,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
-        <v>0</v>
-      </c>
+      <c r="A380" s="1"/>
       <c r="B380" s="1" t="str" cm="1">
         <f t="array" ref="B380">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A380)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8498,9 +7740,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
-        <v>1</v>
-      </c>
+      <c r="A381" s="1"/>
       <c r="B381" s="1" t="str" cm="1">
         <f t="array" ref="B381">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A381)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8519,9 +7759,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
-        <v>0</v>
-      </c>
+      <c r="A382" s="1"/>
       <c r="B382" s="1" t="str" cm="1">
         <f t="array" ref="B382">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A382)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8540,9 +7778,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
-        <v>0</v>
-      </c>
+      <c r="A383" s="1"/>
       <c r="B383" s="1" t="str" cm="1">
         <f t="array" ref="B383">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A383)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8561,9 +7797,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
-        <v>0</v>
-      </c>
+      <c r="A384" s="1"/>
       <c r="B384" s="1" t="str" cm="1">
         <f t="array" ref="B384">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A384)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8582,9 +7816,7 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
-        <v>0</v>
-      </c>
+      <c r="A385" s="1"/>
       <c r="B385" s="1" t="str" cm="1">
         <f t="array" ref="B385">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A385)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8603,9 +7835,7 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
-        <v>0</v>
-      </c>
+      <c r="A386" s="1"/>
       <c r="B386" s="1" t="str" cm="1">
         <f t="array" ref="B386">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A386)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8624,9 +7854,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
-        <v>0</v>
-      </c>
+      <c r="A387" s="1"/>
       <c r="B387" s="1" t="str" cm="1">
         <f t="array" ref="B387">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A387)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8645,9 +7873,7 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
-        <v>1</v>
-      </c>
+      <c r="A388" s="1"/>
       <c r="B388" s="1" t="str" cm="1">
         <f t="array" ref="B388">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A388)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8666,9 +7892,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
-        <v>1</v>
-      </c>
+      <c r="A389" s="1"/>
       <c r="B389" s="1" t="str" cm="1">
         <f t="array" ref="B389">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A389)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8687,9 +7911,7 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
-        <v>0</v>
-      </c>
+      <c r="A390" s="1"/>
       <c r="B390" s="1" t="str" cm="1">
         <f t="array" ref="B390">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A390)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8708,9 +7930,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
-        <v>1</v>
-      </c>
+      <c r="A391" s="1"/>
       <c r="B391" s="1" t="str" cm="1">
         <f t="array" ref="B391">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A391)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8729,9 +7949,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
-        <v>0</v>
-      </c>
+      <c r="A392" s="1"/>
       <c r="B392" s="1" t="str" cm="1">
         <f t="array" ref="B392">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A392)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8750,9 +7968,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
-        <v>0</v>
-      </c>
+      <c r="A393" s="1"/>
       <c r="B393" s="1" t="str" cm="1">
         <f t="array" ref="B393">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A393)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8771,9 +7987,7 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
-        <v>0</v>
-      </c>
+      <c r="A394" s="1"/>
       <c r="B394" s="1" t="str" cm="1">
         <f t="array" ref="B394">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A394)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8792,9 +8006,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
-        <v>1</v>
-      </c>
+      <c r="A395" s="1"/>
       <c r="B395" s="1" t="str" cm="1">
         <f t="array" ref="B395">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A395)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8813,9 +8025,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
-        <v>0</v>
-      </c>
+      <c r="A396" s="1"/>
       <c r="B396" s="1" t="str" cm="1">
         <f t="array" ref="B396">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A396)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8834,9 +8044,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
-        <v>0</v>
-      </c>
+      <c r="A397" s="1"/>
       <c r="B397" s="1" t="str" cm="1">
         <f t="array" ref="B397">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A397)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8855,9 +8063,7 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
-        <v>1</v>
-      </c>
+      <c r="A398" s="1"/>
       <c r="B398" s="1" t="str" cm="1">
         <f t="array" ref="B398">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A398)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8876,9 +8082,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
-        <v>0</v>
-      </c>
+      <c r="A399" s="1"/>
       <c r="B399" s="1" t="str" cm="1">
         <f t="array" ref="B399">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A399)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8897,9 +8101,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
-        <v>0</v>
-      </c>
+      <c r="A400" s="1"/>
       <c r="B400" s="1" t="str" cm="1">
         <f t="array" ref="B400">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A400)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8918,9 +8120,7 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
-        <v>0</v>
-      </c>
+      <c r="A401" s="1"/>
       <c r="B401" s="1" t="str" cm="1">
         <f t="array" ref="B401">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A401)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8939,9 +8139,7 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
-        <v>1</v>
-      </c>
+      <c r="A402" s="1"/>
       <c r="B402" s="1" t="str" cm="1">
         <f t="array" ref="B402">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A402)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8960,9 +8158,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
-        <v>0</v>
-      </c>
+      <c r="A403" s="1"/>
       <c r="B403" s="1" t="str" cm="1">
         <f t="array" ref="B403">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A403)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8981,9 +8177,7 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
-        <v>0</v>
-      </c>
+      <c r="A404" s="1"/>
       <c r="B404" s="1" t="str" cm="1">
         <f t="array" ref="B404">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A404)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9002,9 +8196,7 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
-        <v>0</v>
-      </c>
+      <c r="A405" s="1"/>
       <c r="B405" s="1" t="str" cm="1">
         <f t="array" ref="B405">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A405)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9023,9 +8215,7 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
-        <v>0</v>
-      </c>
+      <c r="A406" s="1"/>
       <c r="B406" s="1" t="str" cm="1">
         <f t="array" ref="B406">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A406)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9044,9 +8234,7 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
-        <v>0</v>
-      </c>
+      <c r="A407" s="1"/>
       <c r="B407" s="1" t="str" cm="1">
         <f t="array" ref="B407">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A407)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9065,9 +8253,7 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
-        <v>0</v>
-      </c>
+      <c r="A408" s="1"/>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9086,9 +8272,7 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
-        <v>0</v>
-      </c>
+      <c r="A409" s="1"/>
       <c r="B409" s="1" t="str" cm="1">
         <f t="array" ref="B409">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A409)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9107,9 +8291,7 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
-        <v>0</v>
-      </c>
+      <c r="A410" s="1"/>
       <c r="B410" s="1" t="str" cm="1">
         <f t="array" ref="B410">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A410)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9128,9 +8310,7 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
-        <v>0</v>
-      </c>
+      <c r="A411" s="1"/>
       <c r="B411" s="1" t="str" cm="1">
         <f t="array" ref="B411">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A411)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9149,9 +8329,7 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
-        <v>0</v>
-      </c>
+      <c r="A412" s="1"/>
       <c r="B412" s="1" t="str" cm="1">
         <f t="array" ref="B412">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A412)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9170,9 +8348,7 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
-        <v>0</v>
-      </c>
+      <c r="A413" s="1"/>
       <c r="B413" s="1" t="str" cm="1">
         <f t="array" ref="B413">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A413)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9191,9 +8367,7 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
-        <v>0</v>
-      </c>
+      <c r="A414" s="1"/>
       <c r="B414" s="1" t="str" cm="1">
         <f t="array" ref="B414">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A414)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9212,9 +8386,7 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
-        <v>0</v>
-      </c>
+      <c r="A415" s="1"/>
       <c r="B415" s="1" t="str" cm="1">
         <f t="array" ref="B415">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A415)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9233,9 +8405,7 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
-        <v>0</v>
-      </c>
+      <c r="A416" s="1"/>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9254,9 +8424,7 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
-        <v>0</v>
-      </c>
+      <c r="A417" s="1"/>
       <c r="B417" s="1" t="str" cm="1">
         <f t="array" ref="B417">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A417)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9275,9 +8443,7 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
-        <v>1</v>
-      </c>
+      <c r="A418" s="1"/>
       <c r="B418" s="1" t="str" cm="1">
         <f t="array" ref="B418">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A418)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9296,9 +8462,7 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
-        <v>0</v>
-      </c>
+      <c r="A419" s="1"/>
       <c r="B419" s="1" t="str" cm="1">
         <f t="array" ref="B419">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A419)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9317,9 +8481,7 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
-        <v>0</v>
-      </c>
+      <c r="A420" s="1"/>
       <c r="B420" s="1" t="str" cm="1">
         <f t="array" ref="B420">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A420)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9338,9 +8500,7 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="1">
-        <v>0</v>
-      </c>
+      <c r="A421" s="1"/>
       <c r="B421" s="1" t="str" cm="1">
         <f t="array" ref="B421">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A421)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9359,9 +8519,7 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
-        <v>1</v>
-      </c>
+      <c r="A422" s="1"/>
       <c r="B422" s="1" t="str" cm="1">
         <f t="array" ref="B422">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A422)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9380,9 +8538,7 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="1">
-        <v>0</v>
-      </c>
+      <c r="A423" s="1"/>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9401,9 +8557,7 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="1">
-        <v>0</v>
-      </c>
+      <c r="A424" s="1"/>
       <c r="B424" s="1" t="str" cm="1">
         <f t="array" ref="B424">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A424)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9422,9 +8576,7 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="1">
-        <v>1</v>
-      </c>
+      <c r="A425" s="1"/>
       <c r="B425" s="1" t="str" cm="1">
         <f t="array" ref="B425">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A425)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9443,9 +8595,7 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="1">
-        <v>0</v>
-      </c>
+      <c r="A426" s="1"/>
       <c r="B426" s="1" t="str" cm="1">
         <f t="array" ref="B426">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A426)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9464,9 +8614,7 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="1">
-        <v>0</v>
-      </c>
+      <c r="A427" s="1"/>
       <c r="B427" s="1" t="str" cm="1">
         <f t="array" ref="B427">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A427)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9485,9 +8633,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="1">
-        <v>0</v>
-      </c>
+      <c r="A428" s="1"/>
       <c r="B428" s="1" t="str" cm="1">
         <f t="array" ref="B428">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A428)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9506,9 +8652,7 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="1">
-        <v>0</v>
-      </c>
+      <c r="A429" s="1"/>
       <c r="B429" s="1" t="str" cm="1">
         <f t="array" ref="B429">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A429)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9527,9 +8671,7 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="1">
-        <v>0</v>
-      </c>
+      <c r="A430" s="1"/>
       <c r="B430" s="1" t="str" cm="1">
         <f t="array" ref="B430">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A430)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9548,9 +8690,7 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="1">
-        <v>0</v>
-      </c>
+      <c r="A431" s="1"/>
       <c r="B431" s="1" t="str" cm="1">
         <f t="array" ref="B431">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A431)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9569,9 +8709,7 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
-        <v>0</v>
-      </c>
+      <c r="A432" s="1"/>
       <c r="B432" s="1" t="str" cm="1">
         <f t="array" ref="B432">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A432)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9590,9 +8728,7 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="1">
-        <v>0</v>
-      </c>
+      <c r="A433" s="1"/>
       <c r="B433" s="1" t="str" cm="1">
         <f t="array" ref="B433">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A433)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9611,9 +8747,7 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="1">
-        <v>0</v>
-      </c>
+      <c r="A434" s="1"/>
       <c r="B434" s="1" t="str" cm="1">
         <f t="array" ref="B434">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A434)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9632,9 +8766,7 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="1">
-        <v>1</v>
-      </c>
+      <c r="A435" s="1"/>
       <c r="B435" s="1" t="str" cm="1">
         <f t="array" ref="B435">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A435)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9653,9 +8785,7 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="1">
-        <v>1</v>
-      </c>
+      <c r="A436" s="1"/>
       <c r="B436" s="1" t="str" cm="1">
         <f t="array" ref="B436">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A436)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9674,9 +8804,7 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="1">
-        <v>0</v>
-      </c>
+      <c r="A437" s="1"/>
       <c r="B437" s="1" t="str" cm="1">
         <f t="array" ref="B437">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A437)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9695,9 +8823,7 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="1">
-        <v>0</v>
-      </c>
+      <c r="A438" s="1"/>
       <c r="B438" s="1" t="str" cm="1">
         <f t="array" ref="B438">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A438)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9716,9 +8842,7 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="1">
-        <v>0</v>
-      </c>
+      <c r="A439" s="1"/>
       <c r="B439" s="1" t="str" cm="1">
         <f t="array" ref="B439">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A439)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9737,9 +8861,7 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="1">
-        <v>0</v>
-      </c>
+      <c r="A440" s="1"/>
       <c r="B440" s="1" t="str" cm="1">
         <f t="array" ref="B440">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A440)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9758,9 +8880,7 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="1">
-        <v>0</v>
-      </c>
+      <c r="A441" s="1"/>
       <c r="B441" s="1" t="str" cm="1">
         <f t="array" ref="B441">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A441)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9779,9 +8899,7 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="1">
-        <v>0</v>
-      </c>
+      <c r="A442" s="1"/>
       <c r="B442" s="1" t="str" cm="1">
         <f t="array" ref="B442">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A442)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9800,9 +8918,7 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
-        <v>0</v>
-      </c>
+      <c r="A443" s="1"/>
       <c r="B443" s="1" t="str" cm="1">
         <f t="array" ref="B443">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A443)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9821,9 +8937,7 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="1">
-        <v>0</v>
-      </c>
+      <c r="A444" s="1"/>
       <c r="B444" s="1" t="str" cm="1">
         <f t="array" ref="B444">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A444)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9842,9 +8956,7 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="1">
-        <v>0</v>
-      </c>
+      <c r="A445" s="1"/>
       <c r="B445" s="1" t="str" cm="1">
         <f t="array" ref="B445">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A445)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9863,9 +8975,7 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="1">
-        <v>1</v>
-      </c>
+      <c r="A446" s="1"/>
       <c r="B446" s="1" t="str" cm="1">
         <f t="array" ref="B446">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A446)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9884,9 +8994,7 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="1">
-        <v>0</v>
-      </c>
+      <c r="A447" s="1"/>
       <c r="B447" s="1" t="str" cm="1">
         <f t="array" ref="B447">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A447)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9905,9 +9013,7 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="1">
-        <v>0</v>
-      </c>
+      <c r="A448" s="1"/>
       <c r="B448" s="1" t="str" cm="1">
         <f t="array" ref="B448">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A448)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9926,9 +9032,7 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="1">
-        <v>0</v>
-      </c>
+      <c r="A449" s="1"/>
       <c r="B449" s="1" t="str" cm="1">
         <f t="array" ref="B449">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A449)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9947,9 +9051,7 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
-        <v>0</v>
-      </c>
+      <c r="A450" s="1"/>
       <c r="B450" s="1" t="str" cm="1">
         <f t="array" ref="B450">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A450)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9968,9 +9070,7 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1">
-        <v>0</v>
-      </c>
+      <c r="A451" s="1"/>
       <c r="B451" s="1" t="str" cm="1">
         <f t="array" ref="B451">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A451)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9989,9 +9089,7 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="1">
-        <v>0</v>
-      </c>
+      <c r="A452" s="1"/>
       <c r="B452" s="1" t="str" cm="1">
         <f t="array" ref="B452">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A452)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10010,9 +9108,7 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="1">
-        <v>0</v>
-      </c>
+      <c r="A453" s="1"/>
       <c r="B453" s="1" t="str" cm="1">
         <f t="array" ref="B453">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A453)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10031,9 +9127,7 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="1">
-        <v>1</v>
-      </c>
+      <c r="A454" s="1"/>
       <c r="B454" s="1" t="str" cm="1">
         <f t="array" ref="B454">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A454)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10052,9 +9146,7 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="1">
-        <v>1</v>
-      </c>
+      <c r="A455" s="1"/>
       <c r="B455" s="1" t="str" cm="1">
         <f t="array" ref="B455">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A455)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10073,9 +9165,7 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="1">
-        <v>0</v>
-      </c>
+      <c r="A456" s="1"/>
       <c r="B456" s="1" t="str" cm="1">
         <f t="array" ref="B456">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A456)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10094,9 +9184,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1">
-        <v>0</v>
-      </c>
+      <c r="A457" s="1"/>
       <c r="B457" s="1" t="str" cm="1">
         <f t="array" ref="B457">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A457)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10115,9 +9203,7 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="1">
-        <v>0</v>
-      </c>
+      <c r="A458" s="1"/>
       <c r="B458" s="1" t="str" cm="1">
         <f t="array" ref="B458">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A458)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10136,9 +9222,7 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="1">
-        <v>0</v>
-      </c>
+      <c r="A459" s="1"/>
       <c r="B459" s="1" t="str" cm="1">
         <f t="array" ref="B459">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A459)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10157,9 +9241,7 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="1">
-        <v>0</v>
-      </c>
+      <c r="A460" s="1"/>
       <c r="B460" s="1" t="str" cm="1">
         <f t="array" ref="B460">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A460)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10178,9 +9260,7 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="1">
-        <v>0</v>
-      </c>
+      <c r="A461" s="1"/>
       <c r="B461" s="1" t="str" cm="1">
         <f t="array" ref="B461">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A461)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10199,9 +9279,7 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="1">
-        <v>0</v>
-      </c>
+      <c r="A462" s="1"/>
       <c r="B462" s="1" t="str" cm="1">
         <f t="array" ref="B462">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A462)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10220,9 +9298,7 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="1">
-        <v>0</v>
-      </c>
+      <c r="A463" s="1"/>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10241,9 +9317,7 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="1">
-        <v>0</v>
-      </c>
+      <c r="A464" s="1"/>
       <c r="B464" s="1" t="str" cm="1">
         <f t="array" ref="B464">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A464)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10262,9 +9336,7 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="1">
-        <v>0</v>
-      </c>
+      <c r="A465" s="1"/>
       <c r="B465" s="1" t="str" cm="1">
         <f t="array" ref="B465">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A465)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10283,9 +9355,7 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="1">
-        <v>1</v>
-      </c>
+      <c r="A466" s="1"/>
       <c r="B466" s="1" t="str" cm="1">
         <f t="array" ref="B466">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A466)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10304,9 +9374,7 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="1">
-        <v>0</v>
-      </c>
+      <c r="A467" s="1"/>
       <c r="B467" s="1" t="str" cm="1">
         <f t="array" ref="B467">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A467)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10325,9 +9393,7 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="1">
-        <v>0</v>
-      </c>
+      <c r="A468" s="1"/>
       <c r="B468" s="1" t="str" cm="1">
         <f t="array" ref="B468">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A468)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10346,9 +9412,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="1">
-        <v>0</v>
-      </c>
+      <c r="A469" s="1"/>
       <c r="B469" s="1" t="str" cm="1">
         <f t="array" ref="B469">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A469)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10367,9 +9431,7 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="1">
-        <v>0</v>
-      </c>
+      <c r="A470" s="1"/>
       <c r="B470" s="1" t="str" cm="1">
         <f t="array" ref="B470">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A470)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10388,9 +9450,7 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1">
-        <v>0</v>
-      </c>
+      <c r="A471" s="1"/>
       <c r="B471" s="1" t="str" cm="1">
         <f t="array" ref="B471">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A471)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10409,9 +9469,7 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="1">
-        <v>0</v>
-      </c>
+      <c r="A472" s="1"/>
       <c r="B472" s="1" t="str" cm="1">
         <f t="array" ref="B472">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A472)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10430,9 +9488,7 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="1">
-        <v>1</v>
-      </c>
+      <c r="A473" s="1"/>
       <c r="B473" s="1" t="str" cm="1">
         <f t="array" ref="B473">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A473)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10451,9 +9507,7 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="1">
-        <v>0</v>
-      </c>
+      <c r="A474" s="1"/>
       <c r="B474" s="1" t="str" cm="1">
         <f t="array" ref="B474">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A474)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10472,9 +9526,7 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="1">
-        <v>1</v>
-      </c>
+      <c r="A475" s="1"/>
       <c r="B475" s="1" t="str" cm="1">
         <f t="array" ref="B475">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A475)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10493,9 +9545,7 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="1">
-        <v>0</v>
-      </c>
+      <c r="A476" s="1"/>
       <c r="B476" s="1" t="str" cm="1">
         <f t="array" ref="B476">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A476)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10514,9 +9564,7 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="1">
-        <v>1</v>
-      </c>
+      <c r="A477" s="1"/>
       <c r="B477" s="1" t="str" cm="1">
         <f t="array" ref="B477">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A477)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10535,9 +9583,7 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="1">
-        <v>0</v>
-      </c>
+      <c r="A478" s="1"/>
       <c r="B478" s="1" t="str" cm="1">
         <f t="array" ref="B478">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A478)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10556,9 +9602,7 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="1">
-        <v>1</v>
-      </c>
+      <c r="A479" s="1"/>
       <c r="B479" s="1" t="str" cm="1">
         <f t="array" ref="B479">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A479)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10577,9 +9621,7 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="1">
-        <v>0</v>
-      </c>
+      <c r="A480" s="1"/>
       <c r="B480" s="1" t="str" cm="1">
         <f t="array" ref="B480">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A480)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10598,9 +9640,7 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="1">
-        <v>0</v>
-      </c>
+      <c r="A481" s="1"/>
       <c r="B481" s="1" t="str" cm="1">
         <f t="array" ref="B481">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A481)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10619,9 +9659,7 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="1">
-        <v>0</v>
-      </c>
+      <c r="A482" s="1"/>
       <c r="B482" s="1" t="str" cm="1">
         <f t="array" ref="B482">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A482)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10640,9 +9678,7 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="1">
-        <v>0</v>
-      </c>
+      <c r="A483" s="1"/>
       <c r="B483" s="1" t="str" cm="1">
         <f t="array" ref="B483">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A483)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10661,9 +9697,7 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="1">
-        <v>1</v>
-      </c>
+      <c r="A484" s="1"/>
       <c r="B484" s="1" t="str" cm="1">
         <f t="array" ref="B484">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A484)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10682,9 +9716,7 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="1">
-        <v>0</v>
-      </c>
+      <c r="A485" s="1"/>
       <c r="B485" s="1" t="str" cm="1">
         <f t="array" ref="B485">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A485)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10703,9 +9735,7 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="1">
-        <v>0</v>
-      </c>
+      <c r="A486" s="1"/>
       <c r="B486" s="1" t="str" cm="1">
         <f t="array" ref="B486">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A486)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10724,9 +9754,7 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="1">
-        <v>1</v>
-      </c>
+      <c r="A487" s="1"/>
       <c r="B487" s="1" t="str" cm="1">
         <f t="array" ref="B487">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A487)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10745,9 +9773,7 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="1">
-        <v>0</v>
-      </c>
+      <c r="A488" s="1"/>
       <c r="B488" s="1" t="str" cm="1">
         <f t="array" ref="B488">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A488)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10766,9 +9792,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
-        <v>0</v>
-      </c>
+      <c r="A489" s="1"/>
       <c r="B489" s="1" t="str" cm="1">
         <f t="array" ref="B489">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A489)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10787,9 +9811,7 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="1">
-        <v>0</v>
-      </c>
+      <c r="A490" s="1"/>
       <c r="B490" s="1" t="str" cm="1">
         <f t="array" ref="B490">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A490)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10808,9 +9830,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="1">
-        <v>0</v>
-      </c>
+      <c r="A491" s="1"/>
       <c r="B491" s="1" t="str" cm="1">
         <f t="array" ref="B491">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A491)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10829,9 +9849,7 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="1">
-        <v>0</v>
-      </c>
+      <c r="A492" s="1"/>
       <c r="B492" s="1" t="str" cm="1">
         <f t="array" ref="B492">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A492)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10850,9 +9868,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="1">
-        <v>0</v>
-      </c>
+      <c r="A493" s="1"/>
       <c r="B493" s="1" t="str" cm="1">
         <f t="array" ref="B493">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A493)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10871,9 +9887,7 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
-        <v>0</v>
-      </c>
+      <c r="A494" s="1"/>
       <c r="B494" s="1" t="str" cm="1">
         <f t="array" ref="B494">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A494)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10892,9 +9906,7 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="1">
-        <v>0</v>
-      </c>
+      <c r="A495" s="1"/>
       <c r="B495" s="1" t="str" cm="1">
         <f t="array" ref="B495">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A495)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10913,9 +9925,7 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="1">
-        <v>0</v>
-      </c>
+      <c r="A496" s="1"/>
       <c r="B496" s="1" t="str" cm="1">
         <f t="array" ref="B496">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A496)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10934,9 +9944,7 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="1">
-        <v>0</v>
-      </c>
+      <c r="A497" s="1"/>
       <c r="B497" s="1" t="str" cm="1">
         <f t="array" ref="B497">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A497)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10955,9 +9963,7 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="1">
-        <v>0</v>
-      </c>
+      <c r="A498" s="1"/>
       <c r="B498" s="1" t="str" cm="1">
         <f t="array" ref="B498">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A498)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10976,9 +9982,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="1">
-        <v>0</v>
-      </c>
+      <c r="A499" s="1"/>
       <c r="B499" s="1" t="str" cm="1">
         <f t="array" ref="B499">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A499)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10997,9 +10001,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="1">
-        <v>0</v>
-      </c>
+      <c r="A500" s="1"/>
       <c r="B500" s="1" t="str" cm="1">
         <f t="array" ref="B500">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A500)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11018,9 +10020,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="1">
-        <v>0</v>
-      </c>
+      <c r="A501" s="1"/>
       <c r="B501" s="1" t="str" cm="1">
         <f t="array" ref="B501">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A501)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11039,9 +10039,7 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="1">
-        <v>1</v>
-      </c>
+      <c r="A502" s="1"/>
       <c r="B502" s="1" t="str" cm="1">
         <f t="array" ref="B502">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A502)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11060,9 +10058,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="1">
-        <v>0</v>
-      </c>
+      <c r="A503" s="1"/>
       <c r="B503" s="1" t="str" cm="1">
         <f t="array" ref="B503">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A503)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11081,9 +10077,7 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
-        <v>1</v>
-      </c>
+      <c r="A504" s="1"/>
       <c r="B504" s="1" t="str" cm="1">
         <f t="array" ref="B504">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A504)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11102,9 +10096,7 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="1">
-        <v>0</v>
-      </c>
+      <c r="A505" s="1"/>
       <c r="B505" s="1" t="str" cm="1">
         <f t="array" ref="B505">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A505)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11123,9 +10115,7 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="1">
-        <v>0</v>
-      </c>
+      <c r="A506" s="1"/>
       <c r="B506" s="1" t="str" cm="1">
         <f t="array" ref="B506">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A506)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11144,9 +10134,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="1">
-        <v>0</v>
-      </c>
+      <c r="A507" s="1"/>
       <c r="B507" s="1" t="str" cm="1">
         <f t="array" ref="B507">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A507)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11165,9 +10153,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="1">
-        <v>0</v>
-      </c>
+      <c r="A508" s="1"/>
       <c r="B508" s="1" t="str" cm="1">
         <f t="array" ref="B508">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A508)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11186,9 +10172,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="1">
-        <v>1</v>
-      </c>
+      <c r="A509" s="1"/>
       <c r="B509" s="1" t="str" cm="1">
         <f t="array" ref="B509">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A509)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11207,9 +10191,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="1">
-        <v>0</v>
-      </c>
+      <c r="A510" s="1"/>
       <c r="B510" s="1" t="str" cm="1">
         <f t="array" ref="B510">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A510)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11228,9 +10210,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="1">
-        <v>0</v>
-      </c>
+      <c r="A511" s="1"/>
       <c r="B511" s="1" t="str" cm="1">
         <f t="array" ref="B511">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A511)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11249,9 +10229,7 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="1">
-        <v>0</v>
-      </c>
+      <c r="A512" s="1"/>
       <c r="B512" s="1" t="str" cm="1">
         <f t="array" ref="B512">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A512)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11270,9 +10248,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="1">
-        <v>0</v>
-      </c>
+      <c r="A513" s="1"/>
       <c r="B513" s="1" t="str" cm="1">
         <f t="array" ref="B513">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A513)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11291,9 +10267,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="1">
-        <v>0</v>
-      </c>
+      <c r="A514" s="1"/>
       <c r="B514" s="1" t="str" cm="1">
         <f t="array" ref="B514">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A514)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11312,9 +10286,7 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="1">
-        <v>1</v>
-      </c>
+      <c r="A515" s="1"/>
       <c r="B515" s="1" t="str" cm="1">
         <f t="array" ref="B515">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A515)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11333,9 +10305,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="1">
-        <v>0</v>
-      </c>
+      <c r="A516" s="1"/>
       <c r="B516" s="1" t="str" cm="1">
         <f t="array" ref="B516">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A516)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11354,9 +10324,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="1">
-        <v>0</v>
-      </c>
+      <c r="A517" s="1"/>
       <c r="B517" s="1" t="str" cm="1">
         <f t="array" ref="B517">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A517)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11375,9 +10343,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="1">
-        <v>1</v>
-      </c>
+      <c r="A518" s="1"/>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11396,9 +10362,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="1">
-        <v>0</v>
-      </c>
+      <c r="A519" s="1"/>
       <c r="B519" s="1" t="str" cm="1">
         <f t="array" ref="B519">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A519)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11417,9 +10381,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="1">
-        <v>1</v>
-      </c>
+      <c r="A520" s="1"/>
       <c r="B520" s="1" t="str" cm="1">
         <f t="array" ref="B520">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A520)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11438,9 +10400,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="1">
-        <v>0</v>
-      </c>
+      <c r="A521" s="1"/>
       <c r="B521" s="1" t="str" cm="1">
         <f t="array" ref="B521">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A521)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11459,9 +10419,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="1">
-        <v>0</v>
-      </c>
+      <c r="A522" s="1"/>
       <c r="B522" s="1" t="str" cm="1">
         <f t="array" ref="B522">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A522)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11480,9 +10438,7 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="1">
-        <v>0</v>
-      </c>
+      <c r="A523" s="1"/>
       <c r="B523" s="1" t="str" cm="1">
         <f t="array" ref="B523">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A523)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11501,9 +10457,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="1">
-        <v>0</v>
-      </c>
+      <c r="A524" s="1"/>
       <c r="B524" s="1" t="str" cm="1">
         <f t="array" ref="B524">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A524)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11522,9 +10476,7 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="1">
-        <v>0</v>
-      </c>
+      <c r="A525" s="1"/>
       <c r="B525" s="1" t="str" cm="1">
         <f t="array" ref="B525">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A525)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11543,9 +10495,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="1">
-        <v>1</v>
-      </c>
+      <c r="A526" s="1"/>
       <c r="B526" s="1" t="str" cm="1">
         <f t="array" ref="B526">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A526)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11564,9 +10514,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="1">
-        <v>0</v>
-      </c>
+      <c r="A527" s="1"/>
       <c r="B527" s="1" t="str" cm="1">
         <f t="array" ref="B527">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A527)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11585,9 +10533,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="1">
-        <v>0</v>
-      </c>
+      <c r="A528" s="1"/>
       <c r="B528" s="1" t="str" cm="1">
         <f t="array" ref="B528">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A528)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11606,9 +10552,7 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="1">
-        <v>0</v>
-      </c>
+      <c r="A529" s="1"/>
       <c r="B529" s="1" t="str" cm="1">
         <f t="array" ref="B529">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A529)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11627,9 +10571,7 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="1">
-        <v>0</v>
-      </c>
+      <c r="A530" s="1"/>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11648,9 +10590,7 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="1">
-        <v>0</v>
-      </c>
+      <c r="A531" s="1"/>
       <c r="B531" s="1" t="str" cm="1">
         <f t="array" ref="B531">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A531)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11669,9 +10609,7 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="1">
-        <v>0</v>
-      </c>
+      <c r="A532" s="1"/>
       <c r="B532" s="1" t="str" cm="1">
         <f t="array" ref="B532">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A532)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11690,9 +10628,7 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="1">
-        <v>0</v>
-      </c>
+      <c r="A533" s="1"/>
       <c r="B533" s="1" t="str" cm="1">
         <f t="array" ref="B533">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A533)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11711,9 +10647,7 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="1">
-        <v>0</v>
-      </c>
+      <c r="A534" s="1"/>
       <c r="B534" s="1" t="str" cm="1">
         <f t="array" ref="B534">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A534)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11732,9 +10666,7 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="1">
-        <v>0</v>
-      </c>
+      <c r="A535" s="1"/>
       <c r="B535" s="1" t="str" cm="1">
         <f t="array" ref="B535">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A535)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11753,9 +10685,7 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="1">
-        <v>0</v>
-      </c>
+      <c r="A536" s="1"/>
       <c r="B536" s="1" t="str" cm="1">
         <f t="array" ref="B536">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A536)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11774,9 +10704,7 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="1">
-        <v>1</v>
-      </c>
+      <c r="A537" s="1"/>
       <c r="B537" s="1" t="str" cm="1">
         <f t="array" ref="B537">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A537)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11795,9 +10723,7 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="1">
-        <v>0</v>
-      </c>
+      <c r="A538" s="1"/>
       <c r="B538" s="1" t="str" cm="1">
         <f t="array" ref="B538">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A538)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11816,9 +10742,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="1">
-        <v>0</v>
-      </c>
+      <c r="A539" s="1"/>
       <c r="B539" s="1" t="str" cm="1">
         <f t="array" ref="B539">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A539)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11837,9 +10761,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="1">
-        <v>1</v>
-      </c>
+      <c r="A540" s="1"/>
       <c r="B540" s="1" t="str" cm="1">
         <f t="array" ref="B540">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A540)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11858,9 +10780,7 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="1">
-        <v>1</v>
-      </c>
+      <c r="A541" s="1"/>
       <c r="B541" s="1" t="str" cm="1">
         <f t="array" ref="B541">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A541)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11879,9 +10799,7 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="1">
-        <v>1</v>
-      </c>
+      <c r="A542" s="1"/>
       <c r="B542" s="1" t="str" cm="1">
         <f t="array" ref="B542">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A542)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11900,9 +10818,7 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="1">
-        <v>0</v>
-      </c>
+      <c r="A543" s="1"/>
       <c r="B543" s="1" t="str" cm="1">
         <f t="array" ref="B543">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A543)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11921,9 +10837,7 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="1">
-        <v>1</v>
-      </c>
+      <c r="A544" s="1"/>
       <c r="B544" s="1" t="str" cm="1">
         <f t="array" ref="B544">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A544)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11942,9 +10856,7 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" s="1">
-        <v>0</v>
-      </c>
+      <c r="A545" s="1"/>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11963,9 +10875,7 @@
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="1">
-        <v>0</v>
-      </c>
+      <c r="A546" s="1"/>
       <c r="B546" s="1" t="str" cm="1">
         <f t="array" ref="B546">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A546)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11984,9 +10894,7 @@
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="1">
-        <v>0</v>
-      </c>
+      <c r="A547" s="1"/>
       <c r="B547" s="1" t="str" cm="1">
         <f t="array" ref="B547">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A547)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12005,9 +10913,7 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="1">
-        <v>0</v>
-      </c>
+      <c r="A548" s="1"/>
       <c r="B548" s="1" t="str" cm="1">
         <f t="array" ref="B548">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A548)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12026,9 +10932,7 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="1">
-        <v>0</v>
-      </c>
+      <c r="A549" s="1"/>
       <c r="B549" s="1" t="str" cm="1">
         <f t="array" ref="B549">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A549)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12047,9 +10951,7 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="1">
-        <v>0</v>
-      </c>
+      <c r="A550" s="1"/>
       <c r="B550" s="1" t="str" cm="1">
         <f t="array" ref="B550">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A550)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12068,9 +10970,7 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="1">
-        <v>0</v>
-      </c>
+      <c r="A551" s="1"/>
       <c r="B551" s="1" t="str" cm="1">
         <f t="array" ref="B551">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A551)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12089,9 +10989,7 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="1">
-        <v>0</v>
-      </c>
+      <c r="A552" s="1"/>
       <c r="B552" s="1" t="str" cm="1">
         <f t="array" ref="B552">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A552)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12110,9 +11008,7 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="1">
-        <v>0</v>
-      </c>
+      <c r="A553" s="1"/>
       <c r="B553" s="1" t="str" cm="1">
         <f t="array" ref="B553">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A553)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12131,9 +11027,7 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="1">
-        <v>0</v>
-      </c>
+      <c r="A554" s="1"/>
       <c r="B554" s="1" t="str" cm="1">
         <f t="array" ref="B554">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A554)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12152,9 +11046,7 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="1">
-        <v>0</v>
-      </c>
+      <c r="A555" s="1"/>
       <c r="B555" s="1" t="str" cm="1">
         <f t="array" ref="B555">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A555)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12173,9 +11065,7 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="1">
-        <v>0</v>
-      </c>
+      <c r="A556" s="1"/>
       <c r="B556" s="1" t="str" cm="1">
         <f t="array" ref="B556">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A556)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12194,9 +11084,7 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" s="1">
-        <v>0</v>
-      </c>
+      <c r="A557" s="1"/>
       <c r="B557" s="1" t="str" cm="1">
         <f t="array" ref="B557">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A557)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12215,9 +11103,7 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="1">
-        <v>0</v>
-      </c>
+      <c r="A558" s="1"/>
       <c r="B558" s="1" t="str" cm="1">
         <f t="array" ref="B558">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A558)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12236,9 +11122,7 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="1">
-        <v>1</v>
-      </c>
+      <c r="A559" s="1"/>
       <c r="B559" s="1" t="str" cm="1">
         <f t="array" ref="B559">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A559)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12257,9 +11141,7 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="1">
-        <v>0</v>
-      </c>
+      <c r="A560" s="1"/>
       <c r="B560" s="1" t="str" cm="1">
         <f t="array" ref="B560">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A560)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12278,9 +11160,7 @@
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="1">
-        <v>1</v>
-      </c>
+      <c r="A561" s="1"/>
       <c r="B561" s="1" t="str" cm="1">
         <f t="array" ref="B561">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A561)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12299,9 +11179,7 @@
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="1">
-        <v>0</v>
-      </c>
+      <c r="A562" s="1"/>
       <c r="B562" s="1" t="str" cm="1">
         <f t="array" ref="B562">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A562)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12320,9 +11198,7 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="1">
-        <v>1</v>
-      </c>
+      <c r="A563" s="1"/>
       <c r="B563" s="1" t="str" cm="1">
         <f t="array" ref="B563">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A563)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12341,9 +11217,7 @@
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="1">
-        <v>1</v>
-      </c>
+      <c r="A564" s="1"/>
       <c r="B564" s="1" t="str" cm="1">
         <f t="array" ref="B564">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A564)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12362,9 +11236,7 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="1">
-        <v>1</v>
-      </c>
+      <c r="A565" s="1"/>
       <c r="B565" s="1" t="str" cm="1">
         <f t="array" ref="B565">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A565)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12383,9 +11255,7 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="1">
-        <v>1</v>
-      </c>
+      <c r="A566" s="1"/>
       <c r="B566" s="1" t="str" cm="1">
         <f t="array" ref="B566">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A566)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12404,9 +11274,7 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="1">
-        <v>0</v>
-      </c>
+      <c r="A567" s="1"/>
       <c r="B567" s="1" t="str" cm="1">
         <f t="array" ref="B567">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A567)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12425,9 +11293,7 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="1">
-        <v>0</v>
-      </c>
+      <c r="A568" s="1"/>
       <c r="B568" s="1" t="str" cm="1">
         <f t="array" ref="B568">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A568)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12446,9 +11312,7 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="1">
-        <v>0</v>
-      </c>
+      <c r="A569" s="1"/>
       <c r="B569" s="1" t="str" cm="1">
         <f t="array" ref="B569">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A569)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12467,9 +11331,7 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="1">
-        <v>0</v>
-      </c>
+      <c r="A570" s="1"/>
       <c r="B570" s="1" t="str" cm="1">
         <f t="array" ref="B570">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A570)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12488,9 +11350,7 @@
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="1">
-        <v>0</v>
-      </c>
+      <c r="A571" s="1"/>
       <c r="B571" s="1" t="str" cm="1">
         <f t="array" ref="B571">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A571)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12509,9 +11369,7 @@
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="1">
-        <v>0</v>
-      </c>
+      <c r="A572" s="1"/>
       <c r="B572" s="1" t="str" cm="1">
         <f t="array" ref="B572">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A572)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12530,9 +11388,7 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="1">
-        <v>0</v>
-      </c>
+      <c r="A573" s="1"/>
       <c r="B573" s="1" t="str" cm="1">
         <f t="array" ref="B573">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A573)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12551,9 +11407,7 @@
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="1">
-        <v>0</v>
-      </c>
+      <c r="A574" s="1"/>
       <c r="B574" s="1" t="str" cm="1">
         <f t="array" ref="B574">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A574)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12572,9 +11426,7 @@
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="1">
-        <v>0</v>
-      </c>
+      <c r="A575" s="1"/>
       <c r="B575" s="1" t="str" cm="1">
         <f t="array" ref="B575">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A575)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12593,9 +11445,7 @@
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="1">
-        <v>0</v>
-      </c>
+      <c r="A576" s="1"/>
       <c r="B576" s="1" t="str" cm="1">
         <f t="array" ref="B576">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A576)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12614,9 +11464,7 @@
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="1">
-        <v>0</v>
-      </c>
+      <c r="A577" s="1"/>
       <c r="B577" s="1" t="str" cm="1">
         <f t="array" ref="B577">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A577)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12635,9 +11483,7 @@
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" s="1">
-        <v>1</v>
-      </c>
+      <c r="A578" s="1"/>
       <c r="B578" s="1" t="str" cm="1">
         <f t="array" ref="B578">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A578)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12656,9 +11502,7 @@
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" s="1">
-        <v>0</v>
-      </c>
+      <c r="A579" s="1"/>
       <c r="B579" s="1" t="str" cm="1">
         <f t="array" ref="B579">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A579)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12677,9 +11521,7 @@
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="1">
-        <v>0</v>
-      </c>
+      <c r="A580" s="1"/>
       <c r="B580" s="1" t="str" cm="1">
         <f t="array" ref="B580">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A580)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12698,9 +11540,7 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="1">
-        <v>0</v>
-      </c>
+      <c r="A581" s="1"/>
       <c r="B581" s="1" t="str" cm="1">
         <f t="array" ref="B581">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A581)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12719,9 +11559,7 @@
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="1">
-        <v>0</v>
-      </c>
+      <c r="A582" s="1"/>
       <c r="B582" s="1" t="str" cm="1">
         <f t="array" ref="B582">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A582)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12740,9 +11578,7 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="1">
-        <v>0</v>
-      </c>
+      <c r="A583" s="1"/>
       <c r="B583" s="1" t="str" cm="1">
         <f t="array" ref="B583">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A583)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12761,9 +11597,7 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="1">
-        <v>0</v>
-      </c>
+      <c r="A584" s="1"/>
       <c r="B584" s="1" t="str" cm="1">
         <f t="array" ref="B584">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A584)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12782,9 +11616,7 @@
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="1">
-        <v>1</v>
-      </c>
+      <c r="A585" s="1"/>
       <c r="B585" s="1" t="str" cm="1">
         <f t="array" ref="B585">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A585)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12803,9 +11635,7 @@
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="1">
-        <v>0</v>
-      </c>
+      <c r="A586" s="1"/>
       <c r="B586" s="1" t="str" cm="1">
         <f t="array" ref="B586">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A586)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12824,9 +11654,7 @@
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="1">
-        <v>0</v>
-      </c>
+      <c r="A587" s="1"/>
       <c r="B587" s="1" t="str" cm="1">
         <f t="array" ref="B587">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A587)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12845,9 +11673,7 @@
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="1">
-        <v>0</v>
-      </c>
+      <c r="A588" s="1"/>
       <c r="B588" s="1" t="str" cm="1">
         <f t="array" ref="B588">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A588)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12866,9 +11692,7 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="1">
-        <v>0</v>
-      </c>
+      <c r="A589" s="1"/>
       <c r="B589" s="1" t="str" cm="1">
         <f t="array" ref="B589">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A589)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12887,9 +11711,7 @@
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="1">
-        <v>0</v>
-      </c>
+      <c r="A590" s="1"/>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12908,9 +11730,7 @@
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="1">
-        <v>1</v>
-      </c>
+      <c r="A591" s="1"/>
       <c r="B591" s="1" t="str" cm="1">
         <f t="array" ref="B591">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A591)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12929,9 +11749,7 @@
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="1">
-        <v>0</v>
-      </c>
+      <c r="A592" s="1"/>
       <c r="B592" s="1" t="str" cm="1">
         <f t="array" ref="B592">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A592)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12950,9 +11768,7 @@
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="1">
-        <v>0</v>
-      </c>
+      <c r="A593" s="1"/>
       <c r="B593" s="1" t="str" cm="1">
         <f t="array" ref="B593">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A593)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12971,9 +11787,7 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="1">
-        <v>0</v>
-      </c>
+      <c r="A594" s="1"/>
       <c r="B594" s="1" t="str" cm="1">
         <f t="array" ref="B594">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A594)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12992,9 +11806,7 @@
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="1">
-        <v>0</v>
-      </c>
+      <c r="A595" s="1"/>
       <c r="B595" s="1" t="str" cm="1">
         <f t="array" ref="B595">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A595)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13013,9 +11825,7 @@
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="1">
-        <v>0</v>
-      </c>
+      <c r="A596" s="1"/>
       <c r="B596" s="1" t="str" cm="1">
         <f t="array" ref="B596">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A596)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13034,9 +11844,7 @@
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="1">
-        <v>0</v>
-      </c>
+      <c r="A597" s="1"/>
       <c r="B597" s="1" t="str" cm="1">
         <f t="array" ref="B597">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A597)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13055,9 +11863,7 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="1">
-        <v>0</v>
-      </c>
+      <c r="A598" s="1"/>
       <c r="B598" s="1" t="str" cm="1">
         <f t="array" ref="B598">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A598)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13076,9 +11882,7 @@
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="1">
-        <v>0</v>
-      </c>
+      <c r="A599" s="1"/>
       <c r="B599" s="1" t="str" cm="1">
         <f t="array" ref="B599">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A599)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13097,9 +11901,7 @@
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="1">
-        <v>0</v>
-      </c>
+      <c r="A600" s="1"/>
       <c r="B600" s="1" t="str" cm="1">
         <f t="array" ref="B600">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A600)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13118,9 +11920,7 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="1">
-        <v>0</v>
-      </c>
+      <c r="A601" s="1"/>
       <c r="B601" s="1" t="str" cm="1">
         <f t="array" ref="B601">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A601)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13139,9 +11939,7 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="1">
-        <v>0</v>
-      </c>
+      <c r="A602" s="1"/>
       <c r="B602" s="1" t="str" cm="1">
         <f t="array" ref="B602">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A602)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13160,9 +11958,7 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="1">
-        <v>0</v>
-      </c>
+      <c r="A603" s="1"/>
       <c r="B603" s="1" t="str" cm="1">
         <f t="array" ref="B603">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A603)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13181,9 +11977,7 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="1">
-        <v>1</v>
-      </c>
+      <c r="A604" s="1"/>
       <c r="B604" s="1" t="str" cm="1">
         <f t="array" ref="B604">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A604)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13202,9 +11996,7 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="1">
-        <v>1</v>
-      </c>
+      <c r="A605" s="1"/>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13223,9 +12015,7 @@
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="1">
-        <v>0</v>
-      </c>
+      <c r="A606" s="1"/>
       <c r="B606" s="1" t="str" cm="1">
         <f t="array" ref="B606">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A606)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13244,9 +12034,7 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="1">
-        <v>0</v>
-      </c>
+      <c r="A607" s="1"/>
       <c r="B607" s="1" t="str" cm="1">
         <f t="array" ref="B607">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A607)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13265,9 +12053,7 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="1">
-        <v>0</v>
-      </c>
+      <c r="A608" s="1"/>
       <c r="B608" s="1" t="str" cm="1">
         <f t="array" ref="B608">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A608)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13286,9 +12072,7 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" s="1">
-        <v>0</v>
-      </c>
+      <c r="A609" s="1"/>
       <c r="B609" s="1" t="str" cm="1">
         <f t="array" ref="B609">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A609)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13307,9 +12091,7 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="1">
-        <v>0</v>
-      </c>
+      <c r="A610" s="1"/>
       <c r="B610" s="1" t="str" cm="1">
         <f t="array" ref="B610">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A610)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13328,9 +12110,7 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="1">
-        <v>0</v>
-      </c>
+      <c r="A611" s="1"/>
       <c r="B611" s="1" t="str" cm="1">
         <f t="array" ref="B611">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A611)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13349,9 +12129,7 @@
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="1">
-        <v>0</v>
-      </c>
+      <c r="A612" s="1"/>
       <c r="B612" s="1" t="str" cm="1">
         <f t="array" ref="B612">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A612)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13370,9 +12148,7 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="1">
-        <v>0</v>
-      </c>
+      <c r="A613" s="1"/>
       <c r="B613" s="1" t="str" cm="1">
         <f t="array" ref="B613">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A613)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13391,9 +12167,7 @@
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" s="1">
-        <v>0</v>
-      </c>
+      <c r="A614" s="1"/>
       <c r="B614" s="1" t="str" cm="1">
         <f t="array" ref="B614">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A614)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13412,9 +12186,7 @@
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" s="1">
-        <v>0</v>
-      </c>
+      <c r="A615" s="1"/>
       <c r="B615" s="1" t="str" cm="1">
         <f t="array" ref="B615">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A615)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13433,9 +12205,7 @@
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="1">
-        <v>0</v>
-      </c>
+      <c r="A616" s="1"/>
       <c r="B616" s="1" t="str" cm="1">
         <f t="array" ref="B616">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A616)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13454,9 +12224,7 @@
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" s="1">
-        <v>0</v>
-      </c>
+      <c r="A617" s="1"/>
       <c r="B617" s="1" t="str" cm="1">
         <f t="array" ref="B617">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A617)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13475,9 +12243,7 @@
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" s="1">
-        <v>1</v>
-      </c>
+      <c r="A618" s="1"/>
       <c r="B618" s="1" t="str" cm="1">
         <f t="array" ref="B618">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A618)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13496,9 +12262,7 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="1">
-        <v>0</v>
-      </c>
+      <c r="A619" s="1"/>
       <c r="B619" s="1" t="str" cm="1">
         <f t="array" ref="B619">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A619)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13517,9 +12281,7 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="1">
-        <v>0</v>
-      </c>
+      <c r="A620" s="1"/>
       <c r="B620" s="1" t="str" cm="1">
         <f t="array" ref="B620">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A620)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13538,9 +12300,7 @@
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="1">
-        <v>1</v>
-      </c>
+      <c r="A621" s="1"/>
       <c r="B621" s="1" t="str" cm="1">
         <f t="array" ref="B621">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A621)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13559,9 +12319,7 @@
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="1">
-        <v>0</v>
-      </c>
+      <c r="A622" s="1"/>
       <c r="B622" s="1" t="str" cm="1">
         <f t="array" ref="B622">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A622)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13580,9 +12338,7 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="1">
-        <v>0</v>
-      </c>
+      <c r="A623" s="1"/>
       <c r="B623" s="1" t="str" cm="1">
         <f t="array" ref="B623">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A623)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13601,9 +12357,7 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="1">
-        <v>1</v>
-      </c>
+      <c r="A624" s="1"/>
       <c r="B624" s="1" t="str" cm="1">
         <f t="array" ref="B624">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A624)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13622,9 +12376,7 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="1">
-        <v>1</v>
-      </c>
+      <c r="A625" s="1"/>
       <c r="B625" s="1" t="str" cm="1">
         <f t="array" ref="B625">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A625)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13643,9 +12395,7 @@
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="1">
-        <v>0</v>
-      </c>
+      <c r="A626" s="1"/>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13664,9 +12414,7 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="1">
-        <v>1</v>
-      </c>
+      <c r="A627" s="1"/>
       <c r="B627" s="1" t="str" cm="1">
         <f t="array" ref="B627">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A627)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13685,9 +12433,7 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="1">
-        <v>0</v>
-      </c>
+      <c r="A628" s="1"/>
       <c r="B628" s="1" t="str" cm="1">
         <f t="array" ref="B628">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A628)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13706,9 +12452,7 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="1">
-        <v>0</v>
-      </c>
+      <c r="A629" s="1"/>
       <c r="B629" s="1" t="str" cm="1">
         <f t="array" ref="B629">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A629)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13727,9 +12471,7 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="1">
-        <v>0</v>
-      </c>
+      <c r="A630" s="1"/>
       <c r="B630" s="1" t="str" cm="1">
         <f t="array" ref="B630">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A630)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13748,9 +12490,7 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="1">
-        <v>0</v>
-      </c>
+      <c r="A631" s="1"/>
       <c r="B631" s="1" t="str" cm="1">
         <f t="array" ref="B631">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A631)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13769,9 +12509,7 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="1">
-        <v>0</v>
-      </c>
+      <c r="A632" s="1"/>
       <c r="B632" s="1" t="str" cm="1">
         <f t="array" ref="B632">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A632)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13790,9 +12528,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="1">
-        <v>0</v>
-      </c>
+      <c r="A633" s="1"/>
       <c r="B633" s="1" t="str" cm="1">
         <f t="array" ref="B633">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A633)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13811,9 +12547,7 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="1">
-        <v>0</v>
-      </c>
+      <c r="A634" s="1"/>
       <c r="B634" s="1" t="str" cm="1">
         <f t="array" ref="B634">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A634)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13832,9 +12566,7 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="1">
-        <v>0</v>
-      </c>
+      <c r="A635" s="1"/>
       <c r="B635" s="1" t="str" cm="1">
         <f t="array" ref="B635">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A635)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13853,9 +12585,7 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="1">
-        <v>0</v>
-      </c>
+      <c r="A636" s="1"/>
       <c r="B636" s="1" t="str" cm="1">
         <f t="array" ref="B636">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A636)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13874,9 +12604,7 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="1">
-        <v>1</v>
-      </c>
+      <c r="A637" s="1"/>
       <c r="B637" s="1" t="str" cm="1">
         <f t="array" ref="B637">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A637)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13895,9 +12623,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="1">
-        <v>0</v>
-      </c>
+      <c r="A638" s="1"/>
       <c r="B638" s="1" t="str" cm="1">
         <f t="array" ref="B638">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A638)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13916,9 +12642,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="1">
-        <v>0</v>
-      </c>
+      <c r="A639" s="1"/>
       <c r="B639" s="1" t="str" cm="1">
         <f t="array" ref="B639">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A639)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13937,9 +12661,7 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="1">
-        <v>0</v>
-      </c>
+      <c r="A640" s="1"/>
       <c r="B640" s="1" t="str" cm="1">
         <f t="array" ref="B640">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A640)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13958,9 +12680,7 @@
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="1">
-        <v>1</v>
-      </c>
+      <c r="A641" s="1"/>
       <c r="B641" s="1" t="str" cm="1">
         <f t="array" ref="B641">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A641)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13979,9 +12699,7 @@
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="1">
-        <v>0</v>
-      </c>
+      <c r="A642" s="1"/>
       <c r="B642" s="1" t="str" cm="1">
         <f t="array" ref="B642">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A642)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14000,9 +12718,7 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="1">
-        <v>1</v>
-      </c>
+      <c r="A643" s="1"/>
       <c r="B643" s="1" t="str" cm="1">
         <f t="array" ref="B643">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A643)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14021,9 +12737,7 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="1">
-        <v>1</v>
-      </c>
+      <c r="A644" s="1"/>
       <c r="B644" s="1" t="str" cm="1">
         <f t="array" ref="B644">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A644)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14042,9 +12756,7 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="1">
-        <v>0</v>
-      </c>
+      <c r="A645" s="1"/>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A645)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14063,9 +12775,7 @@
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="1">
-        <v>0</v>
-      </c>
+      <c r="A646" s="1"/>
       <c r="B646" s="1" t="str" cm="1">
         <f t="array" ref="B646">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A646)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14084,9 +12794,7 @@
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="1">
-        <v>0</v>
-      </c>
+      <c r="A647" s="1"/>
       <c r="B647" s="1" t="str" cm="1">
         <f t="array" ref="B647">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A647)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14105,9 +12813,7 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="1">
-        <v>0</v>
-      </c>
+      <c r="A648" s="1"/>
       <c r="B648" s="1" t="str" cm="1">
         <f t="array" ref="B648">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A648)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14126,9 +12832,7 @@
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="1">
-        <v>0</v>
-      </c>
+      <c r="A649" s="1"/>
       <c r="B649" s="1" t="str" cm="1">
         <f t="array" ref="B649">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A649)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14147,9 +12851,7 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="1">
-        <v>0</v>
-      </c>
+      <c r="A650" s="1"/>
       <c r="B650" s="1" t="str" cm="1">
         <f t="array" ref="B650">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A650)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14168,9 +12870,7 @@
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="1">
-        <v>1</v>
-      </c>
+      <c r="A651" s="1"/>
       <c r="B651" s="1" t="str" cm="1">
         <f t="array" ref="B651">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A651)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14189,9 +12889,7 @@
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="1">
-        <v>0</v>
-      </c>
+      <c r="A652" s="1"/>
       <c r="B652" s="1" t="str" cm="1">
         <f t="array" ref="B652">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A652)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14210,9 +12908,7 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="1">
-        <v>0</v>
-      </c>
+      <c r="A653" s="1"/>
       <c r="B653" s="1" t="str" cm="1">
         <f t="array" ref="B653">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A653)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14231,9 +12927,7 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="1">
-        <v>0</v>
-      </c>
+      <c r="A654" s="1"/>
       <c r="B654" s="1" t="str" cm="1">
         <f t="array" ref="B654">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A654)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14252,9 +12946,7 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="1">
-        <v>0</v>
-      </c>
+      <c r="A655" s="1"/>
       <c r="B655" s="1" t="str" cm="1">
         <f t="array" ref="B655">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A655)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14273,9 +12965,7 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" s="1">
-        <v>0</v>
-      </c>
+      <c r="A656" s="1"/>
       <c r="B656" s="1" t="str" cm="1">
         <f t="array" ref="B656">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A656)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14294,9 +12984,7 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" s="1">
-        <v>0</v>
-      </c>
+      <c r="A657" s="1"/>
       <c r="B657" s="1" t="str" cm="1">
         <f t="array" ref="B657">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A657)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14315,9 +13003,7 @@
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="1">
-        <v>0</v>
-      </c>
+      <c r="A658" s="1"/>
       <c r="B658" s="1" t="str" cm="1">
         <f t="array" ref="B658">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A658)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14336,9 +13022,7 @@
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" s="1">
-        <v>0</v>
-      </c>
+      <c r="A659" s="1"/>
       <c r="B659" s="1" t="str" cm="1">
         <f t="array" ref="B659">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A659)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14357,9 +13041,7 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" s="1">
-        <v>0</v>
-      </c>
+      <c r="A660" s="1"/>
       <c r="B660" s="1" t="str" cm="1">
         <f t="array" ref="B660">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A660)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14378,9 +13060,7 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="1">
-        <v>0</v>
-      </c>
+      <c r="A661" s="1"/>
       <c r="B661" s="1" t="str" cm="1">
         <f t="array" ref="B661">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A661)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14399,9 +13079,7 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="1">
-        <v>0</v>
-      </c>
+      <c r="A662" s="1"/>
       <c r="B662" s="1" t="str" cm="1">
         <f t="array" ref="B662">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A662)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14420,9 +13098,7 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="1">
-        <v>1</v>
-      </c>
+      <c r="A663" s="1"/>
       <c r="B663" s="1" t="str" cm="1">
         <f t="array" ref="B663">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A663)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14441,9 +13117,7 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" s="1">
-        <v>0</v>
-      </c>
+      <c r="A664" s="1"/>
       <c r="B664" s="1" t="str" cm="1">
         <f t="array" ref="B664">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A664)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14462,9 +13136,7 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" s="1">
-        <v>1</v>
-      </c>
+      <c r="A665" s="1"/>
       <c r="B665" s="1" t="str" cm="1">
         <f t="array" ref="B665">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A665)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14483,9 +13155,7 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" s="1">
-        <v>0</v>
-      </c>
+      <c r="A666" s="1"/>
       <c r="B666" s="1" t="str" cm="1">
         <f t="array" ref="B666">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A666)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14504,9 +13174,7 @@
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="1">
-        <v>1</v>
-      </c>
+      <c r="A667" s="1"/>
       <c r="B667" s="1" t="str" cm="1">
         <f t="array" ref="B667">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A667)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14525,9 +13193,7 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="1">
-        <v>0</v>
-      </c>
+      <c r="A668" s="1"/>
       <c r="B668" s="1" t="str" cm="1">
         <f t="array" ref="B668">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A668)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14546,9 +13212,7 @@
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="1">
-        <v>0</v>
-      </c>
+      <c r="A669" s="1"/>
       <c r="B669" s="1" t="str" cm="1">
         <f t="array" ref="B669">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A669)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14567,9 +13231,7 @@
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" s="1">
-        <v>0</v>
-      </c>
+      <c r="A670" s="1"/>
       <c r="B670" s="1" t="str" cm="1">
         <f t="array" ref="B670">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A670)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14588,9 +13250,7 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" s="1">
-        <v>0</v>
-      </c>
+      <c r="A671" s="1"/>
       <c r="B671" s="1" t="str" cm="1">
         <f t="array" ref="B671">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A671)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14609,9 +13269,7 @@
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" s="1">
-        <v>0</v>
-      </c>
+      <c r="A672" s="1"/>
       <c r="B672" s="1" t="str" cm="1">
         <f t="array" ref="B672">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A672)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14630,9 +13288,7 @@
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="1">
-        <v>1</v>
-      </c>
+      <c r="A673" s="1"/>
       <c r="B673" s="1" t="str" cm="1">
         <f t="array" ref="B673">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A673)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14651,9 +13307,7 @@
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="1">
-        <v>0</v>
-      </c>
+      <c r="A674" s="1"/>
       <c r="B674" s="1" t="str" cm="1">
         <f t="array" ref="B674">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A674)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14672,9 +13326,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="1">
-        <v>0</v>
-      </c>
+      <c r="A675" s="1"/>
       <c r="B675" s="1" t="str" cm="1">
         <f t="array" ref="B675">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A675)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14693,9 +13345,7 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="1">
-        <v>0</v>
-      </c>
+      <c r="A676" s="1"/>
       <c r="B676" s="1" t="str" cm="1">
         <f t="array" ref="B676">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A676)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14714,9 +13364,7 @@
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" s="1">
-        <v>0</v>
-      </c>
+      <c r="A677" s="1"/>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14735,9 +13383,7 @@
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" s="1">
-        <v>0</v>
-      </c>
+      <c r="A678" s="1"/>
       <c r="B678" s="1" t="str" cm="1">
         <f t="array" ref="B678">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A678)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14756,9 +13402,7 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="1">
-        <v>0</v>
-      </c>
+      <c r="A679" s="1"/>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14777,9 +13421,7 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" s="1">
-        <v>0</v>
-      </c>
+      <c r="A680" s="1"/>
       <c r="B680" s="1" t="str" cm="1">
         <f t="array" ref="B680">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A680)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14798,9 +13440,7 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="1">
-        <v>0</v>
-      </c>
+      <c r="A681" s="1"/>
       <c r="B681" s="1" t="str" cm="1">
         <f t="array" ref="B681">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A681)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14819,9 +13459,7 @@
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" s="1">
-        <v>0</v>
-      </c>
+      <c r="A682" s="1"/>
       <c r="B682" s="1" t="str" cm="1">
         <f t="array" ref="B682">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A682)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14840,9 +13478,7 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="1">
-        <v>0</v>
-      </c>
+      <c r="A683" s="1"/>
       <c r="B683" s="1" t="str" cm="1">
         <f t="array" ref="B683">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A683)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14861,9 +13497,7 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" s="1">
-        <v>0</v>
-      </c>
+      <c r="A684" s="1"/>
       <c r="B684" s="1" t="str" cm="1">
         <f t="array" ref="B684">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A684)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14882,9 +13516,7 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="1">
-        <v>1</v>
-      </c>
+      <c r="A685" s="1"/>
       <c r="B685" s="1" t="str" cm="1">
         <f t="array" ref="B685">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A685)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14903,9 +13535,7 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" s="1">
-        <v>0</v>
-      </c>
+      <c r="A686" s="1"/>
       <c r="B686" s="1" t="str" cm="1">
         <f t="array" ref="B686">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A686)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14924,9 +13554,7 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" s="1">
-        <v>1</v>
-      </c>
+      <c r="A687" s="1"/>
       <c r="B687" s="1" t="str" cm="1">
         <f t="array" ref="B687">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A687)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14945,9 +13573,7 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" s="1">
-        <v>0</v>
-      </c>
+      <c r="A688" s="1"/>
       <c r="B688" s="1" t="str" cm="1">
         <f t="array" ref="B688">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A688)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14966,9 +13592,7 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" s="1">
-        <v>1</v>
-      </c>
+      <c r="A689" s="1"/>
       <c r="B689" s="1" t="str" cm="1">
         <f t="array" ref="B689">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A689)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14987,9 +13611,7 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" s="1">
-        <v>0</v>
-      </c>
+      <c r="A690" s="1"/>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A690)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15008,9 +13630,7 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" s="1">
-        <v>0</v>
-      </c>
+      <c r="A691" s="1"/>
       <c r="B691" s="1" t="str" cm="1">
         <f t="array" ref="B691">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A691)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15029,9 +13649,7 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" s="1">
-        <v>1</v>
-      </c>
+      <c r="A692" s="1"/>
       <c r="B692" s="1" t="str" cm="1">
         <f t="array" ref="B692">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A692)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15050,9 +13668,7 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" s="1">
-        <v>1</v>
-      </c>
+      <c r="A693" s="1"/>
       <c r="B693" s="1" t="str" cm="1">
         <f t="array" ref="B693">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A693)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15071,9 +13687,7 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" s="1">
-        <v>0</v>
-      </c>
+      <c r="A694" s="1"/>
       <c r="B694" s="1" t="str" cm="1">
         <f t="array" ref="B694">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A694)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15092,9 +13706,7 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" s="1">
-        <v>0</v>
-      </c>
+      <c r="A695" s="1"/>
       <c r="B695" s="1" t="str" cm="1">
         <f t="array" ref="B695">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A695)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15113,9 +13725,7 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="1">
-        <v>0</v>
-      </c>
+      <c r="A696" s="1"/>
       <c r="B696" s="1" t="str" cm="1">
         <f t="array" ref="B696">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A696)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15134,9 +13744,7 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" s="1">
-        <v>0</v>
-      </c>
+      <c r="A697" s="1"/>
       <c r="B697" s="1" t="str" cm="1">
         <f t="array" ref="B697">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A697)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15155,9 +13763,7 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" s="1">
-        <v>0</v>
-      </c>
+      <c r="A698" s="1"/>
       <c r="B698" s="1" t="str" cm="1">
         <f t="array" ref="B698">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A698)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15176,9 +13782,7 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" s="1">
-        <v>0</v>
-      </c>
+      <c r="A699" s="1"/>
       <c r="B699" s="1" t="str" cm="1">
         <f t="array" ref="B699">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A699)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15197,9 +13801,7 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="1">
-        <v>0</v>
-      </c>
+      <c r="A700" s="1"/>
       <c r="B700" s="1" t="str" cm="1">
         <f t="array" ref="B700">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A700)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15218,9 +13820,7 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="1">
-        <v>0</v>
-      </c>
+      <c r="A701" s="1"/>
       <c r="B701" s="1" t="str" cm="1">
         <f t="array" ref="B701">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A701)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15239,9 +13839,7 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" s="1">
-        <v>0</v>
-      </c>
+      <c r="A702" s="1"/>
       <c r="B702" s="1" t="str" cm="1">
         <f t="array" ref="B702">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A702)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15260,9 +13858,7 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" s="1">
-        <v>0</v>
-      </c>
+      <c r="A703" s="1"/>
       <c r="B703" s="1" t="str" cm="1">
         <f t="array" ref="B703">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A703)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15281,9 +13877,7 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" s="1">
-        <v>0</v>
-      </c>
+      <c r="A704" s="1"/>
       <c r="B704" s="1" t="str" cm="1">
         <f t="array" ref="B704">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A704)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15302,9 +13896,7 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" s="1">
-        <v>0</v>
-      </c>
+      <c r="A705" s="1"/>
       <c r="B705" s="1" t="str" cm="1">
         <f t="array" ref="B705">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A705)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15323,9 +13915,7 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" s="1">
-        <v>1</v>
-      </c>
+      <c r="A706" s="1"/>
       <c r="B706" s="1" t="str" cm="1">
         <f t="array" ref="B706">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A706)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15344,9 +13934,7 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" s="1">
-        <v>0</v>
-      </c>
+      <c r="A707" s="1"/>
       <c r="B707" s="1" t="str" cm="1">
         <f t="array" ref="B707">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A707)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15365,9 +13953,7 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" s="1">
-        <v>1</v>
-      </c>
+      <c r="A708" s="1"/>
       <c r="B708" s="1" t="str" cm="1">
         <f t="array" ref="B708">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A708)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15386,9 +13972,7 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="1">
-        <v>0</v>
-      </c>
+      <c r="A709" s="1"/>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15407,9 +13991,7 @@
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" s="1">
-        <v>0</v>
-      </c>
+      <c r="A710" s="1"/>
       <c r="B710" s="1" t="str" cm="1">
         <f t="array" ref="B710">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A710)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15428,9 +14010,7 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" s="1">
-        <v>1</v>
-      </c>
+      <c r="A711" s="1"/>
       <c r="B711" s="1" t="str" cm="1">
         <f t="array" ref="B711">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A711)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15449,9 +14029,7 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="1">
-        <v>0</v>
-      </c>
+      <c r="A712" s="1"/>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15470,9 +14048,7 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="1">
-        <v>0</v>
-      </c>
+      <c r="A713" s="1"/>
       <c r="B713" s="1" t="str" cm="1">
         <f t="array" ref="B713">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A713)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15491,9 +14067,7 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" s="1">
-        <v>1</v>
-      </c>
+      <c r="A714" s="1"/>
       <c r="B714" s="1" t="str" cm="1">
         <f t="array" ref="B714">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A714)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15512,9 +14086,7 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="1">
-        <v>0</v>
-      </c>
+      <c r="A715" s="1"/>
       <c r="B715" s="1" t="str" cm="1">
         <f t="array" ref="B715">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A715)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15533,9 +14105,7 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" s="1">
-        <v>0</v>
-      </c>
+      <c r="A716" s="1"/>
       <c r="B716" s="1" t="str" cm="1">
         <f t="array" ref="B716">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A716)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15554,9 +14124,7 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" s="1">
-        <v>0</v>
-      </c>
+      <c r="A717" s="1"/>
       <c r="B717" s="1" t="str" cm="1">
         <f t="array" ref="B717">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A717)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15575,9 +14143,7 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" s="1">
-        <v>0</v>
-      </c>
+      <c r="A718" s="1"/>
       <c r="B718" s="1" t="str" cm="1">
         <f t="array" ref="B718">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A718)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15596,9 +14162,7 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="1">
-        <v>0</v>
-      </c>
+      <c r="A719" s="1"/>
       <c r="B719" s="1" t="str" cm="1">
         <f t="array" ref="B719">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A719)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15617,9 +14181,7 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" s="1">
-        <v>0</v>
-      </c>
+      <c r="A720" s="1"/>
       <c r="B720" s="1" t="str" cm="1">
         <f t="array" ref="B720">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A720)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15638,9 +14200,7 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="1">
-        <v>0</v>
-      </c>
+      <c r="A721" s="1"/>
       <c r="B721" s="1" t="str" cm="1">
         <f t="array" ref="B721">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A721)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15659,9 +14219,7 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="1">
-        <v>1</v>
-      </c>
+      <c r="A722" s="1"/>
       <c r="B722" s="1" t="str" cm="1">
         <f t="array" ref="B722">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A722)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15680,9 +14238,7 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="1">
-        <v>0</v>
-      </c>
+      <c r="A723" s="1"/>
       <c r="B723" s="1" t="str" cm="1">
         <f t="array" ref="B723">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A723)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15701,9 +14257,7 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="1">
-        <v>0</v>
-      </c>
+      <c r="A724" s="1"/>
       <c r="B724" s="1" t="str" cm="1">
         <f t="array" ref="B724">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A724)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15722,9 +14276,7 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="1">
-        <v>0</v>
-      </c>
+      <c r="A725" s="1"/>
       <c r="B725" s="1" t="str" cm="1">
         <f t="array" ref="B725">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A725)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15743,9 +14295,7 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" s="1">
-        <v>1</v>
-      </c>
+      <c r="A726" s="1"/>
       <c r="B726" s="1" t="str" cm="1">
         <f t="array" ref="B726">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A726)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15764,9 +14314,7 @@
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="1">
-        <v>0</v>
-      </c>
+      <c r="A727" s="1"/>
       <c r="B727" s="1" t="str" cm="1">
         <f t="array" ref="B727">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A727)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15785,9 +14333,7 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="1">
-        <v>0</v>
-      </c>
+      <c r="A728" s="1"/>
       <c r="B728" s="1" t="str" cm="1">
         <f t="array" ref="B728">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A728)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15806,9 +14352,7 @@
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="1">
-        <v>0</v>
-      </c>
+      <c r="A729" s="1"/>
       <c r="B729" s="1" t="str" cm="1">
         <f t="array" ref="B729">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A729)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15827,9 +14371,7 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="1">
-        <v>0</v>
-      </c>
+      <c r="A730" s="1"/>
       <c r="B730" s="1" t="str" cm="1">
         <f t="array" ref="B730">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A730)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15848,9 +14390,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="1">
-        <v>1</v>
-      </c>
+      <c r="A731" s="1"/>
       <c r="B731" s="1" t="str" cm="1">
         <f t="array" ref="B731">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A731)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15869,9 +14409,7 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="1">
-        <v>0</v>
-      </c>
+      <c r="A732" s="1"/>
       <c r="B732" s="1" t="str" cm="1">
         <f t="array" ref="B732">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A732)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15890,9 +14428,7 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="1">
-        <v>0</v>
-      </c>
+      <c r="A733" s="1"/>
       <c r="B733" s="1" t="str" cm="1">
         <f t="array" ref="B733">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A733)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15911,9 +14447,7 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="1">
-        <v>0</v>
-      </c>
+      <c r="A734" s="1"/>
       <c r="B734" s="1" t="str" cm="1">
         <f t="array" ref="B734">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A734)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15932,9 +14466,7 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" s="1">
-        <v>0</v>
-      </c>
+      <c r="A735" s="1"/>
       <c r="B735" s="1" t="str" cm="1">
         <f t="array" ref="B735">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A735)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15953,9 +14485,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" s="1">
-        <v>0</v>
-      </c>
+      <c r="A736" s="1"/>
       <c r="B736" s="1" t="str" cm="1">
         <f t="array" ref="B736">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A736)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15974,9 +14504,7 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="1">
-        <v>0</v>
-      </c>
+      <c r="A737" s="1"/>
       <c r="B737" s="1" t="str" cm="1">
         <f t="array" ref="B737">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A737)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15995,9 +14523,7 @@
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="1">
-        <v>0</v>
-      </c>
+      <c r="A738" s="1"/>
       <c r="B738" s="1" t="str" cm="1">
         <f t="array" ref="B738">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A738)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16016,9 +14542,7 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="1">
-        <v>0</v>
-      </c>
+      <c r="A739" s="1"/>
       <c r="B739" s="1" t="str" cm="1">
         <f t="array" ref="B739">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A739)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16037,9 +14561,7 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="1">
-        <v>0</v>
-      </c>
+      <c r="A740" s="1"/>
       <c r="B740" s="1" t="str" cm="1">
         <f t="array" ref="B740">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A740)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16058,9 +14580,7 @@
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="1">
-        <v>0</v>
-      </c>
+      <c r="A741" s="1"/>
       <c r="B741" s="1" t="str" cm="1">
         <f t="array" ref="B741">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A741)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16079,9 +14599,7 @@
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="1">
-        <v>1</v>
-      </c>
+      <c r="A742" s="1"/>
       <c r="B742" s="1" t="str" cm="1">
         <f t="array" ref="B742">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A742)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16100,9 +14618,7 @@
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" s="1">
-        <v>0</v>
-      </c>
+      <c r="A743" s="1"/>
       <c r="B743" s="1" t="str" cm="1">
         <f t="array" ref="B743">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A743)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16121,9 +14637,7 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" s="1">
-        <v>0</v>
-      </c>
+      <c r="A744" s="1"/>
       <c r="B744" s="1" t="str" cm="1">
         <f t="array" ref="B744">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A744)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16142,9 +14656,7 @@
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="1">
-        <v>0</v>
-      </c>
+      <c r="A745" s="1"/>
       <c r="B745" s="1" t="str" cm="1">
         <f t="array" ref="B745">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A745)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16163,9 +14675,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" s="1">
-        <v>0</v>
-      </c>
+      <c r="A746" s="1"/>
       <c r="B746" s="1" t="str" cm="1">
         <f t="array" ref="B746">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A746)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16184,9 +14694,7 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" s="1">
-        <v>1</v>
-      </c>
+      <c r="A747" s="1"/>
       <c r="B747" s="1" t="str" cm="1">
         <f t="array" ref="B747">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A747)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16205,9 +14713,7 @@
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="1">
-        <v>1</v>
-      </c>
+      <c r="A748" s="1"/>
       <c r="B748" s="1" t="str" cm="1">
         <f t="array" ref="B748">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A748)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16226,9 +14732,7 @@
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" s="1">
-        <v>0</v>
-      </c>
+      <c r="A749" s="1"/>
       <c r="B749" s="1" t="str" cm="1">
         <f t="array" ref="B749">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A749)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16247,9 +14751,7 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" s="1">
-        <v>0</v>
-      </c>
+      <c r="A750" s="1"/>
       <c r="B750" s="1" t="str" cm="1">
         <f t="array" ref="B750">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A750)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16268,9 +14770,7 @@
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" s="1">
-        <v>0</v>
-      </c>
+      <c r="A751" s="1"/>
       <c r="B751" s="1" t="str" cm="1">
         <f t="array" ref="B751">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A751)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16289,9 +14789,7 @@
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" s="1">
-        <v>0</v>
-      </c>
+      <c r="A752" s="1"/>
       <c r="B752" s="1" t="str" cm="1">
         <f t="array" ref="B752">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A752)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16310,9 +14808,7 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" s="1">
-        <v>0</v>
-      </c>
+      <c r="A753" s="1"/>
       <c r="B753" s="1" t="str" cm="1">
         <f t="array" ref="B753">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A753)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16331,9 +14827,7 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="1">
-        <v>0</v>
-      </c>
+      <c r="A754" s="1"/>
       <c r="B754" s="1" t="str" cm="1">
         <f t="array" ref="B754">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A754)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16352,9 +14846,7 @@
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="1">
-        <v>0</v>
-      </c>
+      <c r="A755" s="1"/>
       <c r="B755" s="1" t="str" cm="1">
         <f t="array" ref="B755">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A755)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16373,9 +14865,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="1">
-        <v>0</v>
-      </c>
+      <c r="A756" s="1"/>
       <c r="B756" s="1" t="str" cm="1">
         <f t="array" ref="B756">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A756)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16394,9 +14884,7 @@
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" s="1">
-        <v>0</v>
-      </c>
+      <c r="A757" s="1"/>
       <c r="B757" s="1" t="str" cm="1">
         <f t="array" ref="B757">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A757)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16415,9 +14903,7 @@
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" s="1">
-        <v>0</v>
-      </c>
+      <c r="A758" s="1"/>
       <c r="B758" s="1" t="str" cm="1">
         <f t="array" ref="B758">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A758)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16436,9 +14922,7 @@
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" s="1">
-        <v>1</v>
-      </c>
+      <c r="A759" s="1"/>
       <c r="B759" s="1" t="str" cm="1">
         <f t="array" ref="B759">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A759)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16457,9 +14941,7 @@
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A760" s="1">
-        <v>0</v>
-      </c>
+      <c r="A760" s="1"/>
       <c r="B760" s="1" t="str" cm="1">
         <f t="array" ref="B760">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A760)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16478,9 +14960,7 @@
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A761" s="1">
-        <v>0</v>
-      </c>
+      <c r="A761" s="1"/>
       <c r="B761" s="1" t="str" cm="1">
         <f t="array" ref="B761">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A761)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16499,9 +14979,7 @@
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A762" s="1">
-        <v>1</v>
-      </c>
+      <c r="A762" s="1"/>
       <c r="B762" s="1" t="str" cm="1">
         <f t="array" ref="B762">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A762)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16520,9 +14998,7 @@
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A763" s="1">
-        <v>0</v>
-      </c>
+      <c r="A763" s="1"/>
       <c r="B763" s="1" t="str" cm="1">
         <f t="array" ref="B763">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A763)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16541,9 +15017,7 @@
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" s="1">
-        <v>1</v>
-      </c>
+      <c r="A764" s="1"/>
       <c r="B764" s="1" t="str" cm="1">
         <f t="array" ref="B764">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A764)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16562,9 +15036,7 @@
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" s="1">
-        <v>1</v>
-      </c>
+      <c r="A765" s="1"/>
       <c r="B765" s="1" t="str" cm="1">
         <f t="array" ref="B765">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A765)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16583,9 +15055,7 @@
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" s="1">
-        <v>0</v>
-      </c>
+      <c r="A766" s="1"/>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16604,9 +15074,7 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" s="1">
-        <v>0</v>
-      </c>
+      <c r="A767" s="1"/>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16625,9 +15093,7 @@
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" s="1">
-        <v>0</v>
-      </c>
+      <c r="A768" s="1"/>
       <c r="B768" s="1" t="str" cm="1">
         <f t="array" ref="B768">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A768)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16646,9 +15112,7 @@
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" s="1">
-        <v>0</v>
-      </c>
+      <c r="A769" s="1"/>
       <c r="B769" s="1" t="str" cm="1">
         <f t="array" ref="B769">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A769)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16667,9 +15131,7 @@
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" s="1">
-        <v>0</v>
-      </c>
+      <c r="A770" s="1"/>
       <c r="B770" s="1" t="str" cm="1">
         <f t="array" ref="B770">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A770)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16688,9 +15150,7 @@
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="1">
-        <v>0</v>
-      </c>
+      <c r="A771" s="1"/>
       <c r="B771" s="1" t="str" cm="1">
         <f t="array" ref="B771">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A771)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16709,9 +15169,7 @@
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" s="1">
-        <v>1</v>
-      </c>
+      <c r="A772" s="1"/>
       <c r="B772" s="1" t="str" cm="1">
         <f t="array" ref="B772">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A772)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16730,9 +15188,7 @@
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" s="1">
-        <v>0</v>
-      </c>
+      <c r="A773" s="1"/>
       <c r="B773" s="1" t="str" cm="1">
         <f t="array" ref="B773">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A773)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16751,9 +15207,7 @@
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" s="1">
-        <v>1</v>
-      </c>
+      <c r="A774" s="1"/>
       <c r="B774" s="1" t="str" cm="1">
         <f t="array" ref="B774">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A774)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16772,9 +15226,7 @@
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="1">
-        <v>1</v>
-      </c>
+      <c r="A775" s="1"/>
       <c r="B775" s="1" t="str" cm="1">
         <f t="array" ref="B775">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A775)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16793,9 +15245,7 @@
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="1">
-        <v>0</v>
-      </c>
+      <c r="A776" s="1"/>
       <c r="B776" s="1" t="str" cm="1">
         <f t="array" ref="B776">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A776)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16814,9 +15264,7 @@
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="1">
-        <v>0</v>
-      </c>
+      <c r="A777" s="1"/>
       <c r="B777" s="1" t="str" cm="1">
         <f t="array" ref="B777">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A777)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16835,9 +15283,7 @@
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="1">
-        <v>0</v>
-      </c>
+      <c r="A778" s="1"/>
       <c r="B778" s="1" t="str" cm="1">
         <f t="array" ref="B778">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A778)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16856,9 +15302,7 @@
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="1">
-        <v>0</v>
-      </c>
+      <c r="A779" s="1"/>
       <c r="B779" s="1" t="str" cm="1">
         <f t="array" ref="B779">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A779)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16877,9 +15321,7 @@
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="1">
-        <v>0</v>
-      </c>
+      <c r="A780" s="1"/>
       <c r="B780" s="1" t="str" cm="1">
         <f t="array" ref="B780">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A780)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16898,9 +15340,7 @@
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="1">
-        <v>0</v>
-      </c>
+      <c r="A781" s="1"/>
       <c r="B781" s="1" t="str" cm="1">
         <f t="array" ref="B781">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A781)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16919,9 +15359,7 @@
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="1">
-        <v>0</v>
-      </c>
+      <c r="A782" s="1"/>
       <c r="B782" s="1" t="str" cm="1">
         <f t="array" ref="B782">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A782)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16940,9 +15378,7 @@
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="1">
-        <v>0</v>
-      </c>
+      <c r="A783" s="1"/>
       <c r="B783" s="1" t="str" cm="1">
         <f t="array" ref="B783">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A783)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16961,9 +15397,7 @@
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="1">
-        <v>0</v>
-      </c>
+      <c r="A784" s="1"/>
       <c r="B784" s="1" t="str" cm="1">
         <f t="array" ref="B784">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A784)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16982,9 +15416,7 @@
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="1">
-        <v>1</v>
-      </c>
+      <c r="A785" s="1"/>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17003,9 +15435,7 @@
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="1">
-        <v>0</v>
-      </c>
+      <c r="A786" s="1"/>
       <c r="B786" s="1" t="str" cm="1">
         <f t="array" ref="B786">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A786)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17024,9 +15454,7 @@
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="1">
-        <v>1</v>
-      </c>
+      <c r="A787" s="1"/>
       <c r="B787" s="1" t="str" cm="1">
         <f t="array" ref="B787">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A787)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17045,9 +15473,7 @@
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="1">
-        <v>0</v>
-      </c>
+      <c r="A788" s="1"/>
       <c r="B788" s="1" t="str" cm="1">
         <f t="array" ref="B788">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A788)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17066,9 +15492,7 @@
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="1">
-        <v>0</v>
-      </c>
+      <c r="A789" s="1"/>
       <c r="B789" s="1" t="str" cm="1">
         <f t="array" ref="B789">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A789)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17087,9 +15511,7 @@
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="1">
-        <v>1</v>
-      </c>
+      <c r="A790" s="1"/>
       <c r="B790" s="1" t="str" cm="1">
         <f t="array" ref="B790">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A790)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17108,9 +15530,7 @@
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="1">
-        <v>0</v>
-      </c>
+      <c r="A791" s="1"/>
       <c r="B791" s="1" t="str" cm="1">
         <f t="array" ref="B791">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A791)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17129,9 +15549,7 @@
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="1">
-        <v>0</v>
-      </c>
+      <c r="A792" s="1"/>
       <c r="B792" s="1" t="str" cm="1">
         <f t="array" ref="B792">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A792)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17150,9 +15568,7 @@
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="1">
-        <v>0</v>
-      </c>
+      <c r="A793" s="1"/>
       <c r="B793" s="1" t="str" cm="1">
         <f t="array" ref="B793">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A793)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17171,9 +15587,7 @@
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="1">
-        <v>0</v>
-      </c>
+      <c r="A794" s="1"/>
       <c r="B794" s="1" t="str" cm="1">
         <f t="array" ref="B794">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A794)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17192,9 +15606,7 @@
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" s="1">
-        <v>0</v>
-      </c>
+      <c r="A795" s="1"/>
       <c r="B795" s="1" t="str" cm="1">
         <f t="array" ref="B795">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A795)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17213,9 +15625,7 @@
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" s="1">
-        <v>0</v>
-      </c>
+      <c r="A796" s="1"/>
       <c r="B796" s="1" t="str" cm="1">
         <f t="array" ref="B796">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A796)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17234,9 +15644,7 @@
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="1">
-        <v>0</v>
-      </c>
+      <c r="A797" s="1"/>
       <c r="B797" s="1" t="str" cm="1">
         <f t="array" ref="B797">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A797)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17255,9 +15663,7 @@
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" s="1">
-        <v>0</v>
-      </c>
+      <c r="A798" s="1"/>
       <c r="B798" s="1" t="str" cm="1">
         <f t="array" ref="B798">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A798)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17276,9 +15682,7 @@
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" s="1">
-        <v>0</v>
-      </c>
+      <c r="A799" s="1"/>
       <c r="B799" s="1" t="str" cm="1">
         <f t="array" ref="B799">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A799)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17297,9 +15701,7 @@
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" s="1">
-        <v>0</v>
-      </c>
+      <c r="A800" s="1"/>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17318,9 +15720,7 @@
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" s="1">
-        <v>0</v>
-      </c>
+      <c r="A801" s="1"/>
       <c r="B801" s="1" t="str" cm="1">
         <f t="array" ref="B801">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A801)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17339,9 +15739,7 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" s="1">
-        <v>0</v>
-      </c>
+      <c r="A802" s="1"/>
       <c r="B802" s="1" t="str" cm="1">
         <f t="array" ref="B802">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A802)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17360,9 +15758,7 @@
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" s="1">
-        <v>0</v>
-      </c>
+      <c r="A803" s="1"/>
       <c r="B803" s="1" t="str" cm="1">
         <f t="array" ref="B803">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A803)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17381,9 +15777,7 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="1">
-        <v>0</v>
-      </c>
+      <c r="A804" s="1"/>
       <c r="B804" s="1" t="str" cm="1">
         <f t="array" ref="B804">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A804)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17402,9 +15796,7 @@
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" s="1">
-        <v>1</v>
-      </c>
+      <c r="A805" s="1"/>
       <c r="B805" s="1" t="str" cm="1">
         <f t="array" ref="B805">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A805)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17423,9 +15815,7 @@
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="1">
-        <v>0</v>
-      </c>
+      <c r="A806" s="1"/>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17444,9 +15834,7 @@
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" s="1">
-        <v>0</v>
-      </c>
+      <c r="A807" s="1"/>
       <c r="B807" s="1" t="str" cm="1">
         <f t="array" ref="B807">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A807)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17465,9 +15853,7 @@
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" s="1">
-        <v>1</v>
-      </c>
+      <c r="A808" s="1"/>
       <c r="B808" s="1" t="str" cm="1">
         <f t="array" ref="B808">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A808)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17486,9 +15872,7 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" s="1">
-        <v>0</v>
-      </c>
+      <c r="A809" s="1"/>
       <c r="B809" s="1" t="str" cm="1">
         <f t="array" ref="B809">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A809)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17507,9 +15891,7 @@
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="1">
-        <v>0</v>
-      </c>
+      <c r="A810" s="1"/>
       <c r="B810" s="1" t="str" cm="1">
         <f t="array" ref="B810">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A810)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17528,9 +15910,7 @@
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="1">
-        <v>0</v>
-      </c>
+      <c r="A811" s="1"/>
       <c r="B811" s="1" t="str" cm="1">
         <f t="array" ref="B811">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A811)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17549,9 +15929,7 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" s="1">
-        <v>0</v>
-      </c>
+      <c r="A812" s="1"/>
       <c r="B812" s="1" t="str" cm="1">
         <f t="array" ref="B812">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A812)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17570,9 +15948,7 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="1">
-        <v>0</v>
-      </c>
+      <c r="A813" s="1"/>
       <c r="B813" s="1" t="str" cm="1">
         <f t="array" ref="B813">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A813)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17591,9 +15967,7 @@
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" s="1">
-        <v>0</v>
-      </c>
+      <c r="A814" s="1"/>
       <c r="B814" s="1" t="str" cm="1">
         <f t="array" ref="B814">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A814)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17612,9 +15986,7 @@
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" s="1">
-        <v>0</v>
-      </c>
+      <c r="A815" s="1"/>
       <c r="B815" s="1" t="str" cm="1">
         <f t="array" ref="B815">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A815)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17633,9 +16005,7 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" s="1">
-        <v>0</v>
-      </c>
+      <c r="A816" s="1"/>
       <c r="B816" s="1" t="str" cm="1">
         <f t="array" ref="B816">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A816)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17654,9 +16024,7 @@
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" s="1">
-        <v>0</v>
-      </c>
+      <c r="A817" s="1"/>
       <c r="B817" s="1" t="str" cm="1">
         <f t="array" ref="B817">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A817)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17675,9 +16043,7 @@
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A818" s="1">
-        <v>0</v>
-      </c>
+      <c r="A818" s="1"/>
       <c r="B818" s="1" t="str" cm="1">
         <f t="array" ref="B818">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A818)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17696,9 +16062,7 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819" s="1">
-        <v>0</v>
-      </c>
+      <c r="A819" s="1"/>
       <c r="B819" s="1" t="str" cm="1">
         <f t="array" ref="B819">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A819)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17717,9 +16081,7 @@
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A820" s="1">
-        <v>0</v>
-      </c>
+      <c r="A820" s="1"/>
       <c r="B820" s="1" t="str" cm="1">
         <f t="array" ref="B820">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A820)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17738,9 +16100,7 @@
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" s="1">
-        <v>1</v>
-      </c>
+      <c r="A821" s="1"/>
       <c r="B821" s="1" t="str" cm="1">
         <f t="array" ref="B821">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A821)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17759,9 +16119,7 @@
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" s="1">
-        <v>0</v>
-      </c>
+      <c r="A822" s="1"/>
       <c r="B822" s="1" t="str" cm="1">
         <f t="array" ref="B822">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A822)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17780,9 +16138,7 @@
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="1">
-        <v>1</v>
-      </c>
+      <c r="A823" s="1"/>
       <c r="B823" s="1" t="str" cm="1">
         <f t="array" ref="B823">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A823)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17801,9 +16157,7 @@
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" s="1">
-        <v>0</v>
-      </c>
+      <c r="A824" s="1"/>
       <c r="B824" s="1" t="str" cm="1">
         <f t="array" ref="B824">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A824)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17822,9 +16176,7 @@
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" s="1">
-        <v>0</v>
-      </c>
+      <c r="A825" s="1"/>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17843,9 +16195,7 @@
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" s="1">
-        <v>0</v>
-      </c>
+      <c r="A826" s="1"/>
       <c r="B826" s="1" t="str" cm="1">
         <f t="array" ref="B826">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A826)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17864,9 +16214,7 @@
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" s="1">
-        <v>0</v>
-      </c>
+      <c r="A827" s="1"/>
       <c r="B827" s="1" t="str" cm="1">
         <f t="array" ref="B827">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A827)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17885,9 +16233,7 @@
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" s="1">
-        <v>1</v>
-      </c>
+      <c r="A828" s="1"/>
       <c r="B828" s="1" t="str" cm="1">
         <f t="array" ref="B828">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A828)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17906,9 +16252,7 @@
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" s="1">
-        <v>0</v>
-      </c>
+      <c r="A829" s="1"/>
       <c r="B829" s="1" t="str" cm="1">
         <f t="array" ref="B829">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A829)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17927,9 +16271,7 @@
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="1">
-        <v>1</v>
-      </c>
+      <c r="A830" s="1"/>
       <c r="B830" s="1" t="str" cm="1">
         <f t="array" ref="B830">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A830)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17948,9 +16290,7 @@
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" s="1">
-        <v>0</v>
-      </c>
+      <c r="A831" s="1"/>
       <c r="B831" s="1" t="str" cm="1">
         <f t="array" ref="B831">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A831)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17969,9 +16309,7 @@
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" s="1">
-        <v>0</v>
-      </c>
+      <c r="A832" s="1"/>
       <c r="B832" s="1" t="str" cm="1">
         <f t="array" ref="B832">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A832)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17990,9 +16328,7 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="1">
-        <v>1</v>
-      </c>
+      <c r="A833" s="1"/>
       <c r="B833" s="1" t="str" cm="1">
         <f t="array" ref="B833">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A833)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18011,9 +16347,7 @@
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="1">
-        <v>0</v>
-      </c>
+      <c r="A834" s="1"/>
       <c r="B834" s="1" t="str" cm="1">
         <f t="array" ref="B834">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A834)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18032,9 +16366,7 @@
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="1">
-        <v>0</v>
-      </c>
+      <c r="A835" s="1"/>
       <c r="B835" s="1" t="str" cm="1">
         <f t="array" ref="B835">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A835)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18053,9 +16385,7 @@
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="1">
-        <v>0</v>
-      </c>
+      <c r="A836" s="1"/>
       <c r="B836" s="1" t="str" cm="1">
         <f t="array" ref="B836">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A836)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18074,9 +16404,7 @@
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="1">
-        <v>1</v>
-      </c>
+      <c r="A837" s="1"/>
       <c r="B837" s="1" t="str" cm="1">
         <f t="array" ref="B837">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A837)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18095,9 +16423,7 @@
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="1">
-        <v>0</v>
-      </c>
+      <c r="A838" s="1"/>
       <c r="B838" s="1" t="str" cm="1">
         <f t="array" ref="B838">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A838)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18116,9 +16442,7 @@
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" s="1">
-        <v>0</v>
-      </c>
+      <c r="A839" s="1"/>
       <c r="B839" s="1" t="str" cm="1">
         <f t="array" ref="B839">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A839)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18137,9 +16461,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" s="1">
-        <v>0</v>
-      </c>
+      <c r="A840" s="1"/>
       <c r="B840" s="1" t="str" cm="1">
         <f t="array" ref="B840">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A840)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18158,9 +16480,7 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="1">
-        <v>0</v>
-      </c>
+      <c r="A841" s="1"/>
       <c r="B841" s="1" t="str" cm="1">
         <f t="array" ref="B841">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A841)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18179,9 +16499,7 @@
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" s="1">
-        <v>0</v>
-      </c>
+      <c r="A842" s="1"/>
       <c r="B842" s="1" t="str" cm="1">
         <f t="array" ref="B842">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A842)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18200,9 +16518,7 @@
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="1">
-        <v>0</v>
-      </c>
+      <c r="A843" s="1"/>
       <c r="B843" s="1" t="str" cm="1">
         <f t="array" ref="B843">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A843)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18221,9 +16537,7 @@
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" s="1">
-        <v>0</v>
-      </c>
+      <c r="A844" s="1"/>
       <c r="B844" s="1" t="str" cm="1">
         <f t="array" ref="B844">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A844)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18242,9 +16556,7 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" s="1">
-        <v>0</v>
-      </c>
+      <c r="A845" s="1"/>
       <c r="B845" s="1" t="str" cm="1">
         <f t="array" ref="B845">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A845)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18263,9 +16575,7 @@
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" s="1">
-        <v>0</v>
-      </c>
+      <c r="A846" s="1"/>
       <c r="B846" s="1" t="str" cm="1">
         <f t="array" ref="B846">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A846)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18284,9 +16594,7 @@
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" s="1">
-        <v>0</v>
-      </c>
+      <c r="A847" s="1"/>
       <c r="B847" s="1" t="str" cm="1">
         <f t="array" ref="B847">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A847)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18305,9 +16613,7 @@
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="1">
-        <v>0</v>
-      </c>
+      <c r="A848" s="1"/>
       <c r="B848" s="1" t="str" cm="1">
         <f t="array" ref="B848">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A848)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18326,9 +16632,7 @@
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" s="1">
-        <v>1</v>
-      </c>
+      <c r="A849" s="1"/>
       <c r="B849" s="1" t="str" cm="1">
         <f t="array" ref="B849">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A849)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18347,9 +16651,7 @@
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" s="1">
-        <v>1</v>
-      </c>
+      <c r="A850" s="1"/>
       <c r="B850" s="1" t="str" cm="1">
         <f t="array" ref="B850">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A850)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18368,9 +16670,7 @@
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" s="1">
-        <v>0</v>
-      </c>
+      <c r="A851" s="1"/>
       <c r="B851" s="1" t="str" cm="1">
         <f t="array" ref="B851">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A851)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18389,9 +16689,7 @@
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" s="1">
-        <v>0</v>
-      </c>
+      <c r="A852" s="1"/>
       <c r="B852" s="1" t="str" cm="1">
         <f t="array" ref="B852">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A852)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18410,9 +16708,7 @@
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A853" s="1">
-        <v>0</v>
-      </c>
+      <c r="A853" s="1"/>
       <c r="B853" s="1" t="str" cm="1">
         <f t="array" ref="B853">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A853)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18431,9 +16727,7 @@
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A854" s="1">
-        <v>0</v>
-      </c>
+      <c r="A854" s="1"/>
       <c r="B854" s="1" t="str" cm="1">
         <f t="array" ref="B854">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A854)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18452,9 +16746,7 @@
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A855" s="1">
-        <v>0</v>
-      </c>
+      <c r="A855" s="1"/>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18473,9 +16765,7 @@
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A856" s="1">
-        <v>0</v>
-      </c>
+      <c r="A856" s="1"/>
       <c r="B856" s="1" t="str" cm="1">
         <f t="array" ref="B856">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A856)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18494,9 +16784,7 @@
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A857" s="1">
-        <v>0</v>
-      </c>
+      <c r="A857" s="1"/>
       <c r="B857" s="1" t="str" cm="1">
         <f t="array" ref="B857">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A857)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18515,9 +16803,7 @@
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A858" s="1">
-        <v>0</v>
-      </c>
+      <c r="A858" s="1"/>
       <c r="B858" s="1" t="str" cm="1">
         <f t="array" ref="B858">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A858)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18536,9 +16822,7 @@
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A859" s="1">
-        <v>1</v>
-      </c>
+      <c r="A859" s="1"/>
       <c r="B859" s="1" t="str" cm="1">
         <f t="array" ref="B859">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A859)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18557,9 +16841,7 @@
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A860" s="1">
-        <v>0</v>
-      </c>
+      <c r="A860" s="1"/>
       <c r="B860" s="1" t="str" cm="1">
         <f t="array" ref="B860">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A860)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18578,9 +16860,7 @@
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A861" s="1">
-        <v>1</v>
-      </c>
+      <c r="A861" s="1"/>
       <c r="B861" s="1" t="str" cm="1">
         <f t="array" ref="B861">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A861)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18599,9 +16879,7 @@
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862" s="1">
-        <v>0</v>
-      </c>
+      <c r="A862" s="1"/>
       <c r="B862" s="1" t="str" cm="1">
         <f t="array" ref="B862">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A862)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18620,9 +16898,7 @@
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A863" s="1">
-        <v>0</v>
-      </c>
+      <c r="A863" s="1"/>
       <c r="B863" s="1" t="str" cm="1">
         <f t="array" ref="B863">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A863)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18641,9 +16917,7 @@
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A864" s="1">
-        <v>0</v>
-      </c>
+      <c r="A864" s="1"/>
       <c r="B864" s="1" t="str" cm="1">
         <f t="array" ref="B864">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A864)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18662,9 +16936,7 @@
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" s="1">
-        <v>0</v>
-      </c>
+      <c r="A865" s="1"/>
       <c r="B865" s="1" t="str" cm="1">
         <f t="array" ref="B865">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A865)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18683,9 +16955,7 @@
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" s="1">
-        <v>0</v>
-      </c>
+      <c r="A866" s="1"/>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18704,9 +16974,7 @@
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A867" s="1">
-        <v>0</v>
-      </c>
+      <c r="A867" s="1"/>
       <c r="B867" s="1" t="str" cm="1">
         <f t="array" ref="B867">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A867)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18725,9 +16993,7 @@
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A868" s="1">
-        <v>0</v>
-      </c>
+      <c r="A868" s="1"/>
       <c r="B868" s="1" t="str" cm="1">
         <f t="array" ref="B868">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A868)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18746,9 +17012,7 @@
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A869" s="1">
-        <v>0</v>
-      </c>
+      <c r="A869" s="1"/>
       <c r="B869" s="1" t="str" cm="1">
         <f t="array" ref="B869">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A869)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18767,9 +17031,7 @@
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" s="1">
-        <v>0</v>
-      </c>
+      <c r="A870" s="1"/>
       <c r="B870" s="1" t="str" cm="1">
         <f t="array" ref="B870">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A870)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18788,9 +17050,7 @@
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A871" s="1">
-        <v>0</v>
-      </c>
+      <c r="A871" s="1"/>
       <c r="B871" s="1" t="str" cm="1">
         <f t="array" ref="B871">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A871)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18809,9 +17069,7 @@
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872" s="1">
-        <v>0</v>
-      </c>
+      <c r="A872" s="1"/>
       <c r="B872" s="1" t="str" cm="1">
         <f t="array" ref="B872">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A872)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18830,9 +17088,7 @@
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A873" s="1">
-        <v>1</v>
-      </c>
+      <c r="A873" s="1"/>
       <c r="B873" s="1" t="str" cm="1">
         <f t="array" ref="B873">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A873)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18851,9 +17107,7 @@
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A874" s="1">
-        <v>1</v>
-      </c>
+      <c r="A874" s="1"/>
       <c r="B874" s="1" t="str" cm="1">
         <f t="array" ref="B874">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A874)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18872,9 +17126,7 @@
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A875" s="1">
-        <v>0</v>
-      </c>
+      <c r="A875" s="1"/>
       <c r="B875" s="1" t="str" cm="1">
         <f t="array" ref="B875">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A875)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18893,9 +17145,7 @@
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A876" s="1">
-        <v>1</v>
-      </c>
+      <c r="A876" s="1"/>
       <c r="B876" s="1" t="str" cm="1">
         <f t="array" ref="B876">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A876)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18960,23 +17210,23 @@
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>-</v>
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>-</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>-</v>
       </c>
       <c r="E6" s="2" t="str" cm="1">
         <f t="array" ref="E6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>-</v>
       </c>
       <c r="F6" s="2" t="str" cm="1">
         <f t="array" ref="F6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -18985,23 +17235,23 @@
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>-</v>
       </c>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>-</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>-</v>
       </c>
       <c r="E7" s="2" t="str" cm="1">
         <f t="array" ref="E7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>-</v>
       </c>
       <c r="F7" s="2" t="str" cm="1">
         <f t="array" ref="F7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -19010,23 +17260,23 @@
       </c>
       <c r="B8" s="2" t="str" cm="1">
         <f t="array" ref="B8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>-</v>
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>-</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>-</v>
       </c>
       <c r="E8" s="2" t="str" cm="1">
         <f t="array" ref="E8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>-</v>
       </c>
       <c r="F8" s="2" t="str" cm="1">
         <f t="array" ref="F8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -19035,23 +17285,23 @@
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" ref="B9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>-</v>
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" ref="C9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>-</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" ref="D9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>-</v>
       </c>
       <c r="E9" s="2" t="str" cm="1">
         <f t="array" ref="E9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>-</v>
       </c>
       <c r="F9" s="2" t="str" cm="1">
         <f t="array" ref="F9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -19060,23 +17310,23 @@
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" ref="B10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>-</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>-</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>-</v>
       </c>
       <c r="E10" s="2" t="str" cm="1">
         <f t="array" ref="E10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>-</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
         <f t="array" ref="F10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -19085,23 +17335,23 @@
       </c>
       <c r="B11" s="2" t="str" cm="1">
         <f t="array" ref="B11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>-</v>
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" ref="C11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>-</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>-</v>
       </c>
       <c r="E11" s="2" t="str" cm="1">
         <f t="array" ref="E11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>-</v>
       </c>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" ref="F11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -19110,23 +17360,23 @@
       </c>
       <c r="B12" s="2" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>-</v>
       </c>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>-</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>-</v>
       </c>
       <c r="E12" s="2" t="str" cm="1">
         <f t="array" ref="E12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>-</v>
       </c>
       <c r="F12" s="2" t="str" cm="1">
         <f t="array" ref="F12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>-</v>
       </c>
     </row>
   </sheetData>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham\Downloads\PROYECTO DE IO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6014C-443B-46EE-8B65-687B70BE8FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FDDB93-9B7A-4527-ACA8-7969B09BA96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <definedName name="DIA">'BASE DE DATOS'!$D$1</definedName>
     <definedName name="GRADO">'BASE DE DATOS'!$B$1</definedName>
     <definedName name="HORA">'BASE DE DATOS'!$E$1</definedName>
+    <definedName name="IMPORTANCIA_CURSOS">'BASE DE DATOS'!$G$2:$G$6</definedName>
+    <definedName name="MIS_PESOS">'BASE DE DATOS'!$G$2:$G$6</definedName>
     <definedName name="RESULTADOS_X">'BASE DE DATOS'!$A$2:$A$876</definedName>
     <definedName name="VALOR">'BASE DE DATOS'!$A$1</definedName>
   </definedNames>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>LUN</t>
   </si>
@@ -122,6 +124,24 @@
   <si>
     <t>1ERO</t>
   </si>
+  <si>
+    <t>MATE</t>
+  </si>
+  <si>
+    <t>COMU</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>HIST</t>
+  </si>
+  <si>
+    <t>INGLES</t>
+  </si>
+  <si>
+    <t>CURSOS</t>
+  </si>
 </sst>
 </file>
 
@@ -136,12 +156,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -171,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,32 +543,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CC2F08-E8FD-45E5-B7CC-7A253602AC10}">
-  <dimension ref="A1:E876"/>
+  <dimension ref="A1:G876"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A876"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -558,8 +591,14 @@
         <f t="array" ref="E2">INDEX({"H1";"H2";"H3";"H4";"H5";"H6";"H7"}, MOD(ROW(A2)-2,7)+1)</f>
         <v>H1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -579,8 +618,14 @@
         <f t="array" ref="E3">INDEX({"H1";"H2";"H3";"H4";"H5";"H6";"H7"}, MOD(ROW(A3)-2,7)+1)</f>
         <v>H2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -600,10 +645,16 @@
         <f t="array" ref="E4">INDEX({"H1";"H2";"H3";"H4";"H5";"H6";"H7"}, MOD(ROW(A4)-2,7)+1)</f>
         <v>H3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" ref="B5">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A5)-2)/175)+1)</f>
@@ -621,8 +672,14 @@
         <f t="array" ref="E5">INDEX({"H1";"H2";"H3";"H4";"H5";"H6";"H7"}, MOD(ROW(A5)-2,7)+1)</f>
         <v>H4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -642,8 +699,14 @@
         <f t="array" ref="E6">INDEX({"H1";"H2";"H3";"H4";"H5";"H6";"H7"}, MOD(ROW(A6)-2,7)+1)</f>
         <v>H5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -664,7 +727,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -685,7 +748,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -706,9 +769,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" ref="B10">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A10)-2)/175)+1)</f>
@@ -727,7 +790,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -748,9 +811,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A12)-2)/175)+1)</f>
@@ -769,7 +832,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -790,9 +853,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" ref="B14">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A14)-2)/175)+1)</f>
@@ -811,7 +874,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -832,9 +895,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A16)-2)/175)+1)</f>
@@ -853,7 +916,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -874,7 +937,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -895,7 +958,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -916,7 +979,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -937,7 +1000,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -958,7 +1021,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -979,7 +1042,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1000,7 +1063,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1021,7 +1084,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1042,7 +1105,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1063,7 +1126,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1105,7 +1168,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1126,7 +1189,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1147,9 +1210,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
@@ -1168,7 +1231,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1189,7 +1252,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1210,7 +1273,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1231,7 +1294,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1252,7 +1315,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1273,7 +1336,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1294,9 +1357,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" ref="B38">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A38)-2)/175)+1)</f>
@@ -1315,7 +1378,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -1336,9 +1399,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="str" cm="1">
         <f t="array" ref="B40">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A40)-2)/175)+1)</f>
@@ -1357,7 +1420,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -1378,7 +1441,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -1399,7 +1462,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -1420,7 +1483,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -1441,9 +1504,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A45)-2)/175)+1)</f>
@@ -1462,7 +1525,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -1483,9 +1546,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="str" cm="1">
         <f t="array" ref="B47">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A47)-2)/175)+1)</f>
@@ -1504,7 +1567,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -1525,7 +1588,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -1546,7 +1609,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -1567,9 +1630,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
@@ -1588,7 +1651,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -1609,7 +1672,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -1630,9 +1693,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1" t="str" cm="1">
         <f t="array" ref="B54">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A54)-2)/175)+1)</f>
@@ -1651,9 +1714,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="str" cm="1">
         <f t="array" ref="B55">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A55)-2)/175)+1)</f>
@@ -1672,7 +1735,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -1693,9 +1756,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="str" cm="1">
         <f t="array" ref="B57">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A57)-2)/175)+1)</f>
@@ -1714,7 +1777,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -1735,9 +1798,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1" t="str" cm="1">
         <f t="array" ref="B59">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A59)-2)/175)+1)</f>
@@ -1756,9 +1819,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" ref="B60">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A60)-2)/175)+1)</f>
@@ -1777,7 +1840,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -1798,7 +1861,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -1819,7 +1882,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -1840,9 +1903,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="1" t="str" cm="1">
         <f t="array" ref="B64">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A64)-2)/175)+1)</f>
@@ -1861,7 +1924,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -1882,7 +1945,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -1903,7 +1966,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -1924,7 +1987,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -1945,7 +2008,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -1966,9 +2029,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="str" cm="1">
         <f t="array" ref="B70">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A70)-2)/175)+1)</f>
@@ -1987,7 +2050,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -2008,7 +2071,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -2029,7 +2092,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2050,7 +2113,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -2071,7 +2134,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -2092,7 +2155,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -2113,7 +2176,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -2134,9 +2197,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1" t="str" cm="1">
         <f t="array" ref="B78">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A78)-2)/175)+1)</f>
@@ -2155,9 +2218,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
@@ -2176,7 +2239,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -2197,7 +2260,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -2218,7 +2281,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -2239,7 +2302,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -2260,9 +2323,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A84)-2)/175)+1)</f>
@@ -2281,9 +2344,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1" t="str" cm="1">
         <f t="array" ref="B85">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A85)-2)/175)+1)</f>
@@ -2302,7 +2365,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -2323,7 +2386,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -2344,7 +2407,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -2365,9 +2428,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" s="1" t="str" cm="1">
         <f t="array" ref="B89">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A89)-2)/175)+1)</f>
@@ -2386,9 +2449,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1" t="str" cm="1">
         <f t="array" ref="B90">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A90)-2)/175)+1)</f>
@@ -2407,7 +2470,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -2428,7 +2491,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -2449,7 +2512,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -2470,9 +2533,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" s="1" t="str" cm="1">
         <f t="array" ref="B94">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A94)-2)/175)+1)</f>
@@ -2491,7 +2554,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -2512,7 +2575,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -2533,7 +2596,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -2554,9 +2617,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="1" t="str" cm="1">
         <f t="array" ref="B98">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A98)-2)/175)+1)</f>
@@ -2575,7 +2638,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -2596,7 +2659,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -2617,9 +2680,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" s="1" t="str" cm="1">
         <f t="array" ref="B101">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A101)-2)/175)+1)</f>
@@ -2638,9 +2701,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" s="1" t="str" cm="1">
         <f t="array" ref="B102">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A102)-2)/175)+1)</f>
@@ -2659,9 +2722,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" s="1" t="str" cm="1">
         <f t="array" ref="B103">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A103)-2)/175)+1)</f>
@@ -2680,7 +2743,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -2701,9 +2764,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1" t="str" cm="1">
         <f t="array" ref="B105">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A105)-2)/175)+1)</f>
@@ -2722,7 +2785,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -2743,7 +2806,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -2764,9 +2827,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" s="1" t="str" cm="1">
         <f t="array" ref="B108">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A108)-2)/175)+1)</f>
@@ -2785,7 +2848,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -2806,7 +2869,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -2827,9 +2890,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1" t="str" cm="1">
         <f t="array" ref="B111">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A111)-2)/175)+1)</f>
@@ -2848,9 +2911,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1" t="str" cm="1">
         <f t="array" ref="B112">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A112)-2)/175)+1)</f>
@@ -2869,7 +2932,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -2890,9 +2953,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" s="1" t="str" cm="1">
         <f t="array" ref="B114">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A114)-2)/175)+1)</f>
@@ -2911,7 +2974,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -2932,9 +2995,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" s="1" t="str" cm="1">
         <f t="array" ref="B116">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A116)-2)/175)+1)</f>
@@ -2953,7 +3016,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -2974,9 +3037,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" s="1" t="str" cm="1">
         <f t="array" ref="B118">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A118)-2)/175)+1)</f>
@@ -2995,7 +3058,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -3016,9 +3079,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" s="1" t="str" cm="1">
         <f t="array" ref="B120">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A120)-2)/175)+1)</f>
@@ -3037,7 +3100,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -3058,7 +3121,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -3079,7 +3142,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -3100,7 +3163,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -3121,7 +3184,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -3142,7 +3205,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -3163,7 +3226,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -3184,7 +3247,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -3205,7 +3268,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -3226,9 +3289,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" s="1" t="str" cm="1">
         <f t="array" ref="B130">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A130)-2)/175)+1)</f>
@@ -3247,9 +3310,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" s="1" t="str" cm="1">
         <f t="array" ref="B131">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A131)-2)/175)+1)</f>
@@ -3268,9 +3331,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1" t="str" cm="1">
         <f t="array" ref="B132">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A132)-2)/175)+1)</f>
@@ -3289,7 +3352,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -3310,9 +3373,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" s="1" t="str" cm="1">
         <f t="array" ref="B134">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A134)-2)/175)+1)</f>
@@ -3331,7 +3394,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -3352,7 +3415,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -3373,7 +3436,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -3394,7 +3457,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -3415,7 +3478,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -3436,7 +3499,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -3457,9 +3520,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141" s="1" t="str" cm="1">
         <f t="array" ref="B141">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A141)-2)/175)+1)</f>
@@ -3478,7 +3541,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -3499,7 +3562,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -3520,7 +3583,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -3541,7 +3604,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -3562,9 +3625,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146" s="1" t="str" cm="1">
         <f t="array" ref="B146">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A146)-2)/175)+1)</f>
@@ -3583,9 +3646,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" s="1" t="str" cm="1">
         <f t="array" ref="B147">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A147)-2)/175)+1)</f>
@@ -3604,9 +3667,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A148)-2)/175)+1)</f>
@@ -3625,7 +3688,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -3646,7 +3709,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -3667,9 +3730,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" s="1" t="str" cm="1">
         <f t="array" ref="B151">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A151)-2)/175)+1)</f>
@@ -3688,7 +3751,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -3709,9 +3772,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" s="1" t="str" cm="1">
         <f t="array" ref="B153">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A153)-2)/175)+1)</f>
@@ -3730,7 +3793,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>0</v>
       </c>
@@ -3751,7 +3814,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -3772,7 +3835,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -3793,7 +3856,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -3814,7 +3877,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -3835,7 +3898,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -3856,7 +3919,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -3877,7 +3940,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -3898,9 +3961,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1" t="str" cm="1">
         <f t="array" ref="B162">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A162)-2)/175)+1)</f>
@@ -3919,7 +3982,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -3940,7 +4003,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -3961,7 +4024,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -3982,9 +4045,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
@@ -4003,9 +4066,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" s="1" t="str" cm="1">
         <f t="array" ref="B167">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A167)-2)/175)+1)</f>
@@ -4024,9 +4087,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
@@ -4045,7 +4108,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -4066,7 +4129,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -4087,7 +4150,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -4108,9 +4171,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" s="1" t="str" cm="1">
         <f t="array" ref="B172">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A172)-2)/175)+1)</f>
@@ -4129,9 +4192,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
@@ -4150,7 +4213,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1</v>
       </c>
@@ -4171,7 +4234,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -4192,9 +4255,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
@@ -4213,7 +4276,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -4234,9 +4297,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B178" s="1" t="str" cm="1">
         <f t="array" ref="B178">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A178)-2)/175)+1)</f>
@@ -4255,7 +4318,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -4276,7 +4339,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>0</v>
       </c>
@@ -4297,7 +4360,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>0</v>
       </c>
@@ -4318,7 +4381,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -4339,7 +4402,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -4360,7 +4423,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -4381,7 +4444,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -4402,9 +4465,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" s="1" t="str" cm="1">
         <f t="array" ref="B186">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A186)-2)/175)+1)</f>
@@ -4423,9 +4486,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187" s="1" t="str" cm="1">
         <f t="array" ref="B187">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A187)-2)/175)+1)</f>
@@ -4444,7 +4507,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>0</v>
       </c>
@@ -4465,7 +4528,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -4486,9 +4549,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" s="1" t="str" cm="1">
         <f t="array" ref="B190">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A190)-2)/175)+1)</f>
@@ -4507,9 +4570,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" s="1" t="str" cm="1">
         <f t="array" ref="B191">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A191)-2)/175)+1)</f>
@@ -4528,7 +4591,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -4549,7 +4612,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1</v>
       </c>
@@ -4570,7 +4633,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -4591,7 +4654,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -4612,7 +4675,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -4633,7 +4696,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>0</v>
       </c>
@@ -4654,9 +4717,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" s="1" t="str" cm="1">
         <f t="array" ref="B198">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A198)-2)/175)+1)</f>
@@ -4675,9 +4738,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" s="1" t="str" cm="1">
         <f t="array" ref="B199">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A199)-2)/175)+1)</f>
@@ -4696,7 +4759,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -4717,7 +4780,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -4738,7 +4801,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>0</v>
       </c>
@@ -4759,9 +4822,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B203" s="1" t="str" cm="1">
         <f t="array" ref="B203">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A203)-2)/175)+1)</f>
@@ -4780,7 +4843,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -4801,7 +4864,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -4822,7 +4885,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -4843,9 +4906,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B207" s="1" t="str" cm="1">
         <f t="array" ref="B207">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A207)-2)/175)+1)</f>
@@ -4864,9 +4927,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B208" s="1" t="str" cm="1">
         <f t="array" ref="B208">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A208)-2)/175)+1)</f>
@@ -4885,9 +4948,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B209" s="1" t="str" cm="1">
         <f t="array" ref="B209">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A209)-2)/175)+1)</f>
@@ -4906,9 +4969,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B210" s="1" t="str" cm="1">
         <f t="array" ref="B210">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A210)-2)/175)+1)</f>
@@ -4927,7 +4990,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -4948,7 +5011,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1</v>
       </c>
@@ -4969,7 +5032,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -4990,7 +5053,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -5011,7 +5074,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -5032,7 +5095,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -5053,9 +5116,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B217" s="1" t="str" cm="1">
         <f t="array" ref="B217">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A217)-2)/175)+1)</f>
@@ -5074,7 +5137,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>0</v>
       </c>
@@ -5095,9 +5158,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B219" s="1" t="str" cm="1">
         <f t="array" ref="B219">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A219)-2)/175)+1)</f>
@@ -5116,7 +5179,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -5137,9 +5200,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B221" s="1" t="str" cm="1">
         <f t="array" ref="B221">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A221)-2)/175)+1)</f>
@@ -5158,9 +5221,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B222" s="1" t="str" cm="1">
         <f t="array" ref="B222">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A222)-2)/175)+1)</f>
@@ -5179,7 +5242,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -5200,7 +5263,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -5221,7 +5284,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -5242,7 +5305,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -5263,9 +5326,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1" t="str" cm="1">
         <f t="array" ref="B227">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A227)-2)/175)+1)</f>
@@ -5284,7 +5347,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -5305,7 +5368,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -5326,7 +5389,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -5347,7 +5410,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -5368,7 +5431,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -5389,9 +5452,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
@@ -5410,7 +5473,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -5431,7 +5494,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -5452,9 +5515,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B236" s="1" t="str" cm="1">
         <f t="array" ref="B236">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A236)-2)/175)+1)</f>
@@ -5473,7 +5536,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1</v>
       </c>
@@ -5494,7 +5557,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -5515,7 +5578,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -5536,7 +5599,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -5557,9 +5620,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" s="1" t="str" cm="1">
         <f t="array" ref="B241">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A241)-2)/175)+1)</f>
@@ -5578,7 +5641,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -5599,9 +5662,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
@@ -5620,9 +5683,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" s="1" t="str" cm="1">
         <f t="array" ref="B244">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A244)-2)/175)+1)</f>
@@ -5641,7 +5704,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -5662,7 +5725,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -5683,7 +5746,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -5704,7 +5767,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -5725,9 +5788,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B249" s="1" t="str" cm="1">
         <f t="array" ref="B249">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A249)-2)/175)+1)</f>
@@ -5746,7 +5809,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -5767,7 +5830,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1</v>
       </c>
@@ -5788,9 +5851,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B252" s="1" t="str" cm="1">
         <f t="array" ref="B252">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A252)-2)/175)+1)</f>
@@ -5809,7 +5872,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -5830,9 +5893,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B254" s="1" t="str" cm="1">
         <f t="array" ref="B254">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A254)-2)/175)+1)</f>
@@ -5851,9 +5914,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B255" s="1" t="str" cm="1">
         <f t="array" ref="B255">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A255)-2)/175)+1)</f>
@@ -5872,7 +5935,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -5893,7 +5956,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -5914,7 +5977,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -5935,9 +5998,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B259" s="1" t="str" cm="1">
         <f t="array" ref="B259">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A259)-2)/175)+1)</f>
@@ -5956,7 +6019,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -5977,7 +6040,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>0</v>
       </c>
@@ -5998,7 +6061,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -6019,7 +6082,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -6040,7 +6103,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -6061,9 +6124,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B265" s="1" t="str" cm="1">
         <f t="array" ref="B265">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A265)-2)/175)+1)</f>
@@ -6082,7 +6145,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -6103,9 +6166,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1" t="str" cm="1">
         <f t="array" ref="B267">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A267)-2)/175)+1)</f>
@@ -6124,7 +6187,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -6145,7 +6208,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -6166,9 +6229,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B270" s="1" t="str" cm="1">
         <f t="array" ref="B270">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A270)-2)/175)+1)</f>
@@ -6187,7 +6250,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -6208,7 +6271,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -6229,9 +6292,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B273" s="1" t="str" cm="1">
         <f t="array" ref="B273">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A273)-2)/175)+1)</f>
@@ -6250,7 +6313,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -6271,9 +6334,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B275" s="1" t="str" cm="1">
         <f t="array" ref="B275">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A275)-2)/175)+1)</f>
@@ -6292,7 +6355,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -6313,7 +6376,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>0</v>
       </c>
@@ -6334,7 +6397,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -6355,7 +6418,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -6376,7 +6439,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -6397,7 +6460,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1</v>
       </c>
@@ -6418,7 +6481,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -6439,7 +6502,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -6460,9 +6523,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B284" s="1" t="str" cm="1">
         <f t="array" ref="B284">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A284)-2)/175)+1)</f>
@@ -6481,9 +6544,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B285" s="1" t="str" cm="1">
         <f t="array" ref="B285">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A285)-2)/175)+1)</f>
@@ -6502,7 +6565,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -6523,7 +6586,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -6544,9 +6607,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B288" s="1" t="str" cm="1">
         <f t="array" ref="B288">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A288)-2)/175)+1)</f>
@@ -6565,7 +6628,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -6586,7 +6649,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -6607,7 +6670,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -6628,7 +6691,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -6649,9 +6712,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B293" s="1" t="str" cm="1">
         <f t="array" ref="B293">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A293)-2)/175)+1)</f>
@@ -6670,9 +6733,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B294" s="1" t="str" cm="1">
         <f t="array" ref="B294">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A294)-2)/175)+1)</f>
@@ -6691,9 +6754,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B295" s="1" t="str" cm="1">
         <f t="array" ref="B295">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A295)-2)/175)+1)</f>
@@ -6712,9 +6775,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B296" s="1" t="str" cm="1">
         <f t="array" ref="B296">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A296)-2)/175)+1)</f>
@@ -6733,9 +6796,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B297" s="1" t="str" cm="1">
         <f t="array" ref="B297">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A297)-2)/175)+1)</f>
@@ -6754,7 +6817,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>0</v>
       </c>
@@ -6775,9 +6838,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B299" s="1" t="str" cm="1">
         <f t="array" ref="B299">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A299)-2)/175)+1)</f>
@@ -6796,7 +6859,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -6817,7 +6880,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -6838,7 +6901,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -6859,7 +6922,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -6880,9 +6943,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B304" s="1" t="str" cm="1">
         <f t="array" ref="B304">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A304)-2)/175)+1)</f>
@@ -6901,9 +6964,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
@@ -6922,7 +6985,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -6943,7 +7006,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>0</v>
       </c>
@@ -6964,7 +7027,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -6985,7 +7048,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -7006,9 +7069,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B310" s="1" t="str" cm="1">
         <f t="array" ref="B310">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A310)-2)/175)+1)</f>
@@ -7027,9 +7090,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B311" s="1" t="str" cm="1">
         <f t="array" ref="B311">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A311)-2)/175)+1)</f>
@@ -7048,7 +7111,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -7069,7 +7132,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -7090,7 +7153,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -7111,9 +7174,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B315" s="1" t="str" cm="1">
         <f t="array" ref="B315">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A315)-2)/175)+1)</f>
@@ -7132,7 +7195,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -7153,7 +7216,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>0</v>
       </c>
@@ -7174,9 +7237,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B318" s="1" t="str" cm="1">
         <f t="array" ref="B318">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A318)-2)/175)+1)</f>
@@ -7195,7 +7258,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>0</v>
       </c>
@@ -7216,9 +7279,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B320" s="1" t="str" cm="1">
         <f t="array" ref="B320">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A320)-2)/175)+1)</f>
@@ -7237,7 +7300,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>0</v>
       </c>
@@ -7258,7 +7321,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -7279,9 +7342,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B323" s="1" t="str" cm="1">
         <f t="array" ref="B323">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A323)-2)/175)+1)</f>
@@ -7300,7 +7363,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>0</v>
       </c>
@@ -7321,9 +7384,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B325" s="1" t="str" cm="1">
         <f t="array" ref="B325">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A325)-2)/175)+1)</f>
@@ -7342,7 +7405,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -7363,7 +7426,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -7384,9 +7447,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B328" s="1" t="str" cm="1">
         <f t="array" ref="B328">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A328)-2)/175)+1)</f>
@@ -7405,7 +7468,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -7426,7 +7489,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -7447,7 +7510,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -7468,7 +7531,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -7489,7 +7552,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -7510,9 +7573,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
@@ -7531,9 +7594,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B335" s="1" t="str" cm="1">
         <f t="array" ref="B335">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A335)-2)/175)+1)</f>
@@ -7552,7 +7615,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>1</v>
       </c>
@@ -7573,9 +7636,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B337" s="1" t="str" cm="1">
         <f t="array" ref="B337">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A337)-2)/175)+1)</f>
@@ -7594,7 +7657,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -7615,7 +7678,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -7636,7 +7699,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -7657,9 +7720,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B341" s="1" t="str" cm="1">
         <f t="array" ref="B341">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A341)-2)/175)+1)</f>
@@ -7678,7 +7741,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -7699,7 +7762,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>0</v>
       </c>
@@ -7720,7 +7783,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>1</v>
       </c>
@@ -7741,7 +7804,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -7762,7 +7825,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -7783,9 +7846,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B347" s="1" t="str" cm="1">
         <f t="array" ref="B347">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A347)-2)/175)+1)</f>
@@ -7804,7 +7867,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -7825,7 +7888,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>0</v>
       </c>
@@ -7846,7 +7909,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -7867,7 +7930,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -7888,7 +7951,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -7909,7 +7972,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -7930,7 +7993,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -7951,7 +8014,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -7972,7 +8035,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>0</v>
       </c>
@@ -7993,9 +8056,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B357" s="1" t="str" cm="1">
         <f t="array" ref="B357">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A357)-2)/175)+1)</f>
@@ -8014,9 +8077,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B358" s="1" t="str" cm="1">
         <f t="array" ref="B358">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A358)-2)/175)+1)</f>
@@ -8035,7 +8098,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1</v>
       </c>
@@ -8056,9 +8119,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B360" s="1" t="str" cm="1">
         <f t="array" ref="B360">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A360)-2)/175)+1)</f>
@@ -8077,7 +8140,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -8098,7 +8161,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>0</v>
       </c>
@@ -8119,7 +8182,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -8140,7 +8203,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -8161,7 +8224,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>0</v>
       </c>
@@ -8182,7 +8245,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -8203,7 +8266,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -8224,7 +8287,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -8245,9 +8308,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B369" s="1" t="str" cm="1">
         <f t="array" ref="B369">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A369)-2)/175)+1)</f>
@@ -8266,7 +8329,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>0</v>
       </c>
@@ -8287,9 +8350,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B371" s="1" t="str" cm="1">
         <f t="array" ref="B371">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A371)-2)/175)+1)</f>
@@ -8308,7 +8371,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -8329,9 +8392,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B373" s="1" t="str" cm="1">
         <f t="array" ref="B373">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A373)-2)/175)+1)</f>
@@ -8350,9 +8413,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
@@ -8371,9 +8434,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B375" s="1" t="str" cm="1">
         <f t="array" ref="B375">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A375)-2)/175)+1)</f>
@@ -8392,9 +8455,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B376" s="1" t="str" cm="1">
         <f t="array" ref="B376">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A376)-2)/175)+1)</f>
@@ -8413,9 +8476,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B377" s="1" t="str" cm="1">
         <f t="array" ref="B377">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A377)-2)/175)+1)</f>
@@ -8434,7 +8497,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>0</v>
       </c>
@@ -8455,7 +8518,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>0</v>
       </c>
@@ -8476,7 +8539,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -8497,9 +8560,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B381" s="1" t="str" cm="1">
         <f t="array" ref="B381">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A381)-2)/175)+1)</f>
@@ -8518,7 +8581,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -8539,9 +8602,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B383" s="1" t="str" cm="1">
         <f t="array" ref="B383">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A383)-2)/175)+1)</f>
@@ -8560,7 +8623,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -8581,7 +8644,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -8602,7 +8665,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -8623,7 +8686,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>0</v>
       </c>
@@ -8644,9 +8707,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B388" s="1" t="str" cm="1">
         <f t="array" ref="B388">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A388)-2)/175)+1)</f>
@@ -8665,7 +8728,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1</v>
       </c>
@@ -8686,9 +8749,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B390" s="1" t="str" cm="1">
         <f t="array" ref="B390">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A390)-2)/175)+1)</f>
@@ -8707,9 +8770,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B391" s="1" t="str" cm="1">
         <f t="array" ref="B391">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A391)-2)/175)+1)</f>
@@ -8728,7 +8791,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -8749,7 +8812,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -8770,7 +8833,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -8791,9 +8854,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B395" s="1" t="str" cm="1">
         <f t="array" ref="B395">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A395)-2)/175)+1)</f>
@@ -8812,9 +8875,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B396" s="1" t="str" cm="1">
         <f t="array" ref="B396">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A396)-2)/175)+1)</f>
@@ -8833,7 +8896,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -8854,9 +8917,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B398" s="1" t="str" cm="1">
         <f t="array" ref="B398">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A398)-2)/175)+1)</f>
@@ -8875,7 +8938,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -8896,7 +8959,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -8917,7 +8980,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -8938,9 +9001,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B402" s="1" t="str" cm="1">
         <f t="array" ref="B402">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A402)-2)/175)+1)</f>
@@ -8959,7 +9022,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -8980,7 +9043,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -9001,7 +9064,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -9022,7 +9085,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -9043,7 +9106,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -9064,9 +9127,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
@@ -9085,7 +9148,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>0</v>
       </c>
@@ -9106,7 +9169,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -9127,7 +9190,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -9148,7 +9211,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>0</v>
       </c>
@@ -9169,7 +9232,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>0</v>
       </c>
@@ -9190,7 +9253,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>0</v>
       </c>
@@ -9211,9 +9274,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B415" s="1" t="str" cm="1">
         <f t="array" ref="B415">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A415)-2)/175)+1)</f>
@@ -9232,9 +9295,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
@@ -9253,9 +9316,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B417" s="1" t="str" cm="1">
         <f t="array" ref="B417">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A417)-2)/175)+1)</f>
@@ -9274,9 +9337,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B418" s="1" t="str" cm="1">
         <f t="array" ref="B418">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A418)-2)/175)+1)</f>
@@ -9295,7 +9358,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -9316,7 +9379,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>0</v>
       </c>
@@ -9337,7 +9400,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>0</v>
       </c>
@@ -9358,7 +9421,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>1</v>
       </c>
@@ -9379,9 +9442,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
@@ -9400,7 +9463,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>0</v>
       </c>
@@ -9421,9 +9484,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B425" s="1" t="str" cm="1">
         <f t="array" ref="B425">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A425)-2)/175)+1)</f>
@@ -9442,7 +9505,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>0</v>
       </c>
@@ -9463,7 +9526,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>0</v>
       </c>
@@ -9484,7 +9547,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>0</v>
       </c>
@@ -9505,7 +9568,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>0</v>
       </c>
@@ -9526,7 +9589,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -9547,7 +9610,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>0</v>
       </c>
@@ -9568,7 +9631,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -9589,9 +9652,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B433" s="1" t="str" cm="1">
         <f t="array" ref="B433">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A433)-2)/175)+1)</f>
@@ -9610,7 +9673,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>0</v>
       </c>
@@ -9631,9 +9694,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B435" s="1" t="str" cm="1">
         <f t="array" ref="B435">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A435)-2)/175)+1)</f>
@@ -9652,7 +9715,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>1</v>
       </c>
@@ -9673,9 +9736,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B437" s="1" t="str" cm="1">
         <f t="array" ref="B437">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A437)-2)/175)+1)</f>
@@ -9694,7 +9757,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>0</v>
       </c>
@@ -9715,7 +9778,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -9736,7 +9799,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -9757,9 +9820,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B441" s="1" t="str" cm="1">
         <f t="array" ref="B441">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A441)-2)/175)+1)</f>
@@ -9778,7 +9841,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -9799,7 +9862,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>0</v>
       </c>
@@ -9820,7 +9883,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>0</v>
       </c>
@@ -9841,7 +9904,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>0</v>
       </c>
@@ -9862,9 +9925,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B446" s="1" t="str" cm="1">
         <f t="array" ref="B446">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A446)-2)/175)+1)</f>
@@ -9883,7 +9946,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>0</v>
       </c>
@@ -9904,7 +9967,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -9925,9 +9988,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B449" s="1" t="str" cm="1">
         <f t="array" ref="B449">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A449)-2)/175)+1)</f>
@@ -9946,7 +10009,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>0</v>
       </c>
@@ -9967,7 +10030,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -9988,7 +10051,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>0</v>
       </c>
@@ -10009,7 +10072,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -10030,9 +10093,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B454" s="1" t="str" cm="1">
         <f t="array" ref="B454">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A454)-2)/175)+1)</f>
@@ -10051,9 +10114,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B455" s="1" t="str" cm="1">
         <f t="array" ref="B455">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A455)-2)/175)+1)</f>
@@ -10072,7 +10135,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -10093,7 +10156,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -10114,7 +10177,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>0</v>
       </c>
@@ -10135,7 +10198,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -10156,7 +10219,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>0</v>
       </c>
@@ -10177,7 +10240,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>0</v>
       </c>
@@ -10198,7 +10261,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -10219,9 +10282,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
@@ -10240,7 +10303,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -10261,7 +10324,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>0</v>
       </c>
@@ -10282,9 +10345,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B466" s="1" t="str" cm="1">
         <f t="array" ref="B466">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A466)-2)/175)+1)</f>
@@ -10303,7 +10366,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -10324,7 +10387,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>0</v>
       </c>
@@ -10345,7 +10408,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -10366,7 +10429,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -10387,7 +10450,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>0</v>
       </c>
@@ -10408,7 +10471,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>0</v>
       </c>
@@ -10429,7 +10492,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>1</v>
       </c>
@@ -10450,7 +10513,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>0</v>
       </c>
@@ -10471,7 +10534,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>1</v>
       </c>
@@ -10492,7 +10555,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>0</v>
       </c>
@@ -10513,7 +10576,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>1</v>
       </c>
@@ -10534,7 +10597,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>0</v>
       </c>
@@ -10555,9 +10618,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B479" s="1" t="str" cm="1">
         <f t="array" ref="B479">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A479)-2)/175)+1)</f>
@@ -10576,7 +10639,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -10597,7 +10660,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -10618,7 +10681,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>0</v>
       </c>
@@ -10639,9 +10702,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B483" s="1" t="str" cm="1">
         <f t="array" ref="B483">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A483)-2)/175)+1)</f>
@@ -10660,9 +10723,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B484" s="1" t="str" cm="1">
         <f t="array" ref="B484">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A484)-2)/175)+1)</f>
@@ -10681,7 +10744,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -10702,7 +10765,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -10723,9 +10786,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B487" s="1" t="str" cm="1">
         <f t="array" ref="B487">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A487)-2)/175)+1)</f>
@@ -10744,7 +10807,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>0</v>
       </c>
@@ -10765,9 +10828,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B489" s="1" t="str" cm="1">
         <f t="array" ref="B489">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A489)-2)/175)+1)</f>
@@ -10786,7 +10849,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -10807,9 +10870,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B491" s="1" t="str" cm="1">
         <f t="array" ref="B491">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A491)-2)/175)+1)</f>
@@ -10828,7 +10891,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -10849,7 +10912,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -10870,7 +10933,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -10891,7 +10954,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -10912,9 +10975,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B496" s="1" t="str" cm="1">
         <f t="array" ref="B496">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A496)-2)/175)+1)</f>
@@ -10933,9 +10996,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B497" s="1" t="str" cm="1">
         <f t="array" ref="B497">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A497)-2)/175)+1)</f>
@@ -10954,7 +11017,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -10975,7 +11038,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -10996,7 +11059,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -11017,7 +11080,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>0</v>
       </c>
@@ -11038,7 +11101,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1</v>
       </c>
@@ -11059,7 +11122,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>0</v>
       </c>
@@ -11080,7 +11143,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>1</v>
       </c>
@@ -11101,9 +11164,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B505" s="1" t="str" cm="1">
         <f t="array" ref="B505">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A505)-2)/175)+1)</f>
@@ -11122,7 +11185,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -11143,7 +11206,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>0</v>
       </c>
@@ -11164,7 +11227,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>0</v>
       </c>
@@ -11185,9 +11248,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B509" s="1" t="str" cm="1">
         <f t="array" ref="B509">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A509)-2)/175)+1)</f>
@@ -11206,7 +11269,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>0</v>
       </c>
@@ -11227,7 +11290,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -11248,7 +11311,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>0</v>
       </c>
@@ -11269,7 +11332,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -11290,7 +11353,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -11311,9 +11374,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B515" s="1" t="str" cm="1">
         <f t="array" ref="B515">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A515)-2)/175)+1)</f>
@@ -11332,7 +11395,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>0</v>
       </c>
@@ -11353,9 +11416,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B517" s="1" t="str" cm="1">
         <f t="array" ref="B517">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A517)-2)/175)+1)</f>
@@ -11374,9 +11437,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
@@ -11395,7 +11458,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -11416,9 +11479,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B520" s="1" t="str" cm="1">
         <f t="array" ref="B520">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A520)-2)/175)+1)</f>
@@ -11437,7 +11500,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>0</v>
       </c>
@@ -11458,7 +11521,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>0</v>
       </c>
@@ -11479,7 +11542,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -11500,7 +11563,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -11521,9 +11584,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B525" s="1" t="str" cm="1">
         <f t="array" ref="B525">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A525)-2)/175)+1)</f>
@@ -11542,9 +11605,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B526" s="1" t="str" cm="1">
         <f t="array" ref="B526">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A526)-2)/175)+1)</f>
@@ -11563,7 +11626,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -11584,9 +11647,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B528" s="1" t="str" cm="1">
         <f t="array" ref="B528">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A528)-2)/175)+1)</f>
@@ -11605,7 +11668,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>0</v>
       </c>
@@ -11626,9 +11689,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
@@ -11647,7 +11710,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -11668,7 +11731,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -11689,7 +11752,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>0</v>
       </c>
@@ -11710,7 +11773,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>0</v>
       </c>
@@ -11731,9 +11794,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B535" s="1" t="str" cm="1">
         <f t="array" ref="B535">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A535)-2)/175)+1)</f>
@@ -11752,9 +11815,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B536" s="1" t="str" cm="1">
         <f t="array" ref="B536">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A536)-2)/175)+1)</f>
@@ -11773,9 +11836,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B537" s="1" t="str" cm="1">
         <f t="array" ref="B537">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A537)-2)/175)+1)</f>
@@ -11794,7 +11857,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -11815,7 +11878,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -11836,9 +11899,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B540" s="1" t="str" cm="1">
         <f t="array" ref="B540">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A540)-2)/175)+1)</f>
@@ -11857,9 +11920,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B541" s="1" t="str" cm="1">
         <f t="array" ref="B541">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A541)-2)/175)+1)</f>
@@ -11878,7 +11941,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>1</v>
       </c>
@@ -11899,7 +11962,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>0</v>
       </c>
@@ -11920,7 +11983,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>1</v>
       </c>
@@ -11941,9 +12004,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
@@ -11962,7 +12025,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -11983,7 +12046,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>0</v>
       </c>
@@ -12004,7 +12067,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -12025,7 +12088,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>0</v>
       </c>
@@ -12046,7 +12109,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -12067,7 +12130,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>0</v>
       </c>
@@ -12088,7 +12151,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -12109,7 +12172,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>0</v>
       </c>
@@ -12130,7 +12193,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>0</v>
       </c>
@@ -12151,7 +12214,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>0</v>
       </c>
@@ -12172,7 +12235,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>0</v>
       </c>
@@ -12193,7 +12256,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -12214,7 +12277,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>0</v>
       </c>
@@ -12235,9 +12298,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B559" s="1" t="str" cm="1">
         <f t="array" ref="B559">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A559)-2)/175)+1)</f>
@@ -12256,7 +12319,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>0</v>
       </c>
@@ -12277,9 +12340,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B561" s="1" t="str" cm="1">
         <f t="array" ref="B561">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A561)-2)/175)+1)</f>
@@ -12298,7 +12361,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -12319,9 +12382,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B563" s="1" t="str" cm="1">
         <f t="array" ref="B563">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A563)-2)/175)+1)</f>
@@ -12340,9 +12403,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B564" s="1" t="str" cm="1">
         <f t="array" ref="B564">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A564)-2)/175)+1)</f>
@@ -12361,9 +12424,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B565" s="1" t="str" cm="1">
         <f t="array" ref="B565">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A565)-2)/175)+1)</f>
@@ -12382,9 +12445,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B566" s="1" t="str" cm="1">
         <f t="array" ref="B566">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A566)-2)/175)+1)</f>
@@ -12403,7 +12466,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -12424,7 +12487,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>0</v>
       </c>
@@ -12445,7 +12508,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>0</v>
       </c>
@@ -12466,7 +12529,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -12487,7 +12550,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>0</v>
       </c>
@@ -12508,7 +12571,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -12529,7 +12592,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>0</v>
       </c>
@@ -12550,7 +12613,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>0</v>
       </c>
@@ -12571,7 +12634,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>0</v>
       </c>
@@ -12592,9 +12655,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B576" s="1" t="str" cm="1">
         <f t="array" ref="B576">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A576)-2)/175)+1)</f>
@@ -12613,7 +12676,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>0</v>
       </c>
@@ -12634,7 +12697,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>1</v>
       </c>
@@ -12655,7 +12718,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -12676,7 +12739,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>0</v>
       </c>
@@ -12697,9 +12760,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B581" s="1" t="str" cm="1">
         <f t="array" ref="B581">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A581)-2)/175)+1)</f>
@@ -12718,9 +12781,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B582" s="1" t="str" cm="1">
         <f t="array" ref="B582">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A582)-2)/175)+1)</f>
@@ -12739,9 +12802,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B583" s="1" t="str" cm="1">
         <f t="array" ref="B583">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A583)-2)/175)+1)</f>
@@ -12760,7 +12823,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>0</v>
       </c>
@@ -12781,9 +12844,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B585" s="1" t="str" cm="1">
         <f t="array" ref="B585">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A585)-2)/175)+1)</f>
@@ -12802,9 +12865,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B586" s="1" t="str" cm="1">
         <f t="array" ref="B586">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A586)-2)/175)+1)</f>
@@ -12823,7 +12886,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>0</v>
       </c>
@@ -12844,7 +12907,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>0</v>
       </c>
@@ -12865,7 +12928,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>0</v>
       </c>
@@ -12886,9 +12949,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
@@ -12907,9 +12970,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B591" s="1" t="str" cm="1">
         <f t="array" ref="B591">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A591)-2)/175)+1)</f>
@@ -12928,7 +12991,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>0</v>
       </c>
@@ -12949,7 +13012,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -12970,7 +13033,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>0</v>
       </c>
@@ -12991,7 +13054,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -13012,7 +13075,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>0</v>
       </c>
@@ -13033,9 +13096,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B597" s="1" t="str" cm="1">
         <f t="array" ref="B597">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A597)-2)/175)+1)</f>
@@ -13054,7 +13117,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>0</v>
       </c>
@@ -13075,7 +13138,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>0</v>
       </c>
@@ -13096,7 +13159,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -13117,7 +13180,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -13138,7 +13201,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>0</v>
       </c>
@@ -13159,9 +13222,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B603" s="1" t="str" cm="1">
         <f t="array" ref="B603">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A603)-2)/175)+1)</f>
@@ -13180,9 +13243,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B604" s="1" t="str" cm="1">
         <f t="array" ref="B604">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A604)-2)/175)+1)</f>
@@ -13201,9 +13264,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
@@ -13222,7 +13285,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>0</v>
       </c>
@@ -13243,7 +13306,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -13264,7 +13327,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>0</v>
       </c>
@@ -13285,7 +13348,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -13306,7 +13369,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>0</v>
       </c>
@@ -13327,7 +13390,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -13348,7 +13411,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -13369,7 +13432,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -13390,7 +13453,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -13411,7 +13474,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>0</v>
       </c>
@@ -13432,7 +13495,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -13453,7 +13516,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -13474,9 +13537,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B618" s="1" t="str" cm="1">
         <f t="array" ref="B618">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A618)-2)/175)+1)</f>
@@ -13495,9 +13558,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B619" s="1" t="str" cm="1">
         <f t="array" ref="B619">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A619)-2)/175)+1)</f>
@@ -13516,7 +13579,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>0</v>
       </c>
@@ -13537,9 +13600,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B621" s="1" t="str" cm="1">
         <f t="array" ref="B621">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A621)-2)/175)+1)</f>
@@ -13558,9 +13621,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B622" s="1" t="str" cm="1">
         <f t="array" ref="B622">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A622)-2)/175)+1)</f>
@@ -13579,7 +13642,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -13600,7 +13663,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>1</v>
       </c>
@@ -13621,9 +13684,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B625" s="1" t="str" cm="1">
         <f t="array" ref="B625">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A625)-2)/175)+1)</f>
@@ -13642,9 +13705,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
@@ -13663,9 +13726,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B627" s="1" t="str" cm="1">
         <f t="array" ref="B627">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A627)-2)/175)+1)</f>
@@ -13684,7 +13747,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>0</v>
       </c>
@@ -13705,9 +13768,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B629" s="1" t="str" cm="1">
         <f t="array" ref="B629">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A629)-2)/175)+1)</f>
@@ -13726,7 +13789,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -13747,7 +13810,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -13768,7 +13831,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>0</v>
       </c>
@@ -13789,7 +13852,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>0</v>
       </c>
@@ -13810,7 +13873,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -13831,7 +13894,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>0</v>
       </c>
@@ -13852,7 +13915,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -13873,9 +13936,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B637" s="1" t="str" cm="1">
         <f t="array" ref="B637">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A637)-2)/175)+1)</f>
@@ -13894,7 +13957,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -13915,9 +13978,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B639" s="1" t="str" cm="1">
         <f t="array" ref="B639">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A639)-2)/175)+1)</f>
@@ -13936,7 +13999,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>0</v>
       </c>
@@ -13957,9 +14020,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B641" s="1" t="str" cm="1">
         <f t="array" ref="B641">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A641)-2)/175)+1)</f>
@@ -13978,7 +14041,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -13999,7 +14062,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>1</v>
       </c>
@@ -14020,9 +14083,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B644" s="1" t="str" cm="1">
         <f t="array" ref="B644">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A644)-2)/175)+1)</f>
@@ -14041,9 +14104,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A645)-2)/175)+1)</f>
@@ -14062,7 +14125,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>0</v>
       </c>
@@ -14083,7 +14146,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>0</v>
       </c>
@@ -14104,7 +14167,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -14125,7 +14188,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -14146,7 +14209,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>0</v>
       </c>
@@ -14167,9 +14230,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B651" s="1" t="str" cm="1">
         <f t="array" ref="B651">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A651)-2)/175)+1)</f>
@@ -14188,7 +14251,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>0</v>
       </c>
@@ -14209,7 +14272,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>0</v>
       </c>
@@ -14230,7 +14293,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -14251,7 +14314,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>0</v>
       </c>
@@ -14272,7 +14335,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>0</v>
       </c>
@@ -14293,7 +14356,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -14314,7 +14377,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>0</v>
       </c>
@@ -14335,7 +14398,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -14356,7 +14419,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -14377,7 +14440,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>0</v>
       </c>
@@ -14398,9 +14461,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B662" s="1" t="str" cm="1">
         <f t="array" ref="B662">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A662)-2)/175)+1)</f>
@@ -14419,7 +14482,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>1</v>
       </c>
@@ -14440,7 +14503,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>0</v>
       </c>
@@ -14461,7 +14524,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>1</v>
       </c>
@@ -14482,9 +14545,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B666" s="1" t="str" cm="1">
         <f t="array" ref="B666">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A666)-2)/175)+1)</f>
@@ -14503,9 +14566,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B667" s="1" t="str" cm="1">
         <f t="array" ref="B667">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A667)-2)/175)+1)</f>
@@ -14524,7 +14587,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>0</v>
       </c>
@@ -14545,9 +14608,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B669" s="1" t="str" cm="1">
         <f t="array" ref="B669">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A669)-2)/175)+1)</f>
@@ -14566,7 +14629,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>0</v>
       </c>
@@ -14587,9 +14650,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B671" s="1" t="str" cm="1">
         <f t="array" ref="B671">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A671)-2)/175)+1)</f>
@@ -14608,9 +14671,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B672" s="1" t="str" cm="1">
         <f t="array" ref="B672">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A672)-2)/175)+1)</f>
@@ -14629,9 +14692,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B673" s="1" t="str" cm="1">
         <f t="array" ref="B673">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A673)-2)/175)+1)</f>
@@ -14650,7 +14713,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -14671,7 +14734,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -14692,7 +14755,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -14713,9 +14776,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
@@ -14734,7 +14797,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -14755,9 +14818,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
@@ -14776,7 +14839,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -14797,7 +14860,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -14818,7 +14881,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -14839,7 +14902,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -14860,7 +14923,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -14881,9 +14944,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B685" s="1" t="str" cm="1">
         <f t="array" ref="B685">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A685)-2)/175)+1)</f>
@@ -14902,7 +14965,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -14923,9 +14986,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B687" s="1" t="str" cm="1">
         <f t="array" ref="B687">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A687)-2)/175)+1)</f>
@@ -14944,7 +15007,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -14965,9 +15028,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B689" s="1" t="str" cm="1">
         <f t="array" ref="B689">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A689)-2)/175)+1)</f>
@@ -14986,9 +15049,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A690)-2)/175)+1)</f>
@@ -15007,7 +15070,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -15028,9 +15091,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B692" s="1" t="str" cm="1">
         <f t="array" ref="B692">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A692)-2)/175)+1)</f>
@@ -15049,7 +15112,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>1</v>
       </c>
@@ -15070,7 +15133,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -15091,7 +15154,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -15112,7 +15175,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -15133,7 +15196,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -15154,7 +15217,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -15175,7 +15238,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -15196,7 +15259,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -15217,7 +15280,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -15238,9 +15301,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B702" s="1" t="str" cm="1">
         <f t="array" ref="B702">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A702)-2)/175)+1)</f>
@@ -15259,7 +15322,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -15280,9 +15343,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B704" s="1" t="str" cm="1">
         <f t="array" ref="B704">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A704)-2)/175)+1)</f>
@@ -15301,7 +15364,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -15322,7 +15385,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>1</v>
       </c>
@@ -15343,7 +15406,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -15364,9 +15427,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B708" s="1" t="str" cm="1">
         <f t="array" ref="B708">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A708)-2)/175)+1)</f>
@@ -15385,9 +15448,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
@@ -15406,7 +15469,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -15427,9 +15490,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B711" s="1" t="str" cm="1">
         <f t="array" ref="B711">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A711)-2)/175)+1)</f>
@@ -15448,9 +15511,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
@@ -15469,7 +15532,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -15490,9 +15553,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B714" s="1" t="str" cm="1">
         <f t="array" ref="B714">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A714)-2)/175)+1)</f>
@@ -15511,7 +15574,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -15532,9 +15595,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B716" s="1" t="str" cm="1">
         <f t="array" ref="B716">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A716)-2)/175)+1)</f>
@@ -15553,7 +15616,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -15574,9 +15637,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B718" s="1" t="str" cm="1">
         <f t="array" ref="B718">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A718)-2)/175)+1)</f>
@@ -15595,7 +15658,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -15616,7 +15679,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -15637,7 +15700,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -15658,9 +15721,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B722" s="1" t="str" cm="1">
         <f t="array" ref="B722">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A722)-2)/175)+1)</f>
@@ -15679,7 +15742,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -15700,7 +15763,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -15721,7 +15784,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -15742,9 +15805,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B726" s="1" t="str" cm="1">
         <f t="array" ref="B726">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A726)-2)/175)+1)</f>
@@ -15763,7 +15826,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -15784,7 +15847,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -15805,7 +15868,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -15826,7 +15889,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -15847,9 +15910,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B731" s="1" t="str" cm="1">
         <f t="array" ref="B731">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A731)-2)/175)+1)</f>
@@ -15868,7 +15931,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -15889,7 +15952,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -15910,7 +15973,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -15931,7 +15994,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -15952,7 +16015,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -15973,7 +16036,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -15994,7 +16057,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -16015,7 +16078,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -16036,7 +16099,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -16057,7 +16120,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -16078,9 +16141,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B742" s="1" t="str" cm="1">
         <f t="array" ref="B742">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A742)-2)/175)+1)</f>
@@ -16099,7 +16162,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -16120,7 +16183,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>0</v>
       </c>
@@ -16141,7 +16204,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>0</v>
       </c>
@@ -16162,7 +16225,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>0</v>
       </c>
@@ -16183,9 +16246,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B747" s="1" t="str" cm="1">
         <f t="array" ref="B747">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A747)-2)/175)+1)</f>
@@ -16204,9 +16267,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B748" s="1" t="str" cm="1">
         <f t="array" ref="B748">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A748)-2)/175)+1)</f>
@@ -16225,7 +16288,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -16246,7 +16309,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>0</v>
       </c>
@@ -16267,7 +16330,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -16288,9 +16351,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B752" s="1" t="str" cm="1">
         <f t="array" ref="B752">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A752)-2)/175)+1)</f>
@@ -16309,7 +16372,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>0</v>
       </c>
@@ -16330,9 +16393,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B754" s="1" t="str" cm="1">
         <f t="array" ref="B754">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A754)-2)/175)+1)</f>
@@ -16351,7 +16414,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>0</v>
       </c>
@@ -16372,7 +16435,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>0</v>
       </c>
@@ -16393,7 +16456,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -16414,7 +16477,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>0</v>
       </c>
@@ -16435,7 +16498,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>1</v>
       </c>
@@ -16456,9 +16519,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B760" s="1" t="str" cm="1">
         <f t="array" ref="B760">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A760)-2)/175)+1)</f>
@@ -16477,7 +16540,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>0</v>
       </c>
@@ -16498,9 +16561,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B762" s="1" t="str" cm="1">
         <f t="array" ref="B762">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A762)-2)/175)+1)</f>
@@ -16519,7 +16582,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -16540,9 +16603,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B764" s="1" t="str" cm="1">
         <f t="array" ref="B764">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A764)-2)/175)+1)</f>
@@ -16561,9 +16624,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B765" s="1" t="str" cm="1">
         <f t="array" ref="B765">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A765)-2)/175)+1)</f>
@@ -16582,9 +16645,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
@@ -16603,9 +16666,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
@@ -16624,9 +16687,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B768" s="1" t="str" cm="1">
         <f t="array" ref="B768">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A768)-2)/175)+1)</f>
@@ -16645,7 +16708,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>0</v>
       </c>
@@ -16666,7 +16729,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>0</v>
       </c>
@@ -16687,7 +16750,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -16708,9 +16771,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B772" s="1" t="str" cm="1">
         <f t="array" ref="B772">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A772)-2)/175)+1)</f>
@@ -16729,9 +16792,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B773" s="1" t="str" cm="1">
         <f t="array" ref="B773">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A773)-2)/175)+1)</f>
@@ -16750,9 +16813,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B774" s="1" t="str" cm="1">
         <f t="array" ref="B774">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A774)-2)/175)+1)</f>
@@ -16771,9 +16834,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B775" s="1" t="str" cm="1">
         <f t="array" ref="B775">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A775)-2)/175)+1)</f>
@@ -16792,7 +16855,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>0</v>
       </c>
@@ -16813,9 +16876,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B777" s="1" t="str" cm="1">
         <f t="array" ref="B777">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A777)-2)/175)+1)</f>
@@ -16834,7 +16897,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -16855,7 +16918,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -16876,7 +16939,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>0</v>
       </c>
@@ -16897,7 +16960,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>0</v>
       </c>
@@ -16918,7 +16981,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -16939,7 +17002,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>0</v>
       </c>
@@ -16960,7 +17023,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -16981,9 +17044,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
@@ -17002,7 +17065,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>0</v>
       </c>
@@ -17023,9 +17086,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B787" s="1" t="str" cm="1">
         <f t="array" ref="B787">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A787)-2)/175)+1)</f>
@@ -17044,7 +17107,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -17065,7 +17128,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>0</v>
       </c>
@@ -17086,9 +17149,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B790" s="1" t="str" cm="1">
         <f t="array" ref="B790">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A790)-2)/175)+1)</f>
@@ -17107,7 +17170,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>0</v>
       </c>
@@ -17128,7 +17191,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>0</v>
       </c>
@@ -17149,9 +17212,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B793" s="1" t="str" cm="1">
         <f t="array" ref="B793">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A793)-2)/175)+1)</f>
@@ -17170,7 +17233,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>0</v>
       </c>
@@ -17191,7 +17254,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>0</v>
       </c>
@@ -17212,7 +17275,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -17233,7 +17296,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>0</v>
       </c>
@@ -17254,9 +17317,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B798" s="1" t="str" cm="1">
         <f t="array" ref="B798">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A798)-2)/175)+1)</f>
@@ -17275,7 +17338,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>0</v>
       </c>
@@ -17296,9 +17359,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
@@ -17317,7 +17380,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>0</v>
       </c>
@@ -17338,7 +17401,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>0</v>
       </c>
@@ -17359,7 +17422,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>0</v>
       </c>
@@ -17380,7 +17443,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>0</v>
       </c>
@@ -17401,7 +17464,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>1</v>
       </c>
@@ -17422,9 +17485,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
@@ -17443,7 +17506,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>0</v>
       </c>
@@ -17464,9 +17527,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B808" s="1" t="str" cm="1">
         <f t="array" ref="B808">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A808)-2)/175)+1)</f>
@@ -17485,7 +17548,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -17506,7 +17569,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>0</v>
       </c>
@@ -17527,7 +17590,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>0</v>
       </c>
@@ -17548,7 +17611,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -17569,7 +17632,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -17590,7 +17653,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -17611,9 +17674,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B815" s="1" t="str" cm="1">
         <f t="array" ref="B815">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A815)-2)/175)+1)</f>
@@ -17632,9 +17695,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B816" s="1" t="str" cm="1">
         <f t="array" ref="B816">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A816)-2)/175)+1)</f>
@@ -17653,7 +17716,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>0</v>
       </c>
@@ -17674,7 +17737,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>0</v>
       </c>
@@ -17695,9 +17758,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B819" s="1" t="str" cm="1">
         <f t="array" ref="B819">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A819)-2)/175)+1)</f>
@@ -17716,7 +17779,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>0</v>
       </c>
@@ -17737,9 +17800,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B821" s="1" t="str" cm="1">
         <f t="array" ref="B821">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A821)-2)/175)+1)</f>
@@ -17758,7 +17821,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -17779,9 +17842,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B823" s="1" t="str" cm="1">
         <f t="array" ref="B823">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A823)-2)/175)+1)</f>
@@ -17800,7 +17863,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -17821,9 +17884,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
@@ -17842,9 +17905,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B826" s="1" t="str" cm="1">
         <f t="array" ref="B826">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A826)-2)/175)+1)</f>
@@ -17863,9 +17926,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B827" s="1" t="str" cm="1">
         <f t="array" ref="B827">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A827)-2)/175)+1)</f>
@@ -17884,9 +17947,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B828" s="1" t="str" cm="1">
         <f t="array" ref="B828">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A828)-2)/175)+1)</f>
@@ -17905,7 +17968,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -17926,9 +17989,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B830" s="1" t="str" cm="1">
         <f t="array" ref="B830">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A830)-2)/175)+1)</f>
@@ -17947,7 +18010,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>0</v>
       </c>
@@ -17968,7 +18031,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -17989,9 +18052,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B833" s="1" t="str" cm="1">
         <f t="array" ref="B833">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A833)-2)/175)+1)</f>
@@ -18010,7 +18073,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -18031,7 +18094,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>0</v>
       </c>
@@ -18052,7 +18115,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -18073,9 +18136,9 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B837" s="1" t="str" cm="1">
         <f t="array" ref="B837">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A837)-2)/175)+1)</f>
@@ -18094,7 +18157,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>0</v>
       </c>
@@ -18115,9 +18178,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B839" s="1" t="str" cm="1">
         <f t="array" ref="B839">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A839)-2)/175)+1)</f>
@@ -18136,7 +18199,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -18157,7 +18220,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>0</v>
       </c>
@@ -18178,7 +18241,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>0</v>
       </c>
@@ -18199,7 +18262,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>0</v>
       </c>
@@ -18220,7 +18283,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>0</v>
       </c>
@@ -18241,9 +18304,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B845" s="1" t="str" cm="1">
         <f t="array" ref="B845">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A845)-2)/175)+1)</f>
@@ -18262,7 +18325,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -18283,7 +18346,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>0</v>
       </c>
@@ -18304,9 +18367,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B848" s="1" t="str" cm="1">
         <f t="array" ref="B848">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A848)-2)/175)+1)</f>
@@ -18325,9 +18388,9 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B849" s="1" t="str" cm="1">
         <f t="array" ref="B849">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A849)-2)/175)+1)</f>
@@ -18346,9 +18409,9 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B850" s="1" t="str" cm="1">
         <f t="array" ref="B850">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A850)-2)/175)+1)</f>
@@ -18367,7 +18430,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>0</v>
       </c>
@@ -18388,7 +18451,7 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -18409,9 +18472,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B853" s="1" t="str" cm="1">
         <f t="array" ref="B853">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A853)-2)/175)+1)</f>
@@ -18430,7 +18493,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>0</v>
       </c>
@@ -18451,9 +18514,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
@@ -18472,7 +18535,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>0</v>
       </c>
@@ -18493,7 +18556,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>0</v>
       </c>
@@ -18514,7 +18577,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -18535,9 +18598,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B859" s="1" t="str" cm="1">
         <f t="array" ref="B859">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A859)-2)/175)+1)</f>
@@ -18556,7 +18619,7 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>0</v>
       </c>
@@ -18577,9 +18640,9 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B861" s="1" t="str" cm="1">
         <f t="array" ref="B861">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A861)-2)/175)+1)</f>
@@ -18598,7 +18661,7 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>0</v>
       </c>
@@ -18619,7 +18682,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>0</v>
       </c>
@@ -18640,7 +18703,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>0</v>
       </c>
@@ -18661,7 +18724,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>0</v>
       </c>
@@ -18682,9 +18745,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
@@ -18703,9 +18766,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B867" s="1" t="str" cm="1">
         <f t="array" ref="B867">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A867)-2)/175)+1)</f>
@@ -18724,7 +18787,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -18745,9 +18808,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B869" s="1" t="str" cm="1">
         <f t="array" ref="B869">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A869)-2)/175)+1)</f>
@@ -18766,7 +18829,7 @@
         <v>H7</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -18787,7 +18850,7 @@
         <v>H1</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -18808,7 +18871,7 @@
         <v>H2</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>0</v>
       </c>
@@ -18829,9 +18892,9 @@
         <v>H3</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B873" s="1" t="str" cm="1">
         <f t="array" ref="B873">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A873)-2)/175)+1)</f>
@@ -18850,9 +18913,9 @@
         <v>H4</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B874" s="1" t="str" cm="1">
         <f t="array" ref="B874">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A874)-2)/175)+1)</f>
@@ -18871,7 +18934,7 @@
         <v>H5</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -18892,9 +18955,9 @@
         <v>H6</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B876" s="1" t="str" cm="1">
         <f t="array" ref="B876">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A876)-2)/175)+1)</f>
@@ -18922,13 +18985,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2F0468-5F0A-4E00-8574-F06699723F9E}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
         <v>13</v>
       </c>
@@ -18936,7 +18999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -18954,7 +19017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -18964,11 +19027,11 @@
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>CTA</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>COMU</v>
       </c>
       <c r="E6" s="2" t="str" cm="1">
         <f t="array" ref="E6">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A6), 'BASE DE DATOS'!$C:$C, "-")</f>
@@ -18979,17 +19042,17 @@
         <v>MATE</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>COMU</v>
       </c>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>COMU</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
@@ -18997,14 +19060,14 @@
       </c>
       <c r="E7" s="2" t="str" cm="1">
         <f t="array" ref="E7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>COMU</v>
       </c>
       <c r="F7" s="2" t="str" cm="1">
         <f t="array" ref="F7">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A7), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>MATE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -19014,7 +19077,7 @@
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>HIST</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
@@ -19022,74 +19085,74 @@
       </c>
       <c r="E8" s="2" t="str" cm="1">
         <f t="array" ref="E8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>COMU</v>
       </c>
       <c r="F8" s="2" t="str" cm="1">
         <f t="array" ref="F8">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A8), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>INGLES</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" ref="B9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>MATE</v>
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" ref="C9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>MATE</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" ref="D9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>COMU</v>
       </c>
       <c r="E9" s="2" t="str" cm="1">
         <f t="array" ref="E9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>INGLES</v>
       </c>
       <c r="F9" s="2" t="str" cm="1">
         <f t="array" ref="F9">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A9), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>INGLES</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" ref="B10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>HIST</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>HIST</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>CTA</v>
       </c>
       <c r="E10" s="2" t="str" cm="1">
         <f t="array" ref="E10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>HIST</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
         <f t="array" ref="F10">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A10), 'BASE DE DATOS'!$C:$C, "-")</f>
         <v>INGLES</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="str" cm="1">
         <f t="array" ref="B11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>HIST</v>
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" ref="C11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>MATE</v>
+        <v>CTA</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" ref="D11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
@@ -19097,36 +19160,36 @@
       </c>
       <c r="E11" s="2" t="str" cm="1">
         <f t="array" ref="E11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>CTA</v>
+        <v>INGLES</v>
       </c>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" ref="F11">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A11), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>CTA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=B$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>INGLES</v>
+        <v>CTA</v>
       </c>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=C$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>CTA</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=D$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>INGLES</v>
       </c>
       <c r="E12" s="2" t="str" cm="1">
         <f t="array" ref="E12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=E$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>COMU</v>
+        <v>HIST</v>
       </c>
       <c r="F12" s="2" t="str" cm="1">
         <f t="array" ref="F12">_xlfn.XLOOKUP(1, ('BASE DE DATOS'!$A:$A=1) * ('BASE DE DATOS'!$B:$B=$K$1) * ('BASE DE DATOS'!$D:$D=F$5) * ('BASE DE DATOS'!$E:$E=$A12), 'BASE DE DATOS'!$C:$C, "-")</f>
-        <v>HIST</v>
+        <v>INGLES</v>
       </c>
     </row>
   </sheetData>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO IO - FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC1F7E-5230-461D-8EB5-4F660DCFF753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9002023-5043-4F21-8D31-AD1271D7EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>INGLES</t>
   </si>
   <si>
-    <t>CURSOS</t>
+    <t>MATERIAS</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A876"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO IO - FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9002023-5043-4F21-8D31-AD1271D7EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5506781-C8AC-41BA-8AD6-5ACF4FF660AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
+    <workbookView xWindow="1980" yWindow="945" windowWidth="15375" windowHeight="7785" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" ref="B2">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A2)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -538,7 +540,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" ref="B3">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A3)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -563,7 +567,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="str" cm="1">
         <f t="array" ref="B4">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A4)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -588,7 +594,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" ref="B5">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A5)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -613,7 +621,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A6)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -638,7 +648,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A7)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -657,7 +669,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" ref="B8">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A8)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -676,7 +690,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
       <c r="B9" s="1" t="str" cm="1">
         <f t="array" ref="B9">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A9)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -695,7 +711,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" ref="B10">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A10)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -714,7 +732,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A11)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -733,7 +753,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A12)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -752,7 +774,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
       <c r="B13" s="1" t="str" cm="1">
         <f t="array" ref="B13">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A13)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -771,7 +795,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" ref="B14">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A14)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -790,7 +816,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
       <c r="B15" s="1" t="str" cm="1">
         <f t="array" ref="B15">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A15)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -809,7 +837,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A16)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -828,7 +858,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A17)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -847,7 +879,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A18)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -866,7 +900,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A19)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -885,7 +921,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
       <c r="B20" s="1" t="str" cm="1">
         <f t="array" ref="B20">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A20)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -904,7 +942,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" ref="B21">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A21)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -923,7 +963,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" ref="B22">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A22)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -942,7 +984,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" ref="B23">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A23)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -961,7 +1005,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A24)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -980,7 +1026,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" ref="B25">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A25)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -999,7 +1047,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
       <c r="B26" s="1" t="str" cm="1">
         <f t="array" ref="B26">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A26)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1018,7 +1068,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
       <c r="B27" s="1" t="str" cm="1">
         <f t="array" ref="B27">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A27)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1037,7 +1089,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
       <c r="B28" s="1" t="str" cm="1">
         <f t="array" ref="B28">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A28)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1056,7 +1110,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
       <c r="B29" s="1" t="str" cm="1">
         <f t="array" ref="B29">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A29)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1075,7 +1131,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" ref="B30">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A30)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1094,7 +1152,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1113,7 +1173,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
       <c r="B32" s="1" t="str" cm="1">
         <f t="array" ref="B32">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A32)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1132,7 +1194,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
       <c r="B33" s="1" t="str" cm="1">
         <f t="array" ref="B33">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A33)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1151,7 +1215,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
       <c r="B34" s="1" t="str" cm="1">
         <f t="array" ref="B34">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A34)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1170,7 +1236,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
       <c r="B35" s="1" t="str" cm="1">
         <f t="array" ref="B35">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A35)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1189,7 +1257,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
       <c r="B36" s="1" t="str" cm="1">
         <f t="array" ref="B36">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A36)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1208,7 +1278,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
       <c r="B37" s="1" t="str" cm="1">
         <f t="array" ref="B37">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A37)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1227,7 +1299,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" ref="B38">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A38)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1246,7 +1320,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
       <c r="B39" s="1" t="str" cm="1">
         <f t="array" ref="B39">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A39)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1265,7 +1341,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
       <c r="B40" s="1" t="str" cm="1">
         <f t="array" ref="B40">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A40)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1284,7 +1362,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
       <c r="B41" s="1" t="str" cm="1">
         <f t="array" ref="B41">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A41)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1303,7 +1383,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
       <c r="B42" s="1" t="str" cm="1">
         <f t="array" ref="B42">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A42)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1322,7 +1404,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
       <c r="B43" s="1" t="str" cm="1">
         <f t="array" ref="B43">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A43)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1341,7 +1425,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
       <c r="B44" s="1" t="str" cm="1">
         <f t="array" ref="B44">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A44)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1360,7 +1446,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A45)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1379,7 +1467,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A46)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1398,7 +1488,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
       <c r="B47" s="1" t="str" cm="1">
         <f t="array" ref="B47">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A47)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1417,7 +1509,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
       <c r="B48" s="1" t="str" cm="1">
         <f t="array" ref="B48">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A48)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1436,7 +1530,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
       <c r="B49" s="1" t="str" cm="1">
         <f t="array" ref="B49">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A49)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1455,7 +1551,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
       <c r="B50" s="1" t="str" cm="1">
         <f t="array" ref="B50">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A50)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1474,7 +1572,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1493,7 +1593,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
       <c r="B52" s="1" t="str" cm="1">
         <f t="array" ref="B52">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A52)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1512,7 +1614,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" ref="B53">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A53)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1531,7 +1635,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
       <c r="B54" s="1" t="str" cm="1">
         <f t="array" ref="B54">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A54)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1550,7 +1656,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
       <c r="B55" s="1" t="str" cm="1">
         <f t="array" ref="B55">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A55)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1569,7 +1677,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
       <c r="B56" s="1" t="str" cm="1">
         <f t="array" ref="B56">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A56)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1588,7 +1698,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
       <c r="B57" s="1" t="str" cm="1">
         <f t="array" ref="B57">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A57)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1607,7 +1719,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
       <c r="B58" s="1" t="str" cm="1">
         <f t="array" ref="B58">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A58)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1626,7 +1740,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
       <c r="B59" s="1" t="str" cm="1">
         <f t="array" ref="B59">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A59)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1645,7 +1761,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" ref="B60">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A60)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1664,7 +1782,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
       <c r="B61" s="1" t="str" cm="1">
         <f t="array" ref="B61">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A61)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1683,7 +1803,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
       <c r="B62" s="1" t="str" cm="1">
         <f t="array" ref="B62">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A62)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1702,7 +1824,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
       <c r="B63" s="1" t="str" cm="1">
         <f t="array" ref="B63">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A63)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1721,7 +1845,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
       <c r="B64" s="1" t="str" cm="1">
         <f t="array" ref="B64">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A64)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1740,7 +1866,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
       <c r="B65" s="1" t="str" cm="1">
         <f t="array" ref="B65">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A65)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1759,7 +1887,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
       <c r="B66" s="1" t="str" cm="1">
         <f t="array" ref="B66">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A66)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1778,7 +1908,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
       <c r="B67" s="1" t="str" cm="1">
         <f t="array" ref="B67">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A67)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1797,7 +1929,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
       <c r="B68" s="1" t="str" cm="1">
         <f t="array" ref="B68">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A68)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1816,7 +1950,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
       <c r="B69" s="1" t="str" cm="1">
         <f t="array" ref="B69">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A69)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1835,7 +1971,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
       <c r="B70" s="1" t="str" cm="1">
         <f t="array" ref="B70">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A70)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1854,7 +1992,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
       <c r="B71" s="1" t="str" cm="1">
         <f t="array" ref="B71">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A71)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1873,7 +2013,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
       <c r="B72" s="1" t="str" cm="1">
         <f t="array" ref="B72">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A72)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1892,7 +2034,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
       <c r="B73" s="1" t="str" cm="1">
         <f t="array" ref="B73">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A73)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1911,7 +2055,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
       <c r="B74" s="1" t="str" cm="1">
         <f t="array" ref="B74">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A74)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1930,7 +2076,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
       <c r="B75" s="1" t="str" cm="1">
         <f t="array" ref="B75">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A75)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1949,7 +2097,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
       <c r="B76" s="1" t="str" cm="1">
         <f t="array" ref="B76">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A76)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1968,7 +2118,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
       <c r="B77" s="1" t="str" cm="1">
         <f t="array" ref="B77">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A77)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1987,7 +2139,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
       <c r="B78" s="1" t="str" cm="1">
         <f t="array" ref="B78">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A78)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2006,7 +2160,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2025,7 +2181,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
       <c r="B80" s="1" t="str" cm="1">
         <f t="array" ref="B80">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A80)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2044,7 +2202,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
       <c r="B81" s="1" t="str" cm="1">
         <f t="array" ref="B81">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A81)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2063,7 +2223,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
       <c r="B82" s="1" t="str" cm="1">
         <f t="array" ref="B82">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A82)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2082,7 +2244,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
       <c r="B83" s="1" t="str" cm="1">
         <f t="array" ref="B83">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A83)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2101,7 +2265,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A84)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2120,7 +2286,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
       <c r="B85" s="1" t="str" cm="1">
         <f t="array" ref="B85">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A85)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2139,7 +2307,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
       <c r="B86" s="1" t="str" cm="1">
         <f t="array" ref="B86">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A86)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2158,7 +2328,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
       <c r="B87" s="1" t="str" cm="1">
         <f t="array" ref="B87">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A87)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2177,7 +2349,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
       <c r="B88" s="1" t="str" cm="1">
         <f t="array" ref="B88">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A88)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2196,7 +2370,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
       <c r="B89" s="1" t="str" cm="1">
         <f t="array" ref="B89">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A89)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2215,7 +2391,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
       <c r="B90" s="1" t="str" cm="1">
         <f t="array" ref="B90">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A90)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2234,7 +2412,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
       <c r="B91" s="1" t="str" cm="1">
         <f t="array" ref="B91">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A91)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2253,7 +2433,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
       <c r="B92" s="1" t="str" cm="1">
         <f t="array" ref="B92">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A92)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2272,7 +2454,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
       <c r="B93" s="1" t="str" cm="1">
         <f t="array" ref="B93">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A93)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2291,7 +2475,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
       <c r="B94" s="1" t="str" cm="1">
         <f t="array" ref="B94">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A94)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2310,7 +2496,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
       <c r="B95" s="1" t="str" cm="1">
         <f t="array" ref="B95">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A95)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2329,7 +2517,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
       <c r="B96" s="1" t="str" cm="1">
         <f t="array" ref="B96">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A96)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2348,7 +2538,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
       <c r="B97" s="1" t="str" cm="1">
         <f t="array" ref="B97">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A97)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2367,7 +2559,9 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
       <c r="B98" s="1" t="str" cm="1">
         <f t="array" ref="B98">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A98)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2386,7 +2580,9 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
       <c r="B99" s="1" t="str" cm="1">
         <f t="array" ref="B99">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A99)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2405,7 +2601,9 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
       <c r="B100" s="1" t="str" cm="1">
         <f t="array" ref="B100">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A100)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2424,7 +2622,9 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
       <c r="B101" s="1" t="str" cm="1">
         <f t="array" ref="B101">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A101)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2443,7 +2643,9 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
       <c r="B102" s="1" t="str" cm="1">
         <f t="array" ref="B102">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A102)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2462,7 +2664,9 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
       <c r="B103" s="1" t="str" cm="1">
         <f t="array" ref="B103">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A103)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2481,7 +2685,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
       <c r="B104" s="1" t="str" cm="1">
         <f t="array" ref="B104">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A104)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2500,7 +2706,9 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
       <c r="B105" s="1" t="str" cm="1">
         <f t="array" ref="B105">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A105)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2519,7 +2727,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
       <c r="B106" s="1" t="str" cm="1">
         <f t="array" ref="B106">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A106)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2538,7 +2748,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
       <c r="B107" s="1" t="str" cm="1">
         <f t="array" ref="B107">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A107)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2557,7 +2769,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>0</v>
+      </c>
       <c r="B108" s="1" t="str" cm="1">
         <f t="array" ref="B108">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A108)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2576,7 +2790,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>0</v>
+      </c>
       <c r="B109" s="1" t="str" cm="1">
         <f t="array" ref="B109">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A109)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2595,7 +2811,9 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
       <c r="B110" s="1" t="str" cm="1">
         <f t="array" ref="B110">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A110)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2614,7 +2832,9 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
       <c r="B111" s="1" t="str" cm="1">
         <f t="array" ref="B111">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A111)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2633,7 +2853,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
       <c r="B112" s="1" t="str" cm="1">
         <f t="array" ref="B112">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A112)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2652,7 +2874,9 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
       <c r="B113" s="1" t="str" cm="1">
         <f t="array" ref="B113">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A113)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2671,7 +2895,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
       <c r="B114" s="1" t="str" cm="1">
         <f t="array" ref="B114">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A114)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2690,7 +2916,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>0</v>
+      </c>
       <c r="B115" s="1" t="str" cm="1">
         <f t="array" ref="B115">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A115)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2709,7 +2937,9 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
       <c r="B116" s="1" t="str" cm="1">
         <f t="array" ref="B116">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A116)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2728,7 +2958,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>0</v>
+      </c>
       <c r="B117" s="1" t="str" cm="1">
         <f t="array" ref="B117">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A117)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2747,7 +2979,9 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
       <c r="B118" s="1" t="str" cm="1">
         <f t="array" ref="B118">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A118)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2766,7 +3000,9 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>0</v>
+      </c>
       <c r="B119" s="1" t="str" cm="1">
         <f t="array" ref="B119">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A119)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2785,7 +3021,9 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>0</v>
+      </c>
       <c r="B120" s="1" t="str" cm="1">
         <f t="array" ref="B120">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A120)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2804,7 +3042,9 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
       <c r="B121" s="1" t="str" cm="1">
         <f t="array" ref="B121">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A121)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2823,7 +3063,9 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
       <c r="B122" s="1" t="str" cm="1">
         <f t="array" ref="B122">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A122)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2842,7 +3084,9 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>0</v>
+      </c>
       <c r="B123" s="1" t="str" cm="1">
         <f t="array" ref="B123">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A123)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2861,7 +3105,9 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>0</v>
+      </c>
       <c r="B124" s="1" t="str" cm="1">
         <f t="array" ref="B124">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A124)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2880,7 +3126,9 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>0</v>
+      </c>
       <c r="B125" s="1" t="str" cm="1">
         <f t="array" ref="B125">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A125)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2899,7 +3147,9 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
       <c r="B126" s="1" t="str" cm="1">
         <f t="array" ref="B126">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A126)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2918,7 +3168,9 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>0</v>
+      </c>
       <c r="B127" s="1" t="str" cm="1">
         <f t="array" ref="B127">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A127)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2937,7 +3189,9 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
       <c r="B128" s="1" t="str" cm="1">
         <f t="array" ref="B128">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A128)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2956,7 +3210,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1">
+        <v>0</v>
+      </c>
       <c r="B129" s="1" t="str" cm="1">
         <f t="array" ref="B129">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A129)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2975,7 +3231,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
       <c r="B130" s="1" t="str" cm="1">
         <f t="array" ref="B130">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A130)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2994,7 +3252,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>0</v>
+      </c>
       <c r="B131" s="1" t="str" cm="1">
         <f t="array" ref="B131">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A131)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3013,7 +3273,9 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
       <c r="B132" s="1" t="str" cm="1">
         <f t="array" ref="B132">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A132)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3032,7 +3294,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
       <c r="B133" s="1" t="str" cm="1">
         <f t="array" ref="B133">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A133)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3051,7 +3315,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
       <c r="B134" s="1" t="str" cm="1">
         <f t="array" ref="B134">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A134)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3070,7 +3336,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
       <c r="B135" s="1" t="str" cm="1">
         <f t="array" ref="B135">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A135)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3089,7 +3357,9 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>0</v>
+      </c>
       <c r="B136" s="1" t="str" cm="1">
         <f t="array" ref="B136">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A136)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3108,7 +3378,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
       <c r="B137" s="1" t="str" cm="1">
         <f t="array" ref="B137">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A137)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3127,7 +3399,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
       <c r="B138" s="1" t="str" cm="1">
         <f t="array" ref="B138">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A138)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3146,7 +3420,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>0</v>
+      </c>
       <c r="B139" s="1" t="str" cm="1">
         <f t="array" ref="B139">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A139)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3165,7 +3441,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>0</v>
+      </c>
       <c r="B140" s="1" t="str" cm="1">
         <f t="array" ref="B140">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A140)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3184,7 +3462,9 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>0</v>
+      </c>
       <c r="B141" s="1" t="str" cm="1">
         <f t="array" ref="B141">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A141)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3203,7 +3483,9 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
       <c r="B142" s="1" t="str" cm="1">
         <f t="array" ref="B142">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A142)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3222,7 +3504,9 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>0</v>
+      </c>
       <c r="B143" s="1" t="str" cm="1">
         <f t="array" ref="B143">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A143)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3241,7 +3525,9 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>0</v>
+      </c>
       <c r="B144" s="1" t="str" cm="1">
         <f t="array" ref="B144">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A144)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3260,7 +3546,9 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>0</v>
+      </c>
       <c r="B145" s="1" t="str" cm="1">
         <f t="array" ref="B145">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A145)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3279,7 +3567,9 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>0</v>
+      </c>
       <c r="B146" s="1" t="str" cm="1">
         <f t="array" ref="B146">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A146)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3298,7 +3588,9 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>0</v>
+      </c>
       <c r="B147" s="1" t="str" cm="1">
         <f t="array" ref="B147">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A147)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3317,7 +3609,9 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>0</v>
+      </c>
       <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A148)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3336,7 +3630,9 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>0</v>
+      </c>
       <c r="B149" s="1" t="str" cm="1">
         <f t="array" ref="B149">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A149)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3355,7 +3651,9 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>0</v>
+      </c>
       <c r="B150" s="1" t="str" cm="1">
         <f t="array" ref="B150">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A150)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3374,7 +3672,9 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>0</v>
+      </c>
       <c r="B151" s="1" t="str" cm="1">
         <f t="array" ref="B151">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A151)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3393,7 +3693,9 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>0</v>
+      </c>
       <c r="B152" s="1" t="str" cm="1">
         <f t="array" ref="B152">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A152)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3412,7 +3714,9 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1">
+        <v>0</v>
+      </c>
       <c r="B153" s="1" t="str" cm="1">
         <f t="array" ref="B153">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A153)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3431,7 +3735,9 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1">
+        <v>0</v>
+      </c>
       <c r="B154" s="1" t="str" cm="1">
         <f t="array" ref="B154">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A154)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3450,7 +3756,9 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>0</v>
+      </c>
       <c r="B155" s="1" t="str" cm="1">
         <f t="array" ref="B155">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A155)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3469,7 +3777,9 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>0</v>
+      </c>
       <c r="B156" s="1" t="str" cm="1">
         <f t="array" ref="B156">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A156)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3488,7 +3798,9 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>0</v>
+      </c>
       <c r="B157" s="1" t="str" cm="1">
         <f t="array" ref="B157">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A157)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3507,7 +3819,9 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1">
+        <v>0</v>
+      </c>
       <c r="B158" s="1" t="str" cm="1">
         <f t="array" ref="B158">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A158)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3526,7 +3840,9 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>0</v>
+      </c>
       <c r="B159" s="1" t="str" cm="1">
         <f t="array" ref="B159">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A159)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3545,7 +3861,9 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1">
+        <v>0</v>
+      </c>
       <c r="B160" s="1" t="str" cm="1">
         <f t="array" ref="B160">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A160)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3564,7 +3882,9 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1">
+        <v>0</v>
+      </c>
       <c r="B161" s="1" t="str" cm="1">
         <f t="array" ref="B161">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A161)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3583,7 +3903,9 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
       <c r="B162" s="1" t="str" cm="1">
         <f t="array" ref="B162">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A162)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3602,7 +3924,9 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1">
+        <v>0</v>
+      </c>
       <c r="B163" s="1" t="str" cm="1">
         <f t="array" ref="B163">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A163)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3621,7 +3945,9 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>0</v>
+      </c>
       <c r="B164" s="1" t="str" cm="1">
         <f t="array" ref="B164">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A164)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3640,7 +3966,9 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>0</v>
+      </c>
       <c r="B165" s="1" t="str" cm="1">
         <f t="array" ref="B165">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A165)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3659,7 +3987,9 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3678,7 +4008,9 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>0</v>
+      </c>
       <c r="B167" s="1" t="str" cm="1">
         <f t="array" ref="B167">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A167)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3697,7 +4029,9 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>1</v>
+      </c>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3716,7 +4050,9 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>0</v>
+      </c>
       <c r="B169" s="1" t="str" cm="1">
         <f t="array" ref="B169">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A169)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3735,7 +4071,9 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>0</v>
+      </c>
       <c r="B170" s="1" t="str" cm="1">
         <f t="array" ref="B170">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A170)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3754,7 +4092,9 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>0</v>
+      </c>
       <c r="B171" s="1" t="str" cm="1">
         <f t="array" ref="B171">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A171)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3773,7 +4113,9 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
       <c r="B172" s="1" t="str" cm="1">
         <f t="array" ref="B172">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A172)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3792,7 +4134,9 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3811,7 +4155,9 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
       <c r="B174" s="1" t="str" cm="1">
         <f t="array" ref="B174">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A174)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3830,7 +4176,9 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>0</v>
+      </c>
       <c r="B175" s="1" t="str" cm="1">
         <f t="array" ref="B175">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A175)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3849,7 +4197,9 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3868,7 +4218,9 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1">
+        <v>0</v>
+      </c>
       <c r="B177" s="1" t="str" cm="1">
         <f t="array" ref="B177">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A177)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3887,7 +4239,9 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
       <c r="B178" s="1" t="str" cm="1">
         <f t="array" ref="B178">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A178)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3906,7 +4260,9 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>0</v>
+      </c>
       <c r="B179" s="1" t="str" cm="1">
         <f t="array" ref="B179">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A179)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3925,7 +4281,9 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>0</v>
+      </c>
       <c r="B180" s="1" t="str" cm="1">
         <f t="array" ref="B180">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A180)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3944,7 +4302,9 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>0</v>
+      </c>
       <c r="B181" s="1" t="str" cm="1">
         <f t="array" ref="B181">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A181)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3963,7 +4323,9 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>0</v>
+      </c>
       <c r="B182" s="1" t="str" cm="1">
         <f t="array" ref="B182">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A182)-2)/175)+1)</f>
         <v>2DO</v>
@@ -3982,7 +4344,9 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>0</v>
+      </c>
       <c r="B183" s="1" t="str" cm="1">
         <f t="array" ref="B183">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A183)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4001,7 +4365,9 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>0</v>
+      </c>
       <c r="B184" s="1" t="str" cm="1">
         <f t="array" ref="B184">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A184)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4020,7 +4386,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>0</v>
+      </c>
       <c r="B185" s="1" t="str" cm="1">
         <f t="array" ref="B185">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A185)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4039,7 +4407,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
       <c r="B186" s="1" t="str" cm="1">
         <f t="array" ref="B186">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A186)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4058,7 +4428,9 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>0</v>
+      </c>
       <c r="B187" s="1" t="str" cm="1">
         <f t="array" ref="B187">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A187)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4077,7 +4449,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1">
+        <v>0</v>
+      </c>
       <c r="B188" s="1" t="str" cm="1">
         <f t="array" ref="B188">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A188)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4096,7 +4470,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1">
+        <v>0</v>
+      </c>
       <c r="B189" s="1" t="str" cm="1">
         <f t="array" ref="B189">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A189)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4115,7 +4491,9 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1">
+        <v>0</v>
+      </c>
       <c r="B190" s="1" t="str" cm="1">
         <f t="array" ref="B190">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A190)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4134,7 +4512,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
       <c r="B191" s="1" t="str" cm="1">
         <f t="array" ref="B191">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A191)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4153,7 +4533,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1">
+        <v>0</v>
+      </c>
       <c r="B192" s="1" t="str" cm="1">
         <f t="array" ref="B192">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A192)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4172,7 +4554,9 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
       <c r="B193" s="1" t="str" cm="1">
         <f t="array" ref="B193">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A193)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4191,7 +4575,9 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1">
+        <v>0</v>
+      </c>
       <c r="B194" s="1" t="str" cm="1">
         <f t="array" ref="B194">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A194)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4210,7 +4596,9 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1">
+        <v>0</v>
+      </c>
       <c r="B195" s="1" t="str" cm="1">
         <f t="array" ref="B195">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A195)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4229,7 +4617,9 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1">
+        <v>0</v>
+      </c>
       <c r="B196" s="1" t="str" cm="1">
         <f t="array" ref="B196">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A196)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4248,7 +4638,9 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1">
+        <v>0</v>
+      </c>
       <c r="B197" s="1" t="str" cm="1">
         <f t="array" ref="B197">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A197)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4267,7 +4659,9 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
       <c r="B198" s="1" t="str" cm="1">
         <f t="array" ref="B198">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A198)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4286,7 +4680,9 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1">
+        <v>0</v>
+      </c>
       <c r="B199" s="1" t="str" cm="1">
         <f t="array" ref="B199">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A199)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4305,7 +4701,9 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>0</v>
+      </c>
       <c r="B200" s="1" t="str" cm="1">
         <f t="array" ref="B200">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A200)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4324,7 +4722,9 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>0</v>
+      </c>
       <c r="B201" s="1" t="str" cm="1">
         <f t="array" ref="B201">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A201)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4343,7 +4743,9 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>0</v>
+      </c>
       <c r="B202" s="1" t="str" cm="1">
         <f t="array" ref="B202">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A202)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4362,7 +4764,9 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>0</v>
+      </c>
       <c r="B203" s="1" t="str" cm="1">
         <f t="array" ref="B203">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A203)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4381,7 +4785,9 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>0</v>
+      </c>
       <c r="B204" s="1" t="str" cm="1">
         <f t="array" ref="B204">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A204)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4400,7 +4806,9 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>0</v>
+      </c>
       <c r="B205" s="1" t="str" cm="1">
         <f t="array" ref="B205">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A205)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4419,7 +4827,9 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>0</v>
+      </c>
       <c r="B206" s="1" t="str" cm="1">
         <f t="array" ref="B206">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A206)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4438,7 +4848,9 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>1</v>
+      </c>
       <c r="B207" s="1" t="str" cm="1">
         <f t="array" ref="B207">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A207)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4457,7 +4869,9 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>0</v>
+      </c>
       <c r="B208" s="1" t="str" cm="1">
         <f t="array" ref="B208">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A208)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4476,7 +4890,9 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
       <c r="B209" s="1" t="str" cm="1">
         <f t="array" ref="B209">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A209)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4495,7 +4911,9 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1">
+        <v>0</v>
+      </c>
       <c r="B210" s="1" t="str" cm="1">
         <f t="array" ref="B210">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A210)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4514,7 +4932,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1">
+        <v>0</v>
+      </c>
       <c r="B211" s="1" t="str" cm="1">
         <f t="array" ref="B211">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A211)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4533,7 +4953,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
       <c r="B212" s="1" t="str" cm="1">
         <f t="array" ref="B212">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A212)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4552,7 +4974,9 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1">
+        <v>0</v>
+      </c>
       <c r="B213" s="1" t="str" cm="1">
         <f t="array" ref="B213">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A213)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4571,7 +4995,9 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1">
+        <v>0</v>
+      </c>
       <c r="B214" s="1" t="str" cm="1">
         <f t="array" ref="B214">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A214)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4590,7 +5016,9 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1">
+        <v>0</v>
+      </c>
       <c r="B215" s="1" t="str" cm="1">
         <f t="array" ref="B215">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A215)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4609,7 +5037,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1">
+        <v>0</v>
+      </c>
       <c r="B216" s="1" t="str" cm="1">
         <f t="array" ref="B216">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A216)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4628,7 +5058,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1">
+        <v>0</v>
+      </c>
       <c r="B217" s="1" t="str" cm="1">
         <f t="array" ref="B217">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A217)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4647,7 +5079,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1">
+        <v>0</v>
+      </c>
       <c r="B218" s="1" t="str" cm="1">
         <f t="array" ref="B218">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A218)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4666,7 +5100,9 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
       <c r="B219" s="1" t="str" cm="1">
         <f t="array" ref="B219">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A219)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4685,7 +5121,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1">
+        <v>0</v>
+      </c>
       <c r="B220" s="1" t="str" cm="1">
         <f t="array" ref="B220">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A220)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4704,7 +5142,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>0</v>
+      </c>
       <c r="B221" s="1" t="str" cm="1">
         <f t="array" ref="B221">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A221)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4723,7 +5163,9 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>1</v>
+      </c>
       <c r="B222" s="1" t="str" cm="1">
         <f t="array" ref="B222">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A222)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4742,7 +5184,9 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>0</v>
+      </c>
       <c r="B223" s="1" t="str" cm="1">
         <f t="array" ref="B223">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A223)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4761,7 +5205,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>0</v>
+      </c>
       <c r="B224" s="1" t="str" cm="1">
         <f t="array" ref="B224">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A224)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4780,7 +5226,9 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
+      <c r="A225" s="1">
+        <v>0</v>
+      </c>
       <c r="B225" s="1" t="str" cm="1">
         <f t="array" ref="B225">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A225)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4799,7 +5247,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1">
+        <v>0</v>
+      </c>
       <c r="B226" s="1" t="str" cm="1">
         <f t="array" ref="B226">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A226)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4818,7 +5268,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
       <c r="B227" s="1" t="str" cm="1">
         <f t="array" ref="B227">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A227)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4837,7 +5289,9 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
+      <c r="A228" s="1">
+        <v>0</v>
+      </c>
       <c r="B228" s="1" t="str" cm="1">
         <f t="array" ref="B228">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A228)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4856,7 +5310,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1">
+        <v>0</v>
+      </c>
       <c r="B229" s="1" t="str" cm="1">
         <f t="array" ref="B229">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A229)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4875,7 +5331,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1">
+        <v>0</v>
+      </c>
       <c r="B230" s="1" t="str" cm="1">
         <f t="array" ref="B230">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A230)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4894,7 +5352,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
+      <c r="A231" s="1">
+        <v>0</v>
+      </c>
       <c r="B231" s="1" t="str" cm="1">
         <f t="array" ref="B231">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A231)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4913,7 +5373,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1">
+        <v>0</v>
+      </c>
       <c r="B232" s="1" t="str" cm="1">
         <f t="array" ref="B232">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A232)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4932,7 +5394,9 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1">
+        <v>0</v>
+      </c>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4951,7 +5415,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1">
+        <v>0</v>
+      </c>
       <c r="B234" s="1" t="str" cm="1">
         <f t="array" ref="B234">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A234)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4970,7 +5436,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1">
+        <v>0</v>
+      </c>
       <c r="B235" s="1" t="str" cm="1">
         <f t="array" ref="B235">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A235)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4989,7 +5457,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>1</v>
+      </c>
       <c r="B236" s="1" t="str" cm="1">
         <f t="array" ref="B236">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A236)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5008,7 +5478,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
+      <c r="A237" s="1">
+        <v>1</v>
+      </c>
       <c r="B237" s="1" t="str" cm="1">
         <f t="array" ref="B237">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A237)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5027,7 +5499,9 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1">
+        <v>0</v>
+      </c>
       <c r="B238" s="1" t="str" cm="1">
         <f t="array" ref="B238">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A238)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5046,7 +5520,9 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
+      <c r="A239" s="1">
+        <v>0</v>
+      </c>
       <c r="B239" s="1" t="str" cm="1">
         <f t="array" ref="B239">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A239)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5065,7 +5541,9 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1">
+        <v>0</v>
+      </c>
       <c r="B240" s="1" t="str" cm="1">
         <f t="array" ref="B240">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A240)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5084,7 +5562,9 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
+      <c r="A241" s="1">
+        <v>0</v>
+      </c>
       <c r="B241" s="1" t="str" cm="1">
         <f t="array" ref="B241">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A241)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5103,7 +5583,9 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1">
+        <v>0</v>
+      </c>
       <c r="B242" s="1" t="str" cm="1">
         <f t="array" ref="B242">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A242)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5122,7 +5604,9 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5141,7 +5625,9 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1">
+        <v>0</v>
+      </c>
       <c r="B244" s="1" t="str" cm="1">
         <f t="array" ref="B244">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A244)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5160,7 +5646,9 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>0</v>
+      </c>
       <c r="B245" s="1" t="str" cm="1">
         <f t="array" ref="B245">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A245)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5179,7 +5667,9 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>0</v>
+      </c>
       <c r="B246" s="1" t="str" cm="1">
         <f t="array" ref="B246">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A246)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5198,7 +5688,9 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>0</v>
+      </c>
       <c r="B247" s="1" t="str" cm="1">
         <f t="array" ref="B247">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A247)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5217,7 +5709,9 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>0</v>
+      </c>
       <c r="B248" s="1" t="str" cm="1">
         <f t="array" ref="B248">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A248)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5236,7 +5730,9 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>0</v>
+      </c>
       <c r="B249" s="1" t="str" cm="1">
         <f t="array" ref="B249">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A249)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5255,7 +5751,9 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1">
+        <v>0</v>
+      </c>
       <c r="B250" s="1" t="str" cm="1">
         <f t="array" ref="B250">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A250)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5274,7 +5772,9 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>1</v>
+      </c>
       <c r="B251" s="1" t="str" cm="1">
         <f t="array" ref="B251">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A251)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5293,7 +5793,9 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>1</v>
+      </c>
       <c r="B252" s="1" t="str" cm="1">
         <f t="array" ref="B252">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A252)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5312,7 +5814,9 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1">
+        <v>0</v>
+      </c>
       <c r="B253" s="1" t="str" cm="1">
         <f t="array" ref="B253">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A253)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5331,7 +5835,9 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>0</v>
+      </c>
       <c r="B254" s="1" t="str" cm="1">
         <f t="array" ref="B254">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A254)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5350,7 +5856,9 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
       <c r="B255" s="1" t="str" cm="1">
         <f t="array" ref="B255">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A255)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5369,7 +5877,9 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
+      <c r="A256" s="1">
+        <v>0</v>
+      </c>
       <c r="B256" s="1" t="str" cm="1">
         <f t="array" ref="B256">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A256)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5388,7 +5898,9 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1">
+        <v>0</v>
+      </c>
       <c r="B257" s="1" t="str" cm="1">
         <f t="array" ref="B257">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A257)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5407,7 +5919,9 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>0</v>
+      </c>
       <c r="B258" s="1" t="str" cm="1">
         <f t="array" ref="B258">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A258)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5426,7 +5940,9 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>0</v>
+      </c>
       <c r="B259" s="1" t="str" cm="1">
         <f t="array" ref="B259">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A259)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5445,7 +5961,9 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1">
+        <v>0</v>
+      </c>
       <c r="B260" s="1" t="str" cm="1">
         <f t="array" ref="B260">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A260)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5464,7 +5982,9 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>0</v>
+      </c>
       <c r="B261" s="1" t="str" cm="1">
         <f t="array" ref="B261">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A261)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5483,7 +6003,9 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>0</v>
+      </c>
       <c r="B262" s="1" t="str" cm="1">
         <f t="array" ref="B262">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A262)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5502,7 +6024,9 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1">
+        <v>0</v>
+      </c>
       <c r="B263" s="1" t="str" cm="1">
         <f t="array" ref="B263">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A263)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5521,7 +6045,9 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
+      <c r="A264" s="1">
+        <v>0</v>
+      </c>
       <c r="B264" s="1" t="str" cm="1">
         <f t="array" ref="B264">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A264)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5540,7 +6066,9 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1">
+        <v>0</v>
+      </c>
       <c r="B265" s="1" t="str" cm="1">
         <f t="array" ref="B265">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A265)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5559,7 +6087,9 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1">
+        <v>0</v>
+      </c>
       <c r="B266" s="1" t="str" cm="1">
         <f t="array" ref="B266">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A266)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5578,7 +6108,9 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1">
+        <v>1</v>
+      </c>
       <c r="B267" s="1" t="str" cm="1">
         <f t="array" ref="B267">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A267)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5597,7 +6129,9 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
+      <c r="A268" s="1">
+        <v>0</v>
+      </c>
       <c r="B268" s="1" t="str" cm="1">
         <f t="array" ref="B268">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A268)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5616,7 +6150,9 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1">
+        <v>0</v>
+      </c>
       <c r="B269" s="1" t="str" cm="1">
         <f t="array" ref="B269">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A269)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5635,7 +6171,9 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1">
+        <v>0</v>
+      </c>
       <c r="B270" s="1" t="str" cm="1">
         <f t="array" ref="B270">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A270)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5654,7 +6192,9 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1">
+        <v>0</v>
+      </c>
       <c r="B271" s="1" t="str" cm="1">
         <f t="array" ref="B271">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A271)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5673,7 +6213,9 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1">
+        <v>0</v>
+      </c>
       <c r="B272" s="1" t="str" cm="1">
         <f t="array" ref="B272">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A272)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5692,7 +6234,9 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1">
+        <v>1</v>
+      </c>
       <c r="B273" s="1" t="str" cm="1">
         <f t="array" ref="B273">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A273)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5711,7 +6255,9 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1">
+        <v>0</v>
+      </c>
       <c r="B274" s="1" t="str" cm="1">
         <f t="array" ref="B274">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A274)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5730,7 +6276,9 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1">
+        <v>1</v>
+      </c>
       <c r="B275" s="1" t="str" cm="1">
         <f t="array" ref="B275">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A275)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5749,7 +6297,9 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1">
+        <v>0</v>
+      </c>
       <c r="B276" s="1" t="str" cm="1">
         <f t="array" ref="B276">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A276)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5768,7 +6318,9 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1">
+        <v>0</v>
+      </c>
       <c r="B277" s="1" t="str" cm="1">
         <f t="array" ref="B277">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A277)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5787,7 +6339,9 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1">
+        <v>0</v>
+      </c>
       <c r="B278" s="1" t="str" cm="1">
         <f t="array" ref="B278">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A278)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5806,7 +6360,9 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>0</v>
+      </c>
       <c r="B279" s="1" t="str" cm="1">
         <f t="array" ref="B279">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A279)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5825,7 +6381,9 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>0</v>
+      </c>
       <c r="B280" s="1" t="str" cm="1">
         <f t="array" ref="B280">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A280)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5844,7 +6402,9 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>1</v>
+      </c>
       <c r="B281" s="1" t="str" cm="1">
         <f t="array" ref="B281">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A281)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5863,7 +6423,9 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>0</v>
+      </c>
       <c r="B282" s="1" t="str" cm="1">
         <f t="array" ref="B282">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A282)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5882,7 +6444,9 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>0</v>
+      </c>
       <c r="B283" s="1" t="str" cm="1">
         <f t="array" ref="B283">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A283)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5901,7 +6465,9 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>1</v>
+      </c>
       <c r="B284" s="1" t="str" cm="1">
         <f t="array" ref="B284">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A284)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5920,7 +6486,9 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>0</v>
+      </c>
       <c r="B285" s="1" t="str" cm="1">
         <f t="array" ref="B285">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A285)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5939,7 +6507,9 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>0</v>
+      </c>
       <c r="B286" s="1" t="str" cm="1">
         <f t="array" ref="B286">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A286)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5958,7 +6528,9 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>0</v>
+      </c>
       <c r="B287" s="1" t="str" cm="1">
         <f t="array" ref="B287">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A287)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5977,7 +6549,9 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
+      <c r="A288" s="1">
+        <v>0</v>
+      </c>
       <c r="B288" s="1" t="str" cm="1">
         <f t="array" ref="B288">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A288)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5996,7 +6570,9 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
+      <c r="A289" s="1">
+        <v>0</v>
+      </c>
       <c r="B289" s="1" t="str" cm="1">
         <f t="array" ref="B289">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A289)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6015,7 +6591,9 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
+      <c r="A290" s="1">
+        <v>0</v>
+      </c>
       <c r="B290" s="1" t="str" cm="1">
         <f t="array" ref="B290">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A290)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6034,7 +6612,9 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
+      <c r="A291" s="1">
+        <v>0</v>
+      </c>
       <c r="B291" s="1" t="str" cm="1">
         <f t="array" ref="B291">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A291)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6053,7 +6633,9 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
+      <c r="A292" s="1">
+        <v>0</v>
+      </c>
       <c r="B292" s="1" t="str" cm="1">
         <f t="array" ref="B292">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A292)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6072,7 +6654,9 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
+      <c r="A293" s="1">
+        <v>0</v>
+      </c>
       <c r="B293" s="1" t="str" cm="1">
         <f t="array" ref="B293">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A293)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6091,7 +6675,9 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1">
+        <v>1</v>
+      </c>
       <c r="B294" s="1" t="str" cm="1">
         <f t="array" ref="B294">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A294)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6110,7 +6696,9 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
+      <c r="A295" s="1">
+        <v>1</v>
+      </c>
       <c r="B295" s="1" t="str" cm="1">
         <f t="array" ref="B295">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A295)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6129,7 +6717,9 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
+      <c r="A296" s="1">
+        <v>0</v>
+      </c>
       <c r="B296" s="1" t="str" cm="1">
         <f t="array" ref="B296">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A296)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6148,7 +6738,9 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
+      <c r="A297" s="1">
+        <v>0</v>
+      </c>
       <c r="B297" s="1" t="str" cm="1">
         <f t="array" ref="B297">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A297)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6167,7 +6759,9 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
+      <c r="A298" s="1">
+        <v>0</v>
+      </c>
       <c r="B298" s="1" t="str" cm="1">
         <f t="array" ref="B298">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A298)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6186,7 +6780,9 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1">
+        <v>0</v>
+      </c>
       <c r="B299" s="1" t="str" cm="1">
         <f t="array" ref="B299">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A299)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6205,7 +6801,9 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
+      <c r="A300" s="1">
+        <v>0</v>
+      </c>
       <c r="B300" s="1" t="str" cm="1">
         <f t="array" ref="B300">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A300)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6224,7 +6822,9 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
+      <c r="A301" s="1">
+        <v>0</v>
+      </c>
       <c r="B301" s="1" t="str" cm="1">
         <f t="array" ref="B301">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A301)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6243,7 +6843,9 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
+      <c r="A302" s="1">
+        <v>0</v>
+      </c>
       <c r="B302" s="1" t="str" cm="1">
         <f t="array" ref="B302">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A302)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6262,7 +6864,9 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
+      <c r="A303" s="1">
+        <v>0</v>
+      </c>
       <c r="B303" s="1" t="str" cm="1">
         <f t="array" ref="B303">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A303)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6281,7 +6885,9 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
+      <c r="A304" s="1">
+        <v>1</v>
+      </c>
       <c r="B304" s="1" t="str" cm="1">
         <f t="array" ref="B304">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A304)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6300,7 +6906,9 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
+      <c r="A305" s="1">
+        <v>1</v>
+      </c>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6319,7 +6927,9 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
+      <c r="A306" s="1">
+        <v>0</v>
+      </c>
       <c r="B306" s="1" t="str" cm="1">
         <f t="array" ref="B306">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A306)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6338,7 +6948,9 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
+      <c r="A307" s="1">
+        <v>0</v>
+      </c>
       <c r="B307" s="1" t="str" cm="1">
         <f t="array" ref="B307">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A307)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6357,7 +6969,9 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
+      <c r="A308" s="1">
+        <v>0</v>
+      </c>
       <c r="B308" s="1" t="str" cm="1">
         <f t="array" ref="B308">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A308)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6376,7 +6990,9 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
+      <c r="A309" s="1">
+        <v>0</v>
+      </c>
       <c r="B309" s="1" t="str" cm="1">
         <f t="array" ref="B309">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A309)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6395,7 +7011,9 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
+      <c r="A310" s="1">
+        <v>0</v>
+      </c>
       <c r="B310" s="1" t="str" cm="1">
         <f t="array" ref="B310">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A310)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6414,7 +7032,9 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
+      <c r="A311" s="1">
+        <v>1</v>
+      </c>
       <c r="B311" s="1" t="str" cm="1">
         <f t="array" ref="B311">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A311)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6433,7 +7053,9 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
+      <c r="A312" s="1">
+        <v>0</v>
+      </c>
       <c r="B312" s="1" t="str" cm="1">
         <f t="array" ref="B312">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A312)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6452,7 +7074,9 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
+      <c r="A313" s="1">
+        <v>0</v>
+      </c>
       <c r="B313" s="1" t="str" cm="1">
         <f t="array" ref="B313">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A313)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6471,7 +7095,9 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1">
+        <v>0</v>
+      </c>
       <c r="B314" s="1" t="str" cm="1">
         <f t="array" ref="B314">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A314)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6490,7 +7116,9 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
+      <c r="A315" s="1">
+        <v>1</v>
+      </c>
       <c r="B315" s="1" t="str" cm="1">
         <f t="array" ref="B315">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A315)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6509,7 +7137,9 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
+      <c r="A316" s="1">
+        <v>0</v>
+      </c>
       <c r="B316" s="1" t="str" cm="1">
         <f t="array" ref="B316">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A316)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6528,7 +7158,9 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
+      <c r="A317" s="1">
+        <v>0</v>
+      </c>
       <c r="B317" s="1" t="str" cm="1">
         <f t="array" ref="B317">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A317)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6547,7 +7179,9 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
+      <c r="A318" s="1">
+        <v>0</v>
+      </c>
       <c r="B318" s="1" t="str" cm="1">
         <f t="array" ref="B318">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A318)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6566,7 +7200,9 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
+      <c r="A319" s="1">
+        <v>0</v>
+      </c>
       <c r="B319" s="1" t="str" cm="1">
         <f t="array" ref="B319">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A319)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6585,7 +7221,9 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
+      <c r="A320" s="1">
+        <v>1</v>
+      </c>
       <c r="B320" s="1" t="str" cm="1">
         <f t="array" ref="B320">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A320)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6604,7 +7242,9 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
+      <c r="A321" s="1">
+        <v>0</v>
+      </c>
       <c r="B321" s="1" t="str" cm="1">
         <f t="array" ref="B321">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A321)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6623,7 +7263,9 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
+      <c r="A322" s="1">
+        <v>0</v>
+      </c>
       <c r="B322" s="1" t="str" cm="1">
         <f t="array" ref="B322">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A322)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6642,7 +7284,9 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
+      <c r="A323" s="1">
+        <v>1</v>
+      </c>
       <c r="B323" s="1" t="str" cm="1">
         <f t="array" ref="B323">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A323)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6661,7 +7305,9 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1">
+        <v>0</v>
+      </c>
       <c r="B324" s="1" t="str" cm="1">
         <f t="array" ref="B324">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A324)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6680,7 +7326,9 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
+      <c r="A325" s="1">
+        <v>0</v>
+      </c>
       <c r="B325" s="1" t="str" cm="1">
         <f t="array" ref="B325">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A325)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6699,7 +7347,9 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
+      <c r="A326" s="1">
+        <v>0</v>
+      </c>
       <c r="B326" s="1" t="str" cm="1">
         <f t="array" ref="B326">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A326)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6718,7 +7368,9 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
+      <c r="A327" s="1">
+        <v>0</v>
+      </c>
       <c r="B327" s="1" t="str" cm="1">
         <f t="array" ref="B327">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A327)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6737,7 +7389,9 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
+      <c r="A328" s="1">
+        <v>1</v>
+      </c>
       <c r="B328" s="1" t="str" cm="1">
         <f t="array" ref="B328">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A328)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6756,7 +7410,9 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1">
+        <v>0</v>
+      </c>
       <c r="B329" s="1" t="str" cm="1">
         <f t="array" ref="B329">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A329)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6775,7 +7431,9 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
+      <c r="A330" s="1">
+        <v>0</v>
+      </c>
       <c r="B330" s="1" t="str" cm="1">
         <f t="array" ref="B330">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A330)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6794,7 +7452,9 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="1"/>
+      <c r="A331" s="1">
+        <v>0</v>
+      </c>
       <c r="B331" s="1" t="str" cm="1">
         <f t="array" ref="B331">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A331)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6813,7 +7473,9 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
+      <c r="A332" s="1">
+        <v>0</v>
+      </c>
       <c r="B332" s="1" t="str" cm="1">
         <f t="array" ref="B332">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A332)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6832,7 +7494,9 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
+      <c r="A333" s="1">
+        <v>0</v>
+      </c>
       <c r="B333" s="1" t="str" cm="1">
         <f t="array" ref="B333">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A333)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6851,7 +7515,9 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1"/>
+      <c r="A334" s="1">
+        <v>1</v>
+      </c>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6870,7 +7536,9 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
+      <c r="A335" s="1">
+        <v>1</v>
+      </c>
       <c r="B335" s="1" t="str" cm="1">
         <f t="array" ref="B335">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A335)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6889,7 +7557,9 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="1"/>
+      <c r="A336" s="1">
+        <v>1</v>
+      </c>
       <c r="B336" s="1" t="str" cm="1">
         <f t="array" ref="B336">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A336)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6908,7 +7578,9 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
+      <c r="A337" s="1">
+        <v>0</v>
+      </c>
       <c r="B337" s="1" t="str" cm="1">
         <f t="array" ref="B337">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A337)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6927,7 +7599,9 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>0</v>
+      </c>
       <c r="B338" s="1" t="str" cm="1">
         <f t="array" ref="B338">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A338)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6946,7 +7620,9 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
+      <c r="A339" s="1">
+        <v>0</v>
+      </c>
       <c r="B339" s="1" t="str" cm="1">
         <f t="array" ref="B339">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A339)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6965,7 +7641,9 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
+      <c r="A340" s="1">
+        <v>0</v>
+      </c>
       <c r="B340" s="1" t="str" cm="1">
         <f t="array" ref="B340">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A340)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6984,7 +7662,9 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
+      <c r="A341" s="1">
+        <v>0</v>
+      </c>
       <c r="B341" s="1" t="str" cm="1">
         <f t="array" ref="B341">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A341)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7003,7 +7683,9 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
+      <c r="A342" s="1">
+        <v>0</v>
+      </c>
       <c r="B342" s="1" t="str" cm="1">
         <f t="array" ref="B342">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A342)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7022,7 +7704,9 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
+      <c r="A343" s="1">
+        <v>0</v>
+      </c>
       <c r="B343" s="1" t="str" cm="1">
         <f t="array" ref="B343">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A343)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7041,7 +7725,9 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
+      <c r="A344" s="1">
+        <v>1</v>
+      </c>
       <c r="B344" s="1" t="str" cm="1">
         <f t="array" ref="B344">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A344)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7060,7 +7746,9 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>0</v>
+      </c>
       <c r="B345" s="1" t="str" cm="1">
         <f t="array" ref="B345">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A345)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7079,7 +7767,9 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
+      <c r="A346" s="1">
+        <v>0</v>
+      </c>
       <c r="B346" s="1" t="str" cm="1">
         <f t="array" ref="B346">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A346)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7098,7 +7788,9 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
+      <c r="A347" s="1">
+        <v>0</v>
+      </c>
       <c r="B347" s="1" t="str" cm="1">
         <f t="array" ref="B347">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A347)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7117,7 +7809,9 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
+      <c r="A348" s="1">
+        <v>0</v>
+      </c>
       <c r="B348" s="1" t="str" cm="1">
         <f t="array" ref="B348">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A348)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7136,7 +7830,9 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
+      <c r="A349" s="1">
+        <v>0</v>
+      </c>
       <c r="B349" s="1" t="str" cm="1">
         <f t="array" ref="B349">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A349)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7155,7 +7851,9 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1">
+        <v>0</v>
+      </c>
       <c r="B350" s="1" t="str" cm="1">
         <f t="array" ref="B350">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A350)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7174,7 +7872,9 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
+      <c r="A351" s="1">
+        <v>0</v>
+      </c>
       <c r="B351" s="1" t="str" cm="1">
         <f t="array" ref="B351">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A351)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7193,7 +7893,9 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
+      <c r="A352" s="1">
+        <v>0</v>
+      </c>
       <c r="B352" s="1" t="str" cm="1">
         <f t="array" ref="B352">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A352)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7212,7 +7914,9 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
+      <c r="A353" s="1">
+        <v>0</v>
+      </c>
       <c r="B353" s="1" t="str" cm="1">
         <f t="array" ref="B353">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A353)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7231,7 +7935,9 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
+      <c r="A354" s="1">
+        <v>0</v>
+      </c>
       <c r="B354" s="1" t="str" cm="1">
         <f t="array" ref="B354">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A354)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7250,7 +7956,9 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
+      <c r="A355" s="1">
+        <v>0</v>
+      </c>
       <c r="B355" s="1" t="str" cm="1">
         <f t="array" ref="B355">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A355)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7269,7 +7977,9 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
+      <c r="A356" s="1">
+        <v>0</v>
+      </c>
       <c r="B356" s="1" t="str" cm="1">
         <f t="array" ref="B356">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A356)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7288,7 +7998,9 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
+      <c r="A357" s="1">
+        <v>0</v>
+      </c>
       <c r="B357" s="1" t="str" cm="1">
         <f t="array" ref="B357">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A357)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7307,7 +8019,9 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1"/>
+      <c r="A358" s="1">
+        <v>0</v>
+      </c>
       <c r="B358" s="1" t="str" cm="1">
         <f t="array" ref="B358">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A358)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7326,7 +8040,9 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
       <c r="B359" s="1" t="str" cm="1">
         <f t="array" ref="B359">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A359)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7345,7 +8061,9 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="1"/>
+      <c r="A360" s="1">
+        <v>1</v>
+      </c>
       <c r="B360" s="1" t="str" cm="1">
         <f t="array" ref="B360">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A360)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7364,7 +8082,9 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
+      <c r="A361" s="1">
+        <v>0</v>
+      </c>
       <c r="B361" s="1" t="str" cm="1">
         <f t="array" ref="B361">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A361)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7383,7 +8103,9 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
       <c r="B362" s="1" t="str" cm="1">
         <f t="array" ref="B362">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A362)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7402,7 +8124,9 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
+      <c r="A363" s="1">
+        <v>0</v>
+      </c>
       <c r="B363" s="1" t="str" cm="1">
         <f t="array" ref="B363">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A363)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7421,7 +8145,9 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1"/>
+      <c r="A364" s="1">
+        <v>0</v>
+      </c>
       <c r="B364" s="1" t="str" cm="1">
         <f t="array" ref="B364">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A364)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7440,7 +8166,9 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
+      <c r="A365" s="1">
+        <v>0</v>
+      </c>
       <c r="B365" s="1" t="str" cm="1">
         <f t="array" ref="B365">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A365)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7459,7 +8187,9 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1"/>
+      <c r="A366" s="1">
+        <v>0</v>
+      </c>
       <c r="B366" s="1" t="str" cm="1">
         <f t="array" ref="B366">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A366)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7478,7 +8208,9 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
+      <c r="A367" s="1">
+        <v>0</v>
+      </c>
       <c r="B367" s="1" t="str" cm="1">
         <f t="array" ref="B367">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A367)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7497,7 +8229,9 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
+      <c r="A368" s="1">
+        <v>0</v>
+      </c>
       <c r="B368" s="1" t="str" cm="1">
         <f t="array" ref="B368">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A368)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7516,7 +8250,9 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
+      <c r="A369" s="1">
+        <v>1</v>
+      </c>
       <c r="B369" s="1" t="str" cm="1">
         <f t="array" ref="B369">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A369)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7535,7 +8271,9 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
+      <c r="A370" s="1">
+        <v>0</v>
+      </c>
       <c r="B370" s="1" t="str" cm="1">
         <f t="array" ref="B370">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A370)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7554,7 +8292,9 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
+      <c r="A371" s="1">
+        <v>0</v>
+      </c>
       <c r="B371" s="1" t="str" cm="1">
         <f t="array" ref="B371">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A371)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7573,7 +8313,9 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
+      <c r="A372" s="1">
+        <v>0</v>
+      </c>
       <c r="B372" s="1" t="str" cm="1">
         <f t="array" ref="B372">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A372)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7592,7 +8334,9 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
+      <c r="A373" s="1">
+        <v>0</v>
+      </c>
       <c r="B373" s="1" t="str" cm="1">
         <f t="array" ref="B373">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A373)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7611,7 +8355,9 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
+      <c r="A374" s="1">
+        <v>1</v>
+      </c>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7630,7 +8376,9 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
+      <c r="A375" s="1">
+        <v>1</v>
+      </c>
       <c r="B375" s="1" t="str" cm="1">
         <f t="array" ref="B375">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A375)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7649,7 +8397,9 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
+      <c r="A376" s="1">
+        <v>1</v>
+      </c>
       <c r="B376" s="1" t="str" cm="1">
         <f t="array" ref="B376">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A376)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7668,7 +8418,9 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
+      <c r="A377" s="1">
+        <v>0</v>
+      </c>
       <c r="B377" s="1" t="str" cm="1">
         <f t="array" ref="B377">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A377)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7687,7 +8439,9 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1"/>
+      <c r="A378" s="1">
+        <v>0</v>
+      </c>
       <c r="B378" s="1" t="str" cm="1">
         <f t="array" ref="B378">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A378)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7706,7 +8460,9 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
+      <c r="A379" s="1">
+        <v>0</v>
+      </c>
       <c r="B379" s="1" t="str" cm="1">
         <f t="array" ref="B379">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A379)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7725,7 +8481,9 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1"/>
+      <c r="A380" s="1">
+        <v>0</v>
+      </c>
       <c r="B380" s="1" t="str" cm="1">
         <f t="array" ref="B380">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A380)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7744,7 +8502,9 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="1"/>
+      <c r="A381" s="1">
+        <v>0</v>
+      </c>
       <c r="B381" s="1" t="str" cm="1">
         <f t="array" ref="B381">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A381)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7763,7 +8523,9 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1"/>
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
       <c r="B382" s="1" t="str" cm="1">
         <f t="array" ref="B382">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A382)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7782,7 +8544,9 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
       <c r="B383" s="1" t="str" cm="1">
         <f t="array" ref="B383">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A383)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7801,7 +8565,9 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="1"/>
+      <c r="A384" s="1">
+        <v>0</v>
+      </c>
       <c r="B384" s="1" t="str" cm="1">
         <f t="array" ref="B384">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A384)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7820,7 +8586,9 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
+      <c r="A385" s="1">
+        <v>0</v>
+      </c>
       <c r="B385" s="1" t="str" cm="1">
         <f t="array" ref="B385">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A385)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7839,7 +8607,9 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
+      <c r="A386" s="1">
+        <v>0</v>
+      </c>
       <c r="B386" s="1" t="str" cm="1">
         <f t="array" ref="B386">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A386)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7858,7 +8628,9 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
+      <c r="A387" s="1">
+        <v>0</v>
+      </c>
       <c r="B387" s="1" t="str" cm="1">
         <f t="array" ref="B387">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A387)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7877,7 +8649,9 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="1"/>
+      <c r="A388" s="1">
+        <v>0</v>
+      </c>
       <c r="B388" s="1" t="str" cm="1">
         <f t="array" ref="B388">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A388)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7896,7 +8670,9 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="1"/>
+      <c r="A389" s="1">
+        <v>1</v>
+      </c>
       <c r="B389" s="1" t="str" cm="1">
         <f t="array" ref="B389">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A389)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7915,7 +8691,9 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>1</v>
+      </c>
       <c r="B390" s="1" t="str" cm="1">
         <f t="array" ref="B390">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A390)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7934,7 +8712,9 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1"/>
+      <c r="A391" s="1">
+        <v>0</v>
+      </c>
       <c r="B391" s="1" t="str" cm="1">
         <f t="array" ref="B391">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A391)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7953,7 +8733,9 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>0</v>
+      </c>
       <c r="B392" s="1" t="str" cm="1">
         <f t="array" ref="B392">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A392)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7972,7 +8754,9 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>0</v>
+      </c>
       <c r="B393" s="1" t="str" cm="1">
         <f t="array" ref="B393">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A393)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7991,7 +8775,9 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
+      <c r="A394" s="1">
+        <v>0</v>
+      </c>
       <c r="B394" s="1" t="str" cm="1">
         <f t="array" ref="B394">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A394)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8010,7 +8796,9 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
+      <c r="A395" s="1">
+        <v>0</v>
+      </c>
       <c r="B395" s="1" t="str" cm="1">
         <f t="array" ref="B395">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A395)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8029,7 +8817,9 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
+      <c r="A396" s="1">
+        <v>1</v>
+      </c>
       <c r="B396" s="1" t="str" cm="1">
         <f t="array" ref="B396">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A396)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8048,7 +8838,9 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
+      <c r="A397" s="1">
+        <v>0</v>
+      </c>
       <c r="B397" s="1" t="str" cm="1">
         <f t="array" ref="B397">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A397)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8067,7 +8859,9 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1">
+        <v>0</v>
+      </c>
       <c r="B398" s="1" t="str" cm="1">
         <f t="array" ref="B398">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A398)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8086,7 +8880,9 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
+      <c r="A399" s="1">
+        <v>0</v>
+      </c>
       <c r="B399" s="1" t="str" cm="1">
         <f t="array" ref="B399">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A399)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8105,7 +8901,9 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
+      <c r="A400" s="1">
+        <v>0</v>
+      </c>
       <c r="B400" s="1" t="str" cm="1">
         <f t="array" ref="B400">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A400)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8124,7 +8922,9 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
+      <c r="A401" s="1">
+        <v>0</v>
+      </c>
       <c r="B401" s="1" t="str" cm="1">
         <f t="array" ref="B401">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A401)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8143,7 +8943,9 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
+      <c r="A402" s="1">
+        <v>0</v>
+      </c>
       <c r="B402" s="1" t="str" cm="1">
         <f t="array" ref="B402">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A402)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8162,7 +8964,9 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
+      <c r="A403" s="1">
+        <v>0</v>
+      </c>
       <c r="B403" s="1" t="str" cm="1">
         <f t="array" ref="B403">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A403)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8181,7 +8985,9 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
+      <c r="A404" s="1">
+        <v>0</v>
+      </c>
       <c r="B404" s="1" t="str" cm="1">
         <f t="array" ref="B404">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A404)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8200,7 +9006,9 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
+      <c r="A405" s="1">
+        <v>0</v>
+      </c>
       <c r="B405" s="1" t="str" cm="1">
         <f t="array" ref="B405">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A405)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8219,7 +9027,9 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
+      <c r="A406" s="1">
+        <v>0</v>
+      </c>
       <c r="B406" s="1" t="str" cm="1">
         <f t="array" ref="B406">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A406)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8238,7 +9048,9 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
+      <c r="A407" s="1">
+        <v>0</v>
+      </c>
       <c r="B407" s="1" t="str" cm="1">
         <f t="array" ref="B407">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A407)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8257,7 +9069,9 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
+      <c r="A408" s="1">
+        <v>1</v>
+      </c>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8276,7 +9090,9 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
+      <c r="A409" s="1">
+        <v>0</v>
+      </c>
       <c r="B409" s="1" t="str" cm="1">
         <f t="array" ref="B409">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A409)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8295,7 +9111,9 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
+      <c r="A410" s="1">
+        <v>0</v>
+      </c>
       <c r="B410" s="1" t="str" cm="1">
         <f t="array" ref="B410">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A410)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8314,7 +9132,9 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
+      <c r="A411" s="1">
+        <v>0</v>
+      </c>
       <c r="B411" s="1" t="str" cm="1">
         <f t="array" ref="B411">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A411)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8333,7 +9153,9 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
+      <c r="A412" s="1">
+        <v>0</v>
+      </c>
       <c r="B412" s="1" t="str" cm="1">
         <f t="array" ref="B412">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A412)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8352,7 +9174,9 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
+      <c r="A413" s="1">
+        <v>0</v>
+      </c>
       <c r="B413" s="1" t="str" cm="1">
         <f t="array" ref="B413">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A413)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8371,7 +9195,9 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
+      <c r="A414" s="1">
+        <v>0</v>
+      </c>
       <c r="B414" s="1" t="str" cm="1">
         <f t="array" ref="B414">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A414)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8390,7 +9216,9 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
+      <c r="A415" s="1">
+        <v>1</v>
+      </c>
       <c r="B415" s="1" t="str" cm="1">
         <f t="array" ref="B415">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A415)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8409,7 +9237,9 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
+      <c r="A416" s="1">
+        <v>1</v>
+      </c>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8428,7 +9258,9 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="1"/>
+      <c r="A417" s="1">
+        <v>1</v>
+      </c>
       <c r="B417" s="1" t="str" cm="1">
         <f t="array" ref="B417">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A417)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8447,7 +9279,9 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
+      <c r="A418" s="1">
+        <v>0</v>
+      </c>
       <c r="B418" s="1" t="str" cm="1">
         <f t="array" ref="B418">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A418)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8466,7 +9300,9 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="1"/>
+      <c r="A419" s="1">
+        <v>0</v>
+      </c>
       <c r="B419" s="1" t="str" cm="1">
         <f t="array" ref="B419">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A419)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8485,7 +9321,9 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="1"/>
+      <c r="A420" s="1">
+        <v>0</v>
+      </c>
       <c r="B420" s="1" t="str" cm="1">
         <f t="array" ref="B420">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A420)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8504,7 +9342,9 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
+      <c r="A421" s="1">
+        <v>0</v>
+      </c>
       <c r="B421" s="1" t="str" cm="1">
         <f t="array" ref="B421">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A421)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8523,7 +9363,9 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1">
+        <v>1</v>
+      </c>
       <c r="B422" s="1" t="str" cm="1">
         <f t="array" ref="B422">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A422)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8542,7 +9384,9 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
+      <c r="A423" s="1">
+        <v>1</v>
+      </c>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8561,7 +9405,9 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="1"/>
+      <c r="A424" s="1">
+        <v>0</v>
+      </c>
       <c r="B424" s="1" t="str" cm="1">
         <f t="array" ref="B424">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A424)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8580,7 +9426,9 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
+      <c r="A425" s="1">
+        <v>0</v>
+      </c>
       <c r="B425" s="1" t="str" cm="1">
         <f t="array" ref="B425">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A425)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8599,7 +9447,9 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="1"/>
+      <c r="A426" s="1">
+        <v>0</v>
+      </c>
       <c r="B426" s="1" t="str" cm="1">
         <f t="array" ref="B426">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A426)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8618,7 +9468,9 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="1"/>
+      <c r="A427" s="1">
+        <v>0</v>
+      </c>
       <c r="B427" s="1" t="str" cm="1">
         <f t="array" ref="B427">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A427)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8637,7 +9489,9 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="1"/>
+      <c r="A428" s="1">
+        <v>0</v>
+      </c>
       <c r="B428" s="1" t="str" cm="1">
         <f t="array" ref="B428">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A428)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8656,7 +9510,9 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
+      <c r="A429" s="1">
+        <v>0</v>
+      </c>
       <c r="B429" s="1" t="str" cm="1">
         <f t="array" ref="B429">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A429)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8675,7 +9531,9 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
+      <c r="A430" s="1">
+        <v>0</v>
+      </c>
       <c r="B430" s="1" t="str" cm="1">
         <f t="array" ref="B430">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A430)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8694,7 +9552,9 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
+      <c r="A431" s="1">
+        <v>0</v>
+      </c>
       <c r="B431" s="1" t="str" cm="1">
         <f t="array" ref="B431">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A431)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8713,7 +9573,9 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
+      <c r="A432" s="1">
+        <v>0</v>
+      </c>
       <c r="B432" s="1" t="str" cm="1">
         <f t="array" ref="B432">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A432)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8732,7 +9594,9 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
+      <c r="A433" s="1">
+        <v>1</v>
+      </c>
       <c r="B433" s="1" t="str" cm="1">
         <f t="array" ref="B433">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A433)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8751,7 +9615,9 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="1"/>
+      <c r="A434" s="1">
+        <v>0</v>
+      </c>
       <c r="B434" s="1" t="str" cm="1">
         <f t="array" ref="B434">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A434)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8770,7 +9636,9 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="1"/>
+      <c r="A435" s="1">
+        <v>0</v>
+      </c>
       <c r="B435" s="1" t="str" cm="1">
         <f t="array" ref="B435">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A435)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8789,7 +9657,9 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="1"/>
+      <c r="A436" s="1">
+        <v>1</v>
+      </c>
       <c r="B436" s="1" t="str" cm="1">
         <f t="array" ref="B436">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A436)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8808,7 +9678,9 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="1"/>
+      <c r="A437" s="1">
+        <v>1</v>
+      </c>
       <c r="B437" s="1" t="str" cm="1">
         <f t="array" ref="B437">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A437)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8827,7 +9699,9 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
+      <c r="A438" s="1">
+        <v>0</v>
+      </c>
       <c r="B438" s="1" t="str" cm="1">
         <f t="array" ref="B438">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A438)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8846,7 +9720,9 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
+      <c r="A439" s="1">
+        <v>0</v>
+      </c>
       <c r="B439" s="1" t="str" cm="1">
         <f t="array" ref="B439">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A439)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8865,7 +9741,9 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="1"/>
+      <c r="A440" s="1">
+        <v>0</v>
+      </c>
       <c r="B440" s="1" t="str" cm="1">
         <f t="array" ref="B440">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A440)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8884,7 +9762,9 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
+      <c r="A441" s="1">
+        <v>1</v>
+      </c>
       <c r="B441" s="1" t="str" cm="1">
         <f t="array" ref="B441">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A441)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8903,7 +9783,9 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="1"/>
+      <c r="A442" s="1">
+        <v>0</v>
+      </c>
       <c r="B442" s="1" t="str" cm="1">
         <f t="array" ref="B442">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A442)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8922,7 +9804,9 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="1"/>
+      <c r="A443" s="1">
+        <v>0</v>
+      </c>
       <c r="B443" s="1" t="str" cm="1">
         <f t="array" ref="B443">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A443)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8941,7 +9825,9 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="1"/>
+      <c r="A444" s="1">
+        <v>0</v>
+      </c>
       <c r="B444" s="1" t="str" cm="1">
         <f t="array" ref="B444">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A444)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8960,7 +9846,9 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
+      <c r="A445" s="1">
+        <v>0</v>
+      </c>
       <c r="B445" s="1" t="str" cm="1">
         <f t="array" ref="B445">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A445)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8979,7 +9867,9 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="1"/>
+      <c r="A446" s="1">
+        <v>0</v>
+      </c>
       <c r="B446" s="1" t="str" cm="1">
         <f t="array" ref="B446">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A446)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8998,7 +9888,9 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="1"/>
+      <c r="A447" s="1">
+        <v>0</v>
+      </c>
       <c r="B447" s="1" t="str" cm="1">
         <f t="array" ref="B447">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A447)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9017,7 +9909,9 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="1"/>
+      <c r="A448" s="1">
+        <v>0</v>
+      </c>
       <c r="B448" s="1" t="str" cm="1">
         <f t="array" ref="B448">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A448)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9036,7 +9930,9 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="1"/>
+      <c r="A449" s="1">
+        <v>1</v>
+      </c>
       <c r="B449" s="1" t="str" cm="1">
         <f t="array" ref="B449">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A449)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9055,7 +9951,9 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="1"/>
+      <c r="A450" s="1">
+        <v>0</v>
+      </c>
       <c r="B450" s="1" t="str" cm="1">
         <f t="array" ref="B450">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A450)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9074,7 +9972,9 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1"/>
+      <c r="A451" s="1">
+        <v>0</v>
+      </c>
       <c r="B451" s="1" t="str" cm="1">
         <f t="array" ref="B451">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A451)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9093,7 +9993,9 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="1"/>
+      <c r="A452" s="1">
+        <v>0</v>
+      </c>
       <c r="B452" s="1" t="str" cm="1">
         <f t="array" ref="B452">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A452)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9112,7 +10014,9 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="1"/>
+      <c r="A453" s="1">
+        <v>0</v>
+      </c>
       <c r="B453" s="1" t="str" cm="1">
         <f t="array" ref="B453">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A453)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9131,7 +10035,9 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="1"/>
+      <c r="A454" s="1">
+        <v>0</v>
+      </c>
       <c r="B454" s="1" t="str" cm="1">
         <f t="array" ref="B454">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A454)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9150,7 +10056,9 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="1"/>
+      <c r="A455" s="1">
+        <v>0</v>
+      </c>
       <c r="B455" s="1" t="str" cm="1">
         <f t="array" ref="B455">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A455)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9169,7 +10077,9 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="1"/>
+      <c r="A456" s="1">
+        <v>0</v>
+      </c>
       <c r="B456" s="1" t="str" cm="1">
         <f t="array" ref="B456">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A456)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9188,7 +10098,9 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1"/>
+      <c r="A457" s="1">
+        <v>0</v>
+      </c>
       <c r="B457" s="1" t="str" cm="1">
         <f t="array" ref="B457">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A457)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9207,7 +10119,9 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="1"/>
+      <c r="A458" s="1">
+        <v>0</v>
+      </c>
       <c r="B458" s="1" t="str" cm="1">
         <f t="array" ref="B458">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A458)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9226,7 +10140,9 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="1"/>
+      <c r="A459" s="1">
+        <v>0</v>
+      </c>
       <c r="B459" s="1" t="str" cm="1">
         <f t="array" ref="B459">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A459)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9245,7 +10161,9 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="1"/>
+      <c r="A460" s="1">
+        <v>0</v>
+      </c>
       <c r="B460" s="1" t="str" cm="1">
         <f t="array" ref="B460">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A460)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9264,7 +10182,9 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="1"/>
+      <c r="A461" s="1">
+        <v>0</v>
+      </c>
       <c r="B461" s="1" t="str" cm="1">
         <f t="array" ref="B461">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A461)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9283,7 +10203,9 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="1"/>
+      <c r="A462" s="1">
+        <v>0</v>
+      </c>
       <c r="B462" s="1" t="str" cm="1">
         <f t="array" ref="B462">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A462)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9302,7 +10224,9 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="1"/>
+      <c r="A463" s="1">
+        <v>1</v>
+      </c>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9321,7 +10245,9 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="1"/>
+      <c r="A464" s="1">
+        <v>0</v>
+      </c>
       <c r="B464" s="1" t="str" cm="1">
         <f t="array" ref="B464">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A464)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9340,7 +10266,9 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="1"/>
+      <c r="A465" s="1">
+        <v>0</v>
+      </c>
       <c r="B465" s="1" t="str" cm="1">
         <f t="array" ref="B465">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A465)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9359,7 +10287,9 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="1"/>
+      <c r="A466" s="1">
+        <v>0</v>
+      </c>
       <c r="B466" s="1" t="str" cm="1">
         <f t="array" ref="B466">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A466)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9378,7 +10308,9 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="1"/>
+      <c r="A467" s="1">
+        <v>0</v>
+      </c>
       <c r="B467" s="1" t="str" cm="1">
         <f t="array" ref="B467">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A467)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9397,7 +10329,9 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="1"/>
+      <c r="A468" s="1">
+        <v>0</v>
+      </c>
       <c r="B468" s="1" t="str" cm="1">
         <f t="array" ref="B468">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A468)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9416,7 +10350,9 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="1"/>
+      <c r="A469" s="1">
+        <v>0</v>
+      </c>
       <c r="B469" s="1" t="str" cm="1">
         <f t="array" ref="B469">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A469)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9435,7 +10371,9 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="1"/>
+      <c r="A470" s="1">
+        <v>0</v>
+      </c>
       <c r="B470" s="1" t="str" cm="1">
         <f t="array" ref="B470">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A470)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9454,7 +10392,9 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1"/>
+      <c r="A471" s="1">
+        <v>0</v>
+      </c>
       <c r="B471" s="1" t="str" cm="1">
         <f t="array" ref="B471">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A471)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9473,7 +10413,9 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="1"/>
+      <c r="A472" s="1">
+        <v>0</v>
+      </c>
       <c r="B472" s="1" t="str" cm="1">
         <f t="array" ref="B472">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A472)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9492,7 +10434,9 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="1"/>
+      <c r="A473" s="1">
+        <v>1</v>
+      </c>
       <c r="B473" s="1" t="str" cm="1">
         <f t="array" ref="B473">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A473)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9511,7 +10455,9 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="1"/>
+      <c r="A474" s="1">
+        <v>0</v>
+      </c>
       <c r="B474" s="1" t="str" cm="1">
         <f t="array" ref="B474">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A474)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9530,7 +10476,9 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="1"/>
+      <c r="A475" s="1">
+        <v>1</v>
+      </c>
       <c r="B475" s="1" t="str" cm="1">
         <f t="array" ref="B475">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A475)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9549,7 +10497,9 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="1"/>
+      <c r="A476" s="1">
+        <v>0</v>
+      </c>
       <c r="B476" s="1" t="str" cm="1">
         <f t="array" ref="B476">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A476)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9568,7 +10518,9 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
+      <c r="A477" s="1">
+        <v>1</v>
+      </c>
       <c r="B477" s="1" t="str" cm="1">
         <f t="array" ref="B477">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A477)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9587,7 +10539,9 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="1"/>
+      <c r="A478" s="1">
+        <v>0</v>
+      </c>
       <c r="B478" s="1" t="str" cm="1">
         <f t="array" ref="B478">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A478)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9606,7 +10560,9 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="1"/>
+      <c r="A479" s="1">
+        <v>0</v>
+      </c>
       <c r="B479" s="1" t="str" cm="1">
         <f t="array" ref="B479">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A479)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9625,7 +10581,9 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="1"/>
+      <c r="A480" s="1">
+        <v>0</v>
+      </c>
       <c r="B480" s="1" t="str" cm="1">
         <f t="array" ref="B480">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A480)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9644,7 +10602,9 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="1"/>
+      <c r="A481" s="1">
+        <v>0</v>
+      </c>
       <c r="B481" s="1" t="str" cm="1">
         <f t="array" ref="B481">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A481)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9663,7 +10623,9 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="1"/>
+      <c r="A482" s="1">
+        <v>0</v>
+      </c>
       <c r="B482" s="1" t="str" cm="1">
         <f t="array" ref="B482">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A482)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9682,7 +10644,9 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="1"/>
+      <c r="A483" s="1">
+        <v>1</v>
+      </c>
       <c r="B483" s="1" t="str" cm="1">
         <f t="array" ref="B483">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A483)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9701,7 +10665,9 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="1"/>
+      <c r="A484" s="1">
+        <v>0</v>
+      </c>
       <c r="B484" s="1" t="str" cm="1">
         <f t="array" ref="B484">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A484)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9720,7 +10686,9 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="1"/>
+      <c r="A485" s="1">
+        <v>0</v>
+      </c>
       <c r="B485" s="1" t="str" cm="1">
         <f t="array" ref="B485">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A485)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9739,7 +10707,9 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
+      <c r="A486" s="1">
+        <v>0</v>
+      </c>
       <c r="B486" s="1" t="str" cm="1">
         <f t="array" ref="B486">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A486)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9758,7 +10728,9 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="1"/>
+      <c r="A487" s="1">
+        <v>0</v>
+      </c>
       <c r="B487" s="1" t="str" cm="1">
         <f t="array" ref="B487">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A487)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9777,7 +10749,9 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="1"/>
+      <c r="A488" s="1">
+        <v>0</v>
+      </c>
       <c r="B488" s="1" t="str" cm="1">
         <f t="array" ref="B488">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A488)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9796,7 +10770,9 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="1"/>
+      <c r="A489" s="1">
+        <v>1</v>
+      </c>
       <c r="B489" s="1" t="str" cm="1">
         <f t="array" ref="B489">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A489)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9815,7 +10791,9 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="1"/>
+      <c r="A490" s="1">
+        <v>0</v>
+      </c>
       <c r="B490" s="1" t="str" cm="1">
         <f t="array" ref="B490">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A490)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9834,7 +10812,9 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="1"/>
+      <c r="A491" s="1">
+        <v>1</v>
+      </c>
       <c r="B491" s="1" t="str" cm="1">
         <f t="array" ref="B491">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A491)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9853,7 +10833,9 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="1"/>
+      <c r="A492" s="1">
+        <v>0</v>
+      </c>
       <c r="B492" s="1" t="str" cm="1">
         <f t="array" ref="B492">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A492)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9872,7 +10854,9 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="1"/>
+      <c r="A493" s="1">
+        <v>0</v>
+      </c>
       <c r="B493" s="1" t="str" cm="1">
         <f t="array" ref="B493">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A493)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9891,7 +10875,9 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="1"/>
+      <c r="A494" s="1">
+        <v>0</v>
+      </c>
       <c r="B494" s="1" t="str" cm="1">
         <f t="array" ref="B494">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A494)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9910,7 +10896,9 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="1"/>
+      <c r="A495" s="1">
+        <v>0</v>
+      </c>
       <c r="B495" s="1" t="str" cm="1">
         <f t="array" ref="B495">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A495)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9929,7 +10917,9 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="1"/>
+      <c r="A496" s="1">
+        <v>1</v>
+      </c>
       <c r="B496" s="1" t="str" cm="1">
         <f t="array" ref="B496">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A496)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9948,7 +10938,9 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="1"/>
+      <c r="A497" s="1">
+        <v>1</v>
+      </c>
       <c r="B497" s="1" t="str" cm="1">
         <f t="array" ref="B497">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A497)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9967,7 +10959,9 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="1"/>
+      <c r="A498" s="1">
+        <v>0</v>
+      </c>
       <c r="B498" s="1" t="str" cm="1">
         <f t="array" ref="B498">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A498)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9986,7 +10980,9 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="1"/>
+      <c r="A499" s="1">
+        <v>0</v>
+      </c>
       <c r="B499" s="1" t="str" cm="1">
         <f t="array" ref="B499">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A499)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10005,7 +11001,9 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="1"/>
+      <c r="A500" s="1">
+        <v>0</v>
+      </c>
       <c r="B500" s="1" t="str" cm="1">
         <f t="array" ref="B500">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A500)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10024,7 +11022,9 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="1"/>
+      <c r="A501" s="1">
+        <v>0</v>
+      </c>
       <c r="B501" s="1" t="str" cm="1">
         <f t="array" ref="B501">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A501)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10043,7 +11043,9 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="1"/>
+      <c r="A502" s="1">
+        <v>1</v>
+      </c>
       <c r="B502" s="1" t="str" cm="1">
         <f t="array" ref="B502">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A502)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10062,7 +11064,9 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="1"/>
+      <c r="A503" s="1">
+        <v>0</v>
+      </c>
       <c r="B503" s="1" t="str" cm="1">
         <f t="array" ref="B503">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A503)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10081,7 +11085,9 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="1"/>
+      <c r="A504" s="1">
+        <v>1</v>
+      </c>
       <c r="B504" s="1" t="str" cm="1">
         <f t="array" ref="B504">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A504)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10100,7 +11106,9 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="1"/>
+      <c r="A505" s="1">
+        <v>1</v>
+      </c>
       <c r="B505" s="1" t="str" cm="1">
         <f t="array" ref="B505">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A505)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10119,7 +11127,9 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="1"/>
+      <c r="A506" s="1">
+        <v>0</v>
+      </c>
       <c r="B506" s="1" t="str" cm="1">
         <f t="array" ref="B506">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A506)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10138,7 +11148,9 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="1"/>
+      <c r="A507" s="1">
+        <v>0</v>
+      </c>
       <c r="B507" s="1" t="str" cm="1">
         <f t="array" ref="B507">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A507)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10157,7 +11169,9 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="1"/>
+      <c r="A508" s="1">
+        <v>0</v>
+      </c>
       <c r="B508" s="1" t="str" cm="1">
         <f t="array" ref="B508">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A508)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10176,7 +11190,9 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="1"/>
+      <c r="A509" s="1">
+        <v>0</v>
+      </c>
       <c r="B509" s="1" t="str" cm="1">
         <f t="array" ref="B509">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A509)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10195,7 +11211,9 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="1"/>
+      <c r="A510" s="1">
+        <v>0</v>
+      </c>
       <c r="B510" s="1" t="str" cm="1">
         <f t="array" ref="B510">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A510)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10214,7 +11232,9 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="1"/>
+      <c r="A511" s="1">
+        <v>0</v>
+      </c>
       <c r="B511" s="1" t="str" cm="1">
         <f t="array" ref="B511">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A511)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10233,7 +11253,9 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="1"/>
+      <c r="A512" s="1">
+        <v>0</v>
+      </c>
       <c r="B512" s="1" t="str" cm="1">
         <f t="array" ref="B512">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A512)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10252,7 +11274,9 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="1"/>
+      <c r="A513" s="1">
+        <v>0</v>
+      </c>
       <c r="B513" s="1" t="str" cm="1">
         <f t="array" ref="B513">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A513)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10271,7 +11295,9 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="1"/>
+      <c r="A514" s="1">
+        <v>0</v>
+      </c>
       <c r="B514" s="1" t="str" cm="1">
         <f t="array" ref="B514">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A514)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10290,7 +11316,9 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="1"/>
+      <c r="A515" s="1">
+        <v>0</v>
+      </c>
       <c r="B515" s="1" t="str" cm="1">
         <f t="array" ref="B515">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A515)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10309,7 +11337,9 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
+      <c r="A516" s="1">
+        <v>0</v>
+      </c>
       <c r="B516" s="1" t="str" cm="1">
         <f t="array" ref="B516">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A516)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10328,7 +11358,9 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="1"/>
+      <c r="A517" s="1">
+        <v>1</v>
+      </c>
       <c r="B517" s="1" t="str" cm="1">
         <f t="array" ref="B517">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A517)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10347,7 +11379,9 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="1"/>
+      <c r="A518" s="1">
+        <v>0</v>
+      </c>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10366,7 +11400,9 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
+      <c r="A519" s="1">
+        <v>0</v>
+      </c>
       <c r="B519" s="1" t="str" cm="1">
         <f t="array" ref="B519">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A519)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10385,7 +11421,9 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
+      <c r="A520" s="1">
+        <v>0</v>
+      </c>
       <c r="B520" s="1" t="str" cm="1">
         <f t="array" ref="B520">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A520)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10404,7 +11442,9 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="1"/>
+      <c r="A521" s="1">
+        <v>0</v>
+      </c>
       <c r="B521" s="1" t="str" cm="1">
         <f t="array" ref="B521">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A521)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10423,7 +11463,9 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="1"/>
+      <c r="A522" s="1">
+        <v>0</v>
+      </c>
       <c r="B522" s="1" t="str" cm="1">
         <f t="array" ref="B522">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A522)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10442,7 +11484,9 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
+      <c r="A523" s="1">
+        <v>0</v>
+      </c>
       <c r="B523" s="1" t="str" cm="1">
         <f t="array" ref="B523">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A523)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10461,7 +11505,9 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="1"/>
+      <c r="A524" s="1">
+        <v>0</v>
+      </c>
       <c r="B524" s="1" t="str" cm="1">
         <f t="array" ref="B524">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A524)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10480,7 +11526,9 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="1"/>
+      <c r="A525" s="1">
+        <v>1</v>
+      </c>
       <c r="B525" s="1" t="str" cm="1">
         <f t="array" ref="B525">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A525)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10499,7 +11547,9 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="1"/>
+      <c r="A526" s="1">
+        <v>0</v>
+      </c>
       <c r="B526" s="1" t="str" cm="1">
         <f t="array" ref="B526">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A526)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10518,7 +11568,9 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="1"/>
+      <c r="A527" s="1">
+        <v>0</v>
+      </c>
       <c r="B527" s="1" t="str" cm="1">
         <f t="array" ref="B527">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A527)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10537,7 +11589,9 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="1"/>
+      <c r="A528" s="1">
+        <v>1</v>
+      </c>
       <c r="B528" s="1" t="str" cm="1">
         <f t="array" ref="B528">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A528)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10556,7 +11610,9 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="1"/>
+      <c r="A529" s="1">
+        <v>0</v>
+      </c>
       <c r="B529" s="1" t="str" cm="1">
         <f t="array" ref="B529">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A529)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10575,7 +11631,9 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="1"/>
+      <c r="A530" s="1">
+        <v>1</v>
+      </c>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10594,7 +11652,9 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="1"/>
+      <c r="A531" s="1">
+        <v>0</v>
+      </c>
       <c r="B531" s="1" t="str" cm="1">
         <f t="array" ref="B531">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A531)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10613,7 +11673,9 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="1"/>
+      <c r="A532" s="1">
+        <v>0</v>
+      </c>
       <c r="B532" s="1" t="str" cm="1">
         <f t="array" ref="B532">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A532)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10632,7 +11694,9 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="1"/>
+      <c r="A533" s="1">
+        <v>0</v>
+      </c>
       <c r="B533" s="1" t="str" cm="1">
         <f t="array" ref="B533">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A533)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10651,7 +11715,9 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="1"/>
+      <c r="A534" s="1">
+        <v>0</v>
+      </c>
       <c r="B534" s="1" t="str" cm="1">
         <f t="array" ref="B534">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A534)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10670,7 +11736,9 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="1"/>
+      <c r="A535" s="1">
+        <v>1</v>
+      </c>
       <c r="B535" s="1" t="str" cm="1">
         <f t="array" ref="B535">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A535)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10689,7 +11757,9 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="1"/>
+      <c r="A536" s="1">
+        <v>1</v>
+      </c>
       <c r="B536" s="1" t="str" cm="1">
         <f t="array" ref="B536">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A536)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10708,7 +11778,9 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="1"/>
+      <c r="A537" s="1">
+        <v>0</v>
+      </c>
       <c r="B537" s="1" t="str" cm="1">
         <f t="array" ref="B537">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A537)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10727,7 +11799,9 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="1"/>
+      <c r="A538" s="1">
+        <v>0</v>
+      </c>
       <c r="B538" s="1" t="str" cm="1">
         <f t="array" ref="B538">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A538)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10746,7 +11820,9 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="1"/>
+      <c r="A539" s="1">
+        <v>0</v>
+      </c>
       <c r="B539" s="1" t="str" cm="1">
         <f t="array" ref="B539">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A539)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10765,7 +11841,9 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="1"/>
+      <c r="A540" s="1">
+        <v>0</v>
+      </c>
       <c r="B540" s="1" t="str" cm="1">
         <f t="array" ref="B540">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A540)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10784,7 +11862,9 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="1"/>
+      <c r="A541" s="1">
+        <v>0</v>
+      </c>
       <c r="B541" s="1" t="str" cm="1">
         <f t="array" ref="B541">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A541)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10803,7 +11883,9 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="1"/>
+      <c r="A542" s="1">
+        <v>1</v>
+      </c>
       <c r="B542" s="1" t="str" cm="1">
         <f t="array" ref="B542">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A542)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10822,7 +11904,9 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="1"/>
+      <c r="A543" s="1">
+        <v>0</v>
+      </c>
       <c r="B543" s="1" t="str" cm="1">
         <f t="array" ref="B543">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A543)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10841,7 +11925,9 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="1"/>
+      <c r="A544" s="1">
+        <v>1</v>
+      </c>
       <c r="B544" s="1" t="str" cm="1">
         <f t="array" ref="B544">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A544)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10860,7 +11946,9 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" s="1"/>
+      <c r="A545" s="1">
+        <v>1</v>
+      </c>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10879,7 +11967,9 @@
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="1"/>
+      <c r="A546" s="1">
+        <v>0</v>
+      </c>
       <c r="B546" s="1" t="str" cm="1">
         <f t="array" ref="B546">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A546)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10898,7 +11988,9 @@
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="1"/>
+      <c r="A547" s="1">
+        <v>0</v>
+      </c>
       <c r="B547" s="1" t="str" cm="1">
         <f t="array" ref="B547">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A547)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10917,7 +12009,9 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="1"/>
+      <c r="A548" s="1">
+        <v>0</v>
+      </c>
       <c r="B548" s="1" t="str" cm="1">
         <f t="array" ref="B548">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A548)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10936,7 +12030,9 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="1"/>
+      <c r="A549" s="1">
+        <v>0</v>
+      </c>
       <c r="B549" s="1" t="str" cm="1">
         <f t="array" ref="B549">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A549)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10955,7 +12051,9 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="1"/>
+      <c r="A550" s="1">
+        <v>0</v>
+      </c>
       <c r="B550" s="1" t="str" cm="1">
         <f t="array" ref="B550">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A550)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10974,7 +12072,9 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="1"/>
+      <c r="A551" s="1">
+        <v>0</v>
+      </c>
       <c r="B551" s="1" t="str" cm="1">
         <f t="array" ref="B551">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A551)-2)/175)+1)</f>
         <v>4TO</v>
@@ -10993,7 +12093,9 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="1"/>
+      <c r="A552" s="1">
+        <v>0</v>
+      </c>
       <c r="B552" s="1" t="str" cm="1">
         <f t="array" ref="B552">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A552)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11012,7 +12114,9 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="1"/>
+      <c r="A553" s="1">
+        <v>0</v>
+      </c>
       <c r="B553" s="1" t="str" cm="1">
         <f t="array" ref="B553">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A553)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11031,7 +12135,9 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="1"/>
+      <c r="A554" s="1">
+        <v>0</v>
+      </c>
       <c r="B554" s="1" t="str" cm="1">
         <f t="array" ref="B554">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A554)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11050,7 +12156,9 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="1"/>
+      <c r="A555" s="1">
+        <v>0</v>
+      </c>
       <c r="B555" s="1" t="str" cm="1">
         <f t="array" ref="B555">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A555)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11069,7 +12177,9 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="1"/>
+      <c r="A556" s="1">
+        <v>0</v>
+      </c>
       <c r="B556" s="1" t="str" cm="1">
         <f t="array" ref="B556">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A556)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11088,7 +12198,9 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" s="1"/>
+      <c r="A557" s="1">
+        <v>0</v>
+      </c>
       <c r="B557" s="1" t="str" cm="1">
         <f t="array" ref="B557">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A557)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11107,7 +12219,9 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="1"/>
+      <c r="A558" s="1">
+        <v>0</v>
+      </c>
       <c r="B558" s="1" t="str" cm="1">
         <f t="array" ref="B558">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A558)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11126,7 +12240,9 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="1"/>
+      <c r="A559" s="1">
+        <v>0</v>
+      </c>
       <c r="B559" s="1" t="str" cm="1">
         <f t="array" ref="B559">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A559)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11145,7 +12261,9 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="1"/>
+      <c r="A560" s="1">
+        <v>0</v>
+      </c>
       <c r="B560" s="1" t="str" cm="1">
         <f t="array" ref="B560">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A560)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11164,7 +12282,9 @@
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
+      <c r="A561" s="1">
+        <v>0</v>
+      </c>
       <c r="B561" s="1" t="str" cm="1">
         <f t="array" ref="B561">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A561)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11183,7 +12303,9 @@
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="1"/>
+      <c r="A562" s="1">
+        <v>0</v>
+      </c>
       <c r="B562" s="1" t="str" cm="1">
         <f t="array" ref="B562">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A562)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11202,7 +12324,9 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="1"/>
+      <c r="A563" s="1">
+        <v>0</v>
+      </c>
       <c r="B563" s="1" t="str" cm="1">
         <f t="array" ref="B563">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A563)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11221,7 +12345,9 @@
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="1"/>
+      <c r="A564" s="1">
+        <v>0</v>
+      </c>
       <c r="B564" s="1" t="str" cm="1">
         <f t="array" ref="B564">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A564)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11240,7 +12366,9 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="1"/>
+      <c r="A565" s="1">
+        <v>0</v>
+      </c>
       <c r="B565" s="1" t="str" cm="1">
         <f t="array" ref="B565">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A565)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11259,7 +12387,9 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="1"/>
+      <c r="A566" s="1">
+        <v>0</v>
+      </c>
       <c r="B566" s="1" t="str" cm="1">
         <f t="array" ref="B566">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A566)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11278,7 +12408,9 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
+      <c r="A567" s="1">
+        <v>0</v>
+      </c>
       <c r="B567" s="1" t="str" cm="1">
         <f t="array" ref="B567">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A567)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11297,7 +12429,9 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="1"/>
+      <c r="A568" s="1">
+        <v>0</v>
+      </c>
       <c r="B568" s="1" t="str" cm="1">
         <f t="array" ref="B568">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A568)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11316,7 +12450,9 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="1"/>
+      <c r="A569" s="1">
+        <v>0</v>
+      </c>
       <c r="B569" s="1" t="str" cm="1">
         <f t="array" ref="B569">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A569)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11335,7 +12471,9 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="1"/>
+      <c r="A570" s="1">
+        <v>0</v>
+      </c>
       <c r="B570" s="1" t="str" cm="1">
         <f t="array" ref="B570">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A570)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11354,7 +12492,9 @@
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="1"/>
+      <c r="A571" s="1">
+        <v>0</v>
+      </c>
       <c r="B571" s="1" t="str" cm="1">
         <f t="array" ref="B571">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A571)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11373,7 +12513,9 @@
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="1"/>
+      <c r="A572" s="1">
+        <v>0</v>
+      </c>
       <c r="B572" s="1" t="str" cm="1">
         <f t="array" ref="B572">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A572)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11392,7 +12534,9 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="1"/>
+      <c r="A573" s="1">
+        <v>0</v>
+      </c>
       <c r="B573" s="1" t="str" cm="1">
         <f t="array" ref="B573">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A573)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11411,7 +12555,9 @@
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="1"/>
+      <c r="A574" s="1">
+        <v>0</v>
+      </c>
       <c r="B574" s="1" t="str" cm="1">
         <f t="array" ref="B574">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A574)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11430,7 +12576,9 @@
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="1"/>
+      <c r="A575" s="1">
+        <v>0</v>
+      </c>
       <c r="B575" s="1" t="str" cm="1">
         <f t="array" ref="B575">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A575)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11449,7 +12597,9 @@
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="1"/>
+      <c r="A576" s="1">
+        <v>1</v>
+      </c>
       <c r="B576" s="1" t="str" cm="1">
         <f t="array" ref="B576">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A576)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11468,7 +12618,9 @@
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="1"/>
+      <c r="A577" s="1">
+        <v>0</v>
+      </c>
       <c r="B577" s="1" t="str" cm="1">
         <f t="array" ref="B577">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A577)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11487,7 +12639,9 @@
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
+      <c r="A578" s="1">
+        <v>1</v>
+      </c>
       <c r="B578" s="1" t="str" cm="1">
         <f t="array" ref="B578">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A578)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11506,7 +12660,9 @@
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" s="1"/>
+      <c r="A579" s="1">
+        <v>0</v>
+      </c>
       <c r="B579" s="1" t="str" cm="1">
         <f t="array" ref="B579">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A579)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11525,7 +12681,9 @@
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="1"/>
+      <c r="A580" s="1">
+        <v>0</v>
+      </c>
       <c r="B580" s="1" t="str" cm="1">
         <f t="array" ref="B580">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A580)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11544,7 +12702,9 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="1"/>
+      <c r="A581" s="1">
+        <v>1</v>
+      </c>
       <c r="B581" s="1" t="str" cm="1">
         <f t="array" ref="B581">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A581)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11563,7 +12723,9 @@
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="1"/>
+      <c r="A582" s="1">
+        <v>1</v>
+      </c>
       <c r="B582" s="1" t="str" cm="1">
         <f t="array" ref="B582">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A582)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11582,7 +12744,9 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="1"/>
+      <c r="A583" s="1">
+        <v>1</v>
+      </c>
       <c r="B583" s="1" t="str" cm="1">
         <f t="array" ref="B583">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A583)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11601,7 +12765,9 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="1"/>
+      <c r="A584" s="1">
+        <v>0</v>
+      </c>
       <c r="B584" s="1" t="str" cm="1">
         <f t="array" ref="B584">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A584)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11620,7 +12786,9 @@
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="1"/>
+      <c r="A585" s="1">
+        <v>0</v>
+      </c>
       <c r="B585" s="1" t="str" cm="1">
         <f t="array" ref="B585">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A585)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11639,7 +12807,9 @@
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="1"/>
+      <c r="A586" s="1">
+        <v>1</v>
+      </c>
       <c r="B586" s="1" t="str" cm="1">
         <f t="array" ref="B586">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A586)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11658,7 +12828,9 @@
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="1"/>
+      <c r="A587" s="1">
+        <v>0</v>
+      </c>
       <c r="B587" s="1" t="str" cm="1">
         <f t="array" ref="B587">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A587)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11677,7 +12849,9 @@
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="1"/>
+      <c r="A588" s="1">
+        <v>0</v>
+      </c>
       <c r="B588" s="1" t="str" cm="1">
         <f t="array" ref="B588">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A588)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11696,7 +12870,9 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="1"/>
+      <c r="A589" s="1">
+        <v>0</v>
+      </c>
       <c r="B589" s="1" t="str" cm="1">
         <f t="array" ref="B589">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A589)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11715,7 +12891,9 @@
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="1"/>
+      <c r="A590" s="1">
+        <v>1</v>
+      </c>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11734,7 +12912,9 @@
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="1"/>
+      <c r="A591" s="1">
+        <v>0</v>
+      </c>
       <c r="B591" s="1" t="str" cm="1">
         <f t="array" ref="B591">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A591)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11753,7 +12933,9 @@
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="1"/>
+      <c r="A592" s="1">
+        <v>0</v>
+      </c>
       <c r="B592" s="1" t="str" cm="1">
         <f t="array" ref="B592">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A592)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11772,7 +12954,9 @@
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="1"/>
+      <c r="A593" s="1">
+        <v>0</v>
+      </c>
       <c r="B593" s="1" t="str" cm="1">
         <f t="array" ref="B593">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A593)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11791,7 +12975,9 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="1"/>
+      <c r="A594" s="1">
+        <v>0</v>
+      </c>
       <c r="B594" s="1" t="str" cm="1">
         <f t="array" ref="B594">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A594)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11810,7 +12996,9 @@
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="1"/>
+      <c r="A595" s="1">
+        <v>0</v>
+      </c>
       <c r="B595" s="1" t="str" cm="1">
         <f t="array" ref="B595">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A595)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11829,7 +13017,9 @@
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="1"/>
+      <c r="A596" s="1">
+        <v>0</v>
+      </c>
       <c r="B596" s="1" t="str" cm="1">
         <f t="array" ref="B596">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A596)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11848,7 +13038,9 @@
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="1"/>
+      <c r="A597" s="1">
+        <v>1</v>
+      </c>
       <c r="B597" s="1" t="str" cm="1">
         <f t="array" ref="B597">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A597)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11867,7 +13059,9 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
+      <c r="A598" s="1">
+        <v>0</v>
+      </c>
       <c r="B598" s="1" t="str" cm="1">
         <f t="array" ref="B598">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A598)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11886,7 +13080,9 @@
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
+      <c r="A599" s="1">
+        <v>0</v>
+      </c>
       <c r="B599" s="1" t="str" cm="1">
         <f t="array" ref="B599">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A599)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11905,7 +13101,9 @@
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="1"/>
+      <c r="A600" s="1">
+        <v>0</v>
+      </c>
       <c r="B600" s="1" t="str" cm="1">
         <f t="array" ref="B600">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A600)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11924,7 +13122,9 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="1"/>
+      <c r="A601" s="1">
+        <v>0</v>
+      </c>
       <c r="B601" s="1" t="str" cm="1">
         <f t="array" ref="B601">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A601)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11943,7 +13143,9 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="1"/>
+      <c r="A602" s="1">
+        <v>0</v>
+      </c>
       <c r="B602" s="1" t="str" cm="1">
         <f t="array" ref="B602">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A602)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11962,7 +13164,9 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="1"/>
+      <c r="A603" s="1">
+        <v>1</v>
+      </c>
       <c r="B603" s="1" t="str" cm="1">
         <f t="array" ref="B603">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A603)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11981,7 +13185,9 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="1"/>
+      <c r="A604" s="1">
+        <v>0</v>
+      </c>
       <c r="B604" s="1" t="str" cm="1">
         <f t="array" ref="B604">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A604)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12000,7 +13206,9 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="1"/>
+      <c r="A605" s="1">
+        <v>0</v>
+      </c>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12019,7 +13227,9 @@
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="1"/>
+      <c r="A606" s="1">
+        <v>0</v>
+      </c>
       <c r="B606" s="1" t="str" cm="1">
         <f t="array" ref="B606">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A606)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12038,7 +13248,9 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="1"/>
+      <c r="A607" s="1">
+        <v>0</v>
+      </c>
       <c r="B607" s="1" t="str" cm="1">
         <f t="array" ref="B607">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A607)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12057,7 +13269,9 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="1"/>
+      <c r="A608" s="1">
+        <v>0</v>
+      </c>
       <c r="B608" s="1" t="str" cm="1">
         <f t="array" ref="B608">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A608)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12076,7 +13290,9 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" s="1"/>
+      <c r="A609" s="1">
+        <v>0</v>
+      </c>
       <c r="B609" s="1" t="str" cm="1">
         <f t="array" ref="B609">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A609)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12095,7 +13311,9 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="1"/>
+      <c r="A610" s="1">
+        <v>0</v>
+      </c>
       <c r="B610" s="1" t="str" cm="1">
         <f t="array" ref="B610">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A610)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12114,7 +13332,9 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="1"/>
+      <c r="A611" s="1">
+        <v>0</v>
+      </c>
       <c r="B611" s="1" t="str" cm="1">
         <f t="array" ref="B611">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A611)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12133,7 +13353,9 @@
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="1"/>
+      <c r="A612" s="1">
+        <v>0</v>
+      </c>
       <c r="B612" s="1" t="str" cm="1">
         <f t="array" ref="B612">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A612)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12152,7 +13374,9 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="1"/>
+      <c r="A613" s="1">
+        <v>0</v>
+      </c>
       <c r="B613" s="1" t="str" cm="1">
         <f t="array" ref="B613">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A613)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12171,7 +13395,9 @@
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" s="1"/>
+      <c r="A614" s="1">
+        <v>0</v>
+      </c>
       <c r="B614" s="1" t="str" cm="1">
         <f t="array" ref="B614">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A614)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12190,7 +13416,9 @@
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" s="1"/>
+      <c r="A615" s="1">
+        <v>0</v>
+      </c>
       <c r="B615" s="1" t="str" cm="1">
         <f t="array" ref="B615">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A615)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12209,7 +13437,9 @@
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="1"/>
+      <c r="A616" s="1">
+        <v>0</v>
+      </c>
       <c r="B616" s="1" t="str" cm="1">
         <f t="array" ref="B616">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A616)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12228,7 +13458,9 @@
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" s="1"/>
+      <c r="A617" s="1">
+        <v>0</v>
+      </c>
       <c r="B617" s="1" t="str" cm="1">
         <f t="array" ref="B617">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A617)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12247,7 +13479,9 @@
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" s="1"/>
+      <c r="A618" s="1">
+        <v>0</v>
+      </c>
       <c r="B618" s="1" t="str" cm="1">
         <f t="array" ref="B618">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A618)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12266,7 +13500,9 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="1"/>
+      <c r="A619" s="1">
+        <v>1</v>
+      </c>
       <c r="B619" s="1" t="str" cm="1">
         <f t="array" ref="B619">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A619)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12285,7 +13521,9 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="1"/>
+      <c r="A620" s="1">
+        <v>0</v>
+      </c>
       <c r="B620" s="1" t="str" cm="1">
         <f t="array" ref="B620">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A620)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12304,7 +13542,9 @@
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="1"/>
+      <c r="A621" s="1">
+        <v>0</v>
+      </c>
       <c r="B621" s="1" t="str" cm="1">
         <f t="array" ref="B621">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A621)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12323,7 +13563,9 @@
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="1"/>
+      <c r="A622" s="1">
+        <v>1</v>
+      </c>
       <c r="B622" s="1" t="str" cm="1">
         <f t="array" ref="B622">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A622)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12342,7 +13584,9 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="1"/>
+      <c r="A623" s="1">
+        <v>0</v>
+      </c>
       <c r="B623" s="1" t="str" cm="1">
         <f t="array" ref="B623">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A623)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12361,7 +13605,9 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="1"/>
+      <c r="A624" s="1">
+        <v>1</v>
+      </c>
       <c r="B624" s="1" t="str" cm="1">
         <f t="array" ref="B624">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A624)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12380,7 +13626,9 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="1"/>
+      <c r="A625" s="1">
+        <v>0</v>
+      </c>
       <c r="B625" s="1" t="str" cm="1">
         <f t="array" ref="B625">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A625)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12399,7 +13647,9 @@
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="1"/>
+      <c r="A626" s="1">
+        <v>1</v>
+      </c>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12418,7 +13668,9 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="1"/>
+      <c r="A627" s="1">
+        <v>0</v>
+      </c>
       <c r="B627" s="1" t="str" cm="1">
         <f t="array" ref="B627">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A627)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12437,7 +13689,9 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="1"/>
+      <c r="A628" s="1">
+        <v>0</v>
+      </c>
       <c r="B628" s="1" t="str" cm="1">
         <f t="array" ref="B628">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A628)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12456,7 +13710,9 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="1"/>
+      <c r="A629" s="1">
+        <v>1</v>
+      </c>
       <c r="B629" s="1" t="str" cm="1">
         <f t="array" ref="B629">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A629)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12475,7 +13731,9 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="1"/>
+      <c r="A630" s="1">
+        <v>0</v>
+      </c>
       <c r="B630" s="1" t="str" cm="1">
         <f t="array" ref="B630">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A630)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12494,7 +13752,9 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="1"/>
+      <c r="A631" s="1">
+        <v>0</v>
+      </c>
       <c r="B631" s="1" t="str" cm="1">
         <f t="array" ref="B631">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A631)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12513,7 +13773,9 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="1"/>
+      <c r="A632" s="1">
+        <v>0</v>
+      </c>
       <c r="B632" s="1" t="str" cm="1">
         <f t="array" ref="B632">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A632)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12532,7 +13794,9 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="1"/>
+      <c r="A633" s="1">
+        <v>0</v>
+      </c>
       <c r="B633" s="1" t="str" cm="1">
         <f t="array" ref="B633">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A633)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12551,7 +13815,9 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="1"/>
+      <c r="A634" s="1">
+        <v>0</v>
+      </c>
       <c r="B634" s="1" t="str" cm="1">
         <f t="array" ref="B634">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A634)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12570,7 +13836,9 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="1"/>
+      <c r="A635" s="1">
+        <v>0</v>
+      </c>
       <c r="B635" s="1" t="str" cm="1">
         <f t="array" ref="B635">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A635)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12589,7 +13857,9 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="1"/>
+      <c r="A636" s="1">
+        <v>0</v>
+      </c>
       <c r="B636" s="1" t="str" cm="1">
         <f t="array" ref="B636">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A636)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12608,7 +13878,9 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="1"/>
+      <c r="A637" s="1">
+        <v>0</v>
+      </c>
       <c r="B637" s="1" t="str" cm="1">
         <f t="array" ref="B637">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A637)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12627,7 +13899,9 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="1"/>
+      <c r="A638" s="1">
+        <v>0</v>
+      </c>
       <c r="B638" s="1" t="str" cm="1">
         <f t="array" ref="B638">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A638)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12646,7 +13920,9 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="1"/>
+      <c r="A639" s="1">
+        <v>1</v>
+      </c>
       <c r="B639" s="1" t="str" cm="1">
         <f t="array" ref="B639">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A639)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12665,7 +13941,9 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="1"/>
+      <c r="A640" s="1">
+        <v>0</v>
+      </c>
       <c r="B640" s="1" t="str" cm="1">
         <f t="array" ref="B640">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A640)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12684,7 +13962,9 @@
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="1"/>
+      <c r="A641" s="1">
+        <v>0</v>
+      </c>
       <c r="B641" s="1" t="str" cm="1">
         <f t="array" ref="B641">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A641)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12703,7 +13983,9 @@
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="1"/>
+      <c r="A642" s="1">
+        <v>0</v>
+      </c>
       <c r="B642" s="1" t="str" cm="1">
         <f t="array" ref="B642">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A642)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12722,7 +14004,9 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="1"/>
+      <c r="A643" s="1">
+        <v>1</v>
+      </c>
       <c r="B643" s="1" t="str" cm="1">
         <f t="array" ref="B643">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A643)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12741,7 +14025,9 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="1"/>
+      <c r="A644" s="1">
+        <v>0</v>
+      </c>
       <c r="B644" s="1" t="str" cm="1">
         <f t="array" ref="B644">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A644)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12760,7 +14046,9 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="1"/>
+      <c r="A645" s="1">
+        <v>1</v>
+      </c>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A645)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12779,7 +14067,9 @@
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="1"/>
+      <c r="A646" s="1">
+        <v>0</v>
+      </c>
       <c r="B646" s="1" t="str" cm="1">
         <f t="array" ref="B646">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A646)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12798,7 +14088,9 @@
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="1"/>
+      <c r="A647" s="1">
+        <v>0</v>
+      </c>
       <c r="B647" s="1" t="str" cm="1">
         <f t="array" ref="B647">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A647)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12817,7 +14109,9 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="1"/>
+      <c r="A648" s="1">
+        <v>0</v>
+      </c>
       <c r="B648" s="1" t="str" cm="1">
         <f t="array" ref="B648">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A648)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12836,7 +14130,9 @@
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="1"/>
+      <c r="A649" s="1">
+        <v>0</v>
+      </c>
       <c r="B649" s="1" t="str" cm="1">
         <f t="array" ref="B649">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A649)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12855,7 +14151,9 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="1"/>
+      <c r="A650" s="1">
+        <v>0</v>
+      </c>
       <c r="B650" s="1" t="str" cm="1">
         <f t="array" ref="B650">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A650)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12874,7 +14172,9 @@
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="1"/>
+      <c r="A651" s="1">
+        <v>0</v>
+      </c>
       <c r="B651" s="1" t="str" cm="1">
         <f t="array" ref="B651">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A651)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12893,7 +14193,9 @@
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="1"/>
+      <c r="A652" s="1">
+        <v>0</v>
+      </c>
       <c r="B652" s="1" t="str" cm="1">
         <f t="array" ref="B652">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A652)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12912,7 +14214,9 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="1"/>
+      <c r="A653" s="1">
+        <v>0</v>
+      </c>
       <c r="B653" s="1" t="str" cm="1">
         <f t="array" ref="B653">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A653)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12931,7 +14235,9 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="1"/>
+      <c r="A654" s="1">
+        <v>0</v>
+      </c>
       <c r="B654" s="1" t="str" cm="1">
         <f t="array" ref="B654">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A654)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12950,7 +14256,9 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="1"/>
+      <c r="A655" s="1">
+        <v>0</v>
+      </c>
       <c r="B655" s="1" t="str" cm="1">
         <f t="array" ref="B655">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A655)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12969,7 +14277,9 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" s="1"/>
+      <c r="A656" s="1">
+        <v>0</v>
+      </c>
       <c r="B656" s="1" t="str" cm="1">
         <f t="array" ref="B656">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A656)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12988,7 +14298,9 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" s="1"/>
+      <c r="A657" s="1">
+        <v>0</v>
+      </c>
       <c r="B657" s="1" t="str" cm="1">
         <f t="array" ref="B657">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A657)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13007,7 +14319,9 @@
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="1"/>
+      <c r="A658" s="1">
+        <v>0</v>
+      </c>
       <c r="B658" s="1" t="str" cm="1">
         <f t="array" ref="B658">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A658)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13026,7 +14340,9 @@
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" s="1"/>
+      <c r="A659" s="1">
+        <v>0</v>
+      </c>
       <c r="B659" s="1" t="str" cm="1">
         <f t="array" ref="B659">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A659)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13045,7 +14361,9 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" s="1"/>
+      <c r="A660" s="1">
+        <v>0</v>
+      </c>
       <c r="B660" s="1" t="str" cm="1">
         <f t="array" ref="B660">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A660)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13064,7 +14382,9 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="1"/>
+      <c r="A661" s="1">
+        <v>0</v>
+      </c>
       <c r="B661" s="1" t="str" cm="1">
         <f t="array" ref="B661">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A661)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13083,7 +14403,9 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="1"/>
+      <c r="A662" s="1">
+        <v>1</v>
+      </c>
       <c r="B662" s="1" t="str" cm="1">
         <f t="array" ref="B662">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A662)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13102,7 +14424,9 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="1"/>
+      <c r="A663" s="1">
+        <v>1</v>
+      </c>
       <c r="B663" s="1" t="str" cm="1">
         <f t="array" ref="B663">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A663)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13121,7 +14445,9 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" s="1"/>
+      <c r="A664" s="1">
+        <v>0</v>
+      </c>
       <c r="B664" s="1" t="str" cm="1">
         <f t="array" ref="B664">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A664)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13140,7 +14466,9 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" s="1"/>
+      <c r="A665" s="1">
+        <v>1</v>
+      </c>
       <c r="B665" s="1" t="str" cm="1">
         <f t="array" ref="B665">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A665)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13159,7 +14487,9 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" s="1"/>
+      <c r="A666" s="1">
+        <v>1</v>
+      </c>
       <c r="B666" s="1" t="str" cm="1">
         <f t="array" ref="B666">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A666)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13178,7 +14508,9 @@
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="1"/>
+      <c r="A667" s="1">
+        <v>0</v>
+      </c>
       <c r="B667" s="1" t="str" cm="1">
         <f t="array" ref="B667">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A667)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13197,7 +14529,9 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="1"/>
+      <c r="A668" s="1">
+        <v>0</v>
+      </c>
       <c r="B668" s="1" t="str" cm="1">
         <f t="array" ref="B668">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A668)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13216,7 +14550,9 @@
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="1"/>
+      <c r="A669" s="1">
+        <v>1</v>
+      </c>
       <c r="B669" s="1" t="str" cm="1">
         <f t="array" ref="B669">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A669)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13235,7 +14571,9 @@
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" s="1"/>
+      <c r="A670" s="1">
+        <v>0</v>
+      </c>
       <c r="B670" s="1" t="str" cm="1">
         <f t="array" ref="B670">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A670)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13254,7 +14592,9 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" s="1"/>
+      <c r="A671" s="1">
+        <v>1</v>
+      </c>
       <c r="B671" s="1" t="str" cm="1">
         <f t="array" ref="B671">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A671)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13273,7 +14613,9 @@
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" s="1"/>
+      <c r="A672" s="1">
+        <v>1</v>
+      </c>
       <c r="B672" s="1" t="str" cm="1">
         <f t="array" ref="B672">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A672)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13292,7 +14634,9 @@
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="1"/>
+      <c r="A673" s="1">
+        <v>0</v>
+      </c>
       <c r="B673" s="1" t="str" cm="1">
         <f t="array" ref="B673">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A673)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13311,7 +14655,9 @@
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="1"/>
+      <c r="A674" s="1">
+        <v>0</v>
+      </c>
       <c r="B674" s="1" t="str" cm="1">
         <f t="array" ref="B674">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A674)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13330,7 +14676,9 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="1"/>
+      <c r="A675" s="1">
+        <v>0</v>
+      </c>
       <c r="B675" s="1" t="str" cm="1">
         <f t="array" ref="B675">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A675)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13349,7 +14697,9 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="1"/>
+      <c r="A676" s="1">
+        <v>0</v>
+      </c>
       <c r="B676" s="1" t="str" cm="1">
         <f t="array" ref="B676">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A676)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13368,7 +14718,9 @@
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" s="1"/>
+      <c r="A677" s="1">
+        <v>1</v>
+      </c>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13387,7 +14739,9 @@
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" s="1"/>
+      <c r="A678" s="1">
+        <v>0</v>
+      </c>
       <c r="B678" s="1" t="str" cm="1">
         <f t="array" ref="B678">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A678)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13406,7 +14760,9 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="1"/>
+      <c r="A679" s="1">
+        <v>1</v>
+      </c>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13425,7 +14781,9 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" s="1"/>
+      <c r="A680" s="1">
+        <v>0</v>
+      </c>
       <c r="B680" s="1" t="str" cm="1">
         <f t="array" ref="B680">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A680)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13444,7 +14802,9 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="1"/>
+      <c r="A681" s="1">
+        <v>0</v>
+      </c>
       <c r="B681" s="1" t="str" cm="1">
         <f t="array" ref="B681">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A681)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13463,7 +14823,9 @@
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" s="1"/>
+      <c r="A682" s="1">
+        <v>0</v>
+      </c>
       <c r="B682" s="1" t="str" cm="1">
         <f t="array" ref="B682">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A682)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13482,7 +14844,9 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="1"/>
+      <c r="A683" s="1">
+        <v>0</v>
+      </c>
       <c r="B683" s="1" t="str" cm="1">
         <f t="array" ref="B683">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A683)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13501,7 +14865,9 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" s="1"/>
+      <c r="A684" s="1">
+        <v>0</v>
+      </c>
       <c r="B684" s="1" t="str" cm="1">
         <f t="array" ref="B684">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A684)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13520,7 +14886,9 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="1"/>
+      <c r="A685" s="1">
+        <v>0</v>
+      </c>
       <c r="B685" s="1" t="str" cm="1">
         <f t="array" ref="B685">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A685)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13539,7 +14907,9 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" s="1"/>
+      <c r="A686" s="1">
+        <v>0</v>
+      </c>
       <c r="B686" s="1" t="str" cm="1">
         <f t="array" ref="B686">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A686)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13558,7 +14928,9 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" s="1"/>
+      <c r="A687" s="1">
+        <v>0</v>
+      </c>
       <c r="B687" s="1" t="str" cm="1">
         <f t="array" ref="B687">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A687)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13577,7 +14949,9 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" s="1"/>
+      <c r="A688" s="1">
+        <v>0</v>
+      </c>
       <c r="B688" s="1" t="str" cm="1">
         <f t="array" ref="B688">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A688)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13596,7 +14970,9 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" s="1"/>
+      <c r="A689" s="1">
+        <v>0</v>
+      </c>
       <c r="B689" s="1" t="str" cm="1">
         <f t="array" ref="B689">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A689)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13615,7 +14991,9 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" s="1"/>
+      <c r="A690" s="1">
+        <v>1</v>
+      </c>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A690)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13634,7 +15012,9 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" s="1"/>
+      <c r="A691" s="1">
+        <v>0</v>
+      </c>
       <c r="B691" s="1" t="str" cm="1">
         <f t="array" ref="B691">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A691)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13653,7 +15033,9 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" s="1"/>
+      <c r="A692" s="1">
+        <v>0</v>
+      </c>
       <c r="B692" s="1" t="str" cm="1">
         <f t="array" ref="B692">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A692)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13672,7 +15054,9 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" s="1"/>
+      <c r="A693" s="1">
+        <v>1</v>
+      </c>
       <c r="B693" s="1" t="str" cm="1">
         <f t="array" ref="B693">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A693)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13691,7 +15075,9 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" s="1"/>
+      <c r="A694" s="1">
+        <v>0</v>
+      </c>
       <c r="B694" s="1" t="str" cm="1">
         <f t="array" ref="B694">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A694)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13710,7 +15096,9 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" s="1"/>
+      <c r="A695" s="1">
+        <v>0</v>
+      </c>
       <c r="B695" s="1" t="str" cm="1">
         <f t="array" ref="B695">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A695)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13729,7 +15117,9 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="1"/>
+      <c r="A696" s="1">
+        <v>0</v>
+      </c>
       <c r="B696" s="1" t="str" cm="1">
         <f t="array" ref="B696">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A696)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13748,7 +15138,9 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" s="1"/>
+      <c r="A697" s="1">
+        <v>0</v>
+      </c>
       <c r="B697" s="1" t="str" cm="1">
         <f t="array" ref="B697">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A697)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13767,7 +15159,9 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" s="1"/>
+      <c r="A698" s="1">
+        <v>0</v>
+      </c>
       <c r="B698" s="1" t="str" cm="1">
         <f t="array" ref="B698">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A698)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13786,7 +15180,9 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" s="1"/>
+      <c r="A699" s="1">
+        <v>0</v>
+      </c>
       <c r="B699" s="1" t="str" cm="1">
         <f t="array" ref="B699">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A699)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13805,7 +15201,9 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="1"/>
+      <c r="A700" s="1">
+        <v>0</v>
+      </c>
       <c r="B700" s="1" t="str" cm="1">
         <f t="array" ref="B700">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A700)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13824,7 +15222,9 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="1"/>
+      <c r="A701" s="1">
+        <v>0</v>
+      </c>
       <c r="B701" s="1" t="str" cm="1">
         <f t="array" ref="B701">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A701)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13843,7 +15243,9 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" s="1"/>
+      <c r="A702" s="1">
+        <v>1</v>
+      </c>
       <c r="B702" s="1" t="str" cm="1">
         <f t="array" ref="B702">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A702)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13862,7 +15264,9 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" s="1"/>
+      <c r="A703" s="1">
+        <v>0</v>
+      </c>
       <c r="B703" s="1" t="str" cm="1">
         <f t="array" ref="B703">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A703)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13881,7 +15285,9 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" s="1"/>
+      <c r="A704" s="1">
+        <v>1</v>
+      </c>
       <c r="B704" s="1" t="str" cm="1">
         <f t="array" ref="B704">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A704)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13900,7 +15306,9 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" s="1"/>
+      <c r="A705" s="1">
+        <v>0</v>
+      </c>
       <c r="B705" s="1" t="str" cm="1">
         <f t="array" ref="B705">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A705)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13919,7 +15327,9 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" s="1"/>
+      <c r="A706" s="1">
+        <v>1</v>
+      </c>
       <c r="B706" s="1" t="str" cm="1">
         <f t="array" ref="B706">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A706)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13938,7 +15348,9 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" s="1"/>
+      <c r="A707" s="1">
+        <v>0</v>
+      </c>
       <c r="B707" s="1" t="str" cm="1">
         <f t="array" ref="B707">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A707)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13957,7 +15369,9 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" s="1"/>
+      <c r="A708" s="1">
+        <v>0</v>
+      </c>
       <c r="B708" s="1" t="str" cm="1">
         <f t="array" ref="B708">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A708)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13976,7 +15390,9 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="1"/>
+      <c r="A709" s="1">
+        <v>1</v>
+      </c>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
         <v>5TO</v>
@@ -13995,7 +15411,9 @@
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" s="1"/>
+      <c r="A710" s="1">
+        <v>0</v>
+      </c>
       <c r="B710" s="1" t="str" cm="1">
         <f t="array" ref="B710">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A710)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14014,7 +15432,9 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" s="1"/>
+      <c r="A711" s="1">
+        <v>0</v>
+      </c>
       <c r="B711" s="1" t="str" cm="1">
         <f t="array" ref="B711">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A711)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14033,7 +15453,9 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="1"/>
+      <c r="A712" s="1">
+        <v>1</v>
+      </c>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14052,7 +15474,9 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="1"/>
+      <c r="A713" s="1">
+        <v>0</v>
+      </c>
       <c r="B713" s="1" t="str" cm="1">
         <f t="array" ref="B713">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A713)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14071,7 +15495,9 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" s="1"/>
+      <c r="A714" s="1">
+        <v>0</v>
+      </c>
       <c r="B714" s="1" t="str" cm="1">
         <f t="array" ref="B714">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A714)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14090,7 +15516,9 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="1"/>
+      <c r="A715" s="1">
+        <v>0</v>
+      </c>
       <c r="B715" s="1" t="str" cm="1">
         <f t="array" ref="B715">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A715)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14109,7 +15537,9 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" s="1"/>
+      <c r="A716" s="1">
+        <v>1</v>
+      </c>
       <c r="B716" s="1" t="str" cm="1">
         <f t="array" ref="B716">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A716)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14128,7 +15558,9 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" s="1"/>
+      <c r="A717" s="1">
+        <v>0</v>
+      </c>
       <c r="B717" s="1" t="str" cm="1">
         <f t="array" ref="B717">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A717)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14147,7 +15579,9 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" s="1"/>
+      <c r="A718" s="1">
+        <v>1</v>
+      </c>
       <c r="B718" s="1" t="str" cm="1">
         <f t="array" ref="B718">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A718)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14166,7 +15600,9 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="1"/>
+      <c r="A719" s="1">
+        <v>0</v>
+      </c>
       <c r="B719" s="1" t="str" cm="1">
         <f t="array" ref="B719">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A719)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14185,7 +15621,9 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" s="1"/>
+      <c r="A720" s="1">
+        <v>0</v>
+      </c>
       <c r="B720" s="1" t="str" cm="1">
         <f t="array" ref="B720">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A720)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14204,7 +15642,9 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="1"/>
+      <c r="A721" s="1">
+        <v>0</v>
+      </c>
       <c r="B721" s="1" t="str" cm="1">
         <f t="array" ref="B721">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A721)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14223,7 +15663,9 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="1"/>
+      <c r="A722" s="1">
+        <v>0</v>
+      </c>
       <c r="B722" s="1" t="str" cm="1">
         <f t="array" ref="B722">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A722)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14242,7 +15684,9 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="1"/>
+      <c r="A723" s="1">
+        <v>0</v>
+      </c>
       <c r="B723" s="1" t="str" cm="1">
         <f t="array" ref="B723">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A723)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14261,7 +15705,9 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="1"/>
+      <c r="A724" s="1">
+        <v>0</v>
+      </c>
       <c r="B724" s="1" t="str" cm="1">
         <f t="array" ref="B724">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A724)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14280,7 +15726,9 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="1"/>
+      <c r="A725" s="1">
+        <v>0</v>
+      </c>
       <c r="B725" s="1" t="str" cm="1">
         <f t="array" ref="B725">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A725)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14299,7 +15747,9 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" s="1"/>
+      <c r="A726" s="1">
+        <v>0</v>
+      </c>
       <c r="B726" s="1" t="str" cm="1">
         <f t="array" ref="B726">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A726)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14318,7 +15768,9 @@
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="1"/>
+      <c r="A727" s="1">
+        <v>0</v>
+      </c>
       <c r="B727" s="1" t="str" cm="1">
         <f t="array" ref="B727">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A727)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14337,7 +15789,9 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="1"/>
+      <c r="A728" s="1">
+        <v>0</v>
+      </c>
       <c r="B728" s="1" t="str" cm="1">
         <f t="array" ref="B728">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A728)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14356,7 +15810,9 @@
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="1"/>
+      <c r="A729" s="1">
+        <v>0</v>
+      </c>
       <c r="B729" s="1" t="str" cm="1">
         <f t="array" ref="B729">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A729)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14375,7 +15831,9 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="1"/>
+      <c r="A730" s="1">
+        <v>0</v>
+      </c>
       <c r="B730" s="1" t="str" cm="1">
         <f t="array" ref="B730">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A730)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14394,7 +15852,9 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="1"/>
+      <c r="A731" s="1">
+        <v>0</v>
+      </c>
       <c r="B731" s="1" t="str" cm="1">
         <f t="array" ref="B731">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A731)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14413,7 +15873,9 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="1"/>
+      <c r="A732" s="1">
+        <v>0</v>
+      </c>
       <c r="B732" s="1" t="str" cm="1">
         <f t="array" ref="B732">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A732)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14432,7 +15894,9 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="1"/>
+      <c r="A733" s="1">
+        <v>0</v>
+      </c>
       <c r="B733" s="1" t="str" cm="1">
         <f t="array" ref="B733">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A733)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14451,7 +15915,9 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="1"/>
+      <c r="A734" s="1">
+        <v>0</v>
+      </c>
       <c r="B734" s="1" t="str" cm="1">
         <f t="array" ref="B734">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A734)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14470,7 +15936,9 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" s="1"/>
+      <c r="A735" s="1">
+        <v>0</v>
+      </c>
       <c r="B735" s="1" t="str" cm="1">
         <f t="array" ref="B735">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A735)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14489,7 +15957,9 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" s="1"/>
+      <c r="A736" s="1">
+        <v>0</v>
+      </c>
       <c r="B736" s="1" t="str" cm="1">
         <f t="array" ref="B736">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A736)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14508,7 +15978,9 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="1"/>
+      <c r="A737" s="1">
+        <v>0</v>
+      </c>
       <c r="B737" s="1" t="str" cm="1">
         <f t="array" ref="B737">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A737)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14527,7 +15999,9 @@
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="1"/>
+      <c r="A738" s="1">
+        <v>0</v>
+      </c>
       <c r="B738" s="1" t="str" cm="1">
         <f t="array" ref="B738">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A738)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14546,7 +16020,9 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="1"/>
+      <c r="A739" s="1">
+        <v>0</v>
+      </c>
       <c r="B739" s="1" t="str" cm="1">
         <f t="array" ref="B739">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A739)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14565,7 +16041,9 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="1"/>
+      <c r="A740" s="1">
+        <v>0</v>
+      </c>
       <c r="B740" s="1" t="str" cm="1">
         <f t="array" ref="B740">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A740)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14584,7 +16062,9 @@
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="1"/>
+      <c r="A741" s="1">
+        <v>0</v>
+      </c>
       <c r="B741" s="1" t="str" cm="1">
         <f t="array" ref="B741">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A741)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14603,7 +16083,9 @@
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="1"/>
+      <c r="A742" s="1">
+        <v>0</v>
+      </c>
       <c r="B742" s="1" t="str" cm="1">
         <f t="array" ref="B742">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A742)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14622,7 +16104,9 @@
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" s="1"/>
+      <c r="A743" s="1">
+        <v>0</v>
+      </c>
       <c r="B743" s="1" t="str" cm="1">
         <f t="array" ref="B743">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A743)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14641,7 +16125,9 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" s="1"/>
+      <c r="A744" s="1">
+        <v>0</v>
+      </c>
       <c r="B744" s="1" t="str" cm="1">
         <f t="array" ref="B744">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A744)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14660,7 +16146,9 @@
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="1"/>
+      <c r="A745" s="1">
+        <v>0</v>
+      </c>
       <c r="B745" s="1" t="str" cm="1">
         <f t="array" ref="B745">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A745)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14679,7 +16167,9 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" s="1"/>
+      <c r="A746" s="1">
+        <v>0</v>
+      </c>
       <c r="B746" s="1" t="str" cm="1">
         <f t="array" ref="B746">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A746)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14698,7 +16188,9 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" s="1"/>
+      <c r="A747" s="1">
+        <v>0</v>
+      </c>
       <c r="B747" s="1" t="str" cm="1">
         <f t="array" ref="B747">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A747)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14717,7 +16209,9 @@
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="1"/>
+      <c r="A748" s="1">
+        <v>0</v>
+      </c>
       <c r="B748" s="1" t="str" cm="1">
         <f t="array" ref="B748">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A748)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14736,7 +16230,9 @@
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" s="1"/>
+      <c r="A749" s="1">
+        <v>0</v>
+      </c>
       <c r="B749" s="1" t="str" cm="1">
         <f t="array" ref="B749">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A749)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14755,7 +16251,9 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" s="1"/>
+      <c r="A750" s="1">
+        <v>0</v>
+      </c>
       <c r="B750" s="1" t="str" cm="1">
         <f t="array" ref="B750">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A750)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14774,7 +16272,9 @@
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" s="1"/>
+      <c r="A751" s="1">
+        <v>0</v>
+      </c>
       <c r="B751" s="1" t="str" cm="1">
         <f t="array" ref="B751">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A751)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14793,7 +16293,9 @@
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" s="1"/>
+      <c r="A752" s="1">
+        <v>1</v>
+      </c>
       <c r="B752" s="1" t="str" cm="1">
         <f t="array" ref="B752">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A752)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14812,7 +16314,9 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" s="1"/>
+      <c r="A753" s="1">
+        <v>0</v>
+      </c>
       <c r="B753" s="1" t="str" cm="1">
         <f t="array" ref="B753">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A753)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14831,7 +16335,9 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="1"/>
+      <c r="A754" s="1">
+        <v>1</v>
+      </c>
       <c r="B754" s="1" t="str" cm="1">
         <f t="array" ref="B754">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A754)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14850,7 +16356,9 @@
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="1"/>
+      <c r="A755" s="1">
+        <v>0</v>
+      </c>
       <c r="B755" s="1" t="str" cm="1">
         <f t="array" ref="B755">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A755)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14869,7 +16377,9 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="1"/>
+      <c r="A756" s="1">
+        <v>0</v>
+      </c>
       <c r="B756" s="1" t="str" cm="1">
         <f t="array" ref="B756">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A756)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14888,7 +16398,9 @@
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" s="1"/>
+      <c r="A757" s="1">
+        <v>0</v>
+      </c>
       <c r="B757" s="1" t="str" cm="1">
         <f t="array" ref="B757">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A757)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14907,7 +16419,9 @@
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" s="1"/>
+      <c r="A758" s="1">
+        <v>0</v>
+      </c>
       <c r="B758" s="1" t="str" cm="1">
         <f t="array" ref="B758">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A758)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14926,7 +16440,9 @@
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" s="1"/>
+      <c r="A759" s="1">
+        <v>1</v>
+      </c>
       <c r="B759" s="1" t="str" cm="1">
         <f t="array" ref="B759">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A759)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14945,7 +16461,9 @@
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A760" s="1"/>
+      <c r="A760" s="1">
+        <v>1</v>
+      </c>
       <c r="B760" s="1" t="str" cm="1">
         <f t="array" ref="B760">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A760)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14964,7 +16482,9 @@
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A761" s="1"/>
+      <c r="A761" s="1">
+        <v>0</v>
+      </c>
       <c r="B761" s="1" t="str" cm="1">
         <f t="array" ref="B761">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A761)-2)/175)+1)</f>
         <v>5TO</v>
@@ -14983,7 +16503,9 @@
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A762" s="1"/>
+      <c r="A762" s="1">
+        <v>0</v>
+      </c>
       <c r="B762" s="1" t="str" cm="1">
         <f t="array" ref="B762">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A762)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15002,7 +16524,9 @@
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A763" s="1"/>
+      <c r="A763" s="1">
+        <v>0</v>
+      </c>
       <c r="B763" s="1" t="str" cm="1">
         <f t="array" ref="B763">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A763)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15021,7 +16545,9 @@
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" s="1"/>
+      <c r="A764" s="1">
+        <v>0</v>
+      </c>
       <c r="B764" s="1" t="str" cm="1">
         <f t="array" ref="B764">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A764)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15040,7 +16566,9 @@
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" s="1"/>
+      <c r="A765" s="1">
+        <v>0</v>
+      </c>
       <c r="B765" s="1" t="str" cm="1">
         <f t="array" ref="B765">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A765)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15059,7 +16587,9 @@
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" s="1"/>
+      <c r="A766" s="1">
+        <v>1</v>
+      </c>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15078,7 +16608,9 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" s="1"/>
+      <c r="A767" s="1">
+        <v>1</v>
+      </c>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15097,7 +16629,9 @@
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" s="1"/>
+      <c r="A768" s="1">
+        <v>1</v>
+      </c>
       <c r="B768" s="1" t="str" cm="1">
         <f t="array" ref="B768">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A768)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15116,7 +16650,9 @@
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" s="1"/>
+      <c r="A769" s="1">
+        <v>0</v>
+      </c>
       <c r="B769" s="1" t="str" cm="1">
         <f t="array" ref="B769">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A769)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15135,7 +16671,9 @@
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" s="1"/>
+      <c r="A770" s="1">
+        <v>0</v>
+      </c>
       <c r="B770" s="1" t="str" cm="1">
         <f t="array" ref="B770">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A770)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15154,7 +16692,9 @@
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="1"/>
+      <c r="A771" s="1">
+        <v>0</v>
+      </c>
       <c r="B771" s="1" t="str" cm="1">
         <f t="array" ref="B771">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A771)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15173,7 +16713,9 @@
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" s="1"/>
+      <c r="A772" s="1">
+        <v>0</v>
+      </c>
       <c r="B772" s="1" t="str" cm="1">
         <f t="array" ref="B772">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A772)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15192,7 +16734,9 @@
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" s="1"/>
+      <c r="A773" s="1">
+        <v>1</v>
+      </c>
       <c r="B773" s="1" t="str" cm="1">
         <f t="array" ref="B773">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A773)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15211,7 +16755,9 @@
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" s="1"/>
+      <c r="A774" s="1">
+        <v>0</v>
+      </c>
       <c r="B774" s="1" t="str" cm="1">
         <f t="array" ref="B774">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A774)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15230,7 +16776,9 @@
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="1"/>
+      <c r="A775" s="1">
+        <v>0</v>
+      </c>
       <c r="B775" s="1" t="str" cm="1">
         <f t="array" ref="B775">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A775)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15249,7 +16797,9 @@
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="1"/>
+      <c r="A776" s="1">
+        <v>0</v>
+      </c>
       <c r="B776" s="1" t="str" cm="1">
         <f t="array" ref="B776">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A776)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15268,7 +16818,9 @@
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="1"/>
+      <c r="A777" s="1">
+        <v>1</v>
+      </c>
       <c r="B777" s="1" t="str" cm="1">
         <f t="array" ref="B777">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A777)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15287,7 +16839,9 @@
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="1"/>
+      <c r="A778" s="1">
+        <v>0</v>
+      </c>
       <c r="B778" s="1" t="str" cm="1">
         <f t="array" ref="B778">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A778)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15306,7 +16860,9 @@
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="1"/>
+      <c r="A779" s="1">
+        <v>0</v>
+      </c>
       <c r="B779" s="1" t="str" cm="1">
         <f t="array" ref="B779">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A779)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15325,7 +16881,9 @@
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="1"/>
+      <c r="A780" s="1">
+        <v>0</v>
+      </c>
       <c r="B780" s="1" t="str" cm="1">
         <f t="array" ref="B780">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A780)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15344,7 +16902,9 @@
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="1"/>
+      <c r="A781" s="1">
+        <v>0</v>
+      </c>
       <c r="B781" s="1" t="str" cm="1">
         <f t="array" ref="B781">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A781)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15363,7 +16923,9 @@
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="1"/>
+      <c r="A782" s="1">
+        <v>0</v>
+      </c>
       <c r="B782" s="1" t="str" cm="1">
         <f t="array" ref="B782">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A782)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15382,7 +16944,9 @@
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="1"/>
+      <c r="A783" s="1">
+        <v>0</v>
+      </c>
       <c r="B783" s="1" t="str" cm="1">
         <f t="array" ref="B783">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A783)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15401,7 +16965,9 @@
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="1"/>
+      <c r="A784" s="1">
+        <v>0</v>
+      </c>
       <c r="B784" s="1" t="str" cm="1">
         <f t="array" ref="B784">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A784)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15420,7 +16986,9 @@
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="1"/>
+      <c r="A785" s="1">
+        <v>0</v>
+      </c>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15439,7 +17007,9 @@
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="1"/>
+      <c r="A786" s="1">
+        <v>0</v>
+      </c>
       <c r="B786" s="1" t="str" cm="1">
         <f t="array" ref="B786">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A786)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15458,7 +17028,9 @@
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="1"/>
+      <c r="A787" s="1">
+        <v>0</v>
+      </c>
       <c r="B787" s="1" t="str" cm="1">
         <f t="array" ref="B787">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A787)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15477,7 +17049,9 @@
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="1"/>
+      <c r="A788" s="1">
+        <v>0</v>
+      </c>
       <c r="B788" s="1" t="str" cm="1">
         <f t="array" ref="B788">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A788)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15496,7 +17070,9 @@
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="1"/>
+      <c r="A789" s="1">
+        <v>0</v>
+      </c>
       <c r="B789" s="1" t="str" cm="1">
         <f t="array" ref="B789">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A789)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15515,7 +17091,9 @@
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="1"/>
+      <c r="A790" s="1">
+        <v>0</v>
+      </c>
       <c r="B790" s="1" t="str" cm="1">
         <f t="array" ref="B790">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A790)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15534,7 +17112,9 @@
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="1"/>
+      <c r="A791" s="1">
+        <v>0</v>
+      </c>
       <c r="B791" s="1" t="str" cm="1">
         <f t="array" ref="B791">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A791)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15553,7 +17133,9 @@
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="1"/>
+      <c r="A792" s="1">
+        <v>0</v>
+      </c>
       <c r="B792" s="1" t="str" cm="1">
         <f t="array" ref="B792">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A792)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15572,7 +17154,9 @@
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="1"/>
+      <c r="A793" s="1">
+        <v>1</v>
+      </c>
       <c r="B793" s="1" t="str" cm="1">
         <f t="array" ref="B793">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A793)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15591,7 +17175,9 @@
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="1"/>
+      <c r="A794" s="1">
+        <v>0</v>
+      </c>
       <c r="B794" s="1" t="str" cm="1">
         <f t="array" ref="B794">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A794)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15610,7 +17196,9 @@
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" s="1"/>
+      <c r="A795" s="1">
+        <v>0</v>
+      </c>
       <c r="B795" s="1" t="str" cm="1">
         <f t="array" ref="B795">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A795)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15629,7 +17217,9 @@
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" s="1"/>
+      <c r="A796" s="1">
+        <v>0</v>
+      </c>
       <c r="B796" s="1" t="str" cm="1">
         <f t="array" ref="B796">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A796)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15648,7 +17238,9 @@
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="1"/>
+      <c r="A797" s="1">
+        <v>0</v>
+      </c>
       <c r="B797" s="1" t="str" cm="1">
         <f t="array" ref="B797">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A797)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15667,7 +17259,9 @@
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" s="1"/>
+      <c r="A798" s="1">
+        <v>1</v>
+      </c>
       <c r="B798" s="1" t="str" cm="1">
         <f t="array" ref="B798">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A798)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15686,7 +17280,9 @@
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" s="1"/>
+      <c r="A799" s="1">
+        <v>0</v>
+      </c>
       <c r="B799" s="1" t="str" cm="1">
         <f t="array" ref="B799">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A799)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15705,7 +17301,9 @@
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" s="1"/>
+      <c r="A800" s="1">
+        <v>1</v>
+      </c>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15724,7 +17322,9 @@
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" s="1"/>
+      <c r="A801" s="1">
+        <v>0</v>
+      </c>
       <c r="B801" s="1" t="str" cm="1">
         <f t="array" ref="B801">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A801)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15743,7 +17343,9 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" s="1"/>
+      <c r="A802" s="1">
+        <v>0</v>
+      </c>
       <c r="B802" s="1" t="str" cm="1">
         <f t="array" ref="B802">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A802)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15762,7 +17364,9 @@
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" s="1"/>
+      <c r="A803" s="1">
+        <v>0</v>
+      </c>
       <c r="B803" s="1" t="str" cm="1">
         <f t="array" ref="B803">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A803)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15781,7 +17385,9 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="1"/>
+      <c r="A804" s="1">
+        <v>0</v>
+      </c>
       <c r="B804" s="1" t="str" cm="1">
         <f t="array" ref="B804">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A804)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15800,7 +17406,9 @@
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" s="1"/>
+      <c r="A805" s="1">
+        <v>1</v>
+      </c>
       <c r="B805" s="1" t="str" cm="1">
         <f t="array" ref="B805">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A805)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15819,7 +17427,9 @@
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="1"/>
+      <c r="A806" s="1">
+        <v>1</v>
+      </c>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15838,7 +17448,9 @@
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" s="1"/>
+      <c r="A807" s="1">
+        <v>0</v>
+      </c>
       <c r="B807" s="1" t="str" cm="1">
         <f t="array" ref="B807">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A807)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15857,7 +17469,9 @@
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" s="1"/>
+      <c r="A808" s="1">
+        <v>0</v>
+      </c>
       <c r="B808" s="1" t="str" cm="1">
         <f t="array" ref="B808">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A808)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15876,7 +17490,9 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" s="1"/>
+      <c r="A809" s="1">
+        <v>0</v>
+      </c>
       <c r="B809" s="1" t="str" cm="1">
         <f t="array" ref="B809">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A809)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15895,7 +17511,9 @@
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="1"/>
+      <c r="A810" s="1">
+        <v>0</v>
+      </c>
       <c r="B810" s="1" t="str" cm="1">
         <f t="array" ref="B810">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A810)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15914,7 +17532,9 @@
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="1"/>
+      <c r="A811" s="1">
+        <v>0</v>
+      </c>
       <c r="B811" s="1" t="str" cm="1">
         <f t="array" ref="B811">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A811)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15933,7 +17553,9 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" s="1"/>
+      <c r="A812" s="1">
+        <v>0</v>
+      </c>
       <c r="B812" s="1" t="str" cm="1">
         <f t="array" ref="B812">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A812)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15952,7 +17574,9 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="1"/>
+      <c r="A813" s="1">
+        <v>0</v>
+      </c>
       <c r="B813" s="1" t="str" cm="1">
         <f t="array" ref="B813">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A813)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15971,7 +17595,9 @@
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" s="1"/>
+      <c r="A814" s="1">
+        <v>0</v>
+      </c>
       <c r="B814" s="1" t="str" cm="1">
         <f t="array" ref="B814">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A814)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15990,7 +17616,9 @@
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" s="1"/>
+      <c r="A815" s="1">
+        <v>1</v>
+      </c>
       <c r="B815" s="1" t="str" cm="1">
         <f t="array" ref="B815">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A815)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16009,7 +17637,9 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" s="1"/>
+      <c r="A816" s="1">
+        <v>1</v>
+      </c>
       <c r="B816" s="1" t="str" cm="1">
         <f t="array" ref="B816">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A816)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16028,7 +17658,9 @@
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" s="1"/>
+      <c r="A817" s="1">
+        <v>0</v>
+      </c>
       <c r="B817" s="1" t="str" cm="1">
         <f t="array" ref="B817">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A817)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16047,7 +17679,9 @@
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A818" s="1"/>
+      <c r="A818" s="1">
+        <v>0</v>
+      </c>
       <c r="B818" s="1" t="str" cm="1">
         <f t="array" ref="B818">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A818)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16066,7 +17700,9 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819" s="1"/>
+      <c r="A819" s="1">
+        <v>1</v>
+      </c>
       <c r="B819" s="1" t="str" cm="1">
         <f t="array" ref="B819">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A819)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16085,7 +17721,9 @@
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A820" s="1"/>
+      <c r="A820" s="1">
+        <v>0</v>
+      </c>
       <c r="B820" s="1" t="str" cm="1">
         <f t="array" ref="B820">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A820)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16104,7 +17742,9 @@
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" s="1"/>
+      <c r="A821" s="1">
+        <v>0</v>
+      </c>
       <c r="B821" s="1" t="str" cm="1">
         <f t="array" ref="B821">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A821)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16123,7 +17763,9 @@
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" s="1"/>
+      <c r="A822" s="1">
+        <v>0</v>
+      </c>
       <c r="B822" s="1" t="str" cm="1">
         <f t="array" ref="B822">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A822)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16142,7 +17784,9 @@
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="1"/>
+      <c r="A823" s="1">
+        <v>0</v>
+      </c>
       <c r="B823" s="1" t="str" cm="1">
         <f t="array" ref="B823">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A823)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16161,7 +17805,9 @@
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" s="1"/>
+      <c r="A824" s="1">
+        <v>0</v>
+      </c>
       <c r="B824" s="1" t="str" cm="1">
         <f t="array" ref="B824">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A824)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16180,7 +17826,9 @@
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" s="1"/>
+      <c r="A825" s="1">
+        <v>1</v>
+      </c>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16199,7 +17847,9 @@
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" s="1"/>
+      <c r="A826" s="1">
+        <v>1</v>
+      </c>
       <c r="B826" s="1" t="str" cm="1">
         <f t="array" ref="B826">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A826)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16218,7 +17868,9 @@
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" s="1"/>
+      <c r="A827" s="1">
+        <v>1</v>
+      </c>
       <c r="B827" s="1" t="str" cm="1">
         <f t="array" ref="B827">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A827)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16237,7 +17889,9 @@
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" s="1"/>
+      <c r="A828" s="1">
+        <v>0</v>
+      </c>
       <c r="B828" s="1" t="str" cm="1">
         <f t="array" ref="B828">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A828)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16256,7 +17910,9 @@
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" s="1"/>
+      <c r="A829" s="1">
+        <v>0</v>
+      </c>
       <c r="B829" s="1" t="str" cm="1">
         <f t="array" ref="B829">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A829)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16275,7 +17931,9 @@
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="1"/>
+      <c r="A830" s="1">
+        <v>0</v>
+      </c>
       <c r="B830" s="1" t="str" cm="1">
         <f t="array" ref="B830">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A830)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16294,7 +17952,9 @@
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" s="1"/>
+      <c r="A831" s="1">
+        <v>0</v>
+      </c>
       <c r="B831" s="1" t="str" cm="1">
         <f t="array" ref="B831">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A831)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16313,7 +17973,9 @@
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" s="1"/>
+      <c r="A832" s="1">
+        <v>0</v>
+      </c>
       <c r="B832" s="1" t="str" cm="1">
         <f t="array" ref="B832">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A832)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16332,7 +17994,9 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="1"/>
+      <c r="A833" s="1">
+        <v>0</v>
+      </c>
       <c r="B833" s="1" t="str" cm="1">
         <f t="array" ref="B833">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A833)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16351,7 +18015,9 @@
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="1"/>
+      <c r="A834" s="1">
+        <v>0</v>
+      </c>
       <c r="B834" s="1" t="str" cm="1">
         <f t="array" ref="B834">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A834)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16370,7 +18036,9 @@
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="1"/>
+      <c r="A835" s="1">
+        <v>0</v>
+      </c>
       <c r="B835" s="1" t="str" cm="1">
         <f t="array" ref="B835">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A835)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16389,7 +18057,9 @@
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="1"/>
+      <c r="A836" s="1">
+        <v>0</v>
+      </c>
       <c r="B836" s="1" t="str" cm="1">
         <f t="array" ref="B836">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A836)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16408,7 +18078,9 @@
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="1"/>
+      <c r="A837" s="1">
+        <v>0</v>
+      </c>
       <c r="B837" s="1" t="str" cm="1">
         <f t="array" ref="B837">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A837)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16427,7 +18099,9 @@
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="1"/>
+      <c r="A838" s="1">
+        <v>0</v>
+      </c>
       <c r="B838" s="1" t="str" cm="1">
         <f t="array" ref="B838">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A838)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16446,7 +18120,9 @@
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" s="1"/>
+      <c r="A839" s="1">
+        <v>1</v>
+      </c>
       <c r="B839" s="1" t="str" cm="1">
         <f t="array" ref="B839">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A839)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16465,7 +18141,9 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" s="1"/>
+      <c r="A840" s="1">
+        <v>0</v>
+      </c>
       <c r="B840" s="1" t="str" cm="1">
         <f t="array" ref="B840">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A840)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16484,7 +18162,9 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="1"/>
+      <c r="A841" s="1">
+        <v>0</v>
+      </c>
       <c r="B841" s="1" t="str" cm="1">
         <f t="array" ref="B841">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A841)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16503,7 +18183,9 @@
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" s="1"/>
+      <c r="A842" s="1">
+        <v>0</v>
+      </c>
       <c r="B842" s="1" t="str" cm="1">
         <f t="array" ref="B842">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A842)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16522,7 +18204,9 @@
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="1"/>
+      <c r="A843" s="1">
+        <v>0</v>
+      </c>
       <c r="B843" s="1" t="str" cm="1">
         <f t="array" ref="B843">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A843)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16541,7 +18225,9 @@
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" s="1"/>
+      <c r="A844" s="1">
+        <v>0</v>
+      </c>
       <c r="B844" s="1" t="str" cm="1">
         <f t="array" ref="B844">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A844)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16560,7 +18246,9 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" s="1"/>
+      <c r="A845" s="1">
+        <v>1</v>
+      </c>
       <c r="B845" s="1" t="str" cm="1">
         <f t="array" ref="B845">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A845)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16579,7 +18267,9 @@
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" s="1"/>
+      <c r="A846" s="1">
+        <v>0</v>
+      </c>
       <c r="B846" s="1" t="str" cm="1">
         <f t="array" ref="B846">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A846)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16598,7 +18288,9 @@
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" s="1"/>
+      <c r="A847" s="1">
+        <v>0</v>
+      </c>
       <c r="B847" s="1" t="str" cm="1">
         <f t="array" ref="B847">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A847)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16617,7 +18309,9 @@
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="1"/>
+      <c r="A848" s="1">
+        <v>1</v>
+      </c>
       <c r="B848" s="1" t="str" cm="1">
         <f t="array" ref="B848">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A848)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16636,7 +18330,9 @@
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" s="1"/>
+      <c r="A849" s="1">
+        <v>0</v>
+      </c>
       <c r="B849" s="1" t="str" cm="1">
         <f t="array" ref="B849">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A849)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16655,7 +18351,9 @@
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" s="1"/>
+      <c r="A850" s="1">
+        <v>0</v>
+      </c>
       <c r="B850" s="1" t="str" cm="1">
         <f t="array" ref="B850">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A850)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16674,7 +18372,9 @@
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" s="1"/>
+      <c r="A851" s="1">
+        <v>0</v>
+      </c>
       <c r="B851" s="1" t="str" cm="1">
         <f t="array" ref="B851">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A851)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16693,7 +18393,9 @@
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" s="1"/>
+      <c r="A852" s="1">
+        <v>0</v>
+      </c>
       <c r="B852" s="1" t="str" cm="1">
         <f t="array" ref="B852">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A852)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16712,7 +18414,9 @@
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A853" s="1"/>
+      <c r="A853" s="1">
+        <v>1</v>
+      </c>
       <c r="B853" s="1" t="str" cm="1">
         <f t="array" ref="B853">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A853)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16731,7 +18435,9 @@
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A854" s="1"/>
+      <c r="A854" s="1">
+        <v>0</v>
+      </c>
       <c r="B854" s="1" t="str" cm="1">
         <f t="array" ref="B854">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A854)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16750,7 +18456,9 @@
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A855" s="1"/>
+      <c r="A855" s="1">
+        <v>1</v>
+      </c>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16769,7 +18477,9 @@
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A856" s="1"/>
+      <c r="A856" s="1">
+        <v>0</v>
+      </c>
       <c r="B856" s="1" t="str" cm="1">
         <f t="array" ref="B856">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A856)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16788,7 +18498,9 @@
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A857" s="1"/>
+      <c r="A857" s="1">
+        <v>0</v>
+      </c>
       <c r="B857" s="1" t="str" cm="1">
         <f t="array" ref="B857">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A857)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16807,7 +18519,9 @@
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A858" s="1"/>
+      <c r="A858" s="1">
+        <v>0</v>
+      </c>
       <c r="B858" s="1" t="str" cm="1">
         <f t="array" ref="B858">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A858)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16826,7 +18540,9 @@
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A859" s="1"/>
+      <c r="A859" s="1">
+        <v>0</v>
+      </c>
       <c r="B859" s="1" t="str" cm="1">
         <f t="array" ref="B859">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A859)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16845,7 +18561,9 @@
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A860" s="1"/>
+      <c r="A860" s="1">
+        <v>0</v>
+      </c>
       <c r="B860" s="1" t="str" cm="1">
         <f t="array" ref="B860">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A860)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16864,7 +18582,9 @@
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A861" s="1"/>
+      <c r="A861" s="1">
+        <v>0</v>
+      </c>
       <c r="B861" s="1" t="str" cm="1">
         <f t="array" ref="B861">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A861)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16883,7 +18603,9 @@
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862" s="1"/>
+      <c r="A862" s="1">
+        <v>0</v>
+      </c>
       <c r="B862" s="1" t="str" cm="1">
         <f t="array" ref="B862">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A862)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16902,7 +18624,9 @@
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A863" s="1"/>
+      <c r="A863" s="1">
+        <v>0</v>
+      </c>
       <c r="B863" s="1" t="str" cm="1">
         <f t="array" ref="B863">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A863)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16921,7 +18645,9 @@
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A864" s="1"/>
+      <c r="A864" s="1">
+        <v>0</v>
+      </c>
       <c r="B864" s="1" t="str" cm="1">
         <f t="array" ref="B864">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A864)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16940,7 +18666,9 @@
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" s="1"/>
+      <c r="A865" s="1">
+        <v>0</v>
+      </c>
       <c r="B865" s="1" t="str" cm="1">
         <f t="array" ref="B865">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A865)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16959,7 +18687,9 @@
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" s="1"/>
+      <c r="A866" s="1">
+        <v>1</v>
+      </c>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16978,7 +18708,9 @@
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A867" s="1"/>
+      <c r="A867" s="1">
+        <v>1</v>
+      </c>
       <c r="B867" s="1" t="str" cm="1">
         <f t="array" ref="B867">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A867)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16997,7 +18729,9 @@
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A868" s="1"/>
+      <c r="A868" s="1">
+        <v>0</v>
+      </c>
       <c r="B868" s="1" t="str" cm="1">
         <f t="array" ref="B868">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A868)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17016,7 +18750,9 @@
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A869" s="1"/>
+      <c r="A869" s="1">
+        <v>1</v>
+      </c>
       <c r="B869" s="1" t="str" cm="1">
         <f t="array" ref="B869">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A869)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17035,7 +18771,9 @@
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" s="1"/>
+      <c r="A870" s="1">
+        <v>0</v>
+      </c>
       <c r="B870" s="1" t="str" cm="1">
         <f t="array" ref="B870">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A870)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17054,7 +18792,9 @@
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A871" s="1"/>
+      <c r="A871" s="1">
+        <v>0</v>
+      </c>
       <c r="B871" s="1" t="str" cm="1">
         <f t="array" ref="B871">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A871)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17073,7 +18813,9 @@
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872" s="1"/>
+      <c r="A872" s="1">
+        <v>0</v>
+      </c>
       <c r="B872" s="1" t="str" cm="1">
         <f t="array" ref="B872">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A872)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17092,7 +18834,9 @@
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A873" s="1"/>
+      <c r="A873" s="1">
+        <v>0</v>
+      </c>
       <c r="B873" s="1" t="str" cm="1">
         <f t="array" ref="B873">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A873)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17111,7 +18855,9 @@
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A874" s="1"/>
+      <c r="A874" s="1">
+        <v>0</v>
+      </c>
       <c r="B874" s="1" t="str" cm="1">
         <f t="array" ref="B874">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A874)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17130,7 +18876,9 @@
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A875" s="1"/>
+      <c r="A875" s="1">
+        <v>0</v>
+      </c>
       <c r="B875" s="1" t="str" cm="1">
         <f t="array" ref="B875">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A875)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17149,7 +18897,9 @@
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A876" s="1"/>
+      <c r="A876" s="1">
+        <v>0</v>
+      </c>
       <c r="B876" s="1" t="str" cm="1">
         <f t="array" ref="B876">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A876)-2)/175)+1)</f>
         <v>5TO</v>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO IO - FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5506781-C8AC-41BA-8AD6-5ACF4FF660AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67BBAE-E309-4638-887D-C97E13380BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="945" windowWidth="15375" windowHeight="7785" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
+    <workbookView xWindow="2910" yWindow="300" windowWidth="15375" windowHeight="7785" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" ref="B2">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A2)-2)/175)+1)</f>
@@ -590,12 +590,12 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" ref="B5">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A5)-2)/175)+1)</f>
@@ -617,12 +617,12 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A6)-2)/175)+1)</f>
@@ -754,7 +754,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A12)-2)/175)+1)</f>
@@ -880,7 +880,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A18)-2)/175)+1)</f>
@@ -985,7 +985,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" ref="B23">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A23)-2)/175)+1)</f>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A24)-2)/175)+1)</f>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" ref="B30">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A30)-2)/175)+1)</f>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="str" cm="1">
         <f t="array" ref="B33">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A33)-2)/175)+1)</f>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="str" cm="1">
         <f t="array" ref="B37">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A37)-2)/175)+1)</f>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" ref="B38">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A38)-2)/175)+1)</f>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="str" cm="1">
         <f t="array" ref="B44">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A44)-2)/175)+1)</f>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A45)-2)/175)+1)</f>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A46)-2)/175)+1)</f>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" ref="B53">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A53)-2)/175)+1)</f>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1" t="str" cm="1">
         <f t="array" ref="B54">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A54)-2)/175)+1)</f>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" s="1" t="str" cm="1">
         <f t="array" ref="B59">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A59)-2)/175)+1)</f>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1" t="str" cm="1">
         <f t="array" ref="B61">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A61)-2)/175)+1)</f>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1" t="str" cm="1">
         <f t="array" ref="B65">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A65)-2)/175)+1)</f>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1" t="str" cm="1">
         <f t="array" ref="B66">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A66)-2)/175)+1)</f>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1" t="str" cm="1">
         <f t="array" ref="B73">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A73)-2)/175)+1)</f>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" s="1" t="str" cm="1">
         <f t="array" ref="B78">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A78)-2)/175)+1)</f>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1" t="str" cm="1">
         <f t="array" ref="B80">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A80)-2)/175)+1)</f>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A84)-2)/175)+1)</f>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" s="1" t="str" cm="1">
         <f t="array" ref="B85">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A85)-2)/175)+1)</f>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1" t="str" cm="1">
         <f t="array" ref="B86">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A86)-2)/175)+1)</f>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" s="1" t="str" cm="1">
         <f t="array" ref="B90">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A90)-2)/175)+1)</f>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1" t="str" cm="1">
         <f t="array" ref="B92">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A92)-2)/175)+1)</f>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" s="1" t="str" cm="1">
         <f t="array" ref="B93">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A93)-2)/175)+1)</f>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1" t="str" cm="1">
         <f t="array" ref="B97">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A97)-2)/175)+1)</f>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1" t="str" cm="1">
         <f t="array" ref="B104">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A104)-2)/175)+1)</f>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" s="1" t="str" cm="1">
         <f t="array" ref="B105">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A105)-2)/175)+1)</f>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1" t="str" cm="1">
         <f t="array" ref="B106">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A106)-2)/175)+1)</f>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" s="1" t="str" cm="1">
         <f t="array" ref="B111">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A111)-2)/175)+1)</f>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1" t="str" cm="1">
         <f t="array" ref="B113">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A113)-2)/175)+1)</f>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" s="1" t="str" cm="1">
         <f t="array" ref="B116">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A116)-2)/175)+1)</f>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1" t="str" cm="1">
         <f t="array" ref="B119">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A119)-2)/175)+1)</f>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" s="1" t="str" cm="1">
         <f t="array" ref="B132">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A132)-2)/175)+1)</f>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1" t="str" cm="1">
         <f t="array" ref="B133">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A133)-2)/175)+1)</f>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" s="1" t="str" cm="1">
         <f t="array" ref="B134">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A134)-2)/175)+1)</f>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" s="1" t="str" cm="1">
         <f t="array" ref="B137">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A137)-2)/175)+1)</f>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" s="1" t="str" cm="1">
         <f t="array" ref="B145">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A145)-2)/175)+1)</f>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1" t="str" cm="1">
         <f t="array" ref="B152">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A152)-2)/175)+1)</f>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1" t="str" cm="1">
         <f t="array" ref="B155">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A155)-2)/175)+1)</f>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" s="1" t="str" cm="1">
         <f t="array" ref="B159">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A159)-2)/175)+1)</f>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" s="1" t="str" cm="1">
         <f t="array" ref="B160">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A160)-2)/175)+1)</f>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" s="1" t="str" cm="1">
         <f t="array" ref="B162">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A162)-2)/175)+1)</f>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1" t="str" cm="1">
         <f t="array" ref="B169">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A169)-2)/175)+1)</f>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" s="1" t="str" cm="1">
         <f t="array" ref="B172">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A172)-2)/175)+1)</f>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B174" s="1" t="str" cm="1">
         <f t="array" ref="B174">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A174)-2)/175)+1)</f>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1" t="str" cm="1">
         <f t="array" ref="B175">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A175)-2)/175)+1)</f>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" s="1" t="str" cm="1">
         <f t="array" ref="B178">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A178)-2)/175)+1)</f>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B184" s="1" t="str" cm="1">
         <f t="array" ref="B184">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A184)-2)/175)+1)</f>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" s="1" t="str" cm="1">
         <f t="array" ref="B186">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A186)-2)/175)+1)</f>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1" t="str" cm="1">
         <f t="array" ref="B187">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A187)-2)/175)+1)</f>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" s="1" t="str" cm="1">
         <f t="array" ref="B193">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A193)-2)/175)+1)</f>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" s="1" t="str" cm="1">
         <f t="array" ref="B194">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A194)-2)/175)+1)</f>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B198" s="1" t="str" cm="1">
         <f t="array" ref="B198">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A198)-2)/175)+1)</f>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200" s="1" t="str" cm="1">
         <f t="array" ref="B200">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A200)-2)/175)+1)</f>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B205" s="1" t="str" cm="1">
         <f t="array" ref="B205">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A205)-2)/175)+1)</f>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B206" s="1" t="str" cm="1">
         <f t="array" ref="B206">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A206)-2)/175)+1)</f>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B207" s="1" t="str" cm="1">
         <f t="array" ref="B207">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A207)-2)/175)+1)</f>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B209" s="1" t="str" cm="1">
         <f t="array" ref="B209">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A209)-2)/175)+1)</f>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B212" s="1" t="str" cm="1">
         <f t="array" ref="B212">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A212)-2)/175)+1)</f>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B213" s="1" t="str" cm="1">
         <f t="array" ref="B213">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A213)-2)/175)+1)</f>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B215" s="1" t="str" cm="1">
         <f t="array" ref="B215">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A215)-2)/175)+1)</f>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B219" s="1" t="str" cm="1">
         <f t="array" ref="B219">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A219)-2)/175)+1)</f>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B220" s="1" t="str" cm="1">
         <f t="array" ref="B220">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A220)-2)/175)+1)</f>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B222" s="1" t="str" cm="1">
         <f t="array" ref="B222">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A222)-2)/175)+1)</f>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B227" s="1" t="str" cm="1">
         <f t="array" ref="B227">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A227)-2)/175)+1)</f>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B228" s="1" t="str" cm="1">
         <f t="array" ref="B228">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A228)-2)/175)+1)</f>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B230" s="1" t="str" cm="1">
         <f t="array" ref="B230">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A230)-2)/175)+1)</f>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B236" s="1" t="str" cm="1">
         <f t="array" ref="B236">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A236)-2)/175)+1)</f>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B237" s="1" t="str" cm="1">
         <f t="array" ref="B237">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A237)-2)/175)+1)</f>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B242" s="1" t="str" cm="1">
         <f t="array" ref="B242">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A242)-2)/175)+1)</f>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B247" s="1" t="str" cm="1">
         <f t="array" ref="B247">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A247)-2)/175)+1)</f>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B251" s="1" t="str" cm="1">
         <f t="array" ref="B251">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A251)-2)/175)+1)</f>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B255" s="1" t="str" cm="1">
         <f t="array" ref="B255">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A255)-2)/175)+1)</f>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B260" s="1" t="str" cm="1">
         <f t="array" ref="B260">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A260)-2)/175)+1)</f>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B262" s="1" t="str" cm="1">
         <f t="array" ref="B262">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A262)-2)/175)+1)</f>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B266" s="1" t="str" cm="1">
         <f t="array" ref="B266">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A266)-2)/175)+1)</f>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B267" s="1" t="str" cm="1">
         <f t="array" ref="B267">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A267)-2)/175)+1)</f>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1" t="str" cm="1">
         <f t="array" ref="B274">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A274)-2)/175)+1)</f>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B275" s="1" t="str" cm="1">
         <f t="array" ref="B275">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A275)-2)/175)+1)</f>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B281" s="1" t="str" cm="1">
         <f t="array" ref="B281">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A281)-2)/175)+1)</f>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B286" s="1" t="str" cm="1">
         <f t="array" ref="B286">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A286)-2)/175)+1)</f>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B291" s="1" t="str" cm="1">
         <f t="array" ref="B291">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A291)-2)/175)+1)</f>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B294" s="1" t="str" cm="1">
         <f t="array" ref="B294">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A294)-2)/175)+1)</f>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B295" s="1" t="str" cm="1">
         <f t="array" ref="B295">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A295)-2)/175)+1)</f>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B307" s="1" t="str" cm="1">
         <f t="array" ref="B307">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A307)-2)/175)+1)</f>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B311" s="1" t="str" cm="1">
         <f t="array" ref="B311">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A311)-2)/175)+1)</f>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B316" s="1" t="str" cm="1">
         <f t="array" ref="B316">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A316)-2)/175)+1)</f>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B320" s="1" t="str" cm="1">
         <f t="array" ref="B320">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A320)-2)/175)+1)</f>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B329" s="1" t="str" cm="1">
         <f t="array" ref="B329">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A329)-2)/175)+1)</f>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B335" s="1" t="str" cm="1">
         <f t="array" ref="B335">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A335)-2)/175)+1)</f>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B336" s="1" t="str" cm="1">
         <f t="array" ref="B336">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A336)-2)/175)+1)</f>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B337" s="1" t="str" cm="1">
         <f t="array" ref="B337">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A337)-2)/175)+1)</f>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B341" s="1" t="str" cm="1">
         <f t="array" ref="B341">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A341)-2)/175)+1)</f>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B344" s="1" t="str" cm="1">
         <f t="array" ref="B344">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A344)-2)/175)+1)</f>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B348" s="1" t="str" cm="1">
         <f t="array" ref="B348">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A348)-2)/175)+1)</f>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B349" s="1" t="str" cm="1">
         <f t="array" ref="B349">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A349)-2)/175)+1)</f>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B352" s="1" t="str" cm="1">
         <f t="array" ref="B352">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A352)-2)/175)+1)</f>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B353" s="1" t="str" cm="1">
         <f t="array" ref="B353">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A353)-2)/175)+1)</f>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B355" s="1" t="str" cm="1">
         <f t="array" ref="B355">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A355)-2)/175)+1)</f>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B359" s="1" t="str" cm="1">
         <f t="array" ref="B359">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A359)-2)/175)+1)</f>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B361" s="1" t="str" cm="1">
         <f t="array" ref="B361">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A361)-2)/175)+1)</f>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B369" s="1" t="str" cm="1">
         <f t="array" ref="B369">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A369)-2)/175)+1)</f>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B375" s="1" t="str" cm="1">
         <f t="array" ref="B375">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A375)-2)/175)+1)</f>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B382" s="1" t="str" cm="1">
         <f t="array" ref="B382">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A382)-2)/175)+1)</f>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B383" s="1" t="str" cm="1">
         <f t="array" ref="B383">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A383)-2)/175)+1)</f>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B390" s="1" t="str" cm="1">
         <f t="array" ref="B390">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A390)-2)/175)+1)</f>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B396" s="1" t="str" cm="1">
         <f t="array" ref="B396">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A396)-2)/175)+1)</f>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B397" s="1" t="str" cm="1">
         <f t="array" ref="B397">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A397)-2)/175)+1)</f>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B401" s="1" t="str" cm="1">
         <f t="array" ref="B401">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A401)-2)/175)+1)</f>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B402" s="1" t="str" cm="1">
         <f t="array" ref="B402">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A402)-2)/175)+1)</f>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B404" s="1" t="str" cm="1">
         <f t="array" ref="B404">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A404)-2)/175)+1)</f>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B409" s="1" t="str" cm="1">
         <f t="array" ref="B409">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A409)-2)/175)+1)</f>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B415" s="1" t="str" cm="1">
         <f t="array" ref="B415">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A415)-2)/175)+1)</f>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B417" s="1" t="str" cm="1">
         <f t="array" ref="B417">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A417)-2)/175)+1)</f>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B418" s="1" t="str" cm="1">
         <f t="array" ref="B418">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A418)-2)/175)+1)</f>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B422" s="1" t="str" cm="1">
         <f t="array" ref="B422">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A422)-2)/175)+1)</f>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B428" s="1" t="str" cm="1">
         <f t="array" ref="B428">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A428)-2)/175)+1)</f>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B429" s="1" t="str" cm="1">
         <f t="array" ref="B429">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A429)-2)/175)+1)</f>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B434" s="1" t="str" cm="1">
         <f t="array" ref="B434">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A434)-2)/175)+1)</f>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B436" s="1" t="str" cm="1">
         <f t="array" ref="B436">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A436)-2)/175)+1)</f>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B437" s="1" t="str" cm="1">
         <f t="array" ref="B437">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A437)-2)/175)+1)</f>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B441" s="1" t="str" cm="1">
         <f t="array" ref="B441">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A441)-2)/175)+1)</f>
@@ -9805,7 +9805,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B443" s="1" t="str" cm="1">
         <f t="array" ref="B443">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A443)-2)/175)+1)</f>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B449" s="1" t="str" cm="1">
         <f t="array" ref="B449">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A449)-2)/175)+1)</f>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B450" s="1" t="str" cm="1">
         <f t="array" ref="B450">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A450)-2)/175)+1)</f>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B455" s="1" t="str" cm="1">
         <f t="array" ref="B455">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A455)-2)/175)+1)</f>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B470" s="1" t="str" cm="1">
         <f t="array" ref="B470">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A470)-2)/175)+1)</f>
@@ -10645,7 +10645,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B483" s="1" t="str" cm="1">
         <f t="array" ref="B483">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A483)-2)/175)+1)</f>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B484" s="1" t="str" cm="1">
         <f t="array" ref="B484">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A484)-2)/175)+1)</f>
@@ -10708,7 +10708,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B486" s="1" t="str" cm="1">
         <f t="array" ref="B486">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A486)-2)/175)+1)</f>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B491" s="1" t="str" cm="1">
         <f t="array" ref="B491">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A491)-2)/175)+1)</f>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B502" s="1" t="str" cm="1">
         <f t="array" ref="B502">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A502)-2)/175)+1)</f>
@@ -11086,7 +11086,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B504" s="1" t="str" cm="1">
         <f t="array" ref="B504">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A504)-2)/175)+1)</f>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B505" s="1" t="str" cm="1">
         <f t="array" ref="B505">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A505)-2)/175)+1)</f>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B511" s="1" t="str" cm="1">
         <f t="array" ref="B511">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A511)-2)/175)+1)</f>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B515" s="1" t="str" cm="1">
         <f t="array" ref="B515">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A515)-2)/175)+1)</f>
@@ -11380,7 +11380,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B525" s="1" t="str" cm="1">
         <f t="array" ref="B525">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A525)-2)/175)+1)</f>
@@ -11548,7 +11548,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B526" s="1" t="str" cm="1">
         <f t="array" ref="B526">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A526)-2)/175)+1)</f>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B527" s="1" t="str" cm="1">
         <f t="array" ref="B527">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A527)-2)/175)+1)</f>
@@ -11611,7 +11611,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B529" s="1" t="str" cm="1">
         <f t="array" ref="B529">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A529)-2)/175)+1)</f>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B535" s="1" t="str" cm="1">
         <f t="array" ref="B535">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A535)-2)/175)+1)</f>
@@ -11758,7 +11758,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B536" s="1" t="str" cm="1">
         <f t="array" ref="B536">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A536)-2)/175)+1)</f>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B544" s="1" t="str" cm="1">
         <f t="array" ref="B544">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A544)-2)/175)+1)</f>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B555" s="1" t="str" cm="1">
         <f t="array" ref="B555">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A555)-2)/175)+1)</f>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B556" s="1" t="str" cm="1">
         <f t="array" ref="B556">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A556)-2)/175)+1)</f>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B557" s="1" t="str" cm="1">
         <f t="array" ref="B557">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A557)-2)/175)+1)</f>
@@ -12451,7 +12451,7 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B569" s="1" t="str" cm="1">
         <f t="array" ref="B569">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A569)-2)/175)+1)</f>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B572" s="1" t="str" cm="1">
         <f t="array" ref="B572">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A572)-2)/175)+1)</f>
@@ -12661,7 +12661,7 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B579" s="1" t="str" cm="1">
         <f t="array" ref="B579">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A579)-2)/175)+1)</f>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B582" s="1" t="str" cm="1">
         <f t="array" ref="B582">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A582)-2)/175)+1)</f>
@@ -12808,7 +12808,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B586" s="1" t="str" cm="1">
         <f t="array" ref="B586">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A586)-2)/175)+1)</f>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
@@ -13039,7 +13039,7 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B597" s="1" t="str" cm="1">
         <f t="array" ref="B597">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A597)-2)/175)+1)</f>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
@@ -13270,7 +13270,7 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B608" s="1" t="str" cm="1">
         <f t="array" ref="B608">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A608)-2)/175)+1)</f>
@@ -13291,7 +13291,7 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B609" s="1" t="str" cm="1">
         <f t="array" ref="B609">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A609)-2)/175)+1)</f>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B629" s="1" t="str" cm="1">
         <f t="array" ref="B629">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A629)-2)/175)+1)</f>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B639" s="1" t="str" cm="1">
         <f t="array" ref="B639">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A639)-2)/175)+1)</f>
@@ -14005,7 +14005,7 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B643" s="1" t="str" cm="1">
         <f t="array" ref="B643">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A643)-2)/175)+1)</f>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A645)-2)/175)+1)</f>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B650" s="1" t="str" cm="1">
         <f t="array" ref="B650">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A650)-2)/175)+1)</f>
@@ -14194,7 +14194,7 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B652" s="1" t="str" cm="1">
         <f t="array" ref="B652">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A652)-2)/175)+1)</f>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B655" s="1" t="str" cm="1">
         <f t="array" ref="B655">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A655)-2)/175)+1)</f>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B656" s="1" t="str" cm="1">
         <f t="array" ref="B656">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A656)-2)/175)+1)</f>
@@ -14320,7 +14320,7 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B658" s="1" t="str" cm="1">
         <f t="array" ref="B658">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A658)-2)/175)+1)</f>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B662" s="1" t="str" cm="1">
         <f t="array" ref="B662">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A662)-2)/175)+1)</f>
@@ -14425,7 +14425,7 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B663" s="1" t="str" cm="1">
         <f t="array" ref="B663">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A663)-2)/175)+1)</f>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B664" s="1" t="str" cm="1">
         <f t="array" ref="B664">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A664)-2)/175)+1)</f>
@@ -14467,7 +14467,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B665" s="1" t="str" cm="1">
         <f t="array" ref="B665">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A665)-2)/175)+1)</f>
@@ -14551,7 +14551,7 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B669" s="1" t="str" cm="1">
         <f t="array" ref="B669">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A669)-2)/175)+1)</f>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B670" s="1" t="str" cm="1">
         <f t="array" ref="B670">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A670)-2)/175)+1)</f>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B676" s="1" t="str" cm="1">
         <f t="array" ref="B676">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A676)-2)/175)+1)</f>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
@@ -14761,7 +14761,7 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B680" s="1" t="str" cm="1">
         <f t="array" ref="B680">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A680)-2)/175)+1)</f>
@@ -14992,7 +14992,7 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A690)-2)/175)+1)</f>
@@ -15055,7 +15055,7 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B693" s="1" t="str" cm="1">
         <f t="array" ref="B693">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A693)-2)/175)+1)</f>
@@ -15160,7 +15160,7 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B698" s="1" t="str" cm="1">
         <f t="array" ref="B698">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A698)-2)/175)+1)</f>
@@ -15202,7 +15202,7 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B700" s="1" t="str" cm="1">
         <f t="array" ref="B700">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A700)-2)/175)+1)</f>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B702" s="1" t="str" cm="1">
         <f t="array" ref="B702">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A702)-2)/175)+1)</f>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B704" s="1" t="str" cm="1">
         <f t="array" ref="B704">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A704)-2)/175)+1)</f>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B705" s="1" t="str" cm="1">
         <f t="array" ref="B705">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A705)-2)/175)+1)</f>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
@@ -15454,7 +15454,7 @@
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B719" s="1" t="str" cm="1">
         <f t="array" ref="B719">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A719)-2)/175)+1)</f>
@@ -15622,7 +15622,7 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B720" s="1" t="str" cm="1">
         <f t="array" ref="B720">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A720)-2)/175)+1)</f>
@@ -15895,7 +15895,7 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B733" s="1" t="str" cm="1">
         <f t="array" ref="B733">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A733)-2)/175)+1)</f>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B745" s="1" t="str" cm="1">
         <f t="array" ref="B745">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A745)-2)/175)+1)</f>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B746" s="1" t="str" cm="1">
         <f t="array" ref="B746">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A746)-2)/175)+1)</f>
@@ -16336,7 +16336,7 @@
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B754" s="1" t="str" cm="1">
         <f t="array" ref="B754">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A754)-2)/175)+1)</f>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B757" s="1" t="str" cm="1">
         <f t="array" ref="B757">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A757)-2)/175)+1)</f>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B761" s="1" t="str" cm="1">
         <f t="array" ref="B761">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A761)-2)/175)+1)</f>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
@@ -16630,7 +16630,7 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B768" s="1" t="str" cm="1">
         <f t="array" ref="B768">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A768)-2)/175)+1)</f>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B772" s="1" t="str" cm="1">
         <f t="array" ref="B772">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A772)-2)/175)+1)</f>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B779" s="1" t="str" cm="1">
         <f t="array" ref="B779">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A779)-2)/175)+1)</f>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B805" s="1" t="str" cm="1">
         <f t="array" ref="B805">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A805)-2)/175)+1)</f>
@@ -17428,7 +17428,7 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
@@ -17617,7 +17617,7 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B815" s="1" t="str" cm="1">
         <f t="array" ref="B815">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A815)-2)/175)+1)</f>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B816" s="1" t="str" cm="1">
         <f t="array" ref="B816">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A816)-2)/175)+1)</f>
@@ -17701,7 +17701,7 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B819" s="1" t="str" cm="1">
         <f t="array" ref="B819">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A819)-2)/175)+1)</f>
@@ -17827,7 +17827,7 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B827" s="1" t="str" cm="1">
         <f t="array" ref="B827">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A827)-2)/175)+1)</f>
@@ -17974,7 +17974,7 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B832" s="1" t="str" cm="1">
         <f t="array" ref="B832">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A832)-2)/175)+1)</f>
@@ -18016,7 +18016,7 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B834" s="1" t="str" cm="1">
         <f t="array" ref="B834">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A834)-2)/175)+1)</f>
@@ -18037,7 +18037,7 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B835" s="1" t="str" cm="1">
         <f t="array" ref="B835">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A835)-2)/175)+1)</f>
@@ -18058,7 +18058,7 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B836" s="1" t="str" cm="1">
         <f t="array" ref="B836">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A836)-2)/175)+1)</f>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B837" s="1" t="str" cm="1">
         <f t="array" ref="B837">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A837)-2)/175)+1)</f>
@@ -18121,7 +18121,7 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B839" s="1" t="str" cm="1">
         <f t="array" ref="B839">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A839)-2)/175)+1)</f>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B840" s="1" t="str" cm="1">
         <f t="array" ref="B840">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A840)-2)/175)+1)</f>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B844" s="1" t="str" cm="1">
         <f t="array" ref="B844">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A844)-2)/175)+1)</f>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B845" s="1" t="str" cm="1">
         <f t="array" ref="B845">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A845)-2)/175)+1)</f>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B852" s="1" t="str" cm="1">
         <f t="array" ref="B852">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A852)-2)/175)+1)</f>
@@ -18436,7 +18436,7 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B854" s="1" t="str" cm="1">
         <f t="array" ref="B854">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A854)-2)/175)+1)</f>
@@ -18457,7 +18457,7 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
@@ -18688,7 +18688,7 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
@@ -18709,7 +18709,7 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B867" s="1" t="str" cm="1">
         <f t="array" ref="B867">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A867)-2)/175)+1)</f>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B869" s="1" t="str" cm="1">
         <f t="array" ref="B869">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A869)-2)/175)+1)</f>
@@ -18856,7 +18856,7 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B874" s="1" t="str" cm="1">
         <f t="array" ref="B874">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A874)-2)/175)+1)</f>
@@ -18898,7 +18898,7 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B876" s="1" t="str" cm="1">
         <f t="array" ref="B876">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A876)-2)/175)+1)</f>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO IO - FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67BBAE-E309-4638-887D-C97E13380BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA6809-20B8-4F80-AA20-E8A7BAA6E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="300" windowWidth="15375" windowHeight="7785" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
+    <workbookView xWindow="1200" yWindow="1425" windowWidth="15375" windowHeight="7785" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" ref="B3">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A3)-2)/175)+1)</f>
@@ -568,7 +568,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="str" cm="1">
         <f t="array" ref="B4">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A4)-2)/175)+1)</f>
@@ -590,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A6)-2)/175)+1)</f>
@@ -733,7 +733,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A11)-2)/175)+1)</f>
@@ -859,7 +859,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A17)-2)/175)+1)</f>
@@ -880,7 +880,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A18)-2)/175)+1)</f>
@@ -901,7 +901,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A19)-2)/175)+1)</f>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A24)-2)/175)+1)</f>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" ref="B25">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A25)-2)/175)+1)</f>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" ref="B30">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A30)-2)/175)+1)</f>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="str" cm="1">
         <f t="array" ref="B33">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A33)-2)/175)+1)</f>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="str" cm="1">
         <f t="array" ref="B44">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A44)-2)/175)+1)</f>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A46)-2)/175)+1)</f>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="str" cm="1">
         <f t="array" ref="B48">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A48)-2)/175)+1)</f>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" ref="B53">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A53)-2)/175)+1)</f>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="str" cm="1">
         <f t="array" ref="B55">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A55)-2)/175)+1)</f>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" ref="B60">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A60)-2)/175)+1)</f>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="1" t="str" cm="1">
         <f t="array" ref="B61">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A61)-2)/175)+1)</f>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="1" t="str" cm="1">
         <f t="array" ref="B65">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A65)-2)/175)+1)</f>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="str" cm="1">
         <f t="array" ref="B66">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A66)-2)/175)+1)</f>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="str" cm="1">
         <f t="array" ref="B67">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A67)-2)/175)+1)</f>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1" t="str" cm="1">
         <f t="array" ref="B69">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A69)-2)/175)+1)</f>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="1" t="str" cm="1">
         <f t="array" ref="B73">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A73)-2)/175)+1)</f>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A84)-2)/175)+1)</f>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" s="1" t="str" cm="1">
         <f t="array" ref="B86">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A86)-2)/175)+1)</f>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1" t="str" cm="1">
         <f t="array" ref="B87">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A87)-2)/175)+1)</f>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1" t="str" cm="1">
         <f t="array" ref="B91">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A91)-2)/175)+1)</f>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" s="1" t="str" cm="1">
         <f t="array" ref="B92">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A92)-2)/175)+1)</f>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1" t="str" cm="1">
         <f t="array" ref="B94">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A94)-2)/175)+1)</f>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" s="1" t="str" cm="1">
         <f t="array" ref="B97">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A97)-2)/175)+1)</f>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="str" cm="1">
         <f t="array" ref="B99">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A99)-2)/175)+1)</f>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" s="1" t="str" cm="1">
         <f t="array" ref="B104">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A104)-2)/175)+1)</f>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106" s="1" t="str" cm="1">
         <f t="array" ref="B106">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A106)-2)/175)+1)</f>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1" t="str" cm="1">
         <f t="array" ref="B109">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A109)-2)/175)+1)</f>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1" t="str" cm="1">
         <f t="array" ref="B110">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A110)-2)/175)+1)</f>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" s="1" t="str" cm="1">
         <f t="array" ref="B113">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A113)-2)/175)+1)</f>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" s="1" t="str" cm="1">
         <f t="array" ref="B118">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A118)-2)/175)+1)</f>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" s="1" t="str" cm="1">
         <f t="array" ref="B119">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A119)-2)/175)+1)</f>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1" t="str" cm="1">
         <f t="array" ref="B120">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A120)-2)/175)+1)</f>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" s="1" t="str" cm="1">
         <f t="array" ref="B126">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A126)-2)/175)+1)</f>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1" t="str" cm="1">
         <f t="array" ref="B127">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A127)-2)/175)+1)</f>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1" t="str" cm="1">
         <f t="array" ref="B132">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A132)-2)/175)+1)</f>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" s="1" t="str" cm="1">
         <f t="array" ref="B133">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A133)-2)/175)+1)</f>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" s="1" t="str" cm="1">
         <f t="array" ref="B137">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A137)-2)/175)+1)</f>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1" t="str" cm="1">
         <f t="array" ref="B140">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A140)-2)/175)+1)</f>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" s="1" t="str" cm="1">
         <f t="array" ref="B145">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A145)-2)/175)+1)</f>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" s="1" t="str" cm="1">
         <f t="array" ref="B146">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A146)-2)/175)+1)</f>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A148)-2)/175)+1)</f>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" s="1" t="str" cm="1">
         <f t="array" ref="B155">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A155)-2)/175)+1)</f>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" s="1" t="str" cm="1">
         <f t="array" ref="B159">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A159)-2)/175)+1)</f>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" s="1" t="str" cm="1">
         <f t="array" ref="B160">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A160)-2)/175)+1)</f>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" s="1" t="str" cm="1">
         <f t="array" ref="B169">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A169)-2)/175)+1)</f>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" s="1" t="str" cm="1">
         <f t="array" ref="B175">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A175)-2)/175)+1)</f>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B180" s="1" t="str" cm="1">
         <f t="array" ref="B180">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A180)-2)/175)+1)</f>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" s="1" t="str" cm="1">
         <f t="array" ref="B181">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A181)-2)/175)+1)</f>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" s="1" t="str" cm="1">
         <f t="array" ref="B185">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A185)-2)/175)+1)</f>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" s="1" t="str" cm="1">
         <f t="array" ref="B193">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A193)-2)/175)+1)</f>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194" s="1" t="str" cm="1">
         <f t="array" ref="B194">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A194)-2)/175)+1)</f>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" s="1" t="str" cm="1">
         <f t="array" ref="B200">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A200)-2)/175)+1)</f>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B205" s="1" t="str" cm="1">
         <f t="array" ref="B205">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A205)-2)/175)+1)</f>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" s="1" t="str" cm="1">
         <f t="array" ref="B206">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A206)-2)/175)+1)</f>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B214" s="1" t="str" cm="1">
         <f t="array" ref="B214">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A214)-2)/175)+1)</f>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215" s="1" t="str" cm="1">
         <f t="array" ref="B215">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A215)-2)/175)+1)</f>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B220" s="1" t="str" cm="1">
         <f t="array" ref="B220">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A220)-2)/175)+1)</f>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B221" s="1" t="str" cm="1">
         <f t="array" ref="B221">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A221)-2)/175)+1)</f>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1" t="str" cm="1">
         <f t="array" ref="B227">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A227)-2)/175)+1)</f>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B228" s="1" t="str" cm="1">
         <f t="array" ref="B228">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A228)-2)/175)+1)</f>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B230" s="1" t="str" cm="1">
         <f t="array" ref="B230">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A230)-2)/175)+1)</f>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B234" s="1" t="str" cm="1">
         <f t="array" ref="B234">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A234)-2)/175)+1)</f>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B240" s="1" t="str" cm="1">
         <f t="array" ref="B240">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A240)-2)/175)+1)</f>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B242" s="1" t="str" cm="1">
         <f t="array" ref="B242">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A242)-2)/175)+1)</f>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B253" s="1" t="str" cm="1">
         <f t="array" ref="B253">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A253)-2)/175)+1)</f>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B260" s="1" t="str" cm="1">
         <f t="array" ref="B260">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A260)-2)/175)+1)</f>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262" s="1" t="str" cm="1">
         <f t="array" ref="B262">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A262)-2)/175)+1)</f>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B266" s="1" t="str" cm="1">
         <f t="array" ref="B266">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A266)-2)/175)+1)</f>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1" t="str" cm="1">
         <f t="array" ref="B267">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A267)-2)/175)+1)</f>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B268" s="1" t="str" cm="1">
         <f t="array" ref="B268">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A268)-2)/175)+1)</f>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B273" s="1" t="str" cm="1">
         <f t="array" ref="B273">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A273)-2)/175)+1)</f>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B274" s="1" t="str" cm="1">
         <f t="array" ref="B274">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A274)-2)/175)+1)</f>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B276" s="1" t="str" cm="1">
         <f t="array" ref="B276">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A276)-2)/175)+1)</f>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B277" s="1" t="str" cm="1">
         <f t="array" ref="B277">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A277)-2)/175)+1)</f>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B284" s="1" t="str" cm="1">
         <f t="array" ref="B284">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A284)-2)/175)+1)</f>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B286" s="1" t="str" cm="1">
         <f t="array" ref="B286">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A286)-2)/175)+1)</f>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291" s="1" t="str" cm="1">
         <f t="array" ref="B291">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A291)-2)/175)+1)</f>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B293" s="1" t="str" cm="1">
         <f t="array" ref="B293">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A293)-2)/175)+1)</f>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B300" s="1" t="str" cm="1">
         <f t="array" ref="B300">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A300)-2)/175)+1)</f>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B304" s="1" t="str" cm="1">
         <f t="array" ref="B304">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A304)-2)/175)+1)</f>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B306" s="1" t="str" cm="1">
         <f t="array" ref="B306">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A306)-2)/175)+1)</f>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B307" s="1" t="str" cm="1">
         <f t="array" ref="B307">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A307)-2)/175)+1)</f>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B308" s="1" t="str" cm="1">
         <f t="array" ref="B308">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A308)-2)/175)+1)</f>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B309" s="1" t="str" cm="1">
         <f t="array" ref="B309">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A309)-2)/175)+1)</f>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B315" s="1" t="str" cm="1">
         <f t="array" ref="B315">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A315)-2)/175)+1)</f>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B323" s="1" t="str" cm="1">
         <f t="array" ref="B323">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A323)-2)/175)+1)</f>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B328" s="1" t="str" cm="1">
         <f t="array" ref="B328">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A328)-2)/175)+1)</f>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B330" s="1" t="str" cm="1">
         <f t="array" ref="B330">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A330)-2)/175)+1)</f>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B336" s="1" t="str" cm="1">
         <f t="array" ref="B336">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A336)-2)/175)+1)</f>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B337" s="1" t="str" cm="1">
         <f t="array" ref="B337">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A337)-2)/175)+1)</f>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B341" s="1" t="str" cm="1">
         <f t="array" ref="B341">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A341)-2)/175)+1)</f>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B342" s="1" t="str" cm="1">
         <f t="array" ref="B342">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A342)-2)/175)+1)</f>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B348" s="1" t="str" cm="1">
         <f t="array" ref="B348">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A348)-2)/175)+1)</f>
@@ -7852,7 +7852,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B350" s="1" t="str" cm="1">
         <f t="array" ref="B350">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A350)-2)/175)+1)</f>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B353" s="1" t="str" cm="1">
         <f t="array" ref="B353">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A353)-2)/175)+1)</f>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B354" s="1" t="str" cm="1">
         <f t="array" ref="B354">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A354)-2)/175)+1)</f>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B355" s="1" t="str" cm="1">
         <f t="array" ref="B355">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A355)-2)/175)+1)</f>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B360" s="1" t="str" cm="1">
         <f t="array" ref="B360">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A360)-2)/175)+1)</f>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B361" s="1" t="str" cm="1">
         <f t="array" ref="B361">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A361)-2)/175)+1)</f>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B367" s="1" t="str" cm="1">
         <f t="array" ref="B367">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A367)-2)/175)+1)</f>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B383" s="1" t="str" cm="1">
         <f t="array" ref="B383">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A383)-2)/175)+1)</f>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B389" s="1" t="str" cm="1">
         <f t="array" ref="B389">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A389)-2)/175)+1)</f>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B394" s="1" t="str" cm="1">
         <f t="array" ref="B394">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A394)-2)/175)+1)</f>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B395" s="1" t="str" cm="1">
         <f t="array" ref="B395">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A395)-2)/175)+1)</f>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B401" s="1" t="str" cm="1">
         <f t="array" ref="B401">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A401)-2)/175)+1)</f>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B402" s="1" t="str" cm="1">
         <f t="array" ref="B402">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A402)-2)/175)+1)</f>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B404" s="1" t="str" cm="1">
         <f t="array" ref="B404">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A404)-2)/175)+1)</f>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B409" s="1" t="str" cm="1">
         <f t="array" ref="B409">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A409)-2)/175)+1)</f>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B410" s="1" t="str" cm="1">
         <f t="array" ref="B410">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A410)-2)/175)+1)</f>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B412" s="1" t="str" cm="1">
         <f t="array" ref="B412">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A412)-2)/175)+1)</f>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B418" s="1" t="str" cm="1">
         <f t="array" ref="B418">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A418)-2)/175)+1)</f>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B428" s="1" t="str" cm="1">
         <f t="array" ref="B428">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A428)-2)/175)+1)</f>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B429" s="1" t="str" cm="1">
         <f t="array" ref="B429">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A429)-2)/175)+1)</f>
@@ -9595,7 +9595,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B433" s="1" t="str" cm="1">
         <f t="array" ref="B433">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A433)-2)/175)+1)</f>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B434" s="1" t="str" cm="1">
         <f t="array" ref="B434">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A434)-2)/175)+1)</f>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B435" s="1" t="str" cm="1">
         <f t="array" ref="B435">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A435)-2)/175)+1)</f>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B436" s="1" t="str" cm="1">
         <f t="array" ref="B436">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A436)-2)/175)+1)</f>
@@ -9805,7 +9805,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B443" s="1" t="str" cm="1">
         <f t="array" ref="B443">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A443)-2)/175)+1)</f>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B448" s="1" t="str" cm="1">
         <f t="array" ref="B448">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A448)-2)/175)+1)</f>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B456" s="1" t="str" cm="1">
         <f t="array" ref="B456">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A456)-2)/175)+1)</f>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B461" s="1" t="str" cm="1">
         <f t="array" ref="B461">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A461)-2)/175)+1)</f>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B469" s="1" t="str" cm="1">
         <f t="array" ref="B469">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A469)-2)/175)+1)</f>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B470" s="1" t="str" cm="1">
         <f t="array" ref="B470">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A470)-2)/175)+1)</f>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B474" s="1" t="str" cm="1">
         <f t="array" ref="B474">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A474)-2)/175)+1)</f>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B475" s="1" t="str" cm="1">
         <f t="array" ref="B475">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A475)-2)/175)+1)</f>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B476" s="1" t="str" cm="1">
         <f t="array" ref="B476">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A476)-2)/175)+1)</f>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B477" s="1" t="str" cm="1">
         <f t="array" ref="B477">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A477)-2)/175)+1)</f>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B484" s="1" t="str" cm="1">
         <f t="array" ref="B484">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A484)-2)/175)+1)</f>
@@ -10708,7 +10708,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B486" s="1" t="str" cm="1">
         <f t="array" ref="B486">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A486)-2)/175)+1)</f>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B495" s="1" t="str" cm="1">
         <f t="array" ref="B495">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A495)-2)/175)+1)</f>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B496" s="1" t="str" cm="1">
         <f t="array" ref="B496">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A496)-2)/175)+1)</f>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B501" s="1" t="str" cm="1">
         <f t="array" ref="B501">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A501)-2)/175)+1)</f>
@@ -11065,7 +11065,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B503" s="1" t="str" cm="1">
         <f t="array" ref="B503">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A503)-2)/175)+1)</f>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B510" s="1" t="str" cm="1">
         <f t="array" ref="B510">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A510)-2)/175)+1)</f>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B511" s="1" t="str" cm="1">
         <f t="array" ref="B511">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A511)-2)/175)+1)</f>
@@ -11254,7 +11254,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B512" s="1" t="str" cm="1">
         <f t="array" ref="B512">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A512)-2)/175)+1)</f>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B515" s="1" t="str" cm="1">
         <f t="array" ref="B515">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A515)-2)/175)+1)</f>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B517" s="1" t="str" cm="1">
         <f t="array" ref="B517">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A517)-2)/175)+1)</f>
@@ -11380,7 +11380,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B519" s="1" t="str" cm="1">
         <f t="array" ref="B519">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A519)-2)/175)+1)</f>
@@ -11548,7 +11548,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B526" s="1" t="str" cm="1">
         <f t="array" ref="B526">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A526)-2)/175)+1)</f>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B531" s="1" t="str" cm="1">
         <f t="array" ref="B531">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A531)-2)/175)+1)</f>
@@ -11863,7 +11863,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B541" s="1" t="str" cm="1">
         <f t="array" ref="B541">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A541)-2)/175)+1)</f>
@@ -11884,7 +11884,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B542" s="1" t="str" cm="1">
         <f t="array" ref="B542">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A542)-2)/175)+1)</f>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B555" s="1" t="str" cm="1">
         <f t="array" ref="B555">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A555)-2)/175)+1)</f>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B556" s="1" t="str" cm="1">
         <f t="array" ref="B556">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A556)-2)/175)+1)</f>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B557" s="1" t="str" cm="1">
         <f t="array" ref="B557">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A557)-2)/175)+1)</f>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B570" s="1" t="str" cm="1">
         <f t="array" ref="B570">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A570)-2)/175)+1)</f>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B571" s="1" t="str" cm="1">
         <f t="array" ref="B571">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A571)-2)/175)+1)</f>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B572" s="1" t="str" cm="1">
         <f t="array" ref="B572">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A572)-2)/175)+1)</f>
@@ -12535,7 +12535,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B573" s="1" t="str" cm="1">
         <f t="array" ref="B573">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A573)-2)/175)+1)</f>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B575" s="1" t="str" cm="1">
         <f t="array" ref="B575">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A575)-2)/175)+1)</f>
@@ -12598,7 +12598,7 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B576" s="1" t="str" cm="1">
         <f t="array" ref="B576">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A576)-2)/175)+1)</f>
@@ -12640,7 +12640,7 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B578" s="1" t="str" cm="1">
         <f t="array" ref="B578">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A578)-2)/175)+1)</f>
@@ -12661,7 +12661,7 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B579" s="1" t="str" cm="1">
         <f t="array" ref="B579">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A579)-2)/175)+1)</f>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B581" s="1" t="str" cm="1">
         <f t="array" ref="B581">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A581)-2)/175)+1)</f>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B583" s="1" t="str" cm="1">
         <f t="array" ref="B583">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A583)-2)/175)+1)</f>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B593" s="1" t="str" cm="1">
         <f t="array" ref="B593">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A593)-2)/175)+1)</f>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B602" s="1" t="str" cm="1">
         <f t="array" ref="B602">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A602)-2)/175)+1)</f>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
@@ -13270,7 +13270,7 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B608" s="1" t="str" cm="1">
         <f t="array" ref="B608">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A608)-2)/175)+1)</f>
@@ -13291,7 +13291,7 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B609" s="1" t="str" cm="1">
         <f t="array" ref="B609">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A609)-2)/175)+1)</f>
@@ -13354,7 +13354,7 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B612" s="1" t="str" cm="1">
         <f t="array" ref="B612">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A612)-2)/175)+1)</f>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B613" s="1" t="str" cm="1">
         <f t="array" ref="B613">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A613)-2)/175)+1)</f>
@@ -13438,7 +13438,7 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B616" s="1" t="str" cm="1">
         <f t="array" ref="B616">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A616)-2)/175)+1)</f>
@@ -13501,7 +13501,7 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B619" s="1" t="str" cm="1">
         <f t="array" ref="B619">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A619)-2)/175)+1)</f>
@@ -13564,7 +13564,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B622" s="1" t="str" cm="1">
         <f t="array" ref="B622">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A622)-2)/175)+1)</f>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B624" s="1" t="str" cm="1">
         <f t="array" ref="B624">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A624)-2)/175)+1)</f>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B630" s="1" t="str" cm="1">
         <f t="array" ref="B630">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A630)-2)/175)+1)</f>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B649" s="1" t="str" cm="1">
         <f t="array" ref="B649">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A649)-2)/175)+1)</f>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B650" s="1" t="str" cm="1">
         <f t="array" ref="B650">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A650)-2)/175)+1)</f>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B653" s="1" t="str" cm="1">
         <f t="array" ref="B653">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A653)-2)/175)+1)</f>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B654" s="1" t="str" cm="1">
         <f t="array" ref="B654">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A654)-2)/175)+1)</f>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B655" s="1" t="str" cm="1">
         <f t="array" ref="B655">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A655)-2)/175)+1)</f>
@@ -14341,7 +14341,7 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B659" s="1" t="str" cm="1">
         <f t="array" ref="B659">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A659)-2)/175)+1)</f>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B664" s="1" t="str" cm="1">
         <f t="array" ref="B664">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A664)-2)/175)+1)</f>
@@ -14488,7 +14488,7 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B666" s="1" t="str" cm="1">
         <f t="array" ref="B666">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A666)-2)/175)+1)</f>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B670" s="1" t="str" cm="1">
         <f t="array" ref="B670">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A670)-2)/175)+1)</f>
@@ -14593,7 +14593,7 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B671" s="1" t="str" cm="1">
         <f t="array" ref="B671">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A671)-2)/175)+1)</f>
@@ -14614,7 +14614,7 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B672" s="1" t="str" cm="1">
         <f t="array" ref="B672">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A672)-2)/175)+1)</f>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B676" s="1" t="str" cm="1">
         <f t="array" ref="B676">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A676)-2)/175)+1)</f>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
@@ -14761,7 +14761,7 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B680" s="1" t="str" cm="1">
         <f t="array" ref="B680">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A680)-2)/175)+1)</f>
@@ -14992,7 +14992,7 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A690)-2)/175)+1)</f>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B692" s="1" t="str" cm="1">
         <f t="array" ref="B692">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A692)-2)/175)+1)</f>
@@ -15139,7 +15139,7 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B697" s="1" t="str" cm="1">
         <f t="array" ref="B697">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A697)-2)/175)+1)</f>
@@ -15160,7 +15160,7 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B698" s="1" t="str" cm="1">
         <f t="array" ref="B698">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A698)-2)/175)+1)</f>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B699" s="1" t="str" cm="1">
         <f t="array" ref="B699">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A699)-2)/175)+1)</f>
@@ -15202,7 +15202,7 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B700" s="1" t="str" cm="1">
         <f t="array" ref="B700">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A700)-2)/175)+1)</f>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B701" s="1" t="str" cm="1">
         <f t="array" ref="B701">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A701)-2)/175)+1)</f>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B705" s="1" t="str" cm="1">
         <f t="array" ref="B705">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A705)-2)/175)+1)</f>
@@ -15328,7 +15328,7 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B706" s="1" t="str" cm="1">
         <f t="array" ref="B706">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A706)-2)/175)+1)</f>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B710" s="1" t="str" cm="1">
         <f t="array" ref="B710">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A710)-2)/175)+1)</f>
@@ -15433,7 +15433,7 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B711" s="1" t="str" cm="1">
         <f t="array" ref="B711">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A711)-2)/175)+1)</f>
@@ -15454,7 +15454,7 @@
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
@@ -15538,7 +15538,7 @@
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B716" s="1" t="str" cm="1">
         <f t="array" ref="B716">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A716)-2)/175)+1)</f>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B717" s="1" t="str" cm="1">
         <f t="array" ref="B717">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A717)-2)/175)+1)</f>
@@ -15622,7 +15622,7 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B720" s="1" t="str" cm="1">
         <f t="array" ref="B720">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A720)-2)/175)+1)</f>
@@ -15895,7 +15895,7 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B733" s="1" t="str" cm="1">
         <f t="array" ref="B733">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A733)-2)/175)+1)</f>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B745" s="1" t="str" cm="1">
         <f t="array" ref="B745">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A745)-2)/175)+1)</f>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B746" s="1" t="str" cm="1">
         <f t="array" ref="B746">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A746)-2)/175)+1)</f>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B749" s="1" t="str" cm="1">
         <f t="array" ref="B749">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A749)-2)/175)+1)</f>
@@ -16294,7 +16294,7 @@
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B752" s="1" t="str" cm="1">
         <f t="array" ref="B752">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A752)-2)/175)+1)</f>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B757" s="1" t="str" cm="1">
         <f t="array" ref="B757">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A757)-2)/175)+1)</f>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B758" s="1" t="str" cm="1">
         <f t="array" ref="B758">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A758)-2)/175)+1)</f>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B761" s="1" t="str" cm="1">
         <f t="array" ref="B761">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A761)-2)/175)+1)</f>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B769" s="1" t="str" cm="1">
         <f t="array" ref="B769">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A769)-2)/175)+1)</f>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B774" s="1" t="str" cm="1">
         <f t="array" ref="B774">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A774)-2)/175)+1)</f>
@@ -16819,7 +16819,7 @@
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B777" s="1" t="str" cm="1">
         <f t="array" ref="B777">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A777)-2)/175)+1)</f>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B779" s="1" t="str" cm="1">
         <f t="array" ref="B779">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A779)-2)/175)+1)</f>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
@@ -17008,7 +17008,7 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B786" s="1" t="str" cm="1">
         <f t="array" ref="B786">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A786)-2)/175)+1)</f>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B792" s="1" t="str" cm="1">
         <f t="array" ref="B792">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A792)-2)/175)+1)</f>
@@ -17155,7 +17155,7 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B793" s="1" t="str" cm="1">
         <f t="array" ref="B793">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A793)-2)/175)+1)</f>
@@ -17260,7 +17260,7 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B798" s="1" t="str" cm="1">
         <f t="array" ref="B798">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A798)-2)/175)+1)</f>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
@@ -17428,7 +17428,7 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
@@ -17512,7 +17512,7 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B810" s="1" t="str" cm="1">
         <f t="array" ref="B810">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A810)-2)/175)+1)</f>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B811" s="1" t="str" cm="1">
         <f t="array" ref="B811">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A811)-2)/175)+1)</f>
@@ -17554,7 +17554,7 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B812" s="1" t="str" cm="1">
         <f t="array" ref="B812">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A812)-2)/175)+1)</f>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B813" s="1" t="str" cm="1">
         <f t="array" ref="B813">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A813)-2)/175)+1)</f>
@@ -17827,7 +17827,7 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
@@ -18016,7 +18016,7 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B834" s="1" t="str" cm="1">
         <f t="array" ref="B834">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A834)-2)/175)+1)</f>
@@ -18037,7 +18037,7 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B835" s="1" t="str" cm="1">
         <f t="array" ref="B835">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A835)-2)/175)+1)</f>
@@ -18058,7 +18058,7 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B836" s="1" t="str" cm="1">
         <f t="array" ref="B836">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A836)-2)/175)+1)</f>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B837" s="1" t="str" cm="1">
         <f t="array" ref="B837">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A837)-2)/175)+1)</f>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B840" s="1" t="str" cm="1">
         <f t="array" ref="B840">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A840)-2)/175)+1)</f>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B844" s="1" t="str" cm="1">
         <f t="array" ref="B844">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A844)-2)/175)+1)</f>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B848" s="1" t="str" cm="1">
         <f t="array" ref="B848">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A848)-2)/175)+1)</f>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B852" s="1" t="str" cm="1">
         <f t="array" ref="B852">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A852)-2)/175)+1)</f>
@@ -18436,7 +18436,7 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B854" s="1" t="str" cm="1">
         <f t="array" ref="B854">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A854)-2)/175)+1)</f>
@@ -18457,7 +18457,7 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
@@ -18688,7 +18688,7 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B868" s="1" t="str" cm="1">
         <f t="array" ref="B868">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A868)-2)/175)+1)</f>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B869" s="1" t="str" cm="1">
         <f t="array" ref="B869">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A869)-2)/175)+1)</f>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B873" s="1" t="str" cm="1">
         <f t="array" ref="B873">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A873)-2)/175)+1)</f>
@@ -18856,7 +18856,7 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B874" s="1" t="str" cm="1">
         <f t="array" ref="B874">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A874)-2)/175)+1)</f>
@@ -18877,7 +18877,7 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B875" s="1" t="str" cm="1">
         <f t="array" ref="B875">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A875)-2)/175)+1)</f>
@@ -18898,7 +18898,7 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B876" s="1" t="str" cm="1">
         <f t="array" ref="B876">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A876)-2)/175)+1)</f>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO IO - FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA6809-20B8-4F80-AA20-E8A7BAA6E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A521A1B-A4CA-46B3-AA74-010AF33494D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1425" windowWidth="15375" windowHeight="7785" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,12 +617,12 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A6)-2)/175)+1)</f>
@@ -644,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A11)-2)/175)+1)</f>
@@ -754,7 +754,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A12)-2)/175)+1)</f>
@@ -859,7 +859,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A17)-2)/175)+1)</f>
@@ -880,7 +880,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A18)-2)/175)+1)</f>
@@ -985,7 +985,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" ref="B23">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A23)-2)/175)+1)</f>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" ref="B25">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A25)-2)/175)+1)</f>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A45)-2)/175)+1)</f>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A46)-2)/175)+1)</f>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="str" cm="1">
         <f t="array" ref="B48">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A48)-2)/175)+1)</f>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" ref="B53">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A53)-2)/175)+1)</f>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="str" cm="1">
         <f t="array" ref="B56">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A56)-2)/175)+1)</f>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" ref="B60">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A60)-2)/175)+1)</f>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1" t="str" cm="1">
         <f t="array" ref="B64">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A64)-2)/175)+1)</f>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="1" t="str" cm="1">
         <f t="array" ref="B67">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A67)-2)/175)+1)</f>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="str" cm="1">
         <f t="array" ref="B69">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A69)-2)/175)+1)</f>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" s="1" t="str" cm="1">
         <f t="array" ref="B80">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A80)-2)/175)+1)</f>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1" t="str" cm="1">
         <f t="array" ref="B83">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A83)-2)/175)+1)</f>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" s="1" t="str" cm="1">
         <f t="array" ref="B87">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A87)-2)/175)+1)</f>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" s="1" t="str" cm="1">
         <f t="array" ref="B91">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A91)-2)/175)+1)</f>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" s="1" t="str" cm="1">
         <f t="array" ref="B94">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A94)-2)/175)+1)</f>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1" t="str" cm="1">
         <f t="array" ref="B96">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A96)-2)/175)+1)</f>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1" t="str" cm="1">
         <f t="array" ref="B98">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A98)-2)/175)+1)</f>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" s="1" t="str" cm="1">
         <f t="array" ref="B99">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A99)-2)/175)+1)</f>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1" t="str" cm="1">
         <f t="array" ref="B103">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A103)-2)/175)+1)</f>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1" t="str" cm="1">
         <f t="array" ref="B104">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A104)-2)/175)+1)</f>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1" t="str" cm="1">
         <f t="array" ref="B105">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A105)-2)/175)+1)</f>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1" t="str" cm="1">
         <f t="array" ref="B113">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A113)-2)/175)+1)</f>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" s="1" t="str" cm="1">
         <f t="array" ref="B120">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A120)-2)/175)+1)</f>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" s="1" t="str" cm="1">
         <f t="array" ref="B140">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A140)-2)/175)+1)</f>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1" t="str" cm="1">
         <f t="array" ref="B141">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A141)-2)/175)+1)</f>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146" s="1" t="str" cm="1">
         <f t="array" ref="B146">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A146)-2)/175)+1)</f>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A148)-2)/175)+1)</f>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1" t="str" cm="1">
         <f t="array" ref="B149">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A149)-2)/175)+1)</f>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152" s="1" t="str" cm="1">
         <f t="array" ref="B152">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A152)-2)/175)+1)</f>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1" t="str" cm="1">
         <f t="array" ref="B155">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A155)-2)/175)+1)</f>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1" t="str" cm="1">
         <f t="array" ref="B156">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A156)-2)/175)+1)</f>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" s="1" t="str" cm="1">
         <f t="array" ref="B163">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A163)-2)/175)+1)</f>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" s="1" t="str" cm="1">
         <f t="array" ref="B164">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A164)-2)/175)+1)</f>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" s="1" t="str" cm="1">
         <f t="array" ref="B171">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A171)-2)/175)+1)</f>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" s="1" t="str" cm="1">
         <f t="array" ref="B172">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A172)-2)/175)+1)</f>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B179" s="1" t="str" cm="1">
         <f t="array" ref="B179">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A179)-2)/175)+1)</f>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B181" s="1" t="str" cm="1">
         <f t="array" ref="B181">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A181)-2)/175)+1)</f>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" s="1" t="str" cm="1">
         <f t="array" ref="B184">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A184)-2)/175)+1)</f>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" s="1" t="str" cm="1">
         <f t="array" ref="B186">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A186)-2)/175)+1)</f>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187" s="1" t="str" cm="1">
         <f t="array" ref="B187">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A187)-2)/175)+1)</f>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B191" s="1" t="str" cm="1">
         <f t="array" ref="B191">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A191)-2)/175)+1)</f>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" s="1" t="str" cm="1">
         <f t="array" ref="B193">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A193)-2)/175)+1)</f>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199" s="1" t="str" cm="1">
         <f t="array" ref="B199">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A199)-2)/175)+1)</f>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" s="1" t="str" cm="1">
         <f t="array" ref="B201">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A201)-2)/175)+1)</f>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B207" s="1" t="str" cm="1">
         <f t="array" ref="B207">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A207)-2)/175)+1)</f>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B214" s="1" t="str" cm="1">
         <f t="array" ref="B214">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A214)-2)/175)+1)</f>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B219" s="1" t="str" cm="1">
         <f t="array" ref="B219">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A219)-2)/175)+1)</f>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B221" s="1" t="str" cm="1">
         <f t="array" ref="B221">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A221)-2)/175)+1)</f>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B223" s="1" t="str" cm="1">
         <f t="array" ref="B223">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A223)-2)/175)+1)</f>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B226" s="1" t="str" cm="1">
         <f t="array" ref="B226">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A226)-2)/175)+1)</f>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" s="1" t="str" cm="1">
         <f t="array" ref="B234">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A234)-2)/175)+1)</f>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240" s="1" t="str" cm="1">
         <f t="array" ref="B240">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A240)-2)/175)+1)</f>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B241" s="1" t="str" cm="1">
         <f t="array" ref="B241">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A241)-2)/175)+1)</f>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B247" s="1" t="str" cm="1">
         <f t="array" ref="B247">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A247)-2)/175)+1)</f>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B252" s="1" t="str" cm="1">
         <f t="array" ref="B252">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A252)-2)/175)+1)</f>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B257" s="1" t="str" cm="1">
         <f t="array" ref="B257">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A257)-2)/175)+1)</f>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B264" s="1" t="str" cm="1">
         <f t="array" ref="B264">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A264)-2)/175)+1)</f>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B265" s="1" t="str" cm="1">
         <f t="array" ref="B265">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A265)-2)/175)+1)</f>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B268" s="1" t="str" cm="1">
         <f t="array" ref="B268">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A268)-2)/175)+1)</f>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B270" s="1" t="str" cm="1">
         <f t="array" ref="B270">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A270)-2)/175)+1)</f>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B272" s="1" t="str" cm="1">
         <f t="array" ref="B272">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A272)-2)/175)+1)</f>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B276" s="1" t="str" cm="1">
         <f t="array" ref="B276">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A276)-2)/175)+1)</f>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B277" s="1" t="str" cm="1">
         <f t="array" ref="B277">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A277)-2)/175)+1)</f>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B286" s="1" t="str" cm="1">
         <f t="array" ref="B286">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A286)-2)/175)+1)</f>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B293" s="1" t="str" cm="1">
         <f t="array" ref="B293">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A293)-2)/175)+1)</f>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B295" s="1" t="str" cm="1">
         <f t="array" ref="B295">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A295)-2)/175)+1)</f>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B300" s="1" t="str" cm="1">
         <f t="array" ref="B300">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A300)-2)/175)+1)</f>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B301" s="1" t="str" cm="1">
         <f t="array" ref="B301">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A301)-2)/175)+1)</f>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B306" s="1" t="str" cm="1">
         <f t="array" ref="B306">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A306)-2)/175)+1)</f>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B313" s="1" t="str" cm="1">
         <f t="array" ref="B313">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A313)-2)/175)+1)</f>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B314" s="1" t="str" cm="1">
         <f t="array" ref="B314">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A314)-2)/175)+1)</f>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B316" s="1" t="str" cm="1">
         <f t="array" ref="B316">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A316)-2)/175)+1)</f>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B317" s="1" t="str" cm="1">
         <f t="array" ref="B317">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A317)-2)/175)+1)</f>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B322" s="1" t="str" cm="1">
         <f t="array" ref="B322">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A322)-2)/175)+1)</f>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B330" s="1" t="str" cm="1">
         <f t="array" ref="B330">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A330)-2)/175)+1)</f>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B333" s="1" t="str" cm="1">
         <f t="array" ref="B333">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A333)-2)/175)+1)</f>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B336" s="1" t="str" cm="1">
         <f t="array" ref="B336">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A336)-2)/175)+1)</f>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B342" s="1" t="str" cm="1">
         <f t="array" ref="B342">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A342)-2)/175)+1)</f>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B345" s="1" t="str" cm="1">
         <f t="array" ref="B345">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A345)-2)/175)+1)</f>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B349" s="1" t="str" cm="1">
         <f t="array" ref="B349">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A349)-2)/175)+1)</f>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B351" s="1" t="str" cm="1">
         <f t="array" ref="B351">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A351)-2)/175)+1)</f>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B354" s="1" t="str" cm="1">
         <f t="array" ref="B354">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A354)-2)/175)+1)</f>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B359" s="1" t="str" cm="1">
         <f t="array" ref="B359">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A359)-2)/175)+1)</f>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B366" s="1" t="str" cm="1">
         <f t="array" ref="B366">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A366)-2)/175)+1)</f>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B367" s="1" t="str" cm="1">
         <f t="array" ref="B367">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A367)-2)/175)+1)</f>
@@ -8335,7 +8335,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B373" s="1" t="str" cm="1">
         <f t="array" ref="B373">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A373)-2)/175)+1)</f>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B375" s="1" t="str" cm="1">
         <f t="array" ref="B375">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A375)-2)/175)+1)</f>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B376" s="1" t="str" cm="1">
         <f t="array" ref="B376">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A376)-2)/175)+1)</f>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B381" s="1" t="str" cm="1">
         <f t="array" ref="B381">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A381)-2)/175)+1)</f>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B382" s="1" t="str" cm="1">
         <f t="array" ref="B382">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A382)-2)/175)+1)</f>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B394" s="1" t="str" cm="1">
         <f t="array" ref="B394">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A394)-2)/175)+1)</f>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B395" s="1" t="str" cm="1">
         <f t="array" ref="B395">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A395)-2)/175)+1)</f>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B397" s="1" t="str" cm="1">
         <f t="array" ref="B397">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A397)-2)/175)+1)</f>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B403" s="1" t="str" cm="1">
         <f t="array" ref="B403">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A403)-2)/175)+1)</f>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B407" s="1" t="str" cm="1">
         <f t="array" ref="B407">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A407)-2)/175)+1)</f>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B409" s="1" t="str" cm="1">
         <f t="array" ref="B409">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A409)-2)/175)+1)</f>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B410" s="1" t="str" cm="1">
         <f t="array" ref="B410">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A410)-2)/175)+1)</f>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B415" s="1" t="str" cm="1">
         <f t="array" ref="B415">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A415)-2)/175)+1)</f>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B417" s="1" t="str" cm="1">
         <f t="array" ref="B417">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A417)-2)/175)+1)</f>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B419" s="1" t="str" cm="1">
         <f t="array" ref="B419">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A419)-2)/175)+1)</f>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B425" s="1" t="str" cm="1">
         <f t="array" ref="B425">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A425)-2)/175)+1)</f>
@@ -9448,7 +9448,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B426" s="1" t="str" cm="1">
         <f t="array" ref="B426">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A426)-2)/175)+1)</f>
@@ -9469,7 +9469,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B427" s="1" t="str" cm="1">
         <f t="array" ref="B427">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A427)-2)/175)+1)</f>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B436" s="1" t="str" cm="1">
         <f t="array" ref="B436">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A436)-2)/175)+1)</f>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B441" s="1" t="str" cm="1">
         <f t="array" ref="B441">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A441)-2)/175)+1)</f>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B448" s="1" t="str" cm="1">
         <f t="array" ref="B448">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A448)-2)/175)+1)</f>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B449" s="1" t="str" cm="1">
         <f t="array" ref="B449">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A449)-2)/175)+1)</f>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B450" s="1" t="str" cm="1">
         <f t="array" ref="B450">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A450)-2)/175)+1)</f>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B455" s="1" t="str" cm="1">
         <f t="array" ref="B455">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A455)-2)/175)+1)</f>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B461" s="1" t="str" cm="1">
         <f t="array" ref="B461">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A461)-2)/175)+1)</f>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
@@ -10309,7 +10309,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B467" s="1" t="str" cm="1">
         <f t="array" ref="B467">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A467)-2)/175)+1)</f>
@@ -10330,7 +10330,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B468" s="1" t="str" cm="1">
         <f t="array" ref="B468">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A468)-2)/175)+1)</f>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B473" s="1" t="str" cm="1">
         <f t="array" ref="B473">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A473)-2)/175)+1)</f>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B475" s="1" t="str" cm="1">
         <f t="array" ref="B475">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A475)-2)/175)+1)</f>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B476" s="1" t="str" cm="1">
         <f t="array" ref="B476">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A476)-2)/175)+1)</f>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B481" s="1" t="str" cm="1">
         <f t="array" ref="B481">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A481)-2)/175)+1)</f>
@@ -10771,7 +10771,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B489" s="1" t="str" cm="1">
         <f t="array" ref="B489">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A489)-2)/175)+1)</f>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B490" s="1" t="str" cm="1">
         <f t="array" ref="B490">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A490)-2)/175)+1)</f>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B493" s="1" t="str" cm="1">
         <f t="array" ref="B493">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A493)-2)/175)+1)</f>
@@ -10876,7 +10876,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B494" s="1" t="str" cm="1">
         <f t="array" ref="B494">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A494)-2)/175)+1)</f>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B495" s="1" t="str" cm="1">
         <f t="array" ref="B495">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A495)-2)/175)+1)</f>
@@ -10939,7 +10939,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B497" s="1" t="str" cm="1">
         <f t="array" ref="B497">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A497)-2)/175)+1)</f>
@@ -10960,7 +10960,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B498" s="1" t="str" cm="1">
         <f t="array" ref="B498">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A498)-2)/175)+1)</f>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B500" s="1" t="str" cm="1">
         <f t="array" ref="B500">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A500)-2)/175)+1)</f>
@@ -11065,7 +11065,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B503" s="1" t="str" cm="1">
         <f t="array" ref="B503">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A503)-2)/175)+1)</f>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B507" s="1" t="str" cm="1">
         <f t="array" ref="B507">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A507)-2)/175)+1)</f>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B510" s="1" t="str" cm="1">
         <f t="array" ref="B510">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A510)-2)/175)+1)</f>
@@ -11254,7 +11254,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B512" s="1" t="str" cm="1">
         <f t="array" ref="B512">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A512)-2)/175)+1)</f>
@@ -11380,7 +11380,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B519" s="1" t="str" cm="1">
         <f t="array" ref="B519">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A519)-2)/175)+1)</f>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B527" s="1" t="str" cm="1">
         <f t="array" ref="B527">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A527)-2)/175)+1)</f>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B528" s="1" t="str" cm="1">
         <f t="array" ref="B528">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A528)-2)/175)+1)</f>
@@ -11611,7 +11611,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B529" s="1" t="str" cm="1">
         <f t="array" ref="B529">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A529)-2)/175)+1)</f>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B531" s="1" t="str" cm="1">
         <f t="array" ref="B531">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A531)-2)/175)+1)</f>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B543" s="1" t="str" cm="1">
         <f t="array" ref="B543">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A543)-2)/175)+1)</f>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B551" s="1" t="str" cm="1">
         <f t="array" ref="B551">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A551)-2)/175)+1)</f>
@@ -12094,7 +12094,7 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B552" s="1" t="str" cm="1">
         <f t="array" ref="B552">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A552)-2)/175)+1)</f>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B556" s="1" t="str" cm="1">
         <f t="array" ref="B556">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A556)-2)/175)+1)</f>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B558" s="1" t="str" cm="1">
         <f t="array" ref="B558">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A558)-2)/175)+1)</f>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B559" s="1" t="str" cm="1">
         <f t="array" ref="B559">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A559)-2)/175)+1)</f>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B562" s="1" t="str" cm="1">
         <f t="array" ref="B562">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A562)-2)/175)+1)</f>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B563" s="1" t="str" cm="1">
         <f t="array" ref="B563">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A563)-2)/175)+1)</f>
@@ -12346,7 +12346,7 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B564" s="1" t="str" cm="1">
         <f t="array" ref="B564">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A564)-2)/175)+1)</f>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B565" s="1" t="str" cm="1">
         <f t="array" ref="B565">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A565)-2)/175)+1)</f>
@@ -12451,7 +12451,7 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B569" s="1" t="str" cm="1">
         <f t="array" ref="B569">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A569)-2)/175)+1)</f>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B570" s="1" t="str" cm="1">
         <f t="array" ref="B570">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A570)-2)/175)+1)</f>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B571" s="1" t="str" cm="1">
         <f t="array" ref="B571">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A571)-2)/175)+1)</f>
@@ -12535,7 +12535,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B573" s="1" t="str" cm="1">
         <f t="array" ref="B573">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A573)-2)/175)+1)</f>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B575" s="1" t="str" cm="1">
         <f t="array" ref="B575">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A575)-2)/175)+1)</f>
@@ -12619,7 +12619,7 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B577" s="1" t="str" cm="1">
         <f t="array" ref="B577">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A577)-2)/175)+1)</f>
@@ -12682,7 +12682,7 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B580" s="1" t="str" cm="1">
         <f t="array" ref="B580">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A580)-2)/175)+1)</f>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B582" s="1" t="str" cm="1">
         <f t="array" ref="B582">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A582)-2)/175)+1)</f>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B593" s="1" t="str" cm="1">
         <f t="array" ref="B593">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A593)-2)/175)+1)</f>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B602" s="1" t="str" cm="1">
         <f t="array" ref="B602">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A602)-2)/175)+1)</f>
@@ -13165,7 +13165,7 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B603" s="1" t="str" cm="1">
         <f t="array" ref="B603">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A603)-2)/175)+1)</f>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B604" s="1" t="str" cm="1">
         <f t="array" ref="B604">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A604)-2)/175)+1)</f>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B607" s="1" t="str" cm="1">
         <f t="array" ref="B607">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A607)-2)/175)+1)</f>
@@ -13354,7 +13354,7 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B612" s="1" t="str" cm="1">
         <f t="array" ref="B612">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A612)-2)/175)+1)</f>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B613" s="1" t="str" cm="1">
         <f t="array" ref="B613">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A613)-2)/175)+1)</f>
@@ -13396,7 +13396,7 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B614" s="1" t="str" cm="1">
         <f t="array" ref="B614">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A614)-2)/175)+1)</f>
@@ -13585,7 +13585,7 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B623" s="1" t="str" cm="1">
         <f t="array" ref="B623">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A623)-2)/175)+1)</f>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B624" s="1" t="str" cm="1">
         <f t="array" ref="B624">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A624)-2)/175)+1)</f>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B630" s="1" t="str" cm="1">
         <f t="array" ref="B630">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A630)-2)/175)+1)</f>
@@ -13900,7 +13900,7 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B638" s="1" t="str" cm="1">
         <f t="array" ref="B638">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A638)-2)/175)+1)</f>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B641" s="1" t="str" cm="1">
         <f t="array" ref="B641">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A641)-2)/175)+1)</f>
@@ -14005,7 +14005,7 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B643" s="1" t="str" cm="1">
         <f t="array" ref="B643">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A643)-2)/175)+1)</f>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B644" s="1" t="str" cm="1">
         <f t="array" ref="B644">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A644)-2)/175)+1)</f>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A645)-2)/175)+1)</f>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B649" s="1" t="str" cm="1">
         <f t="array" ref="B649">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A649)-2)/175)+1)</f>
@@ -14194,7 +14194,7 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B652" s="1" t="str" cm="1">
         <f t="array" ref="B652">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A652)-2)/175)+1)</f>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B653" s="1" t="str" cm="1">
         <f t="array" ref="B653">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A653)-2)/175)+1)</f>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B654" s="1" t="str" cm="1">
         <f t="array" ref="B654">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A654)-2)/175)+1)</f>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B656" s="1" t="str" cm="1">
         <f t="array" ref="B656">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A656)-2)/175)+1)</f>
@@ -14320,7 +14320,7 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B658" s="1" t="str" cm="1">
         <f t="array" ref="B658">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A658)-2)/175)+1)</f>
@@ -14341,7 +14341,7 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B659" s="1" t="str" cm="1">
         <f t="array" ref="B659">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A659)-2)/175)+1)</f>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B662" s="1" t="str" cm="1">
         <f t="array" ref="B662">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A662)-2)/175)+1)</f>
@@ -14467,7 +14467,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B665" s="1" t="str" cm="1">
         <f t="array" ref="B665">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A665)-2)/175)+1)</f>
@@ -14593,7 +14593,7 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B671" s="1" t="str" cm="1">
         <f t="array" ref="B671">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A671)-2)/175)+1)</f>
@@ -14614,7 +14614,7 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B672" s="1" t="str" cm="1">
         <f t="array" ref="B672">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A672)-2)/175)+1)</f>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
@@ -14761,7 +14761,7 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
@@ -14950,7 +14950,7 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B688" s="1" t="str" cm="1">
         <f t="array" ref="B688">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A688)-2)/175)+1)</f>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B689" s="1" t="str" cm="1">
         <f t="array" ref="B689">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A689)-2)/175)+1)</f>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B692" s="1" t="str" cm="1">
         <f t="array" ref="B692">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A692)-2)/175)+1)</f>
@@ -15097,7 +15097,7 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B695" s="1" t="str" cm="1">
         <f t="array" ref="B695">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A695)-2)/175)+1)</f>
@@ -15139,7 +15139,7 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B697" s="1" t="str" cm="1">
         <f t="array" ref="B697">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A697)-2)/175)+1)</f>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B699" s="1" t="str" cm="1">
         <f t="array" ref="B699">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A699)-2)/175)+1)</f>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B710" s="1" t="str" cm="1">
         <f t="array" ref="B710">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A710)-2)/175)+1)</f>
@@ -15433,7 +15433,7 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B711" s="1" t="str" cm="1">
         <f t="array" ref="B711">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A711)-2)/175)+1)</f>
@@ -15454,7 +15454,7 @@
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B718" s="1" t="str" cm="1">
         <f t="array" ref="B718">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A718)-2)/175)+1)</f>
@@ -15685,7 +15685,7 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B723" s="1" t="str" cm="1">
         <f t="array" ref="B723">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A723)-2)/175)+1)</f>
@@ -15706,7 +15706,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B724" s="1" t="str" cm="1">
         <f t="array" ref="B724">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A724)-2)/175)+1)</f>
@@ -15727,7 +15727,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B725" s="1" t="str" cm="1">
         <f t="array" ref="B725">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A725)-2)/175)+1)</f>
@@ -15832,7 +15832,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B730" s="1" t="str" cm="1">
         <f t="array" ref="B730">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A730)-2)/175)+1)</f>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B732" s="1" t="str" cm="1">
         <f t="array" ref="B732">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A732)-2)/175)+1)</f>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B743" s="1" t="str" cm="1">
         <f t="array" ref="B743">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A743)-2)/175)+1)</f>
@@ -16126,7 +16126,7 @@
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B744" s="1" t="str" cm="1">
         <f t="array" ref="B744">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A744)-2)/175)+1)</f>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B745" s="1" t="str" cm="1">
         <f t="array" ref="B745">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A745)-2)/175)+1)</f>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B746" s="1" t="str" cm="1">
         <f t="array" ref="B746">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A746)-2)/175)+1)</f>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B749" s="1" t="str" cm="1">
         <f t="array" ref="B749">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A749)-2)/175)+1)</f>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B751" s="1" t="str" cm="1">
         <f t="array" ref="B751">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A751)-2)/175)+1)</f>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B753" s="1" t="str" cm="1">
         <f t="array" ref="B753">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A753)-2)/175)+1)</f>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B756" s="1" t="str" cm="1">
         <f t="array" ref="B756">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A756)-2)/175)+1)</f>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B758" s="1" t="str" cm="1">
         <f t="array" ref="B758">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A758)-2)/175)+1)</f>
@@ -16441,7 +16441,7 @@
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B759" s="1" t="str" cm="1">
         <f t="array" ref="B759">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A759)-2)/175)+1)</f>
@@ -16462,7 +16462,7 @@
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B760" s="1" t="str" cm="1">
         <f t="array" ref="B760">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A760)-2)/175)+1)</f>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B769" s="1" t="str" cm="1">
         <f t="array" ref="B769">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A769)-2)/175)+1)</f>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B772" s="1" t="str" cm="1">
         <f t="array" ref="B772">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A772)-2)/175)+1)</f>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B773" s="1" t="str" cm="1">
         <f t="array" ref="B773">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A773)-2)/175)+1)</f>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B774" s="1" t="str" cm="1">
         <f t="array" ref="B774">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A774)-2)/175)+1)</f>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B783" s="1" t="str" cm="1">
         <f t="array" ref="B783">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A783)-2)/175)+1)</f>
@@ -16966,7 +16966,7 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B784" s="1" t="str" cm="1">
         <f t="array" ref="B784">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A784)-2)/175)+1)</f>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
@@ -17008,7 +17008,7 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B786" s="1" t="str" cm="1">
         <f t="array" ref="B786">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A786)-2)/175)+1)</f>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B790" s="1" t="str" cm="1">
         <f t="array" ref="B790">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A790)-2)/175)+1)</f>
@@ -17218,7 +17218,7 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B796" s="1" t="str" cm="1">
         <f t="array" ref="B796">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A796)-2)/175)+1)</f>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B797" s="1" t="str" cm="1">
         <f t="array" ref="B797">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A797)-2)/175)+1)</f>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
@@ -17428,7 +17428,7 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B813" s="1" t="str" cm="1">
         <f t="array" ref="B813">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A813)-2)/175)+1)</f>
@@ -17659,7 +17659,7 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B817" s="1" t="str" cm="1">
         <f t="array" ref="B817">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A817)-2)/175)+1)</f>
@@ -17827,7 +17827,7 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
@@ -17848,7 +17848,7 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B826" s="1" t="str" cm="1">
         <f t="array" ref="B826">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A826)-2)/175)+1)</f>
@@ -17974,7 +17974,7 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B832" s="1" t="str" cm="1">
         <f t="array" ref="B832">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A832)-2)/175)+1)</f>
@@ -18100,7 +18100,7 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B838" s="1" t="str" cm="1">
         <f t="array" ref="B838">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A838)-2)/175)+1)</f>
@@ -18121,7 +18121,7 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B839" s="1" t="str" cm="1">
         <f t="array" ref="B839">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A839)-2)/175)+1)</f>
@@ -18163,7 +18163,7 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B841" s="1" t="str" cm="1">
         <f t="array" ref="B841">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A841)-2)/175)+1)</f>
@@ -18184,7 +18184,7 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B842" s="1" t="str" cm="1">
         <f t="array" ref="B842">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A842)-2)/175)+1)</f>
@@ -18205,7 +18205,7 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B843" s="1" t="str" cm="1">
         <f t="array" ref="B843">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A843)-2)/175)+1)</f>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B844" s="1" t="str" cm="1">
         <f t="array" ref="B844">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A844)-2)/175)+1)</f>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B853" s="1" t="str" cm="1">
         <f t="array" ref="B853">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A853)-2)/175)+1)</f>
@@ -18457,7 +18457,7 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
@@ -18688,7 +18688,7 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
@@ -18793,7 +18793,7 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B871" s="1" t="str" cm="1">
         <f t="array" ref="B871">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A871)-2)/175)+1)</f>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B873" s="1" t="str" cm="1">
         <f t="array" ref="B873">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A873)-2)/175)+1)</f>

--- a/HorarioColegio.xlsx
+++ b/HorarioColegio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO IO - FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A521A1B-A4CA-46B3-AA74-010AF33494D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7997625E-9D76-4ABB-B323-255F1B7B51C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{393A6C3B-808A-4EBC-BB25-7F5CEFBDF57A}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2:A876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,9 +513,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" ref="B2">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A2)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -540,9 +538,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" ref="B3">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A3)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -567,9 +563,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="str" cm="1">
         <f t="array" ref="B4">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A4)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -594,9 +588,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" ref="B5">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A5)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -621,9 +613,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A6)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -648,9 +638,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A7)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -669,9 +657,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" ref="B8">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A8)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -690,9 +676,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="str" cm="1">
         <f t="array" ref="B9">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A9)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -711,9 +695,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" ref="B10">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A10)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -732,9 +714,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A11)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -753,9 +733,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A12)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -774,9 +752,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="str" cm="1">
         <f t="array" ref="B13">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A13)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -795,9 +771,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" ref="B14">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A14)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -816,9 +790,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="str" cm="1">
         <f t="array" ref="B15">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A15)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -837,9 +809,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A16)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -858,9 +828,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A17)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -879,9 +847,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A18)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -900,9 +866,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A19)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -921,9 +885,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="str" cm="1">
         <f t="array" ref="B20">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A20)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -942,9 +904,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" ref="B21">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A21)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -963,9 +923,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" ref="B22">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A22)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -984,9 +942,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" ref="B23">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A23)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1005,9 +961,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A24)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1026,9 +980,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" ref="B25">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A25)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1047,9 +999,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="str" cm="1">
         <f t="array" ref="B26">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A26)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1068,9 +1018,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="str" cm="1">
         <f t="array" ref="B27">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A27)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1089,9 +1037,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="str" cm="1">
         <f t="array" ref="B28">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A28)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1110,9 +1056,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="str" cm="1">
         <f t="array" ref="B29">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A29)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1131,9 +1075,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" ref="B30">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A30)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1152,9 +1094,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" ref="B31">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A31)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1173,9 +1113,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="str" cm="1">
         <f t="array" ref="B32">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A32)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1194,9 +1132,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>0</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="str" cm="1">
         <f t="array" ref="B33">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A33)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1215,9 +1151,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="str" cm="1">
         <f t="array" ref="B34">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A34)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1236,9 +1170,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="str" cm="1">
         <f t="array" ref="B35">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A35)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1257,9 +1189,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="str" cm="1">
         <f t="array" ref="B36">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A36)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1278,9 +1208,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="str" cm="1">
         <f t="array" ref="B37">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A37)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1299,9 +1227,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>0</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" ref="B38">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A38)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1320,9 +1246,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="str" cm="1">
         <f t="array" ref="B39">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A39)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1341,9 +1265,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="str" cm="1">
         <f t="array" ref="B40">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A40)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1362,9 +1284,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="str" cm="1">
         <f t="array" ref="B41">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A41)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1383,9 +1303,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="str" cm="1">
         <f t="array" ref="B42">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A42)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1404,9 +1322,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="str" cm="1">
         <f t="array" ref="B43">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A43)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1425,9 +1341,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>0</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="1" t="str" cm="1">
         <f t="array" ref="B44">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A44)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1446,9 +1360,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A45)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1467,9 +1379,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A46)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1488,9 +1398,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>0</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="str" cm="1">
         <f t="array" ref="B47">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A47)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1509,9 +1417,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>0</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="str" cm="1">
         <f t="array" ref="B48">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A48)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1530,9 +1436,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>0</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="str" cm="1">
         <f t="array" ref="B49">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A49)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1551,9 +1455,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>0</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="str" cm="1">
         <f t="array" ref="B50">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A50)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1572,9 +1474,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>0</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" ref="B51">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A51)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1593,9 +1493,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>0</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="str" cm="1">
         <f t="array" ref="B52">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A52)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1614,9 +1512,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>0</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" ref="B53">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A53)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1635,9 +1531,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>0</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="str" cm="1">
         <f t="array" ref="B54">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A54)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1656,9 +1550,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>1</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="str" cm="1">
         <f t="array" ref="B55">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A55)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1677,9 +1569,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="str" cm="1">
         <f t="array" ref="B56">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A56)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1698,9 +1588,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>0</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="str" cm="1">
         <f t="array" ref="B57">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A57)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1719,9 +1607,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="str" cm="1">
         <f t="array" ref="B58">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A58)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1740,9 +1626,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>0</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="str" cm="1">
         <f t="array" ref="B59">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A59)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1761,9 +1645,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" ref="B60">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A60)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1782,9 +1664,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>0</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="str" cm="1">
         <f t="array" ref="B61">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A61)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1803,9 +1683,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>0</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="str" cm="1">
         <f t="array" ref="B62">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A62)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1824,9 +1702,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="str" cm="1">
         <f t="array" ref="B63">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A63)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1845,9 +1721,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="str" cm="1">
         <f t="array" ref="B64">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A64)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1866,9 +1740,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>0</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="str" cm="1">
         <f t="array" ref="B65">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A65)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1887,9 +1759,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>0</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="str" cm="1">
         <f t="array" ref="B66">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A66)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1908,9 +1778,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>0</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="str" cm="1">
         <f t="array" ref="B67">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A67)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1929,9 +1797,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>0</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="str" cm="1">
         <f t="array" ref="B68">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A68)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1950,9 +1816,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>0</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="str" cm="1">
         <f t="array" ref="B69">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A69)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1971,9 +1835,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>0</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="str" cm="1">
         <f t="array" ref="B70">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A70)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -1992,9 +1854,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>0</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1" t="str" cm="1">
         <f t="array" ref="B71">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A71)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2013,9 +1873,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>0</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="B72" s="1" t="str" cm="1">
         <f t="array" ref="B72">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A72)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2034,9 +1892,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>0</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="str" cm="1">
         <f t="array" ref="B73">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A73)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2055,9 +1911,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>0</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1" t="str" cm="1">
         <f t="array" ref="B74">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A74)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2076,9 +1930,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>0</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="str" cm="1">
         <f t="array" ref="B75">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A75)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2097,9 +1949,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>0</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="str" cm="1">
         <f t="array" ref="B76">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A76)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2118,9 +1968,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>0</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="str" cm="1">
         <f t="array" ref="B77">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A77)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2139,9 +1987,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>0</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="B78" s="1" t="str" cm="1">
         <f t="array" ref="B78">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A78)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2160,9 +2006,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>0</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79" s="1" t="str" cm="1">
         <f t="array" ref="B79">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A79)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2181,9 +2025,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>0</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80" s="1" t="str" cm="1">
         <f t="array" ref="B80">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A80)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2202,9 +2044,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>0</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="1" t="str" cm="1">
         <f t="array" ref="B81">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A81)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2223,9 +2063,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>0</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="str" cm="1">
         <f t="array" ref="B82">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A82)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2244,9 +2082,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>1</v>
-      </c>
+      <c r="A83" s="1"/>
       <c r="B83" s="1" t="str" cm="1">
         <f t="array" ref="B83">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A83)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2265,9 +2101,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>1</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A84)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2286,9 +2120,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>0</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="str" cm="1">
         <f t="array" ref="B85">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A85)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2307,9 +2139,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>0</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86" s="1" t="str" cm="1">
         <f t="array" ref="B86">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A86)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2328,9 +2158,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>0</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87" s="1" t="str" cm="1">
         <f t="array" ref="B87">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A87)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2349,9 +2177,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>0</v>
-      </c>
+      <c r="A88" s="1"/>
       <c r="B88" s="1" t="str" cm="1">
         <f t="array" ref="B88">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A88)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2370,9 +2196,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>0</v>
-      </c>
+      <c r="A89" s="1"/>
       <c r="B89" s="1" t="str" cm="1">
         <f t="array" ref="B89">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A89)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2391,9 +2215,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>0</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="B90" s="1" t="str" cm="1">
         <f t="array" ref="B90">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A90)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2412,9 +2234,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>0</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="1" t="str" cm="1">
         <f t="array" ref="B91">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A91)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2433,9 +2253,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>0</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92" s="1" t="str" cm="1">
         <f t="array" ref="B92">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A92)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2454,9 +2272,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>0</v>
-      </c>
+      <c r="A93" s="1"/>
       <c r="B93" s="1" t="str" cm="1">
         <f t="array" ref="B93">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A93)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2475,9 +2291,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>0</v>
-      </c>
+      <c r="A94" s="1"/>
       <c r="B94" s="1" t="str" cm="1">
         <f t="array" ref="B94">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A94)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2496,9 +2310,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>0</v>
-      </c>
+      <c r="A95" s="1"/>
       <c r="B95" s="1" t="str" cm="1">
         <f t="array" ref="B95">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A95)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2517,9 +2329,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>1</v>
-      </c>
+      <c r="A96" s="1"/>
       <c r="B96" s="1" t="str" cm="1">
         <f t="array" ref="B96">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A96)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2538,9 +2348,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>0</v>
-      </c>
+      <c r="A97" s="1"/>
       <c r="B97" s="1" t="str" cm="1">
         <f t="array" ref="B97">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A97)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2559,9 +2367,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>1</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98" s="1" t="str" cm="1">
         <f t="array" ref="B98">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A98)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2580,9 +2386,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>0</v>
-      </c>
+      <c r="A99" s="1"/>
       <c r="B99" s="1" t="str" cm="1">
         <f t="array" ref="B99">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A99)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2601,9 +2405,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>0</v>
-      </c>
+      <c r="A100" s="1"/>
       <c r="B100" s="1" t="str" cm="1">
         <f t="array" ref="B100">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A100)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2622,9 +2424,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>0</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="B101" s="1" t="str" cm="1">
         <f t="array" ref="B101">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A101)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2643,9 +2443,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>0</v>
-      </c>
+      <c r="A102" s="1"/>
       <c r="B102" s="1" t="str" cm="1">
         <f t="array" ref="B102">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A102)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2664,9 +2462,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>1</v>
-      </c>
+      <c r="A103" s="1"/>
       <c r="B103" s="1" t="str" cm="1">
         <f t="array" ref="B103">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A103)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2685,9 +2481,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>1</v>
-      </c>
+      <c r="A104" s="1"/>
       <c r="B104" s="1" t="str" cm="1">
         <f t="array" ref="B104">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A104)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2706,9 +2500,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>1</v>
-      </c>
+      <c r="A105" s="1"/>
       <c r="B105" s="1" t="str" cm="1">
         <f t="array" ref="B105">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A105)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2727,9 +2519,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>0</v>
-      </c>
+      <c r="A106" s="1"/>
       <c r="B106" s="1" t="str" cm="1">
         <f t="array" ref="B106">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A106)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2748,9 +2538,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>0</v>
-      </c>
+      <c r="A107" s="1"/>
       <c r="B107" s="1" t="str" cm="1">
         <f t="array" ref="B107">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A107)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2769,9 +2557,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>0</v>
-      </c>
+      <c r="A108" s="1"/>
       <c r="B108" s="1" t="str" cm="1">
         <f t="array" ref="B108">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A108)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2790,9 +2576,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>1</v>
-      </c>
+      <c r="A109" s="1"/>
       <c r="B109" s="1" t="str" cm="1">
         <f t="array" ref="B109">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A109)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2811,9 +2595,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>1</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110" s="1" t="str" cm="1">
         <f t="array" ref="B110">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A110)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2832,9 +2614,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>0</v>
-      </c>
+      <c r="A111" s="1"/>
       <c r="B111" s="1" t="str" cm="1">
         <f t="array" ref="B111">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A111)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2853,9 +2633,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>1</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="1" t="str" cm="1">
         <f t="array" ref="B112">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A112)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2874,9 +2652,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>1</v>
-      </c>
+      <c r="A113" s="1"/>
       <c r="B113" s="1" t="str" cm="1">
         <f t="array" ref="B113">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A113)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2895,9 +2671,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>0</v>
-      </c>
+      <c r="A114" s="1"/>
       <c r="B114" s="1" t="str" cm="1">
         <f t="array" ref="B114">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A114)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2916,9 +2690,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>0</v>
-      </c>
+      <c r="A115" s="1"/>
       <c r="B115" s="1" t="str" cm="1">
         <f t="array" ref="B115">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A115)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2937,9 +2709,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>0</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="B116" s="1" t="str" cm="1">
         <f t="array" ref="B116">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A116)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2958,9 +2728,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>0</v>
-      </c>
+      <c r="A117" s="1"/>
       <c r="B117" s="1" t="str" cm="1">
         <f t="array" ref="B117">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A117)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -2979,9 +2747,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>0</v>
-      </c>
+      <c r="A118" s="1"/>
       <c r="B118" s="1" t="str" cm="1">
         <f t="array" ref="B118">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A118)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3000,9 +2766,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>0</v>
-      </c>
+      <c r="A119" s="1"/>
       <c r="B119" s="1" t="str" cm="1">
         <f t="array" ref="B119">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A119)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3021,9 +2785,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>0</v>
-      </c>
+      <c r="A120" s="1"/>
       <c r="B120" s="1" t="str" cm="1">
         <f t="array" ref="B120">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A120)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3042,9 +2804,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>0</v>
-      </c>
+      <c r="A121" s="1"/>
       <c r="B121" s="1" t="str" cm="1">
         <f t="array" ref="B121">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A121)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3063,9 +2823,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>0</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122" s="1" t="str" cm="1">
         <f t="array" ref="B122">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A122)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3084,9 +2842,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>0</v>
-      </c>
+      <c r="A123" s="1"/>
       <c r="B123" s="1" t="str" cm="1">
         <f t="array" ref="B123">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A123)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3105,9 +2861,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>0</v>
-      </c>
+      <c r="A124" s="1"/>
       <c r="B124" s="1" t="str" cm="1">
         <f t="array" ref="B124">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A124)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3126,9 +2880,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>0</v>
-      </c>
+      <c r="A125" s="1"/>
       <c r="B125" s="1" t="str" cm="1">
         <f t="array" ref="B125">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A125)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3147,9 +2899,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>0</v>
-      </c>
+      <c r="A126" s="1"/>
       <c r="B126" s="1" t="str" cm="1">
         <f t="array" ref="B126">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A126)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3168,9 +2918,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>1</v>
-      </c>
+      <c r="A127" s="1"/>
       <c r="B127" s="1" t="str" cm="1">
         <f t="array" ref="B127">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A127)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3189,9 +2937,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>0</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128" s="1" t="str" cm="1">
         <f t="array" ref="B128">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A128)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3210,9 +2956,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>0</v>
-      </c>
+      <c r="A129" s="1"/>
       <c r="B129" s="1" t="str" cm="1">
         <f t="array" ref="B129">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A129)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3231,9 +2975,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>0</v>
-      </c>
+      <c r="A130" s="1"/>
       <c r="B130" s="1" t="str" cm="1">
         <f t="array" ref="B130">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A130)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3252,9 +2994,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>0</v>
-      </c>
+      <c r="A131" s="1"/>
       <c r="B131" s="1" t="str" cm="1">
         <f t="array" ref="B131">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A131)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3273,9 +3013,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>1</v>
-      </c>
+      <c r="A132" s="1"/>
       <c r="B132" s="1" t="str" cm="1">
         <f t="array" ref="B132">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A132)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3294,9 +3032,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>0</v>
-      </c>
+      <c r="A133" s="1"/>
       <c r="B133" s="1" t="str" cm="1">
         <f t="array" ref="B133">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A133)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3315,9 +3051,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>0</v>
-      </c>
+      <c r="A134" s="1"/>
       <c r="B134" s="1" t="str" cm="1">
         <f t="array" ref="B134">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A134)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3336,9 +3070,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>0</v>
-      </c>
+      <c r="A135" s="1"/>
       <c r="B135" s="1" t="str" cm="1">
         <f t="array" ref="B135">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A135)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3357,9 +3089,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>0</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136" s="1" t="str" cm="1">
         <f t="array" ref="B136">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A136)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3378,9 +3108,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>0</v>
-      </c>
+      <c r="A137" s="1"/>
       <c r="B137" s="1" t="str" cm="1">
         <f t="array" ref="B137">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A137)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3399,9 +3127,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>0</v>
-      </c>
+      <c r="A138" s="1"/>
       <c r="B138" s="1" t="str" cm="1">
         <f t="array" ref="B138">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A138)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3420,9 +3146,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>0</v>
-      </c>
+      <c r="A139" s="1"/>
       <c r="B139" s="1" t="str" cm="1">
         <f t="array" ref="B139">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A139)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3441,9 +3165,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>0</v>
-      </c>
+      <c r="A140" s="1"/>
       <c r="B140" s="1" t="str" cm="1">
         <f t="array" ref="B140">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A140)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3462,9 +3184,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>1</v>
-      </c>
+      <c r="A141" s="1"/>
       <c r="B141" s="1" t="str" cm="1">
         <f t="array" ref="B141">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A141)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3483,9 +3203,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>0</v>
-      </c>
+      <c r="A142" s="1"/>
       <c r="B142" s="1" t="str" cm="1">
         <f t="array" ref="B142">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A142)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3504,9 +3222,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>0</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="B143" s="1" t="str" cm="1">
         <f t="array" ref="B143">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A143)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3525,9 +3241,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>0</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144" s="1" t="str" cm="1">
         <f t="array" ref="B144">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A144)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3546,9 +3260,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>0</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="B145" s="1" t="str" cm="1">
         <f t="array" ref="B145">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A145)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3567,9 +3279,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>0</v>
-      </c>
+      <c r="A146" s="1"/>
       <c r="B146" s="1" t="str" cm="1">
         <f t="array" ref="B146">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A146)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3588,9 +3298,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>0</v>
-      </c>
+      <c r="A147" s="1"/>
       <c r="B147" s="1" t="str" cm="1">
         <f t="array" ref="B147">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A147)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3609,9 +3317,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>0</v>
-      </c>
+      <c r="A148" s="1"/>
       <c r="B148" s="1" t="str" cm="1">
         <f t="array" ref="B148">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A148)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3630,9 +3336,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>1</v>
-      </c>
+      <c r="A149" s="1"/>
       <c r="B149" s="1" t="str" cm="1">
         <f t="array" ref="B149">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A149)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3651,9 +3355,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>0</v>
-      </c>
+      <c r="A150" s="1"/>
       <c r="B150" s="1" t="str" cm="1">
         <f t="array" ref="B150">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A150)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3672,9 +3374,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>0</v>
-      </c>
+      <c r="A151" s="1"/>
       <c r="B151" s="1" t="str" cm="1">
         <f t="array" ref="B151">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A151)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3693,9 +3393,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>0</v>
-      </c>
+      <c r="A152" s="1"/>
       <c r="B152" s="1" t="str" cm="1">
         <f t="array" ref="B152">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A152)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3714,9 +3412,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>0</v>
-      </c>
+      <c r="A153" s="1"/>
       <c r="B153" s="1" t="str" cm="1">
         <f t="array" ref="B153">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A153)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3735,9 +3431,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>0</v>
-      </c>
+      <c r="A154" s="1"/>
       <c r="B154" s="1" t="str" cm="1">
         <f t="array" ref="B154">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A154)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3756,9 +3450,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>1</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="B155" s="1" t="str" cm="1">
         <f t="array" ref="B155">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A155)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3777,9 +3469,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>1</v>
-      </c>
+      <c r="A156" s="1"/>
       <c r="B156" s="1" t="str" cm="1">
         <f t="array" ref="B156">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A156)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3798,9 +3488,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>0</v>
-      </c>
+      <c r="A157" s="1"/>
       <c r="B157" s="1" t="str" cm="1">
         <f t="array" ref="B157">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A157)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3819,9 +3507,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>0</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158" s="1" t="str" cm="1">
         <f t="array" ref="B158">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A158)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3840,9 +3526,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>0</v>
-      </c>
+      <c r="A159" s="1"/>
       <c r="B159" s="1" t="str" cm="1">
         <f t="array" ref="B159">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A159)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3861,9 +3545,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>0</v>
-      </c>
+      <c r="A160" s="1"/>
       <c r="B160" s="1" t="str" cm="1">
         <f t="array" ref="B160">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A160)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3882,9 +3564,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>0</v>
-      </c>
+      <c r="A161" s="1"/>
       <c r="B161" s="1" t="str" cm="1">
         <f t="array" ref="B161">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A161)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3903,9 +3583,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>0</v>
-      </c>
+      <c r="A162" s="1"/>
       <c r="B162" s="1" t="str" cm="1">
         <f t="array" ref="B162">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A162)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3924,9 +3602,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>1</v>
-      </c>
+      <c r="A163" s="1"/>
       <c r="B163" s="1" t="str" cm="1">
         <f t="array" ref="B163">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A163)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3945,9 +3621,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>1</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164" s="1" t="str" cm="1">
         <f t="array" ref="B164">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A164)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3966,9 +3640,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>0</v>
-      </c>
+      <c r="A165" s="1"/>
       <c r="B165" s="1" t="str" cm="1">
         <f t="array" ref="B165">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A165)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -3987,9 +3659,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>0</v>
-      </c>
+      <c r="A166" s="1"/>
       <c r="B166" s="1" t="str" cm="1">
         <f t="array" ref="B166">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A166)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4008,9 +3678,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>0</v>
-      </c>
+      <c r="A167" s="1"/>
       <c r="B167" s="1" t="str" cm="1">
         <f t="array" ref="B167">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A167)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4029,9 +3697,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>0</v>
-      </c>
+      <c r="A168" s="1"/>
       <c r="B168" s="1" t="str" cm="1">
         <f t="array" ref="B168">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A168)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4050,9 +3716,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>0</v>
-      </c>
+      <c r="A169" s="1"/>
       <c r="B169" s="1" t="str" cm="1">
         <f t="array" ref="B169">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A169)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4071,9 +3735,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>0</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170" s="1" t="str" cm="1">
         <f t="array" ref="B170">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A170)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4092,9 +3754,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>1</v>
-      </c>
+      <c r="A171" s="1"/>
       <c r="B171" s="1" t="str" cm="1">
         <f t="array" ref="B171">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A171)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4113,9 +3773,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>1</v>
-      </c>
+      <c r="A172" s="1"/>
       <c r="B172" s="1" t="str" cm="1">
         <f t="array" ref="B172">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A172)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4134,9 +3792,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>0</v>
-      </c>
+      <c r="A173" s="1"/>
       <c r="B173" s="1" t="str" cm="1">
         <f t="array" ref="B173">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A173)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4155,9 +3811,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>0</v>
-      </c>
+      <c r="A174" s="1"/>
       <c r="B174" s="1" t="str" cm="1">
         <f t="array" ref="B174">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A174)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4176,9 +3830,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>0</v>
-      </c>
+      <c r="A175" s="1"/>
       <c r="B175" s="1" t="str" cm="1">
         <f t="array" ref="B175">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A175)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4197,9 +3849,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>0</v>
-      </c>
+      <c r="A176" s="1"/>
       <c r="B176" s="1" t="str" cm="1">
         <f t="array" ref="B176">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A176)-2)/175)+1)</f>
         <v>1ERO</v>
@@ -4218,9 +3868,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>0</v>
-      </c>
+      <c r="A177" s="1"/>
       <c r="B177" s="1" t="str" cm="1">
         <f t="array" ref="B177">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A177)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4239,9 +3887,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>0</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178" s="1" t="str" cm="1">
         <f t="array" ref="B178">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A178)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4260,9 +3906,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>1</v>
-      </c>
+      <c r="A179" s="1"/>
       <c r="B179" s="1" t="str" cm="1">
         <f t="array" ref="B179">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A179)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4281,9 +3925,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>1</v>
-      </c>
+      <c r="A180" s="1"/>
       <c r="B180" s="1" t="str" cm="1">
         <f t="array" ref="B180">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A180)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4302,9 +3944,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>0</v>
-      </c>
+      <c r="A181" s="1"/>
       <c r="B181" s="1" t="str" cm="1">
         <f t="array" ref="B181">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A181)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4323,9 +3963,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>0</v>
-      </c>
+      <c r="A182" s="1"/>
       <c r="B182" s="1" t="str" cm="1">
         <f t="array" ref="B182">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A182)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4344,9 +3982,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>0</v>
-      </c>
+      <c r="A183" s="1"/>
       <c r="B183" s="1" t="str" cm="1">
         <f t="array" ref="B183">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A183)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4365,9 +4001,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>0</v>
-      </c>
+      <c r="A184" s="1"/>
       <c r="B184" s="1" t="str" cm="1">
         <f t="array" ref="B184">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A184)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4386,9 +4020,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>1</v>
-      </c>
+      <c r="A185" s="1"/>
       <c r="B185" s="1" t="str" cm="1">
         <f t="array" ref="B185">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A185)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4407,9 +4039,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>1</v>
-      </c>
+      <c r="A186" s="1"/>
       <c r="B186" s="1" t="str" cm="1">
         <f t="array" ref="B186">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A186)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4428,9 +4058,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>0</v>
-      </c>
+      <c r="A187" s="1"/>
       <c r="B187" s="1" t="str" cm="1">
         <f t="array" ref="B187">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A187)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4449,9 +4077,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>0</v>
-      </c>
+      <c r="A188" s="1"/>
       <c r="B188" s="1" t="str" cm="1">
         <f t="array" ref="B188">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A188)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4470,9 +4096,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>0</v>
-      </c>
+      <c r="A189" s="1"/>
       <c r="B189" s="1" t="str" cm="1">
         <f t="array" ref="B189">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A189)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4491,9 +4115,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>0</v>
-      </c>
+      <c r="A190" s="1"/>
       <c r="B190" s="1" t="str" cm="1">
         <f t="array" ref="B190">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A190)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4512,9 +4134,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>0</v>
-      </c>
+      <c r="A191" s="1"/>
       <c r="B191" s="1" t="str" cm="1">
         <f t="array" ref="B191">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A191)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4533,9 +4153,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>0</v>
-      </c>
+      <c r="A192" s="1"/>
       <c r="B192" s="1" t="str" cm="1">
         <f t="array" ref="B192">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A192)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4554,9 +4172,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>0</v>
-      </c>
+      <c r="A193" s="1"/>
       <c r="B193" s="1" t="str" cm="1">
         <f t="array" ref="B193">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A193)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4575,9 +4191,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>0</v>
-      </c>
+      <c r="A194" s="1"/>
       <c r="B194" s="1" t="str" cm="1">
         <f t="array" ref="B194">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A194)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4596,9 +4210,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>0</v>
-      </c>
+      <c r="A195" s="1"/>
       <c r="B195" s="1" t="str" cm="1">
         <f t="array" ref="B195">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A195)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4617,9 +4229,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>0</v>
-      </c>
+      <c r="A196" s="1"/>
       <c r="B196" s="1" t="str" cm="1">
         <f t="array" ref="B196">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A196)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4638,9 +4248,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>0</v>
-      </c>
+      <c r="A197" s="1"/>
       <c r="B197" s="1" t="str" cm="1">
         <f t="array" ref="B197">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A197)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4659,9 +4267,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>0</v>
-      </c>
+      <c r="A198" s="1"/>
       <c r="B198" s="1" t="str" cm="1">
         <f t="array" ref="B198">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A198)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4680,9 +4286,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>1</v>
-      </c>
+      <c r="A199" s="1"/>
       <c r="B199" s="1" t="str" cm="1">
         <f t="array" ref="B199">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A199)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4701,9 +4305,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>0</v>
-      </c>
+      <c r="A200" s="1"/>
       <c r="B200" s="1" t="str" cm="1">
         <f t="array" ref="B200">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A200)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4722,9 +4324,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>1</v>
-      </c>
+      <c r="A201" s="1"/>
       <c r="B201" s="1" t="str" cm="1">
         <f t="array" ref="B201">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A201)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4743,9 +4343,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>0</v>
-      </c>
+      <c r="A202" s="1"/>
       <c r="B202" s="1" t="str" cm="1">
         <f t="array" ref="B202">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A202)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4764,9 +4362,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>0</v>
-      </c>
+      <c r="A203" s="1"/>
       <c r="B203" s="1" t="str" cm="1">
         <f t="array" ref="B203">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A203)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4785,9 +4381,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>0</v>
-      </c>
+      <c r="A204" s="1"/>
       <c r="B204" s="1" t="str" cm="1">
         <f t="array" ref="B204">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A204)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4806,9 +4400,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>0</v>
-      </c>
+      <c r="A205" s="1"/>
       <c r="B205" s="1" t="str" cm="1">
         <f t="array" ref="B205">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A205)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4827,9 +4419,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>0</v>
-      </c>
+      <c r="A206" s="1"/>
       <c r="B206" s="1" t="str" cm="1">
         <f t="array" ref="B206">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A206)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4848,9 +4438,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>1</v>
-      </c>
+      <c r="A207" s="1"/>
       <c r="B207" s="1" t="str" cm="1">
         <f t="array" ref="B207">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A207)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4869,9 +4457,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>0</v>
-      </c>
+      <c r="A208" s="1"/>
       <c r="B208" s="1" t="str" cm="1">
         <f t="array" ref="B208">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A208)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4890,9 +4476,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>0</v>
-      </c>
+      <c r="A209" s="1"/>
       <c r="B209" s="1" t="str" cm="1">
         <f t="array" ref="B209">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A209)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4911,9 +4495,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>0</v>
-      </c>
+      <c r="A210" s="1"/>
       <c r="B210" s="1" t="str" cm="1">
         <f t="array" ref="B210">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A210)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4932,9 +4514,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>0</v>
-      </c>
+      <c r="A211" s="1"/>
       <c r="B211" s="1" t="str" cm="1">
         <f t="array" ref="B211">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A211)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4953,9 +4533,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>0</v>
-      </c>
+      <c r="A212" s="1"/>
       <c r="B212" s="1" t="str" cm="1">
         <f t="array" ref="B212">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A212)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4974,9 +4552,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>1</v>
-      </c>
+      <c r="A213" s="1"/>
       <c r="B213" s="1" t="str" cm="1">
         <f t="array" ref="B213">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A213)-2)/175)+1)</f>
         <v>2DO</v>
@@ -4995,9 +4571,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>0</v>
-      </c>
+      <c r="A214" s="1"/>
       <c r="B214" s="1" t="str" cm="1">
         <f t="array" ref="B214">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A214)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5016,9 +4590,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>0</v>
-      </c>
+      <c r="A215" s="1"/>
       <c r="B215" s="1" t="str" cm="1">
         <f t="array" ref="B215">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A215)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5037,9 +4609,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>0</v>
-      </c>
+      <c r="A216" s="1"/>
       <c r="B216" s="1" t="str" cm="1">
         <f t="array" ref="B216">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A216)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5058,9 +4628,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>0</v>
-      </c>
+      <c r="A217" s="1"/>
       <c r="B217" s="1" t="str" cm="1">
         <f t="array" ref="B217">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A217)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5079,9 +4647,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>0</v>
-      </c>
+      <c r="A218" s="1"/>
       <c r="B218" s="1" t="str" cm="1">
         <f t="array" ref="B218">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A218)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5100,9 +4666,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>1</v>
-      </c>
+      <c r="A219" s="1"/>
       <c r="B219" s="1" t="str" cm="1">
         <f t="array" ref="B219">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A219)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5121,9 +4685,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>0</v>
-      </c>
+      <c r="A220" s="1"/>
       <c r="B220" s="1" t="str" cm="1">
         <f t="array" ref="B220">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A220)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5142,9 +4704,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>0</v>
-      </c>
+      <c r="A221" s="1"/>
       <c r="B221" s="1" t="str" cm="1">
         <f t="array" ref="B221">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A221)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5163,9 +4723,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>0</v>
-      </c>
+      <c r="A222" s="1"/>
       <c r="B222" s="1" t="str" cm="1">
         <f t="array" ref="B222">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A222)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5184,9 +4742,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>1</v>
-      </c>
+      <c r="A223" s="1"/>
       <c r="B223" s="1" t="str" cm="1">
         <f t="array" ref="B223">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A223)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5205,9 +4761,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>0</v>
-      </c>
+      <c r="A224" s="1"/>
       <c r="B224" s="1" t="str" cm="1">
         <f t="array" ref="B224">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A224)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5226,9 +4780,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>0</v>
-      </c>
+      <c r="A225" s="1"/>
       <c r="B225" s="1" t="str" cm="1">
         <f t="array" ref="B225">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A225)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5247,9 +4799,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>1</v>
-      </c>
+      <c r="A226" s="1"/>
       <c r="B226" s="1" t="str" cm="1">
         <f t="array" ref="B226">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A226)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5268,9 +4818,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>1</v>
-      </c>
+      <c r="A227" s="1"/>
       <c r="B227" s="1" t="str" cm="1">
         <f t="array" ref="B227">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A227)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5289,9 +4837,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>0</v>
-      </c>
+      <c r="A228" s="1"/>
       <c r="B228" s="1" t="str" cm="1">
         <f t="array" ref="B228">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A228)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5310,9 +4856,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>0</v>
-      </c>
+      <c r="A229" s="1"/>
       <c r="B229" s="1" t="str" cm="1">
         <f t="array" ref="B229">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A229)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5331,9 +4875,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>0</v>
-      </c>
+      <c r="A230" s="1"/>
       <c r="B230" s="1" t="str" cm="1">
         <f t="array" ref="B230">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A230)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5352,9 +4894,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>0</v>
-      </c>
+      <c r="A231" s="1"/>
       <c r="B231" s="1" t="str" cm="1">
         <f t="array" ref="B231">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A231)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5373,9 +4913,7 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>0</v>
-      </c>
+      <c r="A232" s="1"/>
       <c r="B232" s="1" t="str" cm="1">
         <f t="array" ref="B232">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A232)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5394,9 +4932,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>1</v>
-      </c>
+      <c r="A233" s="1"/>
       <c r="B233" s="1" t="str" cm="1">
         <f t="array" ref="B233">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A233)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5415,9 +4951,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>0</v>
-      </c>
+      <c r="A234" s="1"/>
       <c r="B234" s="1" t="str" cm="1">
         <f t="array" ref="B234">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A234)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5436,9 +4970,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>0</v>
-      </c>
+      <c r="A235" s="1"/>
       <c r="B235" s="1" t="str" cm="1">
         <f t="array" ref="B235">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A235)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5457,9 +4989,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>0</v>
-      </c>
+      <c r="A236" s="1"/>
       <c r="B236" s="1" t="str" cm="1">
         <f t="array" ref="B236">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A236)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5478,9 +5008,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>0</v>
-      </c>
+      <c r="A237" s="1"/>
       <c r="B237" s="1" t="str" cm="1">
         <f t="array" ref="B237">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A237)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5499,9 +5027,7 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>0</v>
-      </c>
+      <c r="A238" s="1"/>
       <c r="B238" s="1" t="str" cm="1">
         <f t="array" ref="B238">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A238)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5520,9 +5046,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>0</v>
-      </c>
+      <c r="A239" s="1"/>
       <c r="B239" s="1" t="str" cm="1">
         <f t="array" ref="B239">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A239)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5541,9 +5065,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>0</v>
-      </c>
+      <c r="A240" s="1"/>
       <c r="B240" s="1" t="str" cm="1">
         <f t="array" ref="B240">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A240)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5562,9 +5084,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>1</v>
-      </c>
+      <c r="A241" s="1"/>
       <c r="B241" s="1" t="str" cm="1">
         <f t="array" ref="B241">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A241)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5583,9 +5103,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>0</v>
-      </c>
+      <c r="A242" s="1"/>
       <c r="B242" s="1" t="str" cm="1">
         <f t="array" ref="B242">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A242)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5604,9 +5122,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>0</v>
-      </c>
+      <c r="A243" s="1"/>
       <c r="B243" s="1" t="str" cm="1">
         <f t="array" ref="B243">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A243)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5625,9 +5141,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>0</v>
-      </c>
+      <c r="A244" s="1"/>
       <c r="B244" s="1" t="str" cm="1">
         <f t="array" ref="B244">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A244)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5646,9 +5160,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>0</v>
-      </c>
+      <c r="A245" s="1"/>
       <c r="B245" s="1" t="str" cm="1">
         <f t="array" ref="B245">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A245)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5667,9 +5179,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>0</v>
-      </c>
+      <c r="A246" s="1"/>
       <c r="B246" s="1" t="str" cm="1">
         <f t="array" ref="B246">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A246)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5688,9 +5198,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>0</v>
-      </c>
+      <c r="A247" s="1"/>
       <c r="B247" s="1" t="str" cm="1">
         <f t="array" ref="B247">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A247)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5709,9 +5217,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>0</v>
-      </c>
+      <c r="A248" s="1"/>
       <c r="B248" s="1" t="str" cm="1">
         <f t="array" ref="B248">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A248)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5730,9 +5236,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>0</v>
-      </c>
+      <c r="A249" s="1"/>
       <c r="B249" s="1" t="str" cm="1">
         <f t="array" ref="B249">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A249)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5751,9 +5255,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>0</v>
-      </c>
+      <c r="A250" s="1"/>
       <c r="B250" s="1" t="str" cm="1">
         <f t="array" ref="B250">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A250)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5772,9 +5274,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>0</v>
-      </c>
+      <c r="A251" s="1"/>
       <c r="B251" s="1" t="str" cm="1">
         <f t="array" ref="B251">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A251)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5793,9 +5293,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>0</v>
-      </c>
+      <c r="A252" s="1"/>
       <c r="B252" s="1" t="str" cm="1">
         <f t="array" ref="B252">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A252)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5814,9 +5312,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>1</v>
-      </c>
+      <c r="A253" s="1"/>
       <c r="B253" s="1" t="str" cm="1">
         <f t="array" ref="B253">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A253)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5835,9 +5331,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>0</v>
-      </c>
+      <c r="A254" s="1"/>
       <c r="B254" s="1" t="str" cm="1">
         <f t="array" ref="B254">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A254)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5856,9 +5350,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>0</v>
-      </c>
+      <c r="A255" s="1"/>
       <c r="B255" s="1" t="str" cm="1">
         <f t="array" ref="B255">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A255)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5877,9 +5369,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>0</v>
-      </c>
+      <c r="A256" s="1"/>
       <c r="B256" s="1" t="str" cm="1">
         <f t="array" ref="B256">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A256)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5898,9 +5388,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>1</v>
-      </c>
+      <c r="A257" s="1"/>
       <c r="B257" s="1" t="str" cm="1">
         <f t="array" ref="B257">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A257)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5919,9 +5407,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>0</v>
-      </c>
+      <c r="A258" s="1"/>
       <c r="B258" s="1" t="str" cm="1">
         <f t="array" ref="B258">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A258)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5940,9 +5426,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>0</v>
-      </c>
+      <c r="A259" s="1"/>
       <c r="B259" s="1" t="str" cm="1">
         <f t="array" ref="B259">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A259)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5961,9 +5445,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>0</v>
-      </c>
+      <c r="A260" s="1"/>
       <c r="B260" s="1" t="str" cm="1">
         <f t="array" ref="B260">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A260)-2)/175)+1)</f>
         <v>2DO</v>
@@ -5982,9 +5464,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>0</v>
-      </c>
+      <c r="A261" s="1"/>
       <c r="B261" s="1" t="str" cm="1">
         <f t="array" ref="B261">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A261)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6003,9 +5483,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>0</v>
-      </c>
+      <c r="A262" s="1"/>
       <c r="B262" s="1" t="str" cm="1">
         <f t="array" ref="B262">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A262)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6024,9 +5502,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>0</v>
-      </c>
+      <c r="A263" s="1"/>
       <c r="B263" s="1" t="str" cm="1">
         <f t="array" ref="B263">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A263)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6045,9 +5521,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>1</v>
-      </c>
+      <c r="A264" s="1"/>
       <c r="B264" s="1" t="str" cm="1">
         <f t="array" ref="B264">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A264)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6066,9 +5540,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>1</v>
-      </c>
+      <c r="A265" s="1"/>
       <c r="B265" s="1" t="str" cm="1">
         <f t="array" ref="B265">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A265)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6087,9 +5559,7 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>0</v>
-      </c>
+      <c r="A266" s="1"/>
       <c r="B266" s="1" t="str" cm="1">
         <f t="array" ref="B266">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A266)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6108,9 +5578,7 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>1</v>
-      </c>
+      <c r="A267" s="1"/>
       <c r="B267" s="1" t="str" cm="1">
         <f t="array" ref="B267">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A267)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6129,9 +5597,7 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>0</v>
-      </c>
+      <c r="A268" s="1"/>
       <c r="B268" s="1" t="str" cm="1">
         <f t="array" ref="B268">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A268)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6150,9 +5616,7 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>0</v>
-      </c>
+      <c r="A269" s="1"/>
       <c r="B269" s="1" t="str" cm="1">
         <f t="array" ref="B269">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A269)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6171,9 +5635,7 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>1</v>
-      </c>
+      <c r="A270" s="1"/>
       <c r="B270" s="1" t="str" cm="1">
         <f t="array" ref="B270">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A270)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6192,9 +5654,7 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>0</v>
-      </c>
+      <c r="A271" s="1"/>
       <c r="B271" s="1" t="str" cm="1">
         <f t="array" ref="B271">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A271)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6213,9 +5673,7 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>1</v>
-      </c>
+      <c r="A272" s="1"/>
       <c r="B272" s="1" t="str" cm="1">
         <f t="array" ref="B272">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A272)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6234,9 +5692,7 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>0</v>
-      </c>
+      <c r="A273" s="1"/>
       <c r="B273" s="1" t="str" cm="1">
         <f t="array" ref="B273">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A273)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6255,9 +5711,7 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>0</v>
-      </c>
+      <c r="A274" s="1"/>
       <c r="B274" s="1" t="str" cm="1">
         <f t="array" ref="B274">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A274)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6276,9 +5730,7 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>0</v>
-      </c>
+      <c r="A275" s="1"/>
       <c r="B275" s="1" t="str" cm="1">
         <f t="array" ref="B275">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A275)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6297,9 +5749,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>0</v>
-      </c>
+      <c r="A276" s="1"/>
       <c r="B276" s="1" t="str" cm="1">
         <f t="array" ref="B276">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A276)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6318,9 +5768,7 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>0</v>
-      </c>
+      <c r="A277" s="1"/>
       <c r="B277" s="1" t="str" cm="1">
         <f t="array" ref="B277">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A277)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6339,9 +5787,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>0</v>
-      </c>
+      <c r="A278" s="1"/>
       <c r="B278" s="1" t="str" cm="1">
         <f t="array" ref="B278">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A278)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6360,9 +5806,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>0</v>
-      </c>
+      <c r="A279" s="1"/>
       <c r="B279" s="1" t="str" cm="1">
         <f t="array" ref="B279">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A279)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6381,9 +5825,7 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>0</v>
-      </c>
+      <c r="A280" s="1"/>
       <c r="B280" s="1" t="str" cm="1">
         <f t="array" ref="B280">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A280)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6402,9 +5844,7 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>0</v>
-      </c>
+      <c r="A281" s="1"/>
       <c r="B281" s="1" t="str" cm="1">
         <f t="array" ref="B281">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A281)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6423,9 +5863,7 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>0</v>
-      </c>
+      <c r="A282" s="1"/>
       <c r="B282" s="1" t="str" cm="1">
         <f t="array" ref="B282">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A282)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6444,9 +5882,7 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>0</v>
-      </c>
+      <c r="A283" s="1"/>
       <c r="B283" s="1" t="str" cm="1">
         <f t="array" ref="B283">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A283)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6465,9 +5901,7 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>0</v>
-      </c>
+      <c r="A284" s="1"/>
       <c r="B284" s="1" t="str" cm="1">
         <f t="array" ref="B284">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A284)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6486,9 +5920,7 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>0</v>
-      </c>
+      <c r="A285" s="1"/>
       <c r="B285" s="1" t="str" cm="1">
         <f t="array" ref="B285">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A285)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6507,9 +5939,7 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>1</v>
-      </c>
+      <c r="A286" s="1"/>
       <c r="B286" s="1" t="str" cm="1">
         <f t="array" ref="B286">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A286)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6528,9 +5958,7 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>0</v>
-      </c>
+      <c r="A287" s="1"/>
       <c r="B287" s="1" t="str" cm="1">
         <f t="array" ref="B287">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A287)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6549,9 +5977,7 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>0</v>
-      </c>
+      <c r="A288" s="1"/>
       <c r="B288" s="1" t="str" cm="1">
         <f t="array" ref="B288">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A288)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6570,9 +5996,7 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>0</v>
-      </c>
+      <c r="A289" s="1"/>
       <c r="B289" s="1" t="str" cm="1">
         <f t="array" ref="B289">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A289)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6591,9 +6015,7 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>0</v>
-      </c>
+      <c r="A290" s="1"/>
       <c r="B290" s="1" t="str" cm="1">
         <f t="array" ref="B290">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A290)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6612,9 +6034,7 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>0</v>
-      </c>
+      <c r="A291" s="1"/>
       <c r="B291" s="1" t="str" cm="1">
         <f t="array" ref="B291">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A291)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6633,9 +6053,7 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
-        <v>0</v>
-      </c>
+      <c r="A292" s="1"/>
       <c r="B292" s="1" t="str" cm="1">
         <f t="array" ref="B292">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A292)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6654,9 +6072,7 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
-        <v>0</v>
-      </c>
+      <c r="A293" s="1"/>
       <c r="B293" s="1" t="str" cm="1">
         <f t="array" ref="B293">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A293)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6675,9 +6091,7 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
-        <v>0</v>
-      </c>
+      <c r="A294" s="1"/>
       <c r="B294" s="1" t="str" cm="1">
         <f t="array" ref="B294">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A294)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6696,9 +6110,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
-        <v>1</v>
-      </c>
+      <c r="A295" s="1"/>
       <c r="B295" s="1" t="str" cm="1">
         <f t="array" ref="B295">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A295)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6717,9 +6129,7 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>0</v>
-      </c>
+      <c r="A296" s="1"/>
       <c r="B296" s="1" t="str" cm="1">
         <f t="array" ref="B296">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A296)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6738,9 +6148,7 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>0</v>
-      </c>
+      <c r="A297" s="1"/>
       <c r="B297" s="1" t="str" cm="1">
         <f t="array" ref="B297">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A297)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6759,9 +6167,7 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>0</v>
-      </c>
+      <c r="A298" s="1"/>
       <c r="B298" s="1" t="str" cm="1">
         <f t="array" ref="B298">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A298)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6780,9 +6186,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>0</v>
-      </c>
+      <c r="A299" s="1"/>
       <c r="B299" s="1" t="str" cm="1">
         <f t="array" ref="B299">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A299)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6801,9 +6205,7 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>0</v>
-      </c>
+      <c r="A300" s="1"/>
       <c r="B300" s="1" t="str" cm="1">
         <f t="array" ref="B300">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A300)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6822,9 +6224,7 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>1</v>
-      </c>
+      <c r="A301" s="1"/>
       <c r="B301" s="1" t="str" cm="1">
         <f t="array" ref="B301">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A301)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6843,9 +6243,7 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
-        <v>0</v>
-      </c>
+      <c r="A302" s="1"/>
       <c r="B302" s="1" t="str" cm="1">
         <f t="array" ref="B302">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A302)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6864,9 +6262,7 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
-        <v>0</v>
-      </c>
+      <c r="A303" s="1"/>
       <c r="B303" s="1" t="str" cm="1">
         <f t="array" ref="B303">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A303)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6885,9 +6281,7 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
-        <v>0</v>
-      </c>
+      <c r="A304" s="1"/>
       <c r="B304" s="1" t="str" cm="1">
         <f t="array" ref="B304">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A304)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6906,9 +6300,7 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>0</v>
-      </c>
+      <c r="A305" s="1"/>
       <c r="B305" s="1" t="str" cm="1">
         <f t="array" ref="B305">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A305)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6927,9 +6319,7 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
-        <v>0</v>
-      </c>
+      <c r="A306" s="1"/>
       <c r="B306" s="1" t="str" cm="1">
         <f t="array" ref="B306">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A306)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6948,9 +6338,7 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
-        <v>0</v>
-      </c>
+      <c r="A307" s="1"/>
       <c r="B307" s="1" t="str" cm="1">
         <f t="array" ref="B307">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A307)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6969,9 +6357,7 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
-        <v>1</v>
-      </c>
+      <c r="A308" s="1"/>
       <c r="B308" s="1" t="str" cm="1">
         <f t="array" ref="B308">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A308)-2)/175)+1)</f>
         <v>2DO</v>
@@ -6990,9 +6376,7 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
-        <v>1</v>
-      </c>
+      <c r="A309" s="1"/>
       <c r="B309" s="1" t="str" cm="1">
         <f t="array" ref="B309">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A309)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7011,9 +6395,7 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
-        <v>0</v>
-      </c>
+      <c r="A310" s="1"/>
       <c r="B310" s="1" t="str" cm="1">
         <f t="array" ref="B310">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A310)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7032,9 +6414,7 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
-        <v>0</v>
-      </c>
+      <c r="A311" s="1"/>
       <c r="B311" s="1" t="str" cm="1">
         <f t="array" ref="B311">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A311)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7053,9 +6433,7 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
-        <v>0</v>
-      </c>
+      <c r="A312" s="1"/>
       <c r="B312" s="1" t="str" cm="1">
         <f t="array" ref="B312">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A312)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7074,9 +6452,7 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
-        <v>1</v>
-      </c>
+      <c r="A313" s="1"/>
       <c r="B313" s="1" t="str" cm="1">
         <f t="array" ref="B313">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A313)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7095,9 +6471,7 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
-        <v>1</v>
-      </c>
+      <c r="A314" s="1"/>
       <c r="B314" s="1" t="str" cm="1">
         <f t="array" ref="B314">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A314)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7116,9 +6490,7 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
-        <v>0</v>
-      </c>
+      <c r="A315" s="1"/>
       <c r="B315" s="1" t="str" cm="1">
         <f t="array" ref="B315">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A315)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7137,9 +6509,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
-        <v>0</v>
-      </c>
+      <c r="A316" s="1"/>
       <c r="B316" s="1" t="str" cm="1">
         <f t="array" ref="B316">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A316)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7158,9 +6528,7 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
-        <v>1</v>
-      </c>
+      <c r="A317" s="1"/>
       <c r="B317" s="1" t="str" cm="1">
         <f t="array" ref="B317">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A317)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7179,9 +6547,7 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
-        <v>0</v>
-      </c>
+      <c r="A318" s="1"/>
       <c r="B318" s="1" t="str" cm="1">
         <f t="array" ref="B318">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A318)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7200,9 +6566,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
-        <v>0</v>
-      </c>
+      <c r="A319" s="1"/>
       <c r="B319" s="1" t="str" cm="1">
         <f t="array" ref="B319">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A319)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7221,9 +6585,7 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
-        <v>0</v>
-      </c>
+      <c r="A320" s="1"/>
       <c r="B320" s="1" t="str" cm="1">
         <f t="array" ref="B320">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A320)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7242,9 +6604,7 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
-        <v>0</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="1" t="str" cm="1">
         <f t="array" ref="B321">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A321)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7263,9 +6623,7 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
-        <v>1</v>
-      </c>
+      <c r="A322" s="1"/>
       <c r="B322" s="1" t="str" cm="1">
         <f t="array" ref="B322">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A322)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7284,9 +6642,7 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
-        <v>0</v>
-      </c>
+      <c r="A323" s="1"/>
       <c r="B323" s="1" t="str" cm="1">
         <f t="array" ref="B323">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A323)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7305,9 +6661,7 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
-        <v>0</v>
-      </c>
+      <c r="A324" s="1"/>
       <c r="B324" s="1" t="str" cm="1">
         <f t="array" ref="B324">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A324)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7326,9 +6680,7 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
-        <v>0</v>
-      </c>
+      <c r="A325" s="1"/>
       <c r="B325" s="1" t="str" cm="1">
         <f t="array" ref="B325">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A325)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7347,9 +6699,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
-        <v>0</v>
-      </c>
+      <c r="A326" s="1"/>
       <c r="B326" s="1" t="str" cm="1">
         <f t="array" ref="B326">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A326)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7368,9 +6718,7 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
-        <v>0</v>
-      </c>
+      <c r="A327" s="1"/>
       <c r="B327" s="1" t="str" cm="1">
         <f t="array" ref="B327">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A327)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7389,9 +6737,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
-        <v>0</v>
-      </c>
+      <c r="A328" s="1"/>
       <c r="B328" s="1" t="str" cm="1">
         <f t="array" ref="B328">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A328)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7410,9 +6756,7 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>1</v>
-      </c>
+      <c r="A329" s="1"/>
       <c r="B329" s="1" t="str" cm="1">
         <f t="array" ref="B329">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A329)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7431,9 +6775,7 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
-        <v>0</v>
-      </c>
+      <c r="A330" s="1"/>
       <c r="B330" s="1" t="str" cm="1">
         <f t="array" ref="B330">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A330)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7452,9 +6794,7 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
-        <v>0</v>
-      </c>
+      <c r="A331" s="1"/>
       <c r="B331" s="1" t="str" cm="1">
         <f t="array" ref="B331">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A331)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7473,9 +6813,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
-        <v>0</v>
-      </c>
+      <c r="A332" s="1"/>
       <c r="B332" s="1" t="str" cm="1">
         <f t="array" ref="B332">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A332)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7494,9 +6832,7 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
-        <v>1</v>
-      </c>
+      <c r="A333" s="1"/>
       <c r="B333" s="1" t="str" cm="1">
         <f t="array" ref="B333">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A333)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7515,9 +6851,7 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
-        <v>0</v>
-      </c>
+      <c r="A334" s="1"/>
       <c r="B334" s="1" t="str" cm="1">
         <f t="array" ref="B334">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A334)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7536,9 +6870,7 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
-        <v>0</v>
-      </c>
+      <c r="A335" s="1"/>
       <c r="B335" s="1" t="str" cm="1">
         <f t="array" ref="B335">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A335)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7557,9 +6889,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
-        <v>0</v>
-      </c>
+      <c r="A336" s="1"/>
       <c r="B336" s="1" t="str" cm="1">
         <f t="array" ref="B336">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A336)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7578,9 +6908,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>0</v>
-      </c>
+      <c r="A337" s="1"/>
       <c r="B337" s="1" t="str" cm="1">
         <f t="array" ref="B337">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A337)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7599,9 +6927,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
-        <v>0</v>
-      </c>
+      <c r="A338" s="1"/>
       <c r="B338" s="1" t="str" cm="1">
         <f t="array" ref="B338">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A338)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7620,9 +6946,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
-        <v>0</v>
-      </c>
+      <c r="A339" s="1"/>
       <c r="B339" s="1" t="str" cm="1">
         <f t="array" ref="B339">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A339)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7641,9 +6965,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
-        <v>0</v>
-      </c>
+      <c r="A340" s="1"/>
       <c r="B340" s="1" t="str" cm="1">
         <f t="array" ref="B340">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A340)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7662,9 +6984,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
-        <v>0</v>
-      </c>
+      <c r="A341" s="1"/>
       <c r="B341" s="1" t="str" cm="1">
         <f t="array" ref="B341">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A341)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7683,9 +7003,7 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
-        <v>0</v>
-      </c>
+      <c r="A342" s="1"/>
       <c r="B342" s="1" t="str" cm="1">
         <f t="array" ref="B342">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A342)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7704,9 +7022,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>0</v>
-      </c>
+      <c r="A343" s="1"/>
       <c r="B343" s="1" t="str" cm="1">
         <f t="array" ref="B343">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A343)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7725,9 +7041,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>0</v>
-      </c>
+      <c r="A344" s="1"/>
       <c r="B344" s="1" t="str" cm="1">
         <f t="array" ref="B344">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A344)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7746,9 +7060,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>1</v>
-      </c>
+      <c r="A345" s="1"/>
       <c r="B345" s="1" t="str" cm="1">
         <f t="array" ref="B345">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A345)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7767,9 +7079,7 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>0</v>
-      </c>
+      <c r="A346" s="1"/>
       <c r="B346" s="1" t="str" cm="1">
         <f t="array" ref="B346">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A346)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7788,9 +7098,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>0</v>
-      </c>
+      <c r="A347" s="1"/>
       <c r="B347" s="1" t="str" cm="1">
         <f t="array" ref="B347">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A347)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7809,9 +7117,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>0</v>
-      </c>
+      <c r="A348" s="1"/>
       <c r="B348" s="1" t="str" cm="1">
         <f t="array" ref="B348">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A348)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7830,9 +7136,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>0</v>
-      </c>
+      <c r="A349" s="1"/>
       <c r="B349" s="1" t="str" cm="1">
         <f t="array" ref="B349">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A349)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7851,9 +7155,7 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
-        <v>1</v>
-      </c>
+      <c r="A350" s="1"/>
       <c r="B350" s="1" t="str" cm="1">
         <f t="array" ref="B350">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A350)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7872,9 +7174,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
-        <v>1</v>
-      </c>
+      <c r="A351" s="1"/>
       <c r="B351" s="1" t="str" cm="1">
         <f t="array" ref="B351">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A351)-2)/175)+1)</f>
         <v>2DO</v>
@@ -7893,9 +7193,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
-        <v>1</v>
-      </c>
+      <c r="A352" s="1"/>
       <c r="B352" s="1" t="str" cm="1">
         <f t="array" ref="B352">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A352)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7914,9 +7212,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
-        <v>0</v>
-      </c>
+      <c r="A353" s="1"/>
       <c r="B353" s="1" t="str" cm="1">
         <f t="array" ref="B353">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A353)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7935,9 +7231,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>0</v>
-      </c>
+      <c r="A354" s="1"/>
       <c r="B354" s="1" t="str" cm="1">
         <f t="array" ref="B354">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A354)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7956,9 +7250,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
-        <v>0</v>
-      </c>
+      <c r="A355" s="1"/>
       <c r="B355" s="1" t="str" cm="1">
         <f t="array" ref="B355">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A355)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7977,9 +7269,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
-        <v>0</v>
-      </c>
+      <c r="A356" s="1"/>
       <c r="B356" s="1" t="str" cm="1">
         <f t="array" ref="B356">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A356)-2)/175)+1)</f>
         <v>3RO</v>
@@ -7998,9 +7288,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>0</v>
-      </c>
+      <c r="A357" s="1"/>
       <c r="B357" s="1" t="str" cm="1">
         <f t="array" ref="B357">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A357)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8019,9 +7307,7 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
-        <v>0</v>
-      </c>
+      <c r="A358" s="1"/>
       <c r="B358" s="1" t="str" cm="1">
         <f t="array" ref="B358">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A358)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8040,9 +7326,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
-        <v>1</v>
-      </c>
+      <c r="A359" s="1"/>
       <c r="B359" s="1" t="str" cm="1">
         <f t="array" ref="B359">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A359)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8061,9 +7345,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
-        <v>0</v>
-      </c>
+      <c r="A360" s="1"/>
       <c r="B360" s="1" t="str" cm="1">
         <f t="array" ref="B360">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A360)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8082,9 +7364,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
-        <v>0</v>
-      </c>
+      <c r="A361" s="1"/>
       <c r="B361" s="1" t="str" cm="1">
         <f t="array" ref="B361">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A361)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8103,9 +7383,7 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
-        <v>0</v>
-      </c>
+      <c r="A362" s="1"/>
       <c r="B362" s="1" t="str" cm="1">
         <f t="array" ref="B362">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A362)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8124,9 +7402,7 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
-        <v>0</v>
-      </c>
+      <c r="A363" s="1"/>
       <c r="B363" s="1" t="str" cm="1">
         <f t="array" ref="B363">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A363)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8145,9 +7421,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
-        <v>0</v>
-      </c>
+      <c r="A364" s="1"/>
       <c r="B364" s="1" t="str" cm="1">
         <f t="array" ref="B364">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A364)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8166,9 +7440,7 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
-        <v>0</v>
-      </c>
+      <c r="A365" s="1"/>
       <c r="B365" s="1" t="str" cm="1">
         <f t="array" ref="B365">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A365)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8187,9 +7459,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
-        <v>1</v>
-      </c>
+      <c r="A366" s="1"/>
       <c r="B366" s="1" t="str" cm="1">
         <f t="array" ref="B366">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A366)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8208,9 +7478,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
-        <v>0</v>
-      </c>
+      <c r="A367" s="1"/>
       <c r="B367" s="1" t="str" cm="1">
         <f t="array" ref="B367">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A367)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8229,9 +7497,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
-        <v>0</v>
-      </c>
+      <c r="A368" s="1"/>
       <c r="B368" s="1" t="str" cm="1">
         <f t="array" ref="B368">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A368)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8250,9 +7516,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
-        <v>0</v>
-      </c>
+      <c r="A369" s="1"/>
       <c r="B369" s="1" t="str" cm="1">
         <f t="array" ref="B369">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A369)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8271,9 +7535,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
-        <v>0</v>
-      </c>
+      <c r="A370" s="1"/>
       <c r="B370" s="1" t="str" cm="1">
         <f t="array" ref="B370">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A370)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8292,9 +7554,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
-        <v>0</v>
-      </c>
+      <c r="A371" s="1"/>
       <c r="B371" s="1" t="str" cm="1">
         <f t="array" ref="B371">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A371)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8313,9 +7573,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
-        <v>0</v>
-      </c>
+      <c r="A372" s="1"/>
       <c r="B372" s="1" t="str" cm="1">
         <f t="array" ref="B372">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A372)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8334,9 +7592,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
-        <v>1</v>
-      </c>
+      <c r="A373" s="1"/>
       <c r="B373" s="1" t="str" cm="1">
         <f t="array" ref="B373">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A373)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8355,9 +7611,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
-        <v>0</v>
-      </c>
+      <c r="A374" s="1"/>
       <c r="B374" s="1" t="str" cm="1">
         <f t="array" ref="B374">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A374)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8376,9 +7630,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
-        <v>1</v>
-      </c>
+      <c r="A375" s="1"/>
       <c r="B375" s="1" t="str" cm="1">
         <f t="array" ref="B375">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A375)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8397,9 +7649,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>0</v>
-      </c>
+      <c r="A376" s="1"/>
       <c r="B376" s="1" t="str" cm="1">
         <f t="array" ref="B376">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A376)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8418,9 +7668,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
-        <v>0</v>
-      </c>
+      <c r="A377" s="1"/>
       <c r="B377" s="1" t="str" cm="1">
         <f t="array" ref="B377">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A377)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8439,9 +7687,7 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
-        <v>0</v>
-      </c>
+      <c r="A378" s="1"/>
       <c r="B378" s="1" t="str" cm="1">
         <f t="array" ref="B378">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A378)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8460,9 +7706,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
-        <v>0</v>
-      </c>
+      <c r="A379" s="1"/>
       <c r="B379" s="1" t="str" cm="1">
         <f t="array" ref="B379">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A379)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8481,9 +7725,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
-        <v>0</v>
-      </c>
+      <c r="A380" s="1"/>
       <c r="B380" s="1" t="str" cm="1">
         <f t="array" ref="B380">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A380)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8502,9 +7744,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
-        <v>1</v>
-      </c>
+      <c r="A381" s="1"/>
       <c r="B381" s="1" t="str" cm="1">
         <f t="array" ref="B381">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A381)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8523,9 +7763,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
-        <v>0</v>
-      </c>
+      <c r="A382" s="1"/>
       <c r="B382" s="1" t="str" cm="1">
         <f t="array" ref="B382">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A382)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8544,9 +7782,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
-        <v>1</v>
-      </c>
+      <c r="A383" s="1"/>
       <c r="B383" s="1" t="str" cm="1">
         <f t="array" ref="B383">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A383)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8565,9 +7801,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
-        <v>0</v>
-      </c>
+      <c r="A384" s="1"/>
       <c r="B384" s="1" t="str" cm="1">
         <f t="array" ref="B384">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A384)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8586,9 +7820,7 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
-        <v>0</v>
-      </c>
+      <c r="A385" s="1"/>
       <c r="B385" s="1" t="str" cm="1">
         <f t="array" ref="B385">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A385)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8607,9 +7839,7 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
-        <v>0</v>
-      </c>
+      <c r="A386" s="1"/>
       <c r="B386" s="1" t="str" cm="1">
         <f t="array" ref="B386">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A386)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8628,9 +7858,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
-        <v>0</v>
-      </c>
+      <c r="A387" s="1"/>
       <c r="B387" s="1" t="str" cm="1">
         <f t="array" ref="B387">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A387)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8649,9 +7877,7 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
-        <v>0</v>
-      </c>
+      <c r="A388" s="1"/>
       <c r="B388" s="1" t="str" cm="1">
         <f t="array" ref="B388">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A388)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8670,9 +7896,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
-        <v>0</v>
-      </c>
+      <c r="A389" s="1"/>
       <c r="B389" s="1" t="str" cm="1">
         <f t="array" ref="B389">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A389)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8691,9 +7915,7 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
-        <v>0</v>
-      </c>
+      <c r="A390" s="1"/>
       <c r="B390" s="1" t="str" cm="1">
         <f t="array" ref="B390">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A390)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8712,9 +7934,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
-        <v>0</v>
-      </c>
+      <c r="A391" s="1"/>
       <c r="B391" s="1" t="str" cm="1">
         <f t="array" ref="B391">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A391)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8733,9 +7953,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
-        <v>0</v>
-      </c>
+      <c r="A392" s="1"/>
       <c r="B392" s="1" t="str" cm="1">
         <f t="array" ref="B392">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A392)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8754,9 +7972,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
-        <v>0</v>
-      </c>
+      <c r="A393" s="1"/>
       <c r="B393" s="1" t="str" cm="1">
         <f t="array" ref="B393">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A393)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8775,9 +7991,7 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
-        <v>0</v>
-      </c>
+      <c r="A394" s="1"/>
       <c r="B394" s="1" t="str" cm="1">
         <f t="array" ref="B394">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A394)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8796,9 +8010,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
-        <v>0</v>
-      </c>
+      <c r="A395" s="1"/>
       <c r="B395" s="1" t="str" cm="1">
         <f t="array" ref="B395">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A395)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8817,9 +8029,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
-        <v>0</v>
-      </c>
+      <c r="A396" s="1"/>
       <c r="B396" s="1" t="str" cm="1">
         <f t="array" ref="B396">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A396)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8838,9 +8048,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
-        <v>0</v>
-      </c>
+      <c r="A397" s="1"/>
       <c r="B397" s="1" t="str" cm="1">
         <f t="array" ref="B397">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A397)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8859,9 +8067,7 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
-        <v>0</v>
-      </c>
+      <c r="A398" s="1"/>
       <c r="B398" s="1" t="str" cm="1">
         <f t="array" ref="B398">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A398)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8880,9 +8086,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
-        <v>0</v>
-      </c>
+      <c r="A399" s="1"/>
       <c r="B399" s="1" t="str" cm="1">
         <f t="array" ref="B399">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A399)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8901,9 +8105,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
-        <v>0</v>
-      </c>
+      <c r="A400" s="1"/>
       <c r="B400" s="1" t="str" cm="1">
         <f t="array" ref="B400">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A400)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8922,9 +8124,7 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
-        <v>0</v>
-      </c>
+      <c r="A401" s="1"/>
       <c r="B401" s="1" t="str" cm="1">
         <f t="array" ref="B401">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A401)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8943,9 +8143,7 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
-        <v>0</v>
-      </c>
+      <c r="A402" s="1"/>
       <c r="B402" s="1" t="str" cm="1">
         <f t="array" ref="B402">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A402)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8964,9 +8162,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
-        <v>1</v>
-      </c>
+      <c r="A403" s="1"/>
       <c r="B403" s="1" t="str" cm="1">
         <f t="array" ref="B403">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A403)-2)/175)+1)</f>
         <v>3RO</v>
@@ -8985,9 +8181,7 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
-        <v>0</v>
-      </c>
+      <c r="A404" s="1"/>
       <c r="B404" s="1" t="str" cm="1">
         <f t="array" ref="B404">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A404)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9006,9 +8200,7 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
-        <v>0</v>
-      </c>
+      <c r="A405" s="1"/>
       <c r="B405" s="1" t="str" cm="1">
         <f t="array" ref="B405">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A405)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9027,9 +8219,7 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
-        <v>0</v>
-      </c>
+      <c r="A406" s="1"/>
       <c r="B406" s="1" t="str" cm="1">
         <f t="array" ref="B406">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A406)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9048,9 +8238,7 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
-        <v>1</v>
-      </c>
+      <c r="A407" s="1"/>
       <c r="B407" s="1" t="str" cm="1">
         <f t="array" ref="B407">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A407)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9069,9 +8257,7 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
-        <v>0</v>
-      </c>
+      <c r="A408" s="1"/>
       <c r="B408" s="1" t="str" cm="1">
         <f t="array" ref="B408">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A408)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9090,9 +8276,7 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
-        <v>1</v>
-      </c>
+      <c r="A409" s="1"/>
       <c r="B409" s="1" t="str" cm="1">
         <f t="array" ref="B409">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A409)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9111,9 +8295,7 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
-        <v>0</v>
-      </c>
+      <c r="A410" s="1"/>
       <c r="B410" s="1" t="str" cm="1">
         <f t="array" ref="B410">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A410)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9132,9 +8314,7 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
-        <v>0</v>
-      </c>
+      <c r="A411" s="1"/>
       <c r="B411" s="1" t="str" cm="1">
         <f t="array" ref="B411">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A411)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9153,9 +8333,7 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
-        <v>1</v>
-      </c>
+      <c r="A412" s="1"/>
       <c r="B412" s="1" t="str" cm="1">
         <f t="array" ref="B412">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A412)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9174,9 +8352,7 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
-        <v>0</v>
-      </c>
+      <c r="A413" s="1"/>
       <c r="B413" s="1" t="str" cm="1">
         <f t="array" ref="B413">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A413)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9195,9 +8371,7 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
-        <v>0</v>
-      </c>
+      <c r="A414" s="1"/>
       <c r="B414" s="1" t="str" cm="1">
         <f t="array" ref="B414">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A414)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9216,9 +8390,7 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
-        <v>1</v>
-      </c>
+      <c r="A415" s="1"/>
       <c r="B415" s="1" t="str" cm="1">
         <f t="array" ref="B415">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A415)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9237,9 +8409,7 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
-        <v>0</v>
-      </c>
+      <c r="A416" s="1"/>
       <c r="B416" s="1" t="str" cm="1">
         <f t="array" ref="B416">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A416)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9258,9 +8428,7 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
-        <v>1</v>
-      </c>
+      <c r="A417" s="1"/>
       <c r="B417" s="1" t="str" cm="1">
         <f t="array" ref="B417">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A417)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9279,9 +8447,7 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
-        <v>0</v>
-      </c>
+      <c r="A418" s="1"/>
       <c r="B418" s="1" t="str" cm="1">
         <f t="array" ref="B418">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A418)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9300,9 +8466,7 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
-        <v>1</v>
-      </c>
+      <c r="A419" s="1"/>
       <c r="B419" s="1" t="str" cm="1">
         <f t="array" ref="B419">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A419)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9321,9 +8485,7 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
-        <v>0</v>
-      </c>
+      <c r="A420" s="1"/>
       <c r="B420" s="1" t="str" cm="1">
         <f t="array" ref="B420">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A420)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9342,9 +8504,7 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="1">
-        <v>0</v>
-      </c>
+      <c r="A421" s="1"/>
       <c r="B421" s="1" t="str" cm="1">
         <f t="array" ref="B421">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A421)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9363,9 +8523,7 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
-        <v>0</v>
-      </c>
+      <c r="A422" s="1"/>
       <c r="B422" s="1" t="str" cm="1">
         <f t="array" ref="B422">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A422)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9384,9 +8542,7 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="1">
-        <v>0</v>
-      </c>
+      <c r="A423" s="1"/>
       <c r="B423" s="1" t="str" cm="1">
         <f t="array" ref="B423">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A423)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9405,9 +8561,7 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="1">
-        <v>0</v>
-      </c>
+      <c r="A424" s="1"/>
       <c r="B424" s="1" t="str" cm="1">
         <f t="array" ref="B424">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A424)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9426,9 +8580,7 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="1">
-        <v>1</v>
-      </c>
+      <c r="A425" s="1"/>
       <c r="B425" s="1" t="str" cm="1">
         <f t="array" ref="B425">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A425)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9447,9 +8599,7 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="1">
-        <v>1</v>
-      </c>
+      <c r="A426" s="1"/>
       <c r="B426" s="1" t="str" cm="1">
         <f t="array" ref="B426">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A426)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9468,9 +8618,7 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="1">
-        <v>1</v>
-      </c>
+      <c r="A427" s="1"/>
       <c r="B427" s="1" t="str" cm="1">
         <f t="array" ref="B427">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A427)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9489,9 +8637,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="1">
-        <v>0</v>
-      </c>
+      <c r="A428" s="1"/>
       <c r="B428" s="1" t="str" cm="1">
         <f t="array" ref="B428">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A428)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9510,9 +8656,7 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="1">
-        <v>0</v>
-      </c>
+      <c r="A429" s="1"/>
       <c r="B429" s="1" t="str" cm="1">
         <f t="array" ref="B429">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A429)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9531,9 +8675,7 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="1">
-        <v>0</v>
-      </c>
+      <c r="A430" s="1"/>
       <c r="B430" s="1" t="str" cm="1">
         <f t="array" ref="B430">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A430)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9552,9 +8694,7 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="1">
-        <v>0</v>
-      </c>
+      <c r="A431" s="1"/>
       <c r="B431" s="1" t="str" cm="1">
         <f t="array" ref="B431">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A431)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9573,9 +8713,7 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
-        <v>0</v>
-      </c>
+      <c r="A432" s="1"/>
       <c r="B432" s="1" t="str" cm="1">
         <f t="array" ref="B432">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A432)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9594,9 +8732,7 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="1">
-        <v>0</v>
-      </c>
+      <c r="A433" s="1"/>
       <c r="B433" s="1" t="str" cm="1">
         <f t="array" ref="B433">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A433)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9615,9 +8751,7 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="1">
-        <v>0</v>
-      </c>
+      <c r="A434" s="1"/>
       <c r="B434" s="1" t="str" cm="1">
         <f t="array" ref="B434">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A434)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9636,9 +8770,7 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="1">
-        <v>1</v>
-      </c>
+      <c r="A435" s="1"/>
       <c r="B435" s="1" t="str" cm="1">
         <f t="array" ref="B435">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A435)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9657,9 +8789,7 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="1">
-        <v>0</v>
-      </c>
+      <c r="A436" s="1"/>
       <c r="B436" s="1" t="str" cm="1">
         <f t="array" ref="B436">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A436)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9678,9 +8808,7 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="1">
-        <v>0</v>
-      </c>
+      <c r="A437" s="1"/>
       <c r="B437" s="1" t="str" cm="1">
         <f t="array" ref="B437">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A437)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9699,9 +8827,7 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="1">
-        <v>0</v>
-      </c>
+      <c r="A438" s="1"/>
       <c r="B438" s="1" t="str" cm="1">
         <f t="array" ref="B438">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A438)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9720,9 +8846,7 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="1">
-        <v>0</v>
-      </c>
+      <c r="A439" s="1"/>
       <c r="B439" s="1" t="str" cm="1">
         <f t="array" ref="B439">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A439)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9741,9 +8865,7 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="1">
-        <v>0</v>
-      </c>
+      <c r="A440" s="1"/>
       <c r="B440" s="1" t="str" cm="1">
         <f t="array" ref="B440">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A440)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9762,9 +8884,7 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="1">
-        <v>1</v>
-      </c>
+      <c r="A441" s="1"/>
       <c r="B441" s="1" t="str" cm="1">
         <f t="array" ref="B441">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A441)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9783,9 +8903,7 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="1">
-        <v>0</v>
-      </c>
+      <c r="A442" s="1"/>
       <c r="B442" s="1" t="str" cm="1">
         <f t="array" ref="B442">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A442)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9804,9 +8922,7 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
-        <v>0</v>
-      </c>
+      <c r="A443" s="1"/>
       <c r="B443" s="1" t="str" cm="1">
         <f t="array" ref="B443">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A443)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9825,9 +8941,7 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="1">
-        <v>0</v>
-      </c>
+      <c r="A444" s="1"/>
       <c r="B444" s="1" t="str" cm="1">
         <f t="array" ref="B444">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A444)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9846,9 +8960,7 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="1">
-        <v>0</v>
-      </c>
+      <c r="A445" s="1"/>
       <c r="B445" s="1" t="str" cm="1">
         <f t="array" ref="B445">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A445)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9867,9 +8979,7 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="1">
-        <v>0</v>
-      </c>
+      <c r="A446" s="1"/>
       <c r="B446" s="1" t="str" cm="1">
         <f t="array" ref="B446">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A446)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9888,9 +8998,7 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="1">
-        <v>0</v>
-      </c>
+      <c r="A447" s="1"/>
       <c r="B447" s="1" t="str" cm="1">
         <f t="array" ref="B447">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A447)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9909,9 +9017,7 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="1">
-        <v>0</v>
-      </c>
+      <c r="A448" s="1"/>
       <c r="B448" s="1" t="str" cm="1">
         <f t="array" ref="B448">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A448)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9930,9 +9036,7 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="1">
-        <v>1</v>
-      </c>
+      <c r="A449" s="1"/>
       <c r="B449" s="1" t="str" cm="1">
         <f t="array" ref="B449">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A449)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9951,9 +9055,7 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
-        <v>0</v>
-      </c>
+      <c r="A450" s="1"/>
       <c r="B450" s="1" t="str" cm="1">
         <f t="array" ref="B450">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A450)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9972,9 +9074,7 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1">
-        <v>0</v>
-      </c>
+      <c r="A451" s="1"/>
       <c r="B451" s="1" t="str" cm="1">
         <f t="array" ref="B451">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A451)-2)/175)+1)</f>
         <v>3RO</v>
@@ -9993,9 +9093,7 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="1">
-        <v>0</v>
-      </c>
+      <c r="A452" s="1"/>
       <c r="B452" s="1" t="str" cm="1">
         <f t="array" ref="B452">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A452)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10014,9 +9112,7 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="1">
-        <v>0</v>
-      </c>
+      <c r="A453" s="1"/>
       <c r="B453" s="1" t="str" cm="1">
         <f t="array" ref="B453">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A453)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10035,9 +9131,7 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="1">
-        <v>0</v>
-      </c>
+      <c r="A454" s="1"/>
       <c r="B454" s="1" t="str" cm="1">
         <f t="array" ref="B454">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A454)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10056,9 +9150,7 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="1">
-        <v>0</v>
-      </c>
+      <c r="A455" s="1"/>
       <c r="B455" s="1" t="str" cm="1">
         <f t="array" ref="B455">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A455)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10077,9 +9169,7 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="1">
-        <v>1</v>
-      </c>
+      <c r="A456" s="1"/>
       <c r="B456" s="1" t="str" cm="1">
         <f t="array" ref="B456">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A456)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10098,9 +9188,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1">
-        <v>0</v>
-      </c>
+      <c r="A457" s="1"/>
       <c r="B457" s="1" t="str" cm="1">
         <f t="array" ref="B457">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A457)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10119,9 +9207,7 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="1">
-        <v>0</v>
-      </c>
+      <c r="A458" s="1"/>
       <c r="B458" s="1" t="str" cm="1">
         <f t="array" ref="B458">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A458)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10140,9 +9226,7 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="1">
-        <v>0</v>
-      </c>
+      <c r="A459" s="1"/>
       <c r="B459" s="1" t="str" cm="1">
         <f t="array" ref="B459">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A459)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10161,9 +9245,7 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="1">
-        <v>0</v>
-      </c>
+      <c r="A460" s="1"/>
       <c r="B460" s="1" t="str" cm="1">
         <f t="array" ref="B460">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A460)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10182,9 +9264,7 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="1">
-        <v>0</v>
-      </c>
+      <c r="A461" s="1"/>
       <c r="B461" s="1" t="str" cm="1">
         <f t="array" ref="B461">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A461)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10203,9 +9283,7 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="1">
-        <v>0</v>
-      </c>
+      <c r="A462" s="1"/>
       <c r="B462" s="1" t="str" cm="1">
         <f t="array" ref="B462">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A462)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10224,9 +9302,7 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="1">
-        <v>0</v>
-      </c>
+      <c r="A463" s="1"/>
       <c r="B463" s="1" t="str" cm="1">
         <f t="array" ref="B463">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A463)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10245,9 +9321,7 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="1">
-        <v>0</v>
-      </c>
+      <c r="A464" s="1"/>
       <c r="B464" s="1" t="str" cm="1">
         <f t="array" ref="B464">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A464)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10266,9 +9340,7 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="1">
-        <v>0</v>
-      </c>
+      <c r="A465" s="1"/>
       <c r="B465" s="1" t="str" cm="1">
         <f t="array" ref="B465">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A465)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10287,9 +9359,7 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="1">
-        <v>0</v>
-      </c>
+      <c r="A466" s="1"/>
       <c r="B466" s="1" t="str" cm="1">
         <f t="array" ref="B466">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A466)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10308,9 +9378,7 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="1">
-        <v>1</v>
-      </c>
+      <c r="A467" s="1"/>
       <c r="B467" s="1" t="str" cm="1">
         <f t="array" ref="B467">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A467)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10329,9 +9397,7 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="1">
-        <v>1</v>
-      </c>
+      <c r="A468" s="1"/>
       <c r="B468" s="1" t="str" cm="1">
         <f t="array" ref="B468">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A468)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10350,9 +9416,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="1">
-        <v>1</v>
-      </c>
+      <c r="A469" s="1"/>
       <c r="B469" s="1" t="str" cm="1">
         <f t="array" ref="B469">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A469)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10371,9 +9435,7 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="1">
-        <v>0</v>
-      </c>
+      <c r="A470" s="1"/>
       <c r="B470" s="1" t="str" cm="1">
         <f t="array" ref="B470">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A470)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10392,9 +9454,7 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1">
-        <v>0</v>
-      </c>
+      <c r="A471" s="1"/>
       <c r="B471" s="1" t="str" cm="1">
         <f t="array" ref="B471">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A471)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10413,9 +9473,7 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="1">
-        <v>0</v>
-      </c>
+      <c r="A472" s="1"/>
       <c r="B472" s="1" t="str" cm="1">
         <f t="array" ref="B472">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A472)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10434,9 +9492,7 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="1">
-        <v>0</v>
-      </c>
+      <c r="A473" s="1"/>
       <c r="B473" s="1" t="str" cm="1">
         <f t="array" ref="B473">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A473)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10455,9 +9511,7 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="1">
-        <v>1</v>
-      </c>
+      <c r="A474" s="1"/>
       <c r="B474" s="1" t="str" cm="1">
         <f t="array" ref="B474">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A474)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10476,9 +9530,7 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="1">
-        <v>1</v>
-      </c>
+      <c r="A475" s="1"/>
       <c r="B475" s="1" t="str" cm="1">
         <f t="array" ref="B475">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A475)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10497,9 +9549,7 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="1">
-        <v>0</v>
-      </c>
+      <c r="A476" s="1"/>
       <c r="B476" s="1" t="str" cm="1">
         <f t="array" ref="B476">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A476)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10518,9 +9568,7 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="1">
-        <v>0</v>
-      </c>
+      <c r="A477" s="1"/>
       <c r="B477" s="1" t="str" cm="1">
         <f t="array" ref="B477">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A477)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10539,9 +9587,7 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="1">
-        <v>0</v>
-      </c>
+      <c r="A478" s="1"/>
       <c r="B478" s="1" t="str" cm="1">
         <f t="array" ref="B478">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A478)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10560,9 +9606,7 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="1">
-        <v>0</v>
-      </c>
+      <c r="A479" s="1"/>
       <c r="B479" s="1" t="str" cm="1">
         <f t="array" ref="B479">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A479)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10581,9 +9625,7 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="1">
-        <v>0</v>
-      </c>
+      <c r="A480" s="1"/>
       <c r="B480" s="1" t="str" cm="1">
         <f t="array" ref="B480">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A480)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10602,9 +9644,7 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="1">
-        <v>1</v>
-      </c>
+      <c r="A481" s="1"/>
       <c r="B481" s="1" t="str" cm="1">
         <f t="array" ref="B481">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A481)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10623,9 +9663,7 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="1">
-        <v>0</v>
-      </c>
+      <c r="A482" s="1"/>
       <c r="B482" s="1" t="str" cm="1">
         <f t="array" ref="B482">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A482)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10644,9 +9682,7 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="1">
-        <v>0</v>
-      </c>
+      <c r="A483" s="1"/>
       <c r="B483" s="1" t="str" cm="1">
         <f t="array" ref="B483">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A483)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10665,9 +9701,7 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="1">
-        <v>0</v>
-      </c>
+      <c r="A484" s="1"/>
       <c r="B484" s="1" t="str" cm="1">
         <f t="array" ref="B484">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A484)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10686,9 +9720,7 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="1">
-        <v>0</v>
-      </c>
+      <c r="A485" s="1"/>
       <c r="B485" s="1" t="str" cm="1">
         <f t="array" ref="B485">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A485)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10707,9 +9739,7 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="1">
-        <v>0</v>
-      </c>
+      <c r="A486" s="1"/>
       <c r="B486" s="1" t="str" cm="1">
         <f t="array" ref="B486">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A486)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10728,9 +9758,7 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="1">
-        <v>0</v>
-      </c>
+      <c r="A487" s="1"/>
       <c r="B487" s="1" t="str" cm="1">
         <f t="array" ref="B487">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A487)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10749,9 +9777,7 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="1">
-        <v>0</v>
-      </c>
+      <c r="A488" s="1"/>
       <c r="B488" s="1" t="str" cm="1">
         <f t="array" ref="B488">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A488)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10770,9 +9796,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
-        <v>0</v>
-      </c>
+      <c r="A489" s="1"/>
       <c r="B489" s="1" t="str" cm="1">
         <f t="array" ref="B489">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A489)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10791,9 +9815,7 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="1">
-        <v>1</v>
-      </c>
+      <c r="A490" s="1"/>
       <c r="B490" s="1" t="str" cm="1">
         <f t="array" ref="B490">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A490)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10812,9 +9834,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="1">
-        <v>0</v>
-      </c>
+      <c r="A491" s="1"/>
       <c r="B491" s="1" t="str" cm="1">
         <f t="array" ref="B491">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A491)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10833,9 +9853,7 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="1">
-        <v>0</v>
-      </c>
+      <c r="A492" s="1"/>
       <c r="B492" s="1" t="str" cm="1">
         <f t="array" ref="B492">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A492)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10854,9 +9872,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="1">
-        <v>1</v>
-      </c>
+      <c r="A493" s="1"/>
       <c r="B493" s="1" t="str" cm="1">
         <f t="array" ref="B493">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A493)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10875,9 +9891,7 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
-        <v>1</v>
-      </c>
+      <c r="A494" s="1"/>
       <c r="B494" s="1" t="str" cm="1">
         <f t="array" ref="B494">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A494)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10896,9 +9910,7 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="1">
-        <v>0</v>
-      </c>
+      <c r="A495" s="1"/>
       <c r="B495" s="1" t="str" cm="1">
         <f t="array" ref="B495">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A495)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10917,9 +9929,7 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="1">
-        <v>0</v>
-      </c>
+      <c r="A496" s="1"/>
       <c r="B496" s="1" t="str" cm="1">
         <f t="array" ref="B496">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A496)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10938,9 +9948,7 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="1">
-        <v>0</v>
-      </c>
+      <c r="A497" s="1"/>
       <c r="B497" s="1" t="str" cm="1">
         <f t="array" ref="B497">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A497)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10959,9 +9967,7 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="1">
-        <v>1</v>
-      </c>
+      <c r="A498" s="1"/>
       <c r="B498" s="1" t="str" cm="1">
         <f t="array" ref="B498">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A498)-2)/175)+1)</f>
         <v>3RO</v>
@@ -10980,9 +9986,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="1">
-        <v>0</v>
-      </c>
+      <c r="A499" s="1"/>
       <c r="B499" s="1" t="str" cm="1">
         <f t="array" ref="B499">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A499)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11001,9 +10005,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="1">
-        <v>1</v>
-      </c>
+      <c r="A500" s="1"/>
       <c r="B500" s="1" t="str" cm="1">
         <f t="array" ref="B500">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A500)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11022,9 +10024,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="1">
-        <v>1</v>
-      </c>
+      <c r="A501" s="1"/>
       <c r="B501" s="1" t="str" cm="1">
         <f t="array" ref="B501">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A501)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11043,9 +10043,7 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="1">
-        <v>0</v>
-      </c>
+      <c r="A502" s="1"/>
       <c r="B502" s="1" t="str" cm="1">
         <f t="array" ref="B502">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A502)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11064,9 +10062,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="1">
-        <v>0</v>
-      </c>
+      <c r="A503" s="1"/>
       <c r="B503" s="1" t="str" cm="1">
         <f t="array" ref="B503">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A503)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11085,9 +10081,7 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
-        <v>0</v>
-      </c>
+      <c r="A504" s="1"/>
       <c r="B504" s="1" t="str" cm="1">
         <f t="array" ref="B504">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A504)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11106,9 +10100,7 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="1">
-        <v>0</v>
-      </c>
+      <c r="A505" s="1"/>
       <c r="B505" s="1" t="str" cm="1">
         <f t="array" ref="B505">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A505)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11127,9 +10119,7 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="1">
-        <v>0</v>
-      </c>
+      <c r="A506" s="1"/>
       <c r="B506" s="1" t="str" cm="1">
         <f t="array" ref="B506">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A506)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11148,9 +10138,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="1">
-        <v>1</v>
-      </c>
+      <c r="A507" s="1"/>
       <c r="B507" s="1" t="str" cm="1">
         <f t="array" ref="B507">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A507)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11169,9 +10157,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="1">
-        <v>0</v>
-      </c>
+      <c r="A508" s="1"/>
       <c r="B508" s="1" t="str" cm="1">
         <f t="array" ref="B508">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A508)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11190,9 +10176,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="1">
-        <v>0</v>
-      </c>
+      <c r="A509" s="1"/>
       <c r="B509" s="1" t="str" cm="1">
         <f t="array" ref="B509">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A509)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11211,9 +10195,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="1">
-        <v>0</v>
-      </c>
+      <c r="A510" s="1"/>
       <c r="B510" s="1" t="str" cm="1">
         <f t="array" ref="B510">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A510)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11232,9 +10214,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="1">
-        <v>0</v>
-      </c>
+      <c r="A511" s="1"/>
       <c r="B511" s="1" t="str" cm="1">
         <f t="array" ref="B511">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A511)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11253,9 +10233,7 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="1">
-        <v>0</v>
-      </c>
+      <c r="A512" s="1"/>
       <c r="B512" s="1" t="str" cm="1">
         <f t="array" ref="B512">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A512)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11274,9 +10252,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="1">
-        <v>0</v>
-      </c>
+      <c r="A513" s="1"/>
       <c r="B513" s="1" t="str" cm="1">
         <f t="array" ref="B513">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A513)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11295,9 +10271,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="1">
-        <v>0</v>
-      </c>
+      <c r="A514" s="1"/>
       <c r="B514" s="1" t="str" cm="1">
         <f t="array" ref="B514">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A514)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11316,9 +10290,7 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="1">
-        <v>0</v>
-      </c>
+      <c r="A515" s="1"/>
       <c r="B515" s="1" t="str" cm="1">
         <f t="array" ref="B515">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A515)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11337,9 +10309,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="1">
-        <v>0</v>
-      </c>
+      <c r="A516" s="1"/>
       <c r="B516" s="1" t="str" cm="1">
         <f t="array" ref="B516">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A516)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11358,9 +10328,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="1">
-        <v>0</v>
-      </c>
+      <c r="A517" s="1"/>
       <c r="B517" s="1" t="str" cm="1">
         <f t="array" ref="B517">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A517)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11379,9 +10347,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="1">
-        <v>1</v>
-      </c>
+      <c r="A518" s="1"/>
       <c r="B518" s="1" t="str" cm="1">
         <f t="array" ref="B518">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A518)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11400,9 +10366,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="1">
-        <v>0</v>
-      </c>
+      <c r="A519" s="1"/>
       <c r="B519" s="1" t="str" cm="1">
         <f t="array" ref="B519">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A519)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11421,9 +10385,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="1">
-        <v>0</v>
-      </c>
+      <c r="A520" s="1"/>
       <c r="B520" s="1" t="str" cm="1">
         <f t="array" ref="B520">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A520)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11442,9 +10404,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="1">
-        <v>0</v>
-      </c>
+      <c r="A521" s="1"/>
       <c r="B521" s="1" t="str" cm="1">
         <f t="array" ref="B521">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A521)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11463,9 +10423,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="1">
-        <v>0</v>
-      </c>
+      <c r="A522" s="1"/>
       <c r="B522" s="1" t="str" cm="1">
         <f t="array" ref="B522">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A522)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11484,9 +10442,7 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="1">
-        <v>0</v>
-      </c>
+      <c r="A523" s="1"/>
       <c r="B523" s="1" t="str" cm="1">
         <f t="array" ref="B523">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A523)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11505,9 +10461,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="1">
-        <v>0</v>
-      </c>
+      <c r="A524" s="1"/>
       <c r="B524" s="1" t="str" cm="1">
         <f t="array" ref="B524">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A524)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11526,9 +10480,7 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="1">
-        <v>0</v>
-      </c>
+      <c r="A525" s="1"/>
       <c r="B525" s="1" t="str" cm="1">
         <f t="array" ref="B525">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A525)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11547,9 +10499,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="1">
-        <v>0</v>
-      </c>
+      <c r="A526" s="1"/>
       <c r="B526" s="1" t="str" cm="1">
         <f t="array" ref="B526">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A526)-2)/175)+1)</f>
         <v>3RO</v>
@@ -11568,9 +10518,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="1">
-        <v>0</v>
-      </c>
+      <c r="A527" s="1"/>
       <c r="B527" s="1" t="str" cm="1">
         <f t="array" ref="B527">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A527)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11589,9 +10537,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="1">
-        <v>0</v>
-      </c>
+      <c r="A528" s="1"/>
       <c r="B528" s="1" t="str" cm="1">
         <f t="array" ref="B528">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A528)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11610,9 +10556,7 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="1">
-        <v>0</v>
-      </c>
+      <c r="A529" s="1"/>
       <c r="B529" s="1" t="str" cm="1">
         <f t="array" ref="B529">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A529)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11631,9 +10575,7 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="1">
-        <v>0</v>
-      </c>
+      <c r="A530" s="1"/>
       <c r="B530" s="1" t="str" cm="1">
         <f t="array" ref="B530">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A530)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11652,9 +10594,7 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="1">
-        <v>0</v>
-      </c>
+      <c r="A531" s="1"/>
       <c r="B531" s="1" t="str" cm="1">
         <f t="array" ref="B531">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A531)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11673,9 +10613,7 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="1">
-        <v>0</v>
-      </c>
+      <c r="A532" s="1"/>
       <c r="B532" s="1" t="str" cm="1">
         <f t="array" ref="B532">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A532)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11694,9 +10632,7 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="1">
-        <v>0</v>
-      </c>
+      <c r="A533" s="1"/>
       <c r="B533" s="1" t="str" cm="1">
         <f t="array" ref="B533">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A533)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11715,9 +10651,7 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="1">
-        <v>0</v>
-      </c>
+      <c r="A534" s="1"/>
       <c r="B534" s="1" t="str" cm="1">
         <f t="array" ref="B534">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A534)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11736,9 +10670,7 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="1">
-        <v>0</v>
-      </c>
+      <c r="A535" s="1"/>
       <c r="B535" s="1" t="str" cm="1">
         <f t="array" ref="B535">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A535)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11757,9 +10689,7 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="1">
-        <v>0</v>
-      </c>
+      <c r="A536" s="1"/>
       <c r="B536" s="1" t="str" cm="1">
         <f t="array" ref="B536">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A536)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11778,9 +10708,7 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="1">
-        <v>0</v>
-      </c>
+      <c r="A537" s="1"/>
       <c r="B537" s="1" t="str" cm="1">
         <f t="array" ref="B537">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A537)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11799,9 +10727,7 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="1">
-        <v>0</v>
-      </c>
+      <c r="A538" s="1"/>
       <c r="B538" s="1" t="str" cm="1">
         <f t="array" ref="B538">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A538)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11820,9 +10746,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="1">
-        <v>0</v>
-      </c>
+      <c r="A539" s="1"/>
       <c r="B539" s="1" t="str" cm="1">
         <f t="array" ref="B539">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A539)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11841,9 +10765,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="1">
-        <v>0</v>
-      </c>
+      <c r="A540" s="1"/>
       <c r="B540" s="1" t="str" cm="1">
         <f t="array" ref="B540">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A540)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11862,9 +10784,7 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="1">
-        <v>1</v>
-      </c>
+      <c r="A541" s="1"/>
       <c r="B541" s="1" t="str" cm="1">
         <f t="array" ref="B541">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A541)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11883,9 +10803,7 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="1">
-        <v>0</v>
-      </c>
+      <c r="A542" s="1"/>
       <c r="B542" s="1" t="str" cm="1">
         <f t="array" ref="B542">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A542)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11904,9 +10822,7 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="1">
-        <v>1</v>
-      </c>
+      <c r="A543" s="1"/>
       <c r="B543" s="1" t="str" cm="1">
         <f t="array" ref="B543">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A543)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11925,9 +10841,7 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="1">
-        <v>0</v>
-      </c>
+      <c r="A544" s="1"/>
       <c r="B544" s="1" t="str" cm="1">
         <f t="array" ref="B544">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A544)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11946,9 +10860,7 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" s="1">
-        <v>0</v>
-      </c>
+      <c r="A545" s="1"/>
       <c r="B545" s="1" t="str" cm="1">
         <f t="array" ref="B545">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A545)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11967,9 +10879,7 @@
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="1">
-        <v>0</v>
-      </c>
+      <c r="A546" s="1"/>
       <c r="B546" s="1" t="str" cm="1">
         <f t="array" ref="B546">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A546)-2)/175)+1)</f>
         <v>4TO</v>
@@ -11988,9 +10898,7 @@
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="1">
-        <v>0</v>
-      </c>
+      <c r="A547" s="1"/>
       <c r="B547" s="1" t="str" cm="1">
         <f t="array" ref="B547">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A547)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12009,9 +10917,7 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="1">
-        <v>0</v>
-      </c>
+      <c r="A548" s="1"/>
       <c r="B548" s="1" t="str" cm="1">
         <f t="array" ref="B548">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A548)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12030,9 +10936,7 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="1">
-        <v>0</v>
-      </c>
+      <c r="A549" s="1"/>
       <c r="B549" s="1" t="str" cm="1">
         <f t="array" ref="B549">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A549)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12051,9 +10955,7 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="1">
-        <v>0</v>
-      </c>
+      <c r="A550" s="1"/>
       <c r="B550" s="1" t="str" cm="1">
         <f t="array" ref="B550">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A550)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12072,9 +10974,7 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="1">
-        <v>1</v>
-      </c>
+      <c r="A551" s="1"/>
       <c r="B551" s="1" t="str" cm="1">
         <f t="array" ref="B551">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A551)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12093,9 +10993,7 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="1">
-        <v>1</v>
-      </c>
+      <c r="A552" s="1"/>
       <c r="B552" s="1" t="str" cm="1">
         <f t="array" ref="B552">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A552)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12114,9 +11012,7 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="1">
-        <v>0</v>
-      </c>
+      <c r="A553" s="1"/>
       <c r="B553" s="1" t="str" cm="1">
         <f t="array" ref="B553">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A553)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12135,9 +11031,7 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="1">
-        <v>0</v>
-      </c>
+      <c r="A554" s="1"/>
       <c r="B554" s="1" t="str" cm="1">
         <f t="array" ref="B554">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A554)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12156,9 +11050,7 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="1">
-        <v>0</v>
-      </c>
+      <c r="A555" s="1"/>
       <c r="B555" s="1" t="str" cm="1">
         <f t="array" ref="B555">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A555)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12177,9 +11069,7 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="1">
-        <v>1</v>
-      </c>
+      <c r="A556" s="1"/>
       <c r="B556" s="1" t="str" cm="1">
         <f t="array" ref="B556">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A556)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12198,9 +11088,7 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" s="1">
-        <v>0</v>
-      </c>
+      <c r="A557" s="1"/>
       <c r="B557" s="1" t="str" cm="1">
         <f t="array" ref="B557">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A557)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12219,9 +11107,7 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="1">
-        <v>1</v>
-      </c>
+      <c r="A558" s="1"/>
       <c r="B558" s="1" t="str" cm="1">
         <f t="array" ref="B558">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A558)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12240,9 +11126,7 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="1">
-        <v>1</v>
-      </c>
+      <c r="A559" s="1"/>
       <c r="B559" s="1" t="str" cm="1">
         <f t="array" ref="B559">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A559)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12261,9 +11145,7 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="1">
-        <v>0</v>
-      </c>
+      <c r="A560" s="1"/>
       <c r="B560" s="1" t="str" cm="1">
         <f t="array" ref="B560">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A560)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12282,9 +11164,7 @@
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="1">
-        <v>0</v>
-      </c>
+      <c r="A561" s="1"/>
       <c r="B561" s="1" t="str" cm="1">
         <f t="array" ref="B561">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A561)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12303,9 +11183,7 @@
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="1">
-        <v>1</v>
-      </c>
+      <c r="A562" s="1"/>
       <c r="B562" s="1" t="str" cm="1">
         <f t="array" ref="B562">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A562)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12324,9 +11202,7 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="1">
-        <v>1</v>
-      </c>
+      <c r="A563" s="1"/>
       <c r="B563" s="1" t="str" cm="1">
         <f t="array" ref="B563">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A563)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12345,9 +11221,7 @@
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="1">
-        <v>1</v>
-      </c>
+      <c r="A564" s="1"/>
       <c r="B564" s="1" t="str" cm="1">
         <f t="array" ref="B564">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A564)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12366,9 +11240,7 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="1">
-        <v>1</v>
-      </c>
+      <c r="A565" s="1"/>
       <c r="B565" s="1" t="str" cm="1">
         <f t="array" ref="B565">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A565)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12387,9 +11259,7 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="1">
-        <v>0</v>
-      </c>
+      <c r="A566" s="1"/>
       <c r="B566" s="1" t="str" cm="1">
         <f t="array" ref="B566">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A566)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12408,9 +11278,7 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="1">
-        <v>0</v>
-      </c>
+      <c r="A567" s="1"/>
       <c r="B567" s="1" t="str" cm="1">
         <f t="array" ref="B567">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A567)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12429,9 +11297,7 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="1">
-        <v>0</v>
-      </c>
+      <c r="A568" s="1"/>
       <c r="B568" s="1" t="str" cm="1">
         <f t="array" ref="B568">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A568)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12450,9 +11316,7 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="1">
-        <v>0</v>
-      </c>
+      <c r="A569" s="1"/>
       <c r="B569" s="1" t="str" cm="1">
         <f t="array" ref="B569">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A569)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12471,9 +11335,7 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="1">
-        <v>0</v>
-      </c>
+      <c r="A570" s="1"/>
       <c r="B570" s="1" t="str" cm="1">
         <f t="array" ref="B570">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A570)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12492,9 +11354,7 @@
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="1">
-        <v>0</v>
-      </c>
+      <c r="A571" s="1"/>
       <c r="B571" s="1" t="str" cm="1">
         <f t="array" ref="B571">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A571)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12513,9 +11373,7 @@
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="1">
-        <v>0</v>
-      </c>
+      <c r="A572" s="1"/>
       <c r="B572" s="1" t="str" cm="1">
         <f t="array" ref="B572">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A572)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12534,9 +11392,7 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="1">
-        <v>0</v>
-      </c>
+      <c r="A573" s="1"/>
       <c r="B573" s="1" t="str" cm="1">
         <f t="array" ref="B573">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A573)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12555,9 +11411,7 @@
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="1">
-        <v>0</v>
-      </c>
+      <c r="A574" s="1"/>
       <c r="B574" s="1" t="str" cm="1">
         <f t="array" ref="B574">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A574)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12576,9 +11430,7 @@
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="1">
-        <v>0</v>
-      </c>
+      <c r="A575" s="1"/>
       <c r="B575" s="1" t="str" cm="1">
         <f t="array" ref="B575">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A575)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12597,9 +11449,7 @@
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="1">
-        <v>0</v>
-      </c>
+      <c r="A576" s="1"/>
       <c r="B576" s="1" t="str" cm="1">
         <f t="array" ref="B576">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A576)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12618,9 +11468,7 @@
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="1">
-        <v>1</v>
-      </c>
+      <c r="A577" s="1"/>
       <c r="B577" s="1" t="str" cm="1">
         <f t="array" ref="B577">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A577)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12639,9 +11487,7 @@
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" s="1">
-        <v>0</v>
-      </c>
+      <c r="A578" s="1"/>
       <c r="B578" s="1" t="str" cm="1">
         <f t="array" ref="B578">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A578)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12660,9 +11506,7 @@
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" s="1">
-        <v>0</v>
-      </c>
+      <c r="A579" s="1"/>
       <c r="B579" s="1" t="str" cm="1">
         <f t="array" ref="B579">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A579)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12681,9 +11525,7 @@
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="1">
-        <v>1</v>
-      </c>
+      <c r="A580" s="1"/>
       <c r="B580" s="1" t="str" cm="1">
         <f t="array" ref="B580">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A580)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12702,9 +11544,7 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="1">
-        <v>0</v>
-      </c>
+      <c r="A581" s="1"/>
       <c r="B581" s="1" t="str" cm="1">
         <f t="array" ref="B581">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A581)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12723,9 +11563,7 @@
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="1">
-        <v>1</v>
-      </c>
+      <c r="A582" s="1"/>
       <c r="B582" s="1" t="str" cm="1">
         <f t="array" ref="B582">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A582)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12744,9 +11582,7 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="1">
-        <v>0</v>
-      </c>
+      <c r="A583" s="1"/>
       <c r="B583" s="1" t="str" cm="1">
         <f t="array" ref="B583">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A583)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12765,9 +11601,7 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="1">
-        <v>0</v>
-      </c>
+      <c r="A584" s="1"/>
       <c r="B584" s="1" t="str" cm="1">
         <f t="array" ref="B584">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A584)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12786,9 +11620,7 @@
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="1">
-        <v>0</v>
-      </c>
+      <c r="A585" s="1"/>
       <c r="B585" s="1" t="str" cm="1">
         <f t="array" ref="B585">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A585)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12807,9 +11639,7 @@
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="1">
-        <v>0</v>
-      </c>
+      <c r="A586" s="1"/>
       <c r="B586" s="1" t="str" cm="1">
         <f t="array" ref="B586">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A586)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12828,9 +11658,7 @@
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="1">
-        <v>0</v>
-      </c>
+      <c r="A587" s="1"/>
       <c r="B587" s="1" t="str" cm="1">
         <f t="array" ref="B587">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A587)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12849,9 +11677,7 @@
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="1">
-        <v>0</v>
-      </c>
+      <c r="A588" s="1"/>
       <c r="B588" s="1" t="str" cm="1">
         <f t="array" ref="B588">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A588)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12870,9 +11696,7 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="1">
-        <v>0</v>
-      </c>
+      <c r="A589" s="1"/>
       <c r="B589" s="1" t="str" cm="1">
         <f t="array" ref="B589">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A589)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12891,9 +11715,7 @@
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="1">
-        <v>0</v>
-      </c>
+      <c r="A590" s="1"/>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A590)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12912,9 +11734,7 @@
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="1">
-        <v>0</v>
-      </c>
+      <c r="A591" s="1"/>
       <c r="B591" s="1" t="str" cm="1">
         <f t="array" ref="B591">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A591)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12933,9 +11753,7 @@
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="1">
-        <v>0</v>
-      </c>
+      <c r="A592" s="1"/>
       <c r="B592" s="1" t="str" cm="1">
         <f t="array" ref="B592">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A592)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12954,9 +11772,7 @@
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="1">
-        <v>0</v>
-      </c>
+      <c r="A593" s="1"/>
       <c r="B593" s="1" t="str" cm="1">
         <f t="array" ref="B593">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A593)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12975,9 +11791,7 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="1">
-        <v>0</v>
-      </c>
+      <c r="A594" s="1"/>
       <c r="B594" s="1" t="str" cm="1">
         <f t="array" ref="B594">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A594)-2)/175)+1)</f>
         <v>4TO</v>
@@ -12996,9 +11810,7 @@
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="1">
-        <v>0</v>
-      </c>
+      <c r="A595" s="1"/>
       <c r="B595" s="1" t="str" cm="1">
         <f t="array" ref="B595">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A595)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13017,9 +11829,7 @@
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="1">
-        <v>0</v>
-      </c>
+      <c r="A596" s="1"/>
       <c r="B596" s="1" t="str" cm="1">
         <f t="array" ref="B596">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A596)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13038,9 +11848,7 @@
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="1">
-        <v>0</v>
-      </c>
+      <c r="A597" s="1"/>
       <c r="B597" s="1" t="str" cm="1">
         <f t="array" ref="B597">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A597)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13059,9 +11867,7 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="1">
-        <v>0</v>
-      </c>
+      <c r="A598" s="1"/>
       <c r="B598" s="1" t="str" cm="1">
         <f t="array" ref="B598">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A598)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13080,9 +11886,7 @@
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="1">
-        <v>0</v>
-      </c>
+      <c r="A599" s="1"/>
       <c r="B599" s="1" t="str" cm="1">
         <f t="array" ref="B599">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A599)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13101,9 +11905,7 @@
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="1">
-        <v>0</v>
-      </c>
+      <c r="A600" s="1"/>
       <c r="B600" s="1" t="str" cm="1">
         <f t="array" ref="B600">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A600)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13122,9 +11924,7 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="1">
-        <v>0</v>
-      </c>
+      <c r="A601" s="1"/>
       <c r="B601" s="1" t="str" cm="1">
         <f t="array" ref="B601">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A601)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13143,9 +11943,7 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="1">
-        <v>0</v>
-      </c>
+      <c r="A602" s="1"/>
       <c r="B602" s="1" t="str" cm="1">
         <f t="array" ref="B602">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A602)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13164,9 +11962,7 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="1">
-        <v>0</v>
-      </c>
+      <c r="A603" s="1"/>
       <c r="B603" s="1" t="str" cm="1">
         <f t="array" ref="B603">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A603)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13185,9 +11981,7 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="1">
-        <v>1</v>
-      </c>
+      <c r="A604" s="1"/>
       <c r="B604" s="1" t="str" cm="1">
         <f t="array" ref="B604">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A604)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13206,9 +12000,7 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="1">
-        <v>1</v>
-      </c>
+      <c r="A605" s="1"/>
       <c r="B605" s="1" t="str" cm="1">
         <f t="array" ref="B605">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A605)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13227,9 +12019,7 @@
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="1">
-        <v>0</v>
-      </c>
+      <c r="A606" s="1"/>
       <c r="B606" s="1" t="str" cm="1">
         <f t="array" ref="B606">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A606)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13248,9 +12038,7 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="1">
-        <v>1</v>
-      </c>
+      <c r="A607" s="1"/>
       <c r="B607" s="1" t="str" cm="1">
         <f t="array" ref="B607">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A607)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13269,9 +12057,7 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="1">
-        <v>0</v>
-      </c>
+      <c r="A608" s="1"/>
       <c r="B608" s="1" t="str" cm="1">
         <f t="array" ref="B608">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A608)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13290,9 +12076,7 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" s="1">
-        <v>0</v>
-      </c>
+      <c r="A609" s="1"/>
       <c r="B609" s="1" t="str" cm="1">
         <f t="array" ref="B609">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A609)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13311,9 +12095,7 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="1">
-        <v>0</v>
-      </c>
+      <c r="A610" s="1"/>
       <c r="B610" s="1" t="str" cm="1">
         <f t="array" ref="B610">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A610)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13332,9 +12114,7 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="1">
-        <v>0</v>
-      </c>
+      <c r="A611" s="1"/>
       <c r="B611" s="1" t="str" cm="1">
         <f t="array" ref="B611">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A611)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13353,9 +12133,7 @@
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="1">
-        <v>0</v>
-      </c>
+      <c r="A612" s="1"/>
       <c r="B612" s="1" t="str" cm="1">
         <f t="array" ref="B612">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A612)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13374,9 +12152,7 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="1">
-        <v>0</v>
-      </c>
+      <c r="A613" s="1"/>
       <c r="B613" s="1" t="str" cm="1">
         <f t="array" ref="B613">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A613)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13395,9 +12171,7 @@
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" s="1">
-        <v>1</v>
-      </c>
+      <c r="A614" s="1"/>
       <c r="B614" s="1" t="str" cm="1">
         <f t="array" ref="B614">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A614)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13416,9 +12190,7 @@
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" s="1">
-        <v>0</v>
-      </c>
+      <c r="A615" s="1"/>
       <c r="B615" s="1" t="str" cm="1">
         <f t="array" ref="B615">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A615)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13437,9 +12209,7 @@
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="1">
-        <v>1</v>
-      </c>
+      <c r="A616" s="1"/>
       <c r="B616" s="1" t="str" cm="1">
         <f t="array" ref="B616">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A616)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13458,9 +12228,7 @@
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" s="1">
-        <v>0</v>
-      </c>
+      <c r="A617" s="1"/>
       <c r="B617" s="1" t="str" cm="1">
         <f t="array" ref="B617">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A617)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13479,9 +12247,7 @@
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" s="1">
-        <v>0</v>
-      </c>
+      <c r="A618" s="1"/>
       <c r="B618" s="1" t="str" cm="1">
         <f t="array" ref="B618">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A618)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13500,9 +12266,7 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="1">
-        <v>0</v>
-      </c>
+      <c r="A619" s="1"/>
       <c r="B619" s="1" t="str" cm="1">
         <f t="array" ref="B619">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A619)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13521,9 +12285,7 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="1">
-        <v>0</v>
-      </c>
+      <c r="A620" s="1"/>
       <c r="B620" s="1" t="str" cm="1">
         <f t="array" ref="B620">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A620)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13542,9 +12304,7 @@
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="1">
-        <v>0</v>
-      </c>
+      <c r="A621" s="1"/>
       <c r="B621" s="1" t="str" cm="1">
         <f t="array" ref="B621">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A621)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13563,9 +12323,7 @@
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="1">
-        <v>0</v>
-      </c>
+      <c r="A622" s="1"/>
       <c r="B622" s="1" t="str" cm="1">
         <f t="array" ref="B622">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A622)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13584,9 +12342,7 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="1">
-        <v>1</v>
-      </c>
+      <c r="A623" s="1"/>
       <c r="B623" s="1" t="str" cm="1">
         <f t="array" ref="B623">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A623)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13605,9 +12361,7 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="1">
-        <v>1</v>
-      </c>
+      <c r="A624" s="1"/>
       <c r="B624" s="1" t="str" cm="1">
         <f t="array" ref="B624">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A624)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13626,9 +12380,7 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="1">
-        <v>0</v>
-      </c>
+      <c r="A625" s="1"/>
       <c r="B625" s="1" t="str" cm="1">
         <f t="array" ref="B625">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A625)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13647,9 +12399,7 @@
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="1">
-        <v>0</v>
-      </c>
+      <c r="A626" s="1"/>
       <c r="B626" s="1" t="str" cm="1">
         <f t="array" ref="B626">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A626)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13668,9 +12418,7 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="1">
-        <v>0</v>
-      </c>
+      <c r="A627" s="1"/>
       <c r="B627" s="1" t="str" cm="1">
         <f t="array" ref="B627">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A627)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13689,9 +12437,7 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="1">
-        <v>0</v>
-      </c>
+      <c r="A628" s="1"/>
       <c r="B628" s="1" t="str" cm="1">
         <f t="array" ref="B628">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A628)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13710,9 +12456,7 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="1">
-        <v>0</v>
-      </c>
+      <c r="A629" s="1"/>
       <c r="B629" s="1" t="str" cm="1">
         <f t="array" ref="B629">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A629)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13731,9 +12475,7 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="1">
-        <v>0</v>
-      </c>
+      <c r="A630" s="1"/>
       <c r="B630" s="1" t="str" cm="1">
         <f t="array" ref="B630">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A630)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13752,9 +12494,7 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="1">
-        <v>0</v>
-      </c>
+      <c r="A631" s="1"/>
       <c r="B631" s="1" t="str" cm="1">
         <f t="array" ref="B631">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A631)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13773,9 +12513,7 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="1">
-        <v>0</v>
-      </c>
+      <c r="A632" s="1"/>
       <c r="B632" s="1" t="str" cm="1">
         <f t="array" ref="B632">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A632)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13794,9 +12532,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="1">
-        <v>0</v>
-      </c>
+      <c r="A633" s="1"/>
       <c r="B633" s="1" t="str" cm="1">
         <f t="array" ref="B633">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A633)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13815,9 +12551,7 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="1">
-        <v>0</v>
-      </c>
+      <c r="A634" s="1"/>
       <c r="B634" s="1" t="str" cm="1">
         <f t="array" ref="B634">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A634)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13836,9 +12570,7 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="1">
-        <v>0</v>
-      </c>
+      <c r="A635" s="1"/>
       <c r="B635" s="1" t="str" cm="1">
         <f t="array" ref="B635">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A635)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13857,9 +12589,7 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="1">
-        <v>0</v>
-      </c>
+      <c r="A636" s="1"/>
       <c r="B636" s="1" t="str" cm="1">
         <f t="array" ref="B636">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A636)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13878,9 +12608,7 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="1">
-        <v>0</v>
-      </c>
+      <c r="A637" s="1"/>
       <c r="B637" s="1" t="str" cm="1">
         <f t="array" ref="B637">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A637)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13899,9 +12627,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="1">
-        <v>1</v>
-      </c>
+      <c r="A638" s="1"/>
       <c r="B638" s="1" t="str" cm="1">
         <f t="array" ref="B638">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A638)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13920,9 +12646,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="1">
-        <v>0</v>
-      </c>
+      <c r="A639" s="1"/>
       <c r="B639" s="1" t="str" cm="1">
         <f t="array" ref="B639">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A639)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13941,9 +12665,7 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="1">
-        <v>0</v>
-      </c>
+      <c r="A640" s="1"/>
       <c r="B640" s="1" t="str" cm="1">
         <f t="array" ref="B640">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A640)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13962,9 +12684,7 @@
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="1">
-        <v>1</v>
-      </c>
+      <c r="A641" s="1"/>
       <c r="B641" s="1" t="str" cm="1">
         <f t="array" ref="B641">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A641)-2)/175)+1)</f>
         <v>4TO</v>
@@ -13983,9 +12703,7 @@
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="1">
-        <v>0</v>
-      </c>
+      <c r="A642" s="1"/>
       <c r="B642" s="1" t="str" cm="1">
         <f t="array" ref="B642">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A642)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14004,9 +12722,7 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="1">
-        <v>1</v>
-      </c>
+      <c r="A643" s="1"/>
       <c r="B643" s="1" t="str" cm="1">
         <f t="array" ref="B643">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A643)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14025,9 +12741,7 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="1">
-        <v>1</v>
-      </c>
+      <c r="A644" s="1"/>
       <c r="B644" s="1" t="str" cm="1">
         <f t="array" ref="B644">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A644)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14046,9 +12760,7 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="1">
-        <v>1</v>
-      </c>
+      <c r="A645" s="1"/>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A645)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14067,9 +12779,7 @@
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="1">
-        <v>0</v>
-      </c>
+      <c r="A646" s="1"/>
       <c r="B646" s="1" t="str" cm="1">
         <f t="array" ref="B646">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A646)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14088,9 +12798,7 @@
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="1">
-        <v>0</v>
-      </c>
+      <c r="A647" s="1"/>
       <c r="B647" s="1" t="str" cm="1">
         <f t="array" ref="B647">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A647)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14109,9 +12817,7 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="1">
-        <v>0</v>
-      </c>
+      <c r="A648" s="1"/>
       <c r="B648" s="1" t="str" cm="1">
         <f t="array" ref="B648">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A648)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14130,9 +12836,7 @@
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="1">
-        <v>0</v>
-      </c>
+      <c r="A649" s="1"/>
       <c r="B649" s="1" t="str" cm="1">
         <f t="array" ref="B649">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A649)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14151,9 +12855,7 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="1">
-        <v>0</v>
-      </c>
+      <c r="A650" s="1"/>
       <c r="B650" s="1" t="str" cm="1">
         <f t="array" ref="B650">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A650)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14172,9 +12874,7 @@
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="1">
-        <v>0</v>
-      </c>
+      <c r="A651" s="1"/>
       <c r="B651" s="1" t="str" cm="1">
         <f t="array" ref="B651">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A651)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14193,9 +12893,7 @@
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="1">
-        <v>0</v>
-      </c>
+      <c r="A652" s="1"/>
       <c r="B652" s="1" t="str" cm="1">
         <f t="array" ref="B652">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A652)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14214,9 +12912,7 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="1">
-        <v>0</v>
-      </c>
+      <c r="A653" s="1"/>
       <c r="B653" s="1" t="str" cm="1">
         <f t="array" ref="B653">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A653)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14235,9 +12931,7 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="1">
-        <v>0</v>
-      </c>
+      <c r="A654" s="1"/>
       <c r="B654" s="1" t="str" cm="1">
         <f t="array" ref="B654">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A654)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14256,9 +12950,7 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="1">
-        <v>0</v>
-      </c>
+      <c r="A655" s="1"/>
       <c r="B655" s="1" t="str" cm="1">
         <f t="array" ref="B655">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A655)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14277,9 +12969,7 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" s="1">
-        <v>0</v>
-      </c>
+      <c r="A656" s="1"/>
       <c r="B656" s="1" t="str" cm="1">
         <f t="array" ref="B656">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A656)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14298,9 +12988,7 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" s="1">
-        <v>0</v>
-      </c>
+      <c r="A657" s="1"/>
       <c r="B657" s="1" t="str" cm="1">
         <f t="array" ref="B657">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A657)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14319,9 +13007,7 @@
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="1">
-        <v>0</v>
-      </c>
+      <c r="A658" s="1"/>
       <c r="B658" s="1" t="str" cm="1">
         <f t="array" ref="B658">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A658)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14340,9 +13026,7 @@
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" s="1">
-        <v>0</v>
-      </c>
+      <c r="A659" s="1"/>
       <c r="B659" s="1" t="str" cm="1">
         <f t="array" ref="B659">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A659)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14361,9 +13045,7 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" s="1">
-        <v>0</v>
-      </c>
+      <c r="A660" s="1"/>
       <c r="B660" s="1" t="str" cm="1">
         <f t="array" ref="B660">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A660)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14382,9 +13064,7 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="1">
-        <v>0</v>
-      </c>
+      <c r="A661" s="1"/>
       <c r="B661" s="1" t="str" cm="1">
         <f t="array" ref="B661">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A661)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14403,9 +13083,7 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="1">
-        <v>1</v>
-      </c>
+      <c r="A662" s="1"/>
       <c r="B662" s="1" t="str" cm="1">
         <f t="array" ref="B662">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A662)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14424,9 +13102,7 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="1">
-        <v>0</v>
-      </c>
+      <c r="A663" s="1"/>
       <c r="B663" s="1" t="str" cm="1">
         <f t="array" ref="B663">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A663)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14445,9 +13121,7 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" s="1">
-        <v>0</v>
-      </c>
+      <c r="A664" s="1"/>
       <c r="B664" s="1" t="str" cm="1">
         <f t="array" ref="B664">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A664)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14466,9 +13140,7 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" s="1">
-        <v>1</v>
-      </c>
+      <c r="A665" s="1"/>
       <c r="B665" s="1" t="str" cm="1">
         <f t="array" ref="B665">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A665)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14487,9 +13159,7 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" s="1">
-        <v>0</v>
-      </c>
+      <c r="A666" s="1"/>
       <c r="B666" s="1" t="str" cm="1">
         <f t="array" ref="B666">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A666)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14508,9 +13178,7 @@
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="1">
-        <v>0</v>
-      </c>
+      <c r="A667" s="1"/>
       <c r="B667" s="1" t="str" cm="1">
         <f t="array" ref="B667">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A667)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14529,9 +13197,7 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="1">
-        <v>0</v>
-      </c>
+      <c r="A668" s="1"/>
       <c r="B668" s="1" t="str" cm="1">
         <f t="array" ref="B668">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A668)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14550,9 +13216,7 @@
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="1">
-        <v>0</v>
-      </c>
+      <c r="A669" s="1"/>
       <c r="B669" s="1" t="str" cm="1">
         <f t="array" ref="B669">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A669)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14571,9 +13235,7 @@
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" s="1">
-        <v>0</v>
-      </c>
+      <c r="A670" s="1"/>
       <c r="B670" s="1" t="str" cm="1">
         <f t="array" ref="B670">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A670)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14592,9 +13254,7 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" s="1">
-        <v>1</v>
-      </c>
+      <c r="A671" s="1"/>
       <c r="B671" s="1" t="str" cm="1">
         <f t="array" ref="B671">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A671)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14613,9 +13273,7 @@
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" s="1">
-        <v>1</v>
-      </c>
+      <c r="A672" s="1"/>
       <c r="B672" s="1" t="str" cm="1">
         <f t="array" ref="B672">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A672)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14634,9 +13292,7 @@
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="1">
-        <v>0</v>
-      </c>
+      <c r="A673" s="1"/>
       <c r="B673" s="1" t="str" cm="1">
         <f t="array" ref="B673">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A673)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14655,9 +13311,7 @@
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="1">
-        <v>0</v>
-      </c>
+      <c r="A674" s="1"/>
       <c r="B674" s="1" t="str" cm="1">
         <f t="array" ref="B674">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A674)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14676,9 +13330,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="1">
-        <v>0</v>
-      </c>
+      <c r="A675" s="1"/>
       <c r="B675" s="1" t="str" cm="1">
         <f t="array" ref="B675">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A675)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14697,9 +13349,7 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="1">
-        <v>0</v>
-      </c>
+      <c r="A676" s="1"/>
       <c r="B676" s="1" t="str" cm="1">
         <f t="array" ref="B676">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A676)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14718,9 +13368,7 @@
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" s="1">
-        <v>0</v>
-      </c>
+      <c r="A677" s="1"/>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A677)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14739,9 +13387,7 @@
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" s="1">
-        <v>0</v>
-      </c>
+      <c r="A678" s="1"/>
       <c r="B678" s="1" t="str" cm="1">
         <f t="array" ref="B678">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A678)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14760,9 +13406,7 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="1">
-        <v>0</v>
-      </c>
+      <c r="A679" s="1"/>
       <c r="B679" s="1" t="str" cm="1">
         <f t="array" ref="B679">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A679)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14781,9 +13425,7 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" s="1">
-        <v>0</v>
-      </c>
+      <c r="A680" s="1"/>
       <c r="B680" s="1" t="str" cm="1">
         <f t="array" ref="B680">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A680)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14802,9 +13444,7 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="1">
-        <v>0</v>
-      </c>
+      <c r="A681" s="1"/>
       <c r="B681" s="1" t="str" cm="1">
         <f t="array" ref="B681">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A681)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14823,9 +13463,7 @@
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" s="1">
-        <v>0</v>
-      </c>
+      <c r="A682" s="1"/>
       <c r="B682" s="1" t="str" cm="1">
         <f t="array" ref="B682">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A682)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14844,9 +13482,7 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="1">
-        <v>0</v>
-      </c>
+      <c r="A683" s="1"/>
       <c r="B683" s="1" t="str" cm="1">
         <f t="array" ref="B683">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A683)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14865,9 +13501,7 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" s="1">
-        <v>0</v>
-      </c>
+      <c r="A684" s="1"/>
       <c r="B684" s="1" t="str" cm="1">
         <f t="array" ref="B684">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A684)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14886,9 +13520,7 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="1">
-        <v>0</v>
-      </c>
+      <c r="A685" s="1"/>
       <c r="B685" s="1" t="str" cm="1">
         <f t="array" ref="B685">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A685)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14907,9 +13539,7 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" s="1">
-        <v>0</v>
-      </c>
+      <c r="A686" s="1"/>
       <c r="B686" s="1" t="str" cm="1">
         <f t="array" ref="B686">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A686)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14928,9 +13558,7 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" s="1">
-        <v>0</v>
-      </c>
+      <c r="A687" s="1"/>
       <c r="B687" s="1" t="str" cm="1">
         <f t="array" ref="B687">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A687)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14949,9 +13577,7 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" s="1">
-        <v>1</v>
-      </c>
+      <c r="A688" s="1"/>
       <c r="B688" s="1" t="str" cm="1">
         <f t="array" ref="B688">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A688)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14970,9 +13596,7 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" s="1">
-        <v>1</v>
-      </c>
+      <c r="A689" s="1"/>
       <c r="B689" s="1" t="str" cm="1">
         <f t="array" ref="B689">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A689)-2)/175)+1)</f>
         <v>4TO</v>
@@ -14991,9 +13615,7 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" s="1">
-        <v>1</v>
-      </c>
+      <c r="A690" s="1"/>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A690)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15012,9 +13634,7 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" s="1">
-        <v>0</v>
-      </c>
+      <c r="A691" s="1"/>
       <c r="B691" s="1" t="str" cm="1">
         <f t="array" ref="B691">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A691)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15033,9 +13653,7 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" s="1">
-        <v>0</v>
-      </c>
+      <c r="A692" s="1"/>
       <c r="B692" s="1" t="str" cm="1">
         <f t="array" ref="B692">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A692)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15054,9 +13672,7 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" s="1">
-        <v>0</v>
-      </c>
+      <c r="A693" s="1"/>
       <c r="B693" s="1" t="str" cm="1">
         <f t="array" ref="B693">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A693)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15075,9 +13691,7 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" s="1">
-        <v>0</v>
-      </c>
+      <c r="A694" s="1"/>
       <c r="B694" s="1" t="str" cm="1">
         <f t="array" ref="B694">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A694)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15096,9 +13710,7 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" s="1">
-        <v>1</v>
-      </c>
+      <c r="A695" s="1"/>
       <c r="B695" s="1" t="str" cm="1">
         <f t="array" ref="B695">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A695)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15117,9 +13729,7 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="1">
-        <v>0</v>
-      </c>
+      <c r="A696" s="1"/>
       <c r="B696" s="1" t="str" cm="1">
         <f t="array" ref="B696">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A696)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15138,9 +13748,7 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" s="1">
-        <v>0</v>
-      </c>
+      <c r="A697" s="1"/>
       <c r="B697" s="1" t="str" cm="1">
         <f t="array" ref="B697">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A697)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15159,9 +13767,7 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" s="1">
-        <v>0</v>
-      </c>
+      <c r="A698" s="1"/>
       <c r="B698" s="1" t="str" cm="1">
         <f t="array" ref="B698">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A698)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15180,9 +13786,7 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" s="1">
-        <v>0</v>
-      </c>
+      <c r="A699" s="1"/>
       <c r="B699" s="1" t="str" cm="1">
         <f t="array" ref="B699">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A699)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15201,9 +13805,7 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="1">
-        <v>0</v>
-      </c>
+      <c r="A700" s="1"/>
       <c r="B700" s="1" t="str" cm="1">
         <f t="array" ref="B700">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A700)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15222,9 +13824,7 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="1">
-        <v>1</v>
-      </c>
+      <c r="A701" s="1"/>
       <c r="B701" s="1" t="str" cm="1">
         <f t="array" ref="B701">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A701)-2)/175)+1)</f>
         <v>4TO</v>
@@ -15243,9 +13843,7 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" s="1">
-        <v>0</v>
-      </c>
+      <c r="A702" s="1"/>
       <c r="B702" s="1" t="str" cm="1">
         <f t="array" ref="B702">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A702)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15264,9 +13862,7 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" s="1">
-        <v>0</v>
-      </c>
+      <c r="A703" s="1"/>
       <c r="B703" s="1" t="str" cm="1">
         <f t="array" ref="B703">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A703)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15285,9 +13881,7 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" s="1">
-        <v>0</v>
-      </c>
+      <c r="A704" s="1"/>
       <c r="B704" s="1" t="str" cm="1">
         <f t="array" ref="B704">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A704)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15306,9 +13900,7 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" s="1">
-        <v>0</v>
-      </c>
+      <c r="A705" s="1"/>
       <c r="B705" s="1" t="str" cm="1">
         <f t="array" ref="B705">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A705)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15327,9 +13919,7 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" s="1">
-        <v>0</v>
-      </c>
+      <c r="A706" s="1"/>
       <c r="B706" s="1" t="str" cm="1">
         <f t="array" ref="B706">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A706)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15348,9 +13938,7 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" s="1">
-        <v>0</v>
-      </c>
+      <c r="A707" s="1"/>
       <c r="B707" s="1" t="str" cm="1">
         <f t="array" ref="B707">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A707)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15369,9 +13957,7 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" s="1">
-        <v>0</v>
-      </c>
+      <c r="A708" s="1"/>
       <c r="B708" s="1" t="str" cm="1">
         <f t="array" ref="B708">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A708)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15390,9 +13976,7 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="1">
-        <v>0</v>
-      </c>
+      <c r="A709" s="1"/>
       <c r="B709" s="1" t="str" cm="1">
         <f t="array" ref="B709">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A709)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15411,9 +13995,7 @@
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" s="1">
-        <v>0</v>
-      </c>
+      <c r="A710" s="1"/>
       <c r="B710" s="1" t="str" cm="1">
         <f t="array" ref="B710">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A710)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15432,9 +14014,7 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" s="1">
-        <v>0</v>
-      </c>
+      <c r="A711" s="1"/>
       <c r="B711" s="1" t="str" cm="1">
         <f t="array" ref="B711">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A711)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15453,9 +14033,7 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="1">
-        <v>0</v>
-      </c>
+      <c r="A712" s="1"/>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A712)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15474,9 +14052,7 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="1">
-        <v>0</v>
-      </c>
+      <c r="A713" s="1"/>
       <c r="B713" s="1" t="str" cm="1">
         <f t="array" ref="B713">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A713)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15495,9 +14071,7 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" s="1">
-        <v>0</v>
-      </c>
+      <c r="A714" s="1"/>
       <c r="B714" s="1" t="str" cm="1">
         <f t="array" ref="B714">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A714)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15516,9 +14090,7 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="1">
-        <v>0</v>
-      </c>
+      <c r="A715" s="1"/>
       <c r="B715" s="1" t="str" cm="1">
         <f t="array" ref="B715">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A715)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15537,9 +14109,7 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" s="1">
-        <v>0</v>
-      </c>
+      <c r="A716" s="1"/>
       <c r="B716" s="1" t="str" cm="1">
         <f t="array" ref="B716">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A716)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15558,9 +14128,7 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" s="1">
-        <v>1</v>
-      </c>
+      <c r="A717" s="1"/>
       <c r="B717" s="1" t="str" cm="1">
         <f t="array" ref="B717">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A717)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15579,9 +14147,7 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" s="1">
-        <v>0</v>
-      </c>
+      <c r="A718" s="1"/>
       <c r="B718" s="1" t="str" cm="1">
         <f t="array" ref="B718">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A718)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15600,9 +14166,7 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="1">
-        <v>1</v>
-      </c>
+      <c r="A719" s="1"/>
       <c r="B719" s="1" t="str" cm="1">
         <f t="array" ref="B719">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A719)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15621,9 +14185,7 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" s="1">
-        <v>0</v>
-      </c>
+      <c r="A720" s="1"/>
       <c r="B720" s="1" t="str" cm="1">
         <f t="array" ref="B720">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A720)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15642,9 +14204,7 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="1">
-        <v>0</v>
-      </c>
+      <c r="A721" s="1"/>
       <c r="B721" s="1" t="str" cm="1">
         <f t="array" ref="B721">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A721)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15663,9 +14223,7 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="1">
-        <v>0</v>
-      </c>
+      <c r="A722" s="1"/>
       <c r="B722" s="1" t="str" cm="1">
         <f t="array" ref="B722">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A722)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15684,9 +14242,7 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="1">
-        <v>1</v>
-      </c>
+      <c r="A723" s="1"/>
       <c r="B723" s="1" t="str" cm="1">
         <f t="array" ref="B723">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A723)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15705,9 +14261,7 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="1">
-        <v>1</v>
-      </c>
+      <c r="A724" s="1"/>
       <c r="B724" s="1" t="str" cm="1">
         <f t="array" ref="B724">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A724)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15726,9 +14280,7 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="1">
-        <v>1</v>
-      </c>
+      <c r="A725" s="1"/>
       <c r="B725" s="1" t="str" cm="1">
         <f t="array" ref="B725">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A725)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15747,9 +14299,7 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" s="1">
-        <v>0</v>
-      </c>
+      <c r="A726" s="1"/>
       <c r="B726" s="1" t="str" cm="1">
         <f t="array" ref="B726">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A726)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15768,9 +14318,7 @@
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="1">
-        <v>0</v>
-      </c>
+      <c r="A727" s="1"/>
       <c r="B727" s="1" t="str" cm="1">
         <f t="array" ref="B727">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A727)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15789,9 +14337,7 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="1">
-        <v>0</v>
-      </c>
+      <c r="A728" s="1"/>
       <c r="B728" s="1" t="str" cm="1">
         <f t="array" ref="B728">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A728)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15810,9 +14356,7 @@
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="1">
-        <v>0</v>
-      </c>
+      <c r="A729" s="1"/>
       <c r="B729" s="1" t="str" cm="1">
         <f t="array" ref="B729">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A729)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15831,9 +14375,7 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="1">
-        <v>1</v>
-      </c>
+      <c r="A730" s="1"/>
       <c r="B730" s="1" t="str" cm="1">
         <f t="array" ref="B730">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A730)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15852,9 +14394,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="1">
-        <v>0</v>
-      </c>
+      <c r="A731" s="1"/>
       <c r="B731" s="1" t="str" cm="1">
         <f t="array" ref="B731">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A731)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15873,9 +14413,7 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="1">
-        <v>1</v>
-      </c>
+      <c r="A732" s="1"/>
       <c r="B732" s="1" t="str" cm="1">
         <f t="array" ref="B732">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A732)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15894,9 +14432,7 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="1">
-        <v>0</v>
-      </c>
+      <c r="A733" s="1"/>
       <c r="B733" s="1" t="str" cm="1">
         <f t="array" ref="B733">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A733)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15915,9 +14451,7 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="1">
-        <v>0</v>
-      </c>
+      <c r="A734" s="1"/>
       <c r="B734" s="1" t="str" cm="1">
         <f t="array" ref="B734">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A734)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15936,9 +14470,7 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" s="1">
-        <v>0</v>
-      </c>
+      <c r="A735" s="1"/>
       <c r="B735" s="1" t="str" cm="1">
         <f t="array" ref="B735">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A735)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15957,9 +14489,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" s="1">
-        <v>0</v>
-      </c>
+      <c r="A736" s="1"/>
       <c r="B736" s="1" t="str" cm="1">
         <f t="array" ref="B736">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A736)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15978,9 +14508,7 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="1">
-        <v>0</v>
-      </c>
+      <c r="A737" s="1"/>
       <c r="B737" s="1" t="str" cm="1">
         <f t="array" ref="B737">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A737)-2)/175)+1)</f>
         <v>5TO</v>
@@ -15999,9 +14527,7 @@
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="1">
-        <v>0</v>
-      </c>
+      <c r="A738" s="1"/>
       <c r="B738" s="1" t="str" cm="1">
         <f t="array" ref="B738">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A738)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16020,9 +14546,7 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="1">
-        <v>0</v>
-      </c>
+      <c r="A739" s="1"/>
       <c r="B739" s="1" t="str" cm="1">
         <f t="array" ref="B739">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A739)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16041,9 +14565,7 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="1">
-        <v>0</v>
-      </c>
+      <c r="A740" s="1"/>
       <c r="B740" s="1" t="str" cm="1">
         <f t="array" ref="B740">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A740)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16062,9 +14584,7 @@
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="1">
-        <v>0</v>
-      </c>
+      <c r="A741" s="1"/>
       <c r="B741" s="1" t="str" cm="1">
         <f t="array" ref="B741">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A741)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16083,9 +14603,7 @@
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="1">
-        <v>0</v>
-      </c>
+      <c r="A742" s="1"/>
       <c r="B742" s="1" t="str" cm="1">
         <f t="array" ref="B742">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A742)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16104,9 +14622,7 @@
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" s="1">
-        <v>1</v>
-      </c>
+      <c r="A743" s="1"/>
       <c r="B743" s="1" t="str" cm="1">
         <f t="array" ref="B743">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A743)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16125,9 +14641,7 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" s="1">
-        <v>1</v>
-      </c>
+      <c r="A744" s="1"/>
       <c r="B744" s="1" t="str" cm="1">
         <f t="array" ref="B744">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A744)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16146,9 +14660,7 @@
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="1">
-        <v>1</v>
-      </c>
+      <c r="A745" s="1"/>
       <c r="B745" s="1" t="str" cm="1">
         <f t="array" ref="B745">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A745)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16167,9 +14679,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" s="1">
-        <v>1</v>
-      </c>
+      <c r="A746" s="1"/>
       <c r="B746" s="1" t="str" cm="1">
         <f t="array" ref="B746">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A746)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16188,9 +14698,7 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" s="1">
-        <v>0</v>
-      </c>
+      <c r="A747" s="1"/>
       <c r="B747" s="1" t="str" cm="1">
         <f t="array" ref="B747">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A747)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16209,9 +14717,7 @@
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="1">
-        <v>0</v>
-      </c>
+      <c r="A748" s="1"/>
       <c r="B748" s="1" t="str" cm="1">
         <f t="array" ref="B748">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A748)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16230,9 +14736,7 @@
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" s="1">
-        <v>0</v>
-      </c>
+      <c r="A749" s="1"/>
       <c r="B749" s="1" t="str" cm="1">
         <f t="array" ref="B749">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A749)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16251,9 +14755,7 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" s="1">
-        <v>0</v>
-      </c>
+      <c r="A750" s="1"/>
       <c r="B750" s="1" t="str" cm="1">
         <f t="array" ref="B750">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A750)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16272,9 +14774,7 @@
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" s="1">
-        <v>1</v>
-      </c>
+      <c r="A751" s="1"/>
       <c r="B751" s="1" t="str" cm="1">
         <f t="array" ref="B751">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A751)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16293,9 +14793,7 @@
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" s="1">
-        <v>0</v>
-      </c>
+      <c r="A752" s="1"/>
       <c r="B752" s="1" t="str" cm="1">
         <f t="array" ref="B752">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A752)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16314,9 +14812,7 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" s="1">
-        <v>1</v>
-      </c>
+      <c r="A753" s="1"/>
       <c r="B753" s="1" t="str" cm="1">
         <f t="array" ref="B753">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A753)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16335,9 +14831,7 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="1">
-        <v>0</v>
-      </c>
+      <c r="A754" s="1"/>
       <c r="B754" s="1" t="str" cm="1">
         <f t="array" ref="B754">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A754)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16356,9 +14850,7 @@
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="1">
-        <v>0</v>
-      </c>
+      <c r="A755" s="1"/>
       <c r="B755" s="1" t="str" cm="1">
         <f t="array" ref="B755">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A755)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16377,9 +14869,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="1">
-        <v>1</v>
-      </c>
+      <c r="A756" s="1"/>
       <c r="B756" s="1" t="str" cm="1">
         <f t="array" ref="B756">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A756)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16398,9 +14888,7 @@
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" s="1">
-        <v>0</v>
-      </c>
+      <c r="A757" s="1"/>
       <c r="B757" s="1" t="str" cm="1">
         <f t="array" ref="B757">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A757)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16419,9 +14907,7 @@
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" s="1">
-        <v>0</v>
-      </c>
+      <c r="A758" s="1"/>
       <c r="B758" s="1" t="str" cm="1">
         <f t="array" ref="B758">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A758)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16440,9 +14926,7 @@
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" s="1">
-        <v>0</v>
-      </c>
+      <c r="A759" s="1"/>
       <c r="B759" s="1" t="str" cm="1">
         <f t="array" ref="B759">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A759)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16461,9 +14945,7 @@
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A760" s="1">
-        <v>0</v>
-      </c>
+      <c r="A760" s="1"/>
       <c r="B760" s="1" t="str" cm="1">
         <f t="array" ref="B760">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A760)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16482,9 +14964,7 @@
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A761" s="1">
-        <v>0</v>
-      </c>
+      <c r="A761" s="1"/>
       <c r="B761" s="1" t="str" cm="1">
         <f t="array" ref="B761">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A761)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16503,9 +14983,7 @@
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A762" s="1">
-        <v>0</v>
-      </c>
+      <c r="A762" s="1"/>
       <c r="B762" s="1" t="str" cm="1">
         <f t="array" ref="B762">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A762)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16524,9 +15002,7 @@
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A763" s="1">
-        <v>0</v>
-      </c>
+      <c r="A763" s="1"/>
       <c r="B763" s="1" t="str" cm="1">
         <f t="array" ref="B763">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A763)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16545,9 +15021,7 @@
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" s="1">
-        <v>0</v>
-      </c>
+      <c r="A764" s="1"/>
       <c r="B764" s="1" t="str" cm="1">
         <f t="array" ref="B764">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A764)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16566,9 +15040,7 @@
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" s="1">
-        <v>0</v>
-      </c>
+      <c r="A765" s="1"/>
       <c r="B765" s="1" t="str" cm="1">
         <f t="array" ref="B765">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A765)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16587,9 +15059,7 @@
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" s="1">
-        <v>0</v>
-      </c>
+      <c r="A766" s="1"/>
       <c r="B766" s="1" t="str" cm="1">
         <f t="array" ref="B766">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A766)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16608,9 +15078,7 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" s="1">
-        <v>0</v>
-      </c>
+      <c r="A767" s="1"/>
       <c r="B767" s="1" t="str" cm="1">
         <f t="array" ref="B767">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A767)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16629,9 +15097,7 @@
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" s="1">
-        <v>0</v>
-      </c>
+      <c r="A768" s="1"/>
       <c r="B768" s="1" t="str" cm="1">
         <f t="array" ref="B768">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A768)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16650,9 +15116,7 @@
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" s="1">
-        <v>0</v>
-      </c>
+      <c r="A769" s="1"/>
       <c r="B769" s="1" t="str" cm="1">
         <f t="array" ref="B769">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A769)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16671,9 +15135,7 @@
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" s="1">
-        <v>0</v>
-      </c>
+      <c r="A770" s="1"/>
       <c r="B770" s="1" t="str" cm="1">
         <f t="array" ref="B770">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A770)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16692,9 +15154,7 @@
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="1">
-        <v>0</v>
-      </c>
+      <c r="A771" s="1"/>
       <c r="B771" s="1" t="str" cm="1">
         <f t="array" ref="B771">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A771)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16713,9 +15173,7 @@
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" s="1">
-        <v>0</v>
-      </c>
+      <c r="A772" s="1"/>
       <c r="B772" s="1" t="str" cm="1">
         <f t="array" ref="B772">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A772)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16734,9 +15192,7 @@
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" s="1">
-        <v>0</v>
-      </c>
+      <c r="A773" s="1"/>
       <c r="B773" s="1" t="str" cm="1">
         <f t="array" ref="B773">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A773)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16755,9 +15211,7 @@
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" s="1">
-        <v>0</v>
-      </c>
+      <c r="A774" s="1"/>
       <c r="B774" s="1" t="str" cm="1">
         <f t="array" ref="B774">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A774)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16776,9 +15230,7 @@
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="1">
-        <v>0</v>
-      </c>
+      <c r="A775" s="1"/>
       <c r="B775" s="1" t="str" cm="1">
         <f t="array" ref="B775">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A775)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16797,9 +15249,7 @@
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="1">
-        <v>0</v>
-      </c>
+      <c r="A776" s="1"/>
       <c r="B776" s="1" t="str" cm="1">
         <f t="array" ref="B776">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A776)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16818,9 +15268,7 @@
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="1">
-        <v>0</v>
-      </c>
+      <c r="A777" s="1"/>
       <c r="B777" s="1" t="str" cm="1">
         <f t="array" ref="B777">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A777)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16839,9 +15287,7 @@
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="1">
-        <v>0</v>
-      </c>
+      <c r="A778" s="1"/>
       <c r="B778" s="1" t="str" cm="1">
         <f t="array" ref="B778">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A778)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16860,9 +15306,7 @@
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="1">
-        <v>0</v>
-      </c>
+      <c r="A779" s="1"/>
       <c r="B779" s="1" t="str" cm="1">
         <f t="array" ref="B779">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A779)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16881,9 +15325,7 @@
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="1">
-        <v>0</v>
-      </c>
+      <c r="A780" s="1"/>
       <c r="B780" s="1" t="str" cm="1">
         <f t="array" ref="B780">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A780)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16902,9 +15344,7 @@
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="1">
-        <v>0</v>
-      </c>
+      <c r="A781" s="1"/>
       <c r="B781" s="1" t="str" cm="1">
         <f t="array" ref="B781">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A781)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16923,9 +15363,7 @@
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="1">
-        <v>0</v>
-      </c>
+      <c r="A782" s="1"/>
       <c r="B782" s="1" t="str" cm="1">
         <f t="array" ref="B782">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A782)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16944,9 +15382,7 @@
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="1">
-        <v>1</v>
-      </c>
+      <c r="A783" s="1"/>
       <c r="B783" s="1" t="str" cm="1">
         <f t="array" ref="B783">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A783)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16965,9 +15401,7 @@
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="1">
-        <v>1</v>
-      </c>
+      <c r="A784" s="1"/>
       <c r="B784" s="1" t="str" cm="1">
         <f t="array" ref="B784">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A784)-2)/175)+1)</f>
         <v>5TO</v>
@@ -16986,9 +15420,7 @@
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="1">
-        <v>1</v>
-      </c>
+      <c r="A785" s="1"/>
       <c r="B785" s="1" t="str" cm="1">
         <f t="array" ref="B785">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A785)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17007,9 +15439,7 @@
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="1">
-        <v>0</v>
-      </c>
+      <c r="A786" s="1"/>
       <c r="B786" s="1" t="str" cm="1">
         <f t="array" ref="B786">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A786)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17028,9 +15458,7 @@
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="1">
-        <v>0</v>
-      </c>
+      <c r="A787" s="1"/>
       <c r="B787" s="1" t="str" cm="1">
         <f t="array" ref="B787">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A787)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17049,9 +15477,7 @@
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="1">
-        <v>0</v>
-      </c>
+      <c r="A788" s="1"/>
       <c r="B788" s="1" t="str" cm="1">
         <f t="array" ref="B788">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A788)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17070,9 +15496,7 @@
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="1">
-        <v>0</v>
-      </c>
+      <c r="A789" s="1"/>
       <c r="B789" s="1" t="str" cm="1">
         <f t="array" ref="B789">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A789)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17091,9 +15515,7 @@
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="1">
-        <v>1</v>
-      </c>
+      <c r="A790" s="1"/>
       <c r="B790" s="1" t="str" cm="1">
         <f t="array" ref="B790">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A790)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17112,9 +15534,7 @@
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="1">
-        <v>0</v>
-      </c>
+      <c r="A791" s="1"/>
       <c r="B791" s="1" t="str" cm="1">
         <f t="array" ref="B791">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A791)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17133,9 +15553,7 @@
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="1">
-        <v>1</v>
-      </c>
+      <c r="A792" s="1"/>
       <c r="B792" s="1" t="str" cm="1">
         <f t="array" ref="B792">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A792)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17154,9 +15572,7 @@
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="1">
-        <v>0</v>
-      </c>
+      <c r="A793" s="1"/>
       <c r="B793" s="1" t="str" cm="1">
         <f t="array" ref="B793">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A793)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17175,9 +15591,7 @@
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="1">
-        <v>0</v>
-      </c>
+      <c r="A794" s="1"/>
       <c r="B794" s="1" t="str" cm="1">
         <f t="array" ref="B794">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A794)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17196,9 +15610,7 @@
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" s="1">
-        <v>0</v>
-      </c>
+      <c r="A795" s="1"/>
       <c r="B795" s="1" t="str" cm="1">
         <f t="array" ref="B795">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A795)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17217,9 +15629,7 @@
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" s="1">
-        <v>1</v>
-      </c>
+      <c r="A796" s="1"/>
       <c r="B796" s="1" t="str" cm="1">
         <f t="array" ref="B796">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A796)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17238,9 +15648,7 @@
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="1">
-        <v>1</v>
-      </c>
+      <c r="A797" s="1"/>
       <c r="B797" s="1" t="str" cm="1">
         <f t="array" ref="B797">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A797)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17259,9 +15667,7 @@
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" s="1">
-        <v>0</v>
-      </c>
+      <c r="A798" s="1"/>
       <c r="B798" s="1" t="str" cm="1">
         <f t="array" ref="B798">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A798)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17280,9 +15686,7 @@
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" s="1">
-        <v>0</v>
-      </c>
+      <c r="A799" s="1"/>
       <c r="B799" s="1" t="str" cm="1">
         <f t="array" ref="B799">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A799)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17301,9 +15705,7 @@
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" s="1">
-        <v>0</v>
-      </c>
+      <c r="A800" s="1"/>
       <c r="B800" s="1" t="str" cm="1">
         <f t="array" ref="B800">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A800)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17322,9 +15724,7 @@
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" s="1">
-        <v>0</v>
-      </c>
+      <c r="A801" s="1"/>
       <c r="B801" s="1" t="str" cm="1">
         <f t="array" ref="B801">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A801)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17343,9 +15743,7 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" s="1">
-        <v>0</v>
-      </c>
+      <c r="A802" s="1"/>
       <c r="B802" s="1" t="str" cm="1">
         <f t="array" ref="B802">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A802)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17364,9 +15762,7 @@
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" s="1">
-        <v>0</v>
-      </c>
+      <c r="A803" s="1"/>
       <c r="B803" s="1" t="str" cm="1">
         <f t="array" ref="B803">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A803)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17385,9 +15781,7 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="1">
-        <v>0</v>
-      </c>
+      <c r="A804" s="1"/>
       <c r="B804" s="1" t="str" cm="1">
         <f t="array" ref="B804">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A804)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17406,9 +15800,7 @@
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" s="1">
-        <v>0</v>
-      </c>
+      <c r="A805" s="1"/>
       <c r="B805" s="1" t="str" cm="1">
         <f t="array" ref="B805">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A805)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17427,9 +15819,7 @@
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="1">
-        <v>0</v>
-      </c>
+      <c r="A806" s="1"/>
       <c r="B806" s="1" t="str" cm="1">
         <f t="array" ref="B806">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A806)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17448,9 +15838,7 @@
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" s="1">
-        <v>0</v>
-      </c>
+      <c r="A807" s="1"/>
       <c r="B807" s="1" t="str" cm="1">
         <f t="array" ref="B807">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A807)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17469,9 +15857,7 @@
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" s="1">
-        <v>0</v>
-      </c>
+      <c r="A808" s="1"/>
       <c r="B808" s="1" t="str" cm="1">
         <f t="array" ref="B808">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A808)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17490,9 +15876,7 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" s="1">
-        <v>0</v>
-      </c>
+      <c r="A809" s="1"/>
       <c r="B809" s="1" t="str" cm="1">
         <f t="array" ref="B809">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A809)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17511,9 +15895,7 @@
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="1">
-        <v>1</v>
-      </c>
+      <c r="A810" s="1"/>
       <c r="B810" s="1" t="str" cm="1">
         <f t="array" ref="B810">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A810)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17532,9 +15914,7 @@
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="1">
-        <v>1</v>
-      </c>
+      <c r="A811" s="1"/>
       <c r="B811" s="1" t="str" cm="1">
         <f t="array" ref="B811">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A811)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17553,9 +15933,7 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" s="1">
-        <v>1</v>
-      </c>
+      <c r="A812" s="1"/>
       <c r="B812" s="1" t="str" cm="1">
         <f t="array" ref="B812">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A812)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17574,9 +15952,7 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="1">
-        <v>0</v>
-      </c>
+      <c r="A813" s="1"/>
       <c r="B813" s="1" t="str" cm="1">
         <f t="array" ref="B813">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A813)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17595,9 +15971,7 @@
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" s="1">
-        <v>0</v>
-      </c>
+      <c r="A814" s="1"/>
       <c r="B814" s="1" t="str" cm="1">
         <f t="array" ref="B814">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A814)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17616,9 +15990,7 @@
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" s="1">
-        <v>0</v>
-      </c>
+      <c r="A815" s="1"/>
       <c r="B815" s="1" t="str" cm="1">
         <f t="array" ref="B815">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A815)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17637,9 +16009,7 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" s="1">
-        <v>0</v>
-      </c>
+      <c r="A816" s="1"/>
       <c r="B816" s="1" t="str" cm="1">
         <f t="array" ref="B816">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A816)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17658,9 +16028,7 @@
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" s="1">
-        <v>1</v>
-      </c>
+      <c r="A817" s="1"/>
       <c r="B817" s="1" t="str" cm="1">
         <f t="array" ref="B817">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A817)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17679,9 +16047,7 @@
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A818" s="1">
-        <v>0</v>
-      </c>
+      <c r="A818" s="1"/>
       <c r="B818" s="1" t="str" cm="1">
         <f t="array" ref="B818">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A818)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17700,9 +16066,7 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819" s="1">
-        <v>0</v>
-      </c>
+      <c r="A819" s="1"/>
       <c r="B819" s="1" t="str" cm="1">
         <f t="array" ref="B819">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A819)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17721,9 +16085,7 @@
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A820" s="1">
-        <v>0</v>
-      </c>
+      <c r="A820" s="1"/>
       <c r="B820" s="1" t="str" cm="1">
         <f t="array" ref="B820">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A820)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17742,9 +16104,7 @@
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" s="1">
-        <v>0</v>
-      </c>
+      <c r="A821" s="1"/>
       <c r="B821" s="1" t="str" cm="1">
         <f t="array" ref="B821">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A821)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17763,9 +16123,7 @@
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" s="1">
-        <v>0</v>
-      </c>
+      <c r="A822" s="1"/>
       <c r="B822" s="1" t="str" cm="1">
         <f t="array" ref="B822">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A822)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17784,9 +16142,7 @@
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="1">
-        <v>0</v>
-      </c>
+      <c r="A823" s="1"/>
       <c r="B823" s="1" t="str" cm="1">
         <f t="array" ref="B823">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A823)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17805,9 +16161,7 @@
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" s="1">
-        <v>0</v>
-      </c>
+      <c r="A824" s="1"/>
       <c r="B824" s="1" t="str" cm="1">
         <f t="array" ref="B824">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A824)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17826,9 +16180,7 @@
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" s="1">
-        <v>0</v>
-      </c>
+      <c r="A825" s="1"/>
       <c r="B825" s="1" t="str" cm="1">
         <f t="array" ref="B825">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A825)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17847,9 +16199,7 @@
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" s="1">
-        <v>0</v>
-      </c>
+      <c r="A826" s="1"/>
       <c r="B826" s="1" t="str" cm="1">
         <f t="array" ref="B826">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A826)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17868,9 +16218,7 @@
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" s="1">
-        <v>0</v>
-      </c>
+      <c r="A827" s="1"/>
       <c r="B827" s="1" t="str" cm="1">
         <f t="array" ref="B827">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A827)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17889,9 +16237,7 @@
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" s="1">
-        <v>0</v>
-      </c>
+      <c r="A828" s="1"/>
       <c r="B828" s="1" t="str" cm="1">
         <f t="array" ref="B828">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A828)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17910,9 +16256,7 @@
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" s="1">
-        <v>0</v>
-      </c>
+      <c r="A829" s="1"/>
       <c r="B829" s="1" t="str" cm="1">
         <f t="array" ref="B829">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A829)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17931,9 +16275,7 @@
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="1">
-        <v>0</v>
-      </c>
+      <c r="A830" s="1"/>
       <c r="B830" s="1" t="str" cm="1">
         <f t="array" ref="B830">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A830)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17952,9 +16294,7 @@
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" s="1">
-        <v>0</v>
-      </c>
+      <c r="A831" s="1"/>
       <c r="B831" s="1" t="str" cm="1">
         <f t="array" ref="B831">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A831)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17973,9 +16313,7 @@
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" s="1">
-        <v>0</v>
-      </c>
+      <c r="A832" s="1"/>
       <c r="B832" s="1" t="str" cm="1">
         <f t="array" ref="B832">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A832)-2)/175)+1)</f>
         <v>5TO</v>
@@ -17994,9 +16332,7 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="1">
-        <v>0</v>
-      </c>
+      <c r="A833" s="1"/>
       <c r="B833" s="1" t="str" cm="1">
         <f t="array" ref="B833">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A833)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18015,9 +16351,7 @@
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="1">
-        <v>0</v>
-      </c>
+      <c r="A834" s="1"/>
       <c r="B834" s="1" t="str" cm="1">
         <f t="array" ref="B834">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A834)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18036,9 +16370,7 @@
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="1">
-        <v>0</v>
-      </c>
+      <c r="A835" s="1"/>
       <c r="B835" s="1" t="str" cm="1">
         <f t="array" ref="B835">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A835)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18057,9 +16389,7 @@
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="1">
-        <v>0</v>
-      </c>
+      <c r="A836" s="1"/>
       <c r="B836" s="1" t="str" cm="1">
         <f t="array" ref="B836">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A836)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18078,9 +16408,7 @@
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="1">
-        <v>0</v>
-      </c>
+      <c r="A837" s="1"/>
       <c r="B837" s="1" t="str" cm="1">
         <f t="array" ref="B837">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A837)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18099,9 +16427,7 @@
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="1">
-        <v>1</v>
-      </c>
+      <c r="A838" s="1"/>
       <c r="B838" s="1" t="str" cm="1">
         <f t="array" ref="B838">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A838)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18120,9 +16446,7 @@
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" s="1">
-        <v>1</v>
-      </c>
+      <c r="A839" s="1"/>
       <c r="B839" s="1" t="str" cm="1">
         <f t="array" ref="B839">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A839)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18141,9 +16465,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" s="1">
-        <v>0</v>
-      </c>
+      <c r="A840" s="1"/>
       <c r="B840" s="1" t="str" cm="1">
         <f t="array" ref="B840">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A840)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18162,9 +16484,7 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" s="1">
-        <v>1</v>
-      </c>
+      <c r="A841" s="1"/>
       <c r="B841" s="1" t="str" cm="1">
         <f t="array" ref="B841">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A841)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18183,9 +16503,7 @@
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" s="1">
-        <v>1</v>
-      </c>
+      <c r="A842" s="1"/>
       <c r="B842" s="1" t="str" cm="1">
         <f t="array" ref="B842">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A842)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18204,9 +16522,7 @@
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="1">
-        <v>1</v>
-      </c>
+      <c r="A843" s="1"/>
       <c r="B843" s="1" t="str" cm="1">
         <f t="array" ref="B843">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A843)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18225,9 +16541,7 @@
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" s="1">
-        <v>1</v>
-      </c>
+      <c r="A844" s="1"/>
       <c r="B844" s="1" t="str" cm="1">
         <f t="array" ref="B844">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A844)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18246,9 +16560,7 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" s="1">
-        <v>0</v>
-      </c>
+      <c r="A845" s="1"/>
       <c r="B845" s="1" t="str" cm="1">
         <f t="array" ref="B845">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A845)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18267,9 +16579,7 @@
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" s="1">
-        <v>0</v>
-      </c>
+      <c r="A846" s="1"/>
       <c r="B846" s="1" t="str" cm="1">
         <f t="array" ref="B846">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A846)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18288,9 +16598,7 @@
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" s="1">
-        <v>0</v>
-      </c>
+      <c r="A847" s="1"/>
       <c r="B847" s="1" t="str" cm="1">
         <f t="array" ref="B847">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A847)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18309,9 +16617,7 @@
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" s="1">
-        <v>0</v>
-      </c>
+      <c r="A848" s="1"/>
       <c r="B848" s="1" t="str" cm="1">
         <f t="array" ref="B848">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A848)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18330,9 +16636,7 @@
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" s="1">
-        <v>0</v>
-      </c>
+      <c r="A849" s="1"/>
       <c r="B849" s="1" t="str" cm="1">
         <f t="array" ref="B849">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A849)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18351,9 +16655,7 @@
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" s="1">
-        <v>0</v>
-      </c>
+      <c r="A850" s="1"/>
       <c r="B850" s="1" t="str" cm="1">
         <f t="array" ref="B850">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A850)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18372,9 +16674,7 @@
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" s="1">
-        <v>0</v>
-      </c>
+      <c r="A851" s="1"/>
       <c r="B851" s="1" t="str" cm="1">
         <f t="array" ref="B851">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A851)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18393,9 +16693,7 @@
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" s="1">
-        <v>0</v>
-      </c>
+      <c r="A852" s="1"/>
       <c r="B852" s="1" t="str" cm="1">
         <f t="array" ref="B852">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A852)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18414,9 +16712,7 @@
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A853" s="1">
-        <v>0</v>
-      </c>
+      <c r="A853" s="1"/>
       <c r="B853" s="1" t="str" cm="1">
         <f t="array" ref="B853">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A853)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18435,9 +16731,7 @@
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A854" s="1">
-        <v>0</v>
-      </c>
+      <c r="A854" s="1"/>
       <c r="B854" s="1" t="str" cm="1">
         <f t="array" ref="B854">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A854)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18456,9 +16750,7 @@
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A855" s="1">
-        <v>0</v>
-      </c>
+      <c r="A855" s="1"/>
       <c r="B855" s="1" t="str" cm="1">
         <f t="array" ref="B855">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A855)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18477,9 +16769,7 @@
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A856" s="1">
-        <v>0</v>
-      </c>
+      <c r="A856" s="1"/>
       <c r="B856" s="1" t="str" cm="1">
         <f t="array" ref="B856">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A856)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18498,9 +16788,7 @@
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A857" s="1">
-        <v>0</v>
-      </c>
+      <c r="A857" s="1"/>
       <c r="B857" s="1" t="str" cm="1">
         <f t="array" ref="B857">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A857)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18519,9 +16807,7 @@
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A858" s="1">
-        <v>0</v>
-      </c>
+      <c r="A858" s="1"/>
       <c r="B858" s="1" t="str" cm="1">
         <f t="array" ref="B858">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A858)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18540,9 +16826,7 @@
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A859" s="1">
-        <v>0</v>
-      </c>
+      <c r="A859" s="1"/>
       <c r="B859" s="1" t="str" cm="1">
         <f t="array" ref="B859">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A859)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18561,9 +16845,7 @@
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A860" s="1">
-        <v>0</v>
-      </c>
+      <c r="A860" s="1"/>
       <c r="B860" s="1" t="str" cm="1">
         <f t="array" ref="B860">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A860)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18582,9 +16864,7 @@
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A861" s="1">
-        <v>0</v>
-      </c>
+      <c r="A861" s="1"/>
       <c r="B861" s="1" t="str" cm="1">
         <f t="array" ref="B861">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A861)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18603,9 +16883,7 @@
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862" s="1">
-        <v>0</v>
-      </c>
+      <c r="A862" s="1"/>
       <c r="B862" s="1" t="str" cm="1">
         <f t="array" ref="B862">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A862)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18624,9 +16902,7 @@
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A863" s="1">
-        <v>0</v>
-      </c>
+      <c r="A863" s="1"/>
       <c r="B863" s="1" t="str" cm="1">
         <f t="array" ref="B863">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A863)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18645,9 +16921,7 @@
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A864" s="1">
-        <v>0</v>
-      </c>
+      <c r="A864" s="1"/>
       <c r="B864" s="1" t="str" cm="1">
         <f t="array" ref="B864">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A864)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18666,9 +16940,7 @@
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" s="1">
-        <v>0</v>
-      </c>
+      <c r="A865" s="1"/>
       <c r="B865" s="1" t="str" cm="1">
         <f t="array" ref="B865">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A865)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18687,9 +16959,7 @@
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" s="1">
-        <v>0</v>
-      </c>
+      <c r="A866" s="1"/>
       <c r="B866" s="1" t="str" cm="1">
         <f t="array" ref="B866">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A866)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18708,9 +16978,7 @@
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A867" s="1">
-        <v>0</v>
-      </c>
+      <c r="A867" s="1"/>
       <c r="B867" s="1" t="str" cm="1">
         <f t="array" ref="B867">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A867)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18729,9 +16997,7 @@
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A868" s="1">
-        <v>1</v>
-      </c>
+      <c r="A868" s="1"/>
       <c r="B868" s="1" t="str" cm="1">
         <f t="array" ref="B868">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A868)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18750,9 +17016,7 @@
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A869" s="1">
-        <v>1</v>
-      </c>
+      <c r="A869" s="1"/>
       <c r="B869" s="1" t="str" cm="1">
         <f t="array" ref="B869">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A869)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18771,9 +17035,7 @@
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" s="1">
-        <v>0</v>
-      </c>
+      <c r="A870" s="1"/>
       <c r="B870" s="1" t="str" cm="1">
         <f t="array" ref="B870">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A870)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18792,9 +17054,7 @@
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A871" s="1">
-        <v>1</v>
-      </c>
+      <c r="A871" s="1"/>
       <c r="B871" s="1" t="str" cm="1">
         <f t="array" ref="B871">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A871)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18813,9 +17073,7 @@
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872" s="1">
-        <v>0</v>
-      </c>
+      <c r="A872" s="1"/>
       <c r="B872" s="1" t="str" cm="1">
         <f t="array" ref="B872">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A872)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18834,9 +17092,7 @@
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A873" s="1">
-        <v>0</v>
-      </c>
+      <c r="A873" s="1"/>
       <c r="B873" s="1" t="str" cm="1">
         <f t="array" ref="B873">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A873)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18855,9 +17111,7 @@
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A874" s="1">
-        <v>0</v>
-      </c>
+      <c r="A874" s="1"/>
       <c r="B874" s="1" t="str" cm="1">
         <f t="array" ref="B874">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A874)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18876,9 +17130,7 @@
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A875" s="1">
-        <v>1</v>
-      </c>
+      <c r="A875" s="1"/>
       <c r="B875" s="1" t="str" cm="1">
         <f t="array" ref="B875">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A875)-2)/175)+1)</f>
         <v>5TO</v>
@@ -18897,9 +17149,7 @@
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A876" s="1">
-        <v>0</v>
-      </c>
+      <c r="A876" s="1"/>
       <c r="B876" s="1" t="str" cm="1">
         <f t="array" ref="B876">INDEX({"1ERO";"2DO";"3RO";"4TO";"5TO"}, INT((ROW(A876)-2)/175)+1)</f>
         <v>5TO</v>
